--- a/AAII_Financials/Quarterly/BMA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BMA_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="92">
   <si>
     <t>BMA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,118 +665,124 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>588200</v>
+        <v>480400</v>
       </c>
       <c r="E8" s="3">
-        <v>518000</v>
+        <v>520900</v>
       </c>
       <c r="F8" s="3">
-        <v>403200</v>
+        <v>458700</v>
       </c>
       <c r="G8" s="3">
-        <v>393700</v>
+        <v>357100</v>
       </c>
       <c r="H8" s="3">
-        <v>277900</v>
+        <v>348600</v>
       </c>
       <c r="I8" s="3">
-        <v>225100</v>
+        <v>246100</v>
       </c>
       <c r="J8" s="3">
+        <v>199300</v>
+      </c>
+      <c r="K8" s="3">
         <v>187400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>239600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>203500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>179400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>195300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>198300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>194100</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -819,8 +825,11 @@
       <c r="P9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -863,8 +872,11 @@
       <c r="P10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,8 +893,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -925,8 +938,11 @@
       <c r="P12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,8 +985,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1013,52 +1032,58 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-6000</v>
+        <v>-5800</v>
       </c>
       <c r="E15" s="3">
-        <v>-5300</v>
+        <v>-5400</v>
       </c>
       <c r="F15" s="3">
-        <v>-4800</v>
+        <v>-4700</v>
       </c>
       <c r="G15" s="3">
-        <v>-3500</v>
+        <v>-4200</v>
       </c>
       <c r="H15" s="3">
         <v>-3100</v>
       </c>
       <c r="I15" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="J15" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="K15" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="L15" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="M15" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="N15" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="O15" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="P15" s="3">
         <v>-2900</v>
       </c>
-      <c r="J15" s="3">
+      <c r="Q15" s="3">
         <v>-2700</v>
       </c>
-      <c r="K15" s="3">
-        <v>-5900</v>
-      </c>
-      <c r="L15" s="3">
-        <v>-5000</v>
-      </c>
-      <c r="M15" s="3">
-        <v>-4500</v>
-      </c>
-      <c r="N15" s="3">
-        <v>-5000</v>
-      </c>
-      <c r="O15" s="3">
-        <v>-2900</v>
-      </c>
-      <c r="P15" s="3">
-        <v>-2700</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1097,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>270200</v>
+        <v>177000</v>
       </c>
       <c r="E17" s="3">
-        <v>254500</v>
+        <v>239300</v>
       </c>
       <c r="F17" s="3">
-        <v>225100</v>
+        <v>225400</v>
       </c>
       <c r="G17" s="3">
-        <v>204300</v>
+        <v>199400</v>
       </c>
       <c r="H17" s="3">
-        <v>119300</v>
+        <v>181000</v>
       </c>
       <c r="I17" s="3">
-        <v>84200</v>
+        <v>105700</v>
       </c>
       <c r="J17" s="3">
+        <v>74600</v>
+      </c>
+      <c r="K17" s="3">
         <v>65500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>79300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>71700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>64600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>69100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>96500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>96400</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>317900</v>
+        <v>303400</v>
       </c>
       <c r="E18" s="3">
-        <v>263400</v>
+        <v>281600</v>
       </c>
       <c r="F18" s="3">
-        <v>178100</v>
+        <v>233300</v>
       </c>
       <c r="G18" s="3">
-        <v>189300</v>
+        <v>157800</v>
       </c>
       <c r="H18" s="3">
-        <v>158500</v>
+        <v>167700</v>
       </c>
       <c r="I18" s="3">
-        <v>140900</v>
+        <v>140400</v>
       </c>
       <c r="J18" s="3">
+        <v>124700</v>
+      </c>
+      <c r="K18" s="3">
         <v>121900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>160300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>131700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>114800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>126200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>101800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>97600</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,96 +1210,103 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-121300</v>
+        <v>-62400</v>
       </c>
       <c r="E20" s="3">
-        <v>-99700</v>
+        <v>-107400</v>
       </c>
       <c r="F20" s="3">
-        <v>-4400</v>
+        <v>-88300</v>
       </c>
       <c r="G20" s="3">
-        <v>-63800</v>
+        <v>-3900</v>
       </c>
       <c r="H20" s="3">
-        <v>-66800</v>
+        <v>-57200</v>
       </c>
       <c r="I20" s="3">
-        <v>-68000</v>
+        <v>-59200</v>
       </c>
       <c r="J20" s="3">
+        <v>-60200</v>
+      </c>
+      <c r="K20" s="3">
         <v>-36100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-62700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-33700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-35900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-44500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-35400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-31300</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>202700</v>
+        <v>246800</v>
       </c>
       <c r="E21" s="3">
-        <v>169000</v>
+        <v>179500</v>
       </c>
       <c r="F21" s="3">
-        <v>178500</v>
+        <v>149700</v>
       </c>
       <c r="G21" s="3">
-        <v>129100</v>
+        <v>158100</v>
       </c>
       <c r="H21" s="3">
-        <v>94800</v>
+        <v>113600</v>
       </c>
       <c r="I21" s="3">
-        <v>75700</v>
+        <v>84000</v>
       </c>
       <c r="J21" s="3">
+        <v>67100</v>
+      </c>
+      <c r="K21" s="3">
         <v>88500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>101700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>101400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>81800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>85100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>66600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>66500</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1310,96 +1349,105 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>196600</v>
+        <v>240900</v>
       </c>
       <c r="E23" s="3">
-        <v>163700</v>
+        <v>174200</v>
       </c>
       <c r="F23" s="3">
-        <v>173700</v>
+        <v>145000</v>
       </c>
       <c r="G23" s="3">
-        <v>125500</v>
+        <v>153900</v>
       </c>
       <c r="H23" s="3">
-        <v>91700</v>
+        <v>110500</v>
       </c>
       <c r="I23" s="3">
-        <v>72900</v>
+        <v>81300</v>
       </c>
       <c r="J23" s="3">
+        <v>64500</v>
+      </c>
+      <c r="K23" s="3">
         <v>85800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>97600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>98000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>78800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>81700</v>
-      </c>
-      <c r="O23" s="3">
-        <v>66400</v>
       </c>
       <c r="P23" s="3">
         <v>66400</v>
       </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3">
+        <v>66400</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-20900</v>
+        <v>46700</v>
       </c>
       <c r="E24" s="3">
-        <v>47500</v>
+        <v>-18500</v>
       </c>
       <c r="F24" s="3">
-        <v>52300</v>
+        <v>42100</v>
       </c>
       <c r="G24" s="3">
-        <v>38900</v>
+        <v>46400</v>
       </c>
       <c r="H24" s="3">
-        <v>28400</v>
+        <v>34400</v>
       </c>
       <c r="I24" s="3">
-        <v>21000</v>
+        <v>25100</v>
       </c>
       <c r="J24" s="3">
+        <v>18600</v>
+      </c>
+      <c r="K24" s="3">
         <v>26900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>25800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>34900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>27400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>28700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>22000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>23600</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1490,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>217500</v>
+        <v>194200</v>
       </c>
       <c r="E26" s="3">
-        <v>116200</v>
+        <v>192600</v>
       </c>
       <c r="F26" s="3">
-        <v>121400</v>
+        <v>103000</v>
       </c>
       <c r="G26" s="3">
-        <v>86700</v>
+        <v>107500</v>
       </c>
       <c r="H26" s="3">
-        <v>63300</v>
+        <v>76100</v>
       </c>
       <c r="I26" s="3">
-        <v>51900</v>
+        <v>56100</v>
       </c>
       <c r="J26" s="3">
+        <v>45900</v>
+      </c>
+      <c r="K26" s="3">
         <v>58900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>71800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>63200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>51500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>53000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>44400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>42700</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>217500</v>
+        <v>194200</v>
       </c>
       <c r="E27" s="3">
-        <v>116200</v>
+        <v>192600</v>
       </c>
       <c r="F27" s="3">
-        <v>121400</v>
+        <v>103000</v>
       </c>
       <c r="G27" s="3">
-        <v>86700</v>
+        <v>107500</v>
       </c>
       <c r="H27" s="3">
-        <v>63300</v>
+        <v>76800</v>
       </c>
       <c r="I27" s="3">
-        <v>51500</v>
+        <v>56000</v>
       </c>
       <c r="J27" s="3">
+        <v>45600</v>
+      </c>
+      <c r="K27" s="3">
         <v>58600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>71200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>62700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>51000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>52500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>44400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>42700</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1631,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1678,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1725,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,96 +1772,105 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>121300</v>
+        <v>62400</v>
       </c>
       <c r="E32" s="3">
-        <v>99700</v>
+        <v>107400</v>
       </c>
       <c r="F32" s="3">
-        <v>4400</v>
+        <v>88300</v>
       </c>
       <c r="G32" s="3">
-        <v>63800</v>
+        <v>3900</v>
       </c>
       <c r="H32" s="3">
-        <v>66800</v>
+        <v>57200</v>
       </c>
       <c r="I32" s="3">
-        <v>68000</v>
+        <v>59200</v>
       </c>
       <c r="J32" s="3">
+        <v>60200</v>
+      </c>
+      <c r="K32" s="3">
         <v>36100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>62700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>33700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>35900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>44500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>35400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>31300</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>217500</v>
+        <v>194200</v>
       </c>
       <c r="E33" s="3">
-        <v>116200</v>
+        <v>192600</v>
       </c>
       <c r="F33" s="3">
-        <v>121400</v>
+        <v>103000</v>
       </c>
       <c r="G33" s="3">
-        <v>86700</v>
+        <v>107500</v>
       </c>
       <c r="H33" s="3">
-        <v>63300</v>
+        <v>76800</v>
       </c>
       <c r="I33" s="3">
-        <v>51500</v>
+        <v>56000</v>
       </c>
       <c r="J33" s="3">
+        <v>45600</v>
+      </c>
+      <c r="K33" s="3">
         <v>58600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>71200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>62700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>51000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>52500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>44400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>42700</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1913,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>217500</v>
+        <v>194200</v>
       </c>
       <c r="E35" s="3">
-        <v>116200</v>
+        <v>192600</v>
       </c>
       <c r="F35" s="3">
-        <v>121400</v>
+        <v>103000</v>
       </c>
       <c r="G35" s="3">
-        <v>86700</v>
+        <v>107500</v>
       </c>
       <c r="H35" s="3">
-        <v>63300</v>
+        <v>76800</v>
       </c>
       <c r="I35" s="3">
-        <v>51500</v>
+        <v>56000</v>
       </c>
       <c r="J35" s="3">
+        <v>45600</v>
+      </c>
+      <c r="K35" s="3">
         <v>58600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>71200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>62700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>51000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>52500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>44400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>42700</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2033,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,96 +2052,103 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1164500</v>
+        <v>1093200</v>
       </c>
       <c r="E41" s="3">
-        <v>1311900</v>
+        <v>1031400</v>
       </c>
       <c r="F41" s="3">
-        <v>1088500</v>
+        <v>1161900</v>
       </c>
       <c r="G41" s="3">
-        <v>1014400</v>
+        <v>964100</v>
       </c>
       <c r="H41" s="3">
-        <v>984000</v>
+        <v>898400</v>
       </c>
       <c r="I41" s="3">
-        <v>746500</v>
+        <v>871500</v>
       </c>
       <c r="J41" s="3">
+        <v>661100</v>
+      </c>
+      <c r="K41" s="3">
         <v>454500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>823900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>700900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>660600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>744300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>924100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>607900</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>517700</v>
+        <v>527800</v>
       </c>
       <c r="E42" s="3">
-        <v>334300</v>
+        <v>458500</v>
       </c>
       <c r="F42" s="3">
-        <v>231900</v>
+        <v>296100</v>
       </c>
       <c r="G42" s="3">
-        <v>282500</v>
+        <v>205400</v>
       </c>
       <c r="H42" s="3">
-        <v>199700</v>
+        <v>250200</v>
       </c>
       <c r="I42" s="3">
-        <v>154500</v>
+        <v>176900</v>
       </c>
       <c r="J42" s="3">
+        <v>136800</v>
+      </c>
+      <c r="K42" s="3">
         <v>61700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>432500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>396500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>357300</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>163500</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>188700</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>176500</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2099,8 +2191,11 @@
       <c r="P43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2143,8 +2238,11 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2187,8 +2285,11 @@
       <c r="P45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2231,43 +2332,46 @@
       <c r="P46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>27200</v>
+        <v>24600</v>
       </c>
       <c r="E47" s="3">
-        <v>27000</v>
+        <v>24100</v>
       </c>
       <c r="F47" s="3">
-        <v>26900</v>
+        <v>23900</v>
       </c>
       <c r="G47" s="3">
-        <v>2700</v>
+        <v>23800</v>
       </c>
       <c r="H47" s="3">
         <v>2300</v>
       </c>
       <c r="I47" s="3">
-        <v>2400</v>
+        <v>2000</v>
       </c>
       <c r="J47" s="3">
+        <v>2200</v>
+      </c>
+      <c r="K47" s="3">
         <v>6600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>11500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>2100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>800</v>
-      </c>
-      <c r="N47" s="3">
-        <v>300</v>
       </c>
       <c r="O47" s="3">
         <v>300</v>
@@ -2275,96 +2379,105 @@
       <c r="P47" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>176700</v>
+        <v>161100</v>
       </c>
       <c r="E48" s="3">
-        <v>167100</v>
+        <v>156500</v>
       </c>
       <c r="F48" s="3">
-        <v>162800</v>
+        <v>148000</v>
       </c>
       <c r="G48" s="3">
-        <v>148800</v>
+        <v>144200</v>
       </c>
       <c r="H48" s="3">
-        <v>130500</v>
+        <v>131800</v>
       </c>
       <c r="I48" s="3">
-        <v>125500</v>
+        <v>115600</v>
       </c>
       <c r="J48" s="3">
+        <v>111100</v>
+      </c>
+      <c r="K48" s="3">
         <v>119600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>161500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>35600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>34100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>39400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>38200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>34700</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>33900</v>
+        <v>31100</v>
       </c>
       <c r="E49" s="3">
-        <v>30900</v>
+        <v>30000</v>
       </c>
       <c r="F49" s="3">
-        <v>25600</v>
+        <v>27400</v>
       </c>
       <c r="G49" s="3">
-        <v>23200</v>
+        <v>22700</v>
       </c>
       <c r="H49" s="3">
-        <v>19000</v>
+        <v>20500</v>
       </c>
       <c r="I49" s="3">
-        <v>16400</v>
+        <v>16800</v>
       </c>
       <c r="J49" s="3">
+        <v>14500</v>
+      </c>
+      <c r="K49" s="3">
         <v>15700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>40500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>19200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>17700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>19900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>17400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>16200</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2520,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,38 +2567,41 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>53200</v>
+        <v>83100</v>
       </c>
       <c r="E52" s="3">
-        <v>8600</v>
+        <v>47100</v>
       </c>
       <c r="F52" s="3">
-        <v>10600</v>
+        <v>7600</v>
       </c>
       <c r="G52" s="3">
-        <v>14100</v>
+        <v>9400</v>
       </c>
       <c r="H52" s="3">
-        <v>3000</v>
+        <v>12500</v>
       </c>
       <c r="I52" s="3">
-        <v>2900</v>
+        <v>2700</v>
       </c>
       <c r="J52" s="3">
+        <v>2500</v>
+      </c>
+      <c r="K52" s="3">
         <v>2400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>5200</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>5</v>
       </c>
@@ -2495,8 +2614,11 @@
       <c r="P52" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2661,58 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>6655900</v>
+        <v>6271900</v>
       </c>
       <c r="E54" s="3">
-        <v>6629100</v>
+        <v>5894900</v>
       </c>
       <c r="F54" s="3">
-        <v>6451600</v>
+        <v>5871100</v>
       </c>
       <c r="G54" s="3">
-        <v>5667800</v>
+        <v>5713900</v>
       </c>
       <c r="H54" s="3">
-        <v>5143200</v>
+        <v>5019100</v>
       </c>
       <c r="I54" s="3">
-        <v>4491800</v>
+        <v>4555200</v>
       </c>
       <c r="J54" s="3">
+        <v>3978200</v>
+      </c>
+      <c r="K54" s="3">
         <v>3829400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5192200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>4733600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>4307400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>4371900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>4057900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>3580900</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2729,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,52 +2748,56 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>276200</v>
+        <v>324600</v>
       </c>
       <c r="E57" s="3">
-        <v>245200</v>
+        <v>244700</v>
       </c>
       <c r="F57" s="3">
-        <v>274800</v>
+        <v>217200</v>
       </c>
       <c r="G57" s="3">
-        <v>253200</v>
+        <v>243300</v>
       </c>
       <c r="H57" s="3">
-        <v>211500</v>
+        <v>224200</v>
       </c>
       <c r="I57" s="3">
-        <v>185100</v>
+        <v>187300</v>
       </c>
       <c r="J57" s="3">
+        <v>163900</v>
+      </c>
+      <c r="K57" s="3">
         <v>150300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>374000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>219100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>219900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>222000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>239200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>182100</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2707,43 +2840,46 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>74500</v>
+        <v>119100</v>
       </c>
       <c r="E59" s="3">
-        <v>68600</v>
+        <v>66000</v>
       </c>
       <c r="F59" s="3">
-        <v>75500</v>
+        <v>60700</v>
       </c>
       <c r="G59" s="3">
-        <v>48700</v>
+        <v>66900</v>
       </c>
       <c r="H59" s="3">
-        <v>34900</v>
+        <v>43100</v>
       </c>
       <c r="I59" s="3">
-        <v>29400</v>
+        <v>30900</v>
       </c>
       <c r="J59" s="3">
+        <v>26100</v>
+      </c>
+      <c r="K59" s="3">
         <v>67300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>91200</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M59" s="3">
-        <v>0</v>
-      </c>
-      <c r="N59" s="3" t="s">
-        <v>5</v>
+      <c r="M59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N59" s="3">
+        <v>0</v>
       </c>
       <c r="O59" s="3" t="s">
         <v>5</v>
@@ -2751,8 +2887,11 @@
       <c r="P59" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2795,96 +2934,105 @@
       <c r="P60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>546800</v>
+        <v>469700</v>
       </c>
       <c r="E61" s="3">
-        <v>422900</v>
+        <v>484300</v>
       </c>
       <c r="F61" s="3">
-        <v>450600</v>
+        <v>374500</v>
       </c>
       <c r="G61" s="3">
-        <v>407700</v>
+        <v>399100</v>
       </c>
       <c r="H61" s="3">
-        <v>438900</v>
+        <v>361100</v>
       </c>
       <c r="I61" s="3">
-        <v>357100</v>
+        <v>388800</v>
       </c>
       <c r="J61" s="3">
+        <v>316200</v>
+      </c>
+      <c r="K61" s="3">
         <v>225800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>308600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>285000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>270200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>166300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>211200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>104400</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>21300</v>
+      </c>
+      <c r="E62" s="3">
+        <v>19500</v>
+      </c>
+      <c r="F62" s="3">
         <v>22000</v>
       </c>
-      <c r="E62" s="3">
-        <v>24800</v>
-      </c>
-      <c r="F62" s="3">
-        <v>22700</v>
-      </c>
       <c r="G62" s="3">
-        <v>21800</v>
+        <v>20100</v>
       </c>
       <c r="H62" s="3">
-        <v>15400</v>
+        <v>18700</v>
       </c>
       <c r="I62" s="3">
-        <v>16500</v>
+        <v>13600</v>
       </c>
       <c r="J62" s="3">
+        <v>14600</v>
+      </c>
+      <c r="K62" s="3">
         <v>18100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>27300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>11000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>8600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>9200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>8800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>7700</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3075,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3122,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3169,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>5393500</v>
+        <v>4957200</v>
       </c>
       <c r="E66" s="3">
-        <v>5592100</v>
+        <v>4776800</v>
       </c>
       <c r="F66" s="3">
-        <v>5425300</v>
+        <v>4952700</v>
       </c>
       <c r="G66" s="3">
-        <v>4764700</v>
+        <v>4805000</v>
       </c>
       <c r="H66" s="3">
-        <v>4300800</v>
+        <v>4219300</v>
       </c>
       <c r="I66" s="3">
-        <v>3662900</v>
+        <v>3809100</v>
       </c>
       <c r="J66" s="3">
+        <v>3244100</v>
+      </c>
+      <c r="K66" s="3">
         <v>3001500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4124700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3813200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3485500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3746900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3479100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3046600</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3237,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3282,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3329,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3376,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3423,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1046400</v>
+        <v>1123400</v>
       </c>
       <c r="E72" s="3">
-        <v>820400</v>
+        <v>926700</v>
       </c>
       <c r="F72" s="3">
-        <v>809700</v>
+        <v>726600</v>
       </c>
       <c r="G72" s="3">
-        <v>686500</v>
+        <v>717100</v>
       </c>
       <c r="H72" s="3">
-        <v>625800</v>
+        <v>608000</v>
       </c>
       <c r="I72" s="3">
-        <v>612300</v>
+        <v>554300</v>
       </c>
       <c r="J72" s="3">
+        <v>542300</v>
+      </c>
+      <c r="K72" s="3">
         <v>611300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>881500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>613400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>553800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>599000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>552900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>508500</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3517,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3564,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3611,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1262400</v>
+        <v>1314800</v>
       </c>
       <c r="E76" s="3">
-        <v>1037000</v>
+        <v>1118100</v>
       </c>
       <c r="F76" s="3">
-        <v>1026300</v>
+        <v>918400</v>
       </c>
       <c r="G76" s="3">
-        <v>903100</v>
+        <v>908900</v>
       </c>
       <c r="H76" s="3">
-        <v>842400</v>
+        <v>799900</v>
       </c>
       <c r="I76" s="3">
-        <v>828900</v>
+        <v>746100</v>
       </c>
       <c r="J76" s="3">
+        <v>734100</v>
+      </c>
+      <c r="K76" s="3">
         <v>827900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1067500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>920300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>821900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>624900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>578700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>534400</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3705,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>217500</v>
+        <v>194200</v>
       </c>
       <c r="E81" s="3">
-        <v>116200</v>
+        <v>192600</v>
       </c>
       <c r="F81" s="3">
-        <v>121400</v>
+        <v>103000</v>
       </c>
       <c r="G81" s="3">
-        <v>86700</v>
+        <v>107500</v>
       </c>
       <c r="H81" s="3">
-        <v>63300</v>
+        <v>76800</v>
       </c>
       <c r="I81" s="3">
-        <v>51500</v>
+        <v>56000</v>
       </c>
       <c r="J81" s="3">
+        <v>45600</v>
+      </c>
+      <c r="K81" s="3">
         <v>58600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>71200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>62700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>51000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>52500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>44400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>42700</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,52 +3825,56 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>6000</v>
+        <v>5800</v>
       </c>
       <c r="E83" s="3">
-        <v>5300</v>
+        <v>5400</v>
       </c>
       <c r="F83" s="3">
-        <v>4800</v>
+        <v>4700</v>
       </c>
       <c r="G83" s="3">
-        <v>3500</v>
+        <v>4200</v>
       </c>
       <c r="H83" s="3">
         <v>3100</v>
       </c>
       <c r="I83" s="3">
-        <v>2900</v>
+        <v>2700</v>
       </c>
       <c r="J83" s="3">
+        <v>2500</v>
+      </c>
+      <c r="K83" s="3">
         <v>2700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>4100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>3300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>3000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>3400</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P83" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3917,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3964,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4011,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4058,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4105,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-879000</v>
+        <v>-44000</v>
       </c>
       <c r="E89" s="3">
-        <v>308200</v>
+        <v>-778500</v>
       </c>
       <c r="F89" s="3">
-        <v>660700</v>
+        <v>272900</v>
       </c>
       <c r="G89" s="3">
-        <v>321200</v>
+        <v>585100</v>
       </c>
       <c r="H89" s="3">
-        <v>157300</v>
+        <v>285600</v>
       </c>
       <c r="I89" s="3">
-        <v>626500</v>
+        <v>139300</v>
       </c>
       <c r="J89" s="3">
+        <v>554900</v>
+      </c>
+      <c r="K89" s="3">
         <v>38600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>50500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-394400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>104700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>7500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-92100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>237600</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,52 +4173,56 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-19200</v>
+        <v>-14200</v>
       </c>
       <c r="E91" s="3">
-        <v>-13600</v>
+        <v>-17000</v>
       </c>
       <c r="F91" s="3">
-        <v>-12900</v>
+        <v>-12000</v>
       </c>
       <c r="G91" s="3">
-        <v>-11200</v>
+        <v>-11400</v>
       </c>
       <c r="H91" s="3">
-        <v>-10500</v>
+        <v>-9900</v>
       </c>
       <c r="I91" s="3">
-        <v>-7600</v>
+        <v>-9300</v>
       </c>
       <c r="J91" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="K91" s="3">
         <v>-3300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-10200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-3500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4265,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,52 +4312,58 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-19200</v>
+        <v>-14200</v>
       </c>
       <c r="E94" s="3">
-        <v>-13600</v>
+        <v>-17000</v>
       </c>
       <c r="F94" s="3">
-        <v>-12900</v>
+        <v>-12000</v>
       </c>
       <c r="G94" s="3">
-        <v>-11200</v>
+        <v>-11400</v>
       </c>
       <c r="H94" s="3">
-        <v>-10500</v>
+        <v>-9900</v>
       </c>
       <c r="I94" s="3">
-        <v>-7600</v>
+        <v>-9300</v>
       </c>
       <c r="J94" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="K94" s="3">
         <v>-3300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-8700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-8200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-4900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-7800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-7200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-7800</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4380,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4190,10 +4423,13 @@
         <v>0</v>
       </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-16800</v>
       </c>
     </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4472,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4519,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,136 +4566,148 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-8200</v>
+        <v>-27100</v>
       </c>
       <c r="E100" s="3">
-        <v>-129400</v>
+        <v>-7300</v>
       </c>
       <c r="F100" s="3">
-        <v>-10200</v>
+        <v>-114600</v>
       </c>
       <c r="G100" s="3">
-        <v>-53400</v>
+        <v>-9000</v>
       </c>
       <c r="H100" s="3">
-        <v>-84600</v>
+        <v>-47300</v>
       </c>
       <c r="I100" s="3">
-        <v>-7600</v>
+        <v>-74900</v>
       </c>
       <c r="J100" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="K100" s="3">
         <v>-800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-19600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>47000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>337200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-46300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>95100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-18900</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>377800</v>
+        <v>4000</v>
       </c>
       <c r="E101" s="3">
-        <v>-8900</v>
+        <v>334600</v>
       </c>
       <c r="F101" s="3">
-        <v>103600</v>
+        <v>-7900</v>
       </c>
       <c r="G101" s="3">
-        <v>-56400</v>
+        <v>91800</v>
       </c>
       <c r="H101" s="3">
-        <v>194700</v>
+        <v>-50000</v>
       </c>
       <c r="I101" s="3">
-        <v>112200</v>
+        <v>172400</v>
       </c>
       <c r="J101" s="3">
+        <v>99400</v>
+      </c>
+      <c r="K101" s="3">
         <v>23600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>18300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>33900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>40700</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>10300</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>27000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>27700</v>
       </c>
     </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-528700</v>
+        <v>-81300</v>
       </c>
       <c r="E102" s="3">
-        <v>156300</v>
+        <v>-468200</v>
       </c>
       <c r="F102" s="3">
-        <v>741200</v>
+        <v>138400</v>
       </c>
       <c r="G102" s="3">
-        <v>200300</v>
+        <v>656500</v>
       </c>
       <c r="H102" s="3">
-        <v>256900</v>
+        <v>177400</v>
       </c>
       <c r="I102" s="3">
-        <v>731400</v>
+        <v>227500</v>
       </c>
       <c r="J102" s="3">
+        <v>647800</v>
+      </c>
+      <c r="K102" s="3">
         <v>50200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>51200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-288400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>352000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-36300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>22800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>238500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BMA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BMA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="92">
   <si>
     <t>BMA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,124 +665,131 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>480400</v>
+        <v>419400</v>
       </c>
       <c r="E8" s="3">
-        <v>520900</v>
+        <v>445300</v>
       </c>
       <c r="F8" s="3">
-        <v>458700</v>
+        <v>482800</v>
       </c>
       <c r="G8" s="3">
-        <v>357100</v>
+        <v>425200</v>
       </c>
       <c r="H8" s="3">
-        <v>348600</v>
+        <v>511800</v>
       </c>
       <c r="I8" s="3">
-        <v>246100</v>
+        <v>323200</v>
       </c>
       <c r="J8" s="3">
+        <v>228100</v>
+      </c>
+      <c r="K8" s="3">
         <v>199300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>187400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>239600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>203500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>179400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>195300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>198300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>194100</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -828,8 +835,11 @@
       <c r="Q9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -875,8 +885,11 @@
       <c r="Q10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -894,8 +907,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -941,8 +955,11 @@
       <c r="Q12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -988,8 +1005,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1035,55 +1055,61 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-5800</v>
+        <v>-11300</v>
       </c>
       <c r="E15" s="3">
         <v>-5400</v>
       </c>
       <c r="F15" s="3">
-        <v>-4700</v>
+        <v>-5000</v>
       </c>
       <c r="G15" s="3">
-        <v>-4200</v>
+        <v>-4300</v>
       </c>
       <c r="H15" s="3">
-        <v>-3100</v>
+        <v>-10500</v>
       </c>
       <c r="I15" s="3">
-        <v>-2700</v>
+        <v>-2900</v>
       </c>
       <c r="J15" s="3">
         <v>-2500</v>
       </c>
       <c r="K15" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="L15" s="3">
         <v>-2700</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>-5900</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>-5000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>-4500</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>-5000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>-2900</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>-2700</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1098,102 +1124,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>177000</v>
+        <v>142100</v>
       </c>
       <c r="E17" s="3">
-        <v>239300</v>
+        <v>164100</v>
       </c>
       <c r="F17" s="3">
-        <v>225400</v>
+        <v>221900</v>
       </c>
       <c r="G17" s="3">
-        <v>199400</v>
+        <v>208900</v>
       </c>
       <c r="H17" s="3">
-        <v>181000</v>
+        <v>262400</v>
       </c>
       <c r="I17" s="3">
-        <v>105700</v>
+        <v>167800</v>
       </c>
       <c r="J17" s="3">
+        <v>98000</v>
+      </c>
+      <c r="K17" s="3">
         <v>74600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>65500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>79300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>71700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>64600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>69100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>96500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>96400</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>303400</v>
+        <v>277400</v>
       </c>
       <c r="E18" s="3">
-        <v>281600</v>
+        <v>281200</v>
       </c>
       <c r="F18" s="3">
-        <v>233300</v>
+        <v>261000</v>
       </c>
       <c r="G18" s="3">
-        <v>157800</v>
+        <v>216300</v>
       </c>
       <c r="H18" s="3">
-        <v>167700</v>
+        <v>249500</v>
       </c>
       <c r="I18" s="3">
-        <v>140400</v>
+        <v>155400</v>
       </c>
       <c r="J18" s="3">
+        <v>130100</v>
+      </c>
+      <c r="K18" s="3">
         <v>124700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>121900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>160300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>131700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>114800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>126200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>101800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>97600</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1211,102 +1244,109 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-62400</v>
+        <v>-127900</v>
       </c>
       <c r="E20" s="3">
-        <v>-107400</v>
+        <v>-57900</v>
       </c>
       <c r="F20" s="3">
-        <v>-88300</v>
+        <v>-99600</v>
       </c>
       <c r="G20" s="3">
-        <v>-3900</v>
+        <v>-81800</v>
       </c>
       <c r="H20" s="3">
-        <v>-57200</v>
+        <v>-119100</v>
       </c>
       <c r="I20" s="3">
-        <v>-59200</v>
+        <v>-53000</v>
       </c>
       <c r="J20" s="3">
+        <v>-54800</v>
+      </c>
+      <c r="K20" s="3">
         <v>-60200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-36100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-62700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-33700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-35900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-44500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-35400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-31300</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>246800</v>
+        <v>160900</v>
       </c>
       <c r="E21" s="3">
-        <v>179500</v>
+        <v>228700</v>
       </c>
       <c r="F21" s="3">
-        <v>149700</v>
+        <v>166400</v>
       </c>
       <c r="G21" s="3">
-        <v>158100</v>
+        <v>132200</v>
       </c>
       <c r="H21" s="3">
-        <v>113600</v>
+        <v>140800</v>
       </c>
       <c r="I21" s="3">
-        <v>84000</v>
+        <v>105300</v>
       </c>
       <c r="J21" s="3">
+        <v>77800</v>
+      </c>
+      <c r="K21" s="3">
         <v>67100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>88500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>101700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>101400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>81800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>85100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>66600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>66500</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1352,102 +1392,111 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>240900</v>
+        <v>149500</v>
       </c>
       <c r="E23" s="3">
-        <v>174200</v>
+        <v>223300</v>
       </c>
       <c r="F23" s="3">
-        <v>145000</v>
+        <v>161400</v>
       </c>
       <c r="G23" s="3">
-        <v>153900</v>
+        <v>134400</v>
       </c>
       <c r="H23" s="3">
-        <v>110500</v>
+        <v>130300</v>
       </c>
       <c r="I23" s="3">
-        <v>81300</v>
+        <v>102400</v>
       </c>
       <c r="J23" s="3">
+        <v>75300</v>
+      </c>
+      <c r="K23" s="3">
         <v>64500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>85800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>97600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>98000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>78800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>81700</v>
-      </c>
-      <c r="P23" s="3">
-        <v>66400</v>
       </c>
       <c r="Q23" s="3">
         <v>66400</v>
       </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3">
+        <v>66400</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>46700</v>
+        <v>53500</v>
       </c>
       <c r="E24" s="3">
-        <v>-18500</v>
+        <v>43300</v>
       </c>
       <c r="F24" s="3">
-        <v>42100</v>
+        <v>-17100</v>
       </c>
       <c r="G24" s="3">
-        <v>46400</v>
+        <v>39000</v>
       </c>
       <c r="H24" s="3">
-        <v>34400</v>
+        <v>77000</v>
       </c>
       <c r="I24" s="3">
-        <v>25100</v>
+        <v>31900</v>
       </c>
       <c r="J24" s="3">
+        <v>23300</v>
+      </c>
+      <c r="K24" s="3">
         <v>18600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>26900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>25800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>34900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>27400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>28700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>22000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>23600</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1493,102 +1542,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>194200</v>
+        <v>96000</v>
       </c>
       <c r="E26" s="3">
-        <v>192600</v>
+        <v>180000</v>
       </c>
       <c r="F26" s="3">
-        <v>103000</v>
+        <v>178600</v>
       </c>
       <c r="G26" s="3">
-        <v>107500</v>
+        <v>95400</v>
       </c>
       <c r="H26" s="3">
-        <v>76100</v>
+        <v>53300</v>
       </c>
       <c r="I26" s="3">
-        <v>56100</v>
+        <v>70500</v>
       </c>
       <c r="J26" s="3">
+        <v>52000</v>
+      </c>
+      <c r="K26" s="3">
         <v>45900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>58900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>71800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>63200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>51500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>53000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>44400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>42700</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>194200</v>
+        <v>96000</v>
       </c>
       <c r="E27" s="3">
-        <v>192600</v>
+        <v>180000</v>
       </c>
       <c r="F27" s="3">
-        <v>103000</v>
+        <v>178600</v>
       </c>
       <c r="G27" s="3">
-        <v>107500</v>
+        <v>95400</v>
       </c>
       <c r="H27" s="3">
-        <v>76800</v>
+        <v>53300</v>
       </c>
       <c r="I27" s="3">
-        <v>56000</v>
+        <v>71200</v>
       </c>
       <c r="J27" s="3">
+        <v>51900</v>
+      </c>
+      <c r="K27" s="3">
         <v>45600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>58600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>71200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>62700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>51000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>52500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>44400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>42700</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1634,8 +1692,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1681,8 +1742,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1728,8 +1792,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1775,102 +1842,111 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>62400</v>
+        <v>127900</v>
       </c>
       <c r="E32" s="3">
-        <v>107400</v>
+        <v>57900</v>
       </c>
       <c r="F32" s="3">
-        <v>88300</v>
+        <v>99600</v>
       </c>
       <c r="G32" s="3">
-        <v>3900</v>
+        <v>81800</v>
       </c>
       <c r="H32" s="3">
-        <v>57200</v>
+        <v>119100</v>
       </c>
       <c r="I32" s="3">
-        <v>59200</v>
+        <v>53000</v>
       </c>
       <c r="J32" s="3">
+        <v>54800</v>
+      </c>
+      <c r="K32" s="3">
         <v>60200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>36100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>62700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>33700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>35900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>44500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>35400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>31300</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>194200</v>
+        <v>96000</v>
       </c>
       <c r="E33" s="3">
-        <v>192600</v>
+        <v>180000</v>
       </c>
       <c r="F33" s="3">
-        <v>103000</v>
+        <v>178600</v>
       </c>
       <c r="G33" s="3">
-        <v>107500</v>
+        <v>95400</v>
       </c>
       <c r="H33" s="3">
-        <v>76800</v>
+        <v>53300</v>
       </c>
       <c r="I33" s="3">
-        <v>56000</v>
+        <v>71200</v>
       </c>
       <c r="J33" s="3">
+        <v>51900</v>
+      </c>
+      <c r="K33" s="3">
         <v>45600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>58600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>71200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>62700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>51000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>52500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>44400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>42700</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1916,107 +1992,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>194200</v>
+        <v>96000</v>
       </c>
       <c r="E35" s="3">
-        <v>192600</v>
+        <v>180000</v>
       </c>
       <c r="F35" s="3">
-        <v>103000</v>
+        <v>178600</v>
       </c>
       <c r="G35" s="3">
-        <v>107500</v>
+        <v>95400</v>
       </c>
       <c r="H35" s="3">
-        <v>76800</v>
+        <v>53300</v>
       </c>
       <c r="I35" s="3">
-        <v>56000</v>
+        <v>71200</v>
       </c>
       <c r="J35" s="3">
+        <v>51900</v>
+      </c>
+      <c r="K35" s="3">
         <v>45600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>58600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>71200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>62700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>51000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>52500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>44400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>42700</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2034,8 +2119,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2053,102 +2139,109 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1093200</v>
+        <v>1226500</v>
       </c>
       <c r="E41" s="3">
-        <v>1031400</v>
+        <v>1092400</v>
       </c>
       <c r="F41" s="3">
-        <v>1161900</v>
+        <v>956000</v>
       </c>
       <c r="G41" s="3">
-        <v>964100</v>
+        <v>1077000</v>
       </c>
       <c r="H41" s="3">
-        <v>898400</v>
+        <v>893600</v>
       </c>
       <c r="I41" s="3">
-        <v>871500</v>
+        <v>832700</v>
       </c>
       <c r="J41" s="3">
+        <v>807800</v>
+      </c>
+      <c r="K41" s="3">
         <v>661100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>454500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>823900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>700900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>660600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>744300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>924100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>607900</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>527800</v>
+        <v>493800</v>
       </c>
       <c r="E42" s="3">
-        <v>458500</v>
+        <v>527400</v>
       </c>
       <c r="F42" s="3">
-        <v>296100</v>
+        <v>425000</v>
       </c>
       <c r="G42" s="3">
-        <v>205400</v>
+        <v>274400</v>
       </c>
       <c r="H42" s="3">
-        <v>250200</v>
+        <v>190400</v>
       </c>
       <c r="I42" s="3">
-        <v>176900</v>
+        <v>231900</v>
       </c>
       <c r="J42" s="3">
+        <v>164000</v>
+      </c>
+      <c r="K42" s="3">
         <v>136800</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>61700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>432500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>396500</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>357300</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>163500</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>188700</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>176500</v>
       </c>
     </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2194,8 +2287,11 @@
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2241,8 +2337,11 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2288,8 +2387,11 @@
       <c r="Q45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2335,46 +2437,49 @@
       <c r="Q46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>23800</v>
+      </c>
+      <c r="E47" s="3">
         <v>24600</v>
       </c>
-      <c r="E47" s="3">
-        <v>24100</v>
-      </c>
       <c r="F47" s="3">
-        <v>23900</v>
+        <v>22400</v>
       </c>
       <c r="G47" s="3">
-        <v>23800</v>
+        <v>22200</v>
       </c>
       <c r="H47" s="3">
-        <v>2300</v>
+        <v>22100</v>
       </c>
       <c r="I47" s="3">
-        <v>2000</v>
+        <v>2200</v>
       </c>
       <c r="J47" s="3">
+        <v>1900</v>
+      </c>
+      <c r="K47" s="3">
         <v>2200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>6600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>11500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>2100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>800</v>
-      </c>
-      <c r="O47" s="3">
-        <v>300</v>
       </c>
       <c r="P47" s="3">
         <v>300</v>
@@ -2382,102 +2487,111 @@
       <c r="Q47" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>161100</v>
+        <v>374000</v>
       </c>
       <c r="E48" s="3">
-        <v>156500</v>
+        <v>376600</v>
       </c>
       <c r="F48" s="3">
-        <v>148000</v>
+        <v>145100</v>
       </c>
       <c r="G48" s="3">
-        <v>144200</v>
+        <v>137200</v>
       </c>
       <c r="H48" s="3">
-        <v>131800</v>
+        <v>133700</v>
       </c>
       <c r="I48" s="3">
-        <v>115600</v>
+        <v>122200</v>
       </c>
       <c r="J48" s="3">
+        <v>107200</v>
+      </c>
+      <c r="K48" s="3">
         <v>111100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>119600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>161500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>35600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>34100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>39400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>38200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>34700</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>31100</v>
+        <v>53600</v>
       </c>
       <c r="E49" s="3">
-        <v>30000</v>
+        <v>51800</v>
       </c>
       <c r="F49" s="3">
-        <v>27400</v>
+        <v>27800</v>
       </c>
       <c r="G49" s="3">
-        <v>22700</v>
+        <v>25400</v>
       </c>
       <c r="H49" s="3">
-        <v>20500</v>
+        <v>21000</v>
       </c>
       <c r="I49" s="3">
-        <v>16800</v>
+        <v>19000</v>
       </c>
       <c r="J49" s="3">
+        <v>15600</v>
+      </c>
+      <c r="K49" s="3">
         <v>14500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>15700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>40500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>19200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>17700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>19900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>17400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>16200</v>
       </c>
     </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2523,8 +2637,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2570,41 +2687,44 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>83100</v>
+        <v>27200</v>
       </c>
       <c r="E52" s="3">
-        <v>47100</v>
+        <v>26300</v>
       </c>
       <c r="F52" s="3">
-        <v>7600</v>
+        <v>43700</v>
       </c>
       <c r="G52" s="3">
-        <v>9400</v>
+        <v>7000</v>
       </c>
       <c r="H52" s="3">
-        <v>12500</v>
+        <v>8700</v>
       </c>
       <c r="I52" s="3">
-        <v>2700</v>
+        <v>11500</v>
       </c>
       <c r="J52" s="3">
         <v>2500</v>
       </c>
       <c r="K52" s="3">
+        <v>2500</v>
+      </c>
+      <c r="L52" s="3">
         <v>2400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>5200</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N52" s="3" t="s">
         <v>5</v>
       </c>
@@ -2617,8 +2737,11 @@
       <c r="Q52" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2664,55 +2787,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>6271900</v>
+        <v>6877000</v>
       </c>
       <c r="E54" s="3">
-        <v>5894900</v>
+        <v>6489700</v>
       </c>
       <c r="F54" s="3">
-        <v>5871100</v>
+        <v>5464000</v>
       </c>
       <c r="G54" s="3">
-        <v>5713900</v>
+        <v>5442000</v>
       </c>
       <c r="H54" s="3">
-        <v>5019100</v>
+        <v>5296300</v>
       </c>
       <c r="I54" s="3">
-        <v>4555200</v>
+        <v>4652300</v>
       </c>
       <c r="J54" s="3">
+        <v>4222300</v>
+      </c>
+      <c r="K54" s="3">
         <v>3978200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3829400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>5192200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>4733600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>4307400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>4371900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>4057900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>3580900</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2730,8 +2859,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2749,55 +2879,59 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>324600</v>
+        <v>318700</v>
       </c>
       <c r="E57" s="3">
-        <v>244700</v>
+        <v>324300</v>
       </c>
       <c r="F57" s="3">
-        <v>217200</v>
+        <v>226800</v>
       </c>
       <c r="G57" s="3">
-        <v>243300</v>
+        <v>201300</v>
       </c>
       <c r="H57" s="3">
-        <v>224200</v>
+        <v>225600</v>
       </c>
       <c r="I57" s="3">
-        <v>187300</v>
+        <v>207800</v>
       </c>
       <c r="J57" s="3">
+        <v>173600</v>
+      </c>
+      <c r="K57" s="3">
         <v>163900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>150300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>374000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>219100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>219900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>222000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>239200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>182100</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2843,46 +2977,49 @@
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>119100</v>
+        <v>139700</v>
       </c>
       <c r="E59" s="3">
-        <v>66000</v>
+        <v>119000</v>
       </c>
       <c r="F59" s="3">
-        <v>60700</v>
+        <v>61200</v>
       </c>
       <c r="G59" s="3">
-        <v>66900</v>
+        <v>56300</v>
       </c>
       <c r="H59" s="3">
-        <v>43100</v>
+        <v>62000</v>
       </c>
       <c r="I59" s="3">
-        <v>30900</v>
+        <v>40000</v>
       </c>
       <c r="J59" s="3">
+        <v>28600</v>
+      </c>
+      <c r="K59" s="3">
         <v>26100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>67300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>91200</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N59" s="3">
-        <v>0</v>
-      </c>
-      <c r="O59" s="3" t="s">
-        <v>5</v>
+      <c r="N59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O59" s="3">
+        <v>0</v>
       </c>
       <c r="P59" s="3" t="s">
         <v>5</v>
@@ -2890,8 +3027,11 @@
       <c r="Q59" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2937,102 +3077,111 @@
       <c r="Q60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>469700</v>
+        <v>446900</v>
       </c>
       <c r="E61" s="3">
-        <v>484300</v>
+        <v>469300</v>
       </c>
       <c r="F61" s="3">
-        <v>374500</v>
+        <v>448900</v>
       </c>
       <c r="G61" s="3">
-        <v>399100</v>
+        <v>347200</v>
       </c>
       <c r="H61" s="3">
-        <v>361100</v>
+        <v>369900</v>
       </c>
       <c r="I61" s="3">
-        <v>388800</v>
+        <v>334700</v>
       </c>
       <c r="J61" s="3">
+        <v>360300</v>
+      </c>
+      <c r="K61" s="3">
         <v>316200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>225800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>308600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>285000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>270200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>166300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>211200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>104400</v>
       </c>
     </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>21300</v>
+        <v>21600</v>
       </c>
       <c r="E62" s="3">
-        <v>19500</v>
+        <v>23900</v>
       </c>
       <c r="F62" s="3">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="G62" s="3">
-        <v>20100</v>
+        <v>20400</v>
       </c>
       <c r="H62" s="3">
-        <v>18700</v>
+        <v>18600</v>
       </c>
       <c r="I62" s="3">
-        <v>13600</v>
+        <v>17300</v>
       </c>
       <c r="J62" s="3">
+        <v>12600</v>
+      </c>
+      <c r="K62" s="3">
         <v>14600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>18100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>27300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>11000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>8600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>9200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>8800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>7700</v>
       </c>
     </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3078,8 +3227,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3125,8 +3277,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3172,55 +3327,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4957200</v>
+        <v>5261300</v>
       </c>
       <c r="E66" s="3">
-        <v>4776800</v>
+        <v>4955800</v>
       </c>
       <c r="F66" s="3">
-        <v>4952700</v>
+        <v>4427700</v>
       </c>
       <c r="G66" s="3">
-        <v>4805000</v>
+        <v>4590700</v>
       </c>
       <c r="H66" s="3">
-        <v>4219300</v>
+        <v>4453800</v>
       </c>
       <c r="I66" s="3">
-        <v>3809100</v>
+        <v>3910900</v>
       </c>
       <c r="J66" s="3">
+        <v>3530700</v>
+      </c>
+      <c r="K66" s="3">
         <v>3244100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3001500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4124700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3813200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3485500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3746900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3479100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3046600</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3238,8 +3399,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3285,8 +3447,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3332,8 +3497,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3379,8 +3547,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3426,55 +3597,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1123400</v>
+        <v>934700</v>
       </c>
       <c r="E72" s="3">
-        <v>926700</v>
+        <v>852800</v>
       </c>
       <c r="F72" s="3">
-        <v>726600</v>
+        <v>859000</v>
       </c>
       <c r="G72" s="3">
-        <v>717100</v>
+        <v>673500</v>
       </c>
       <c r="H72" s="3">
-        <v>608000</v>
+        <v>664700</v>
       </c>
       <c r="I72" s="3">
-        <v>554300</v>
+        <v>563600</v>
       </c>
       <c r="J72" s="3">
+        <v>513800</v>
+      </c>
+      <c r="K72" s="3">
         <v>542300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>611300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>881500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>613400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>553800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>599000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>552900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>508500</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3520,8 +3697,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3567,8 +3747,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3614,55 +3797,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1314800</v>
+        <v>1615800</v>
       </c>
       <c r="E76" s="3">
-        <v>1118100</v>
+        <v>1533900</v>
       </c>
       <c r="F76" s="3">
-        <v>918400</v>
+        <v>1036400</v>
       </c>
       <c r="G76" s="3">
-        <v>908900</v>
+        <v>851300</v>
       </c>
       <c r="H76" s="3">
-        <v>799900</v>
+        <v>842500</v>
       </c>
       <c r="I76" s="3">
-        <v>746100</v>
+        <v>741400</v>
       </c>
       <c r="J76" s="3">
+        <v>691600</v>
+      </c>
+      <c r="K76" s="3">
         <v>734100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>827900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1067500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>920300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>821900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>624900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>578700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>534400</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3708,107 +3897,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>194200</v>
+        <v>96000</v>
       </c>
       <c r="E81" s="3">
-        <v>192600</v>
+        <v>180000</v>
       </c>
       <c r="F81" s="3">
-        <v>103000</v>
+        <v>178600</v>
       </c>
       <c r="G81" s="3">
-        <v>107500</v>
+        <v>95400</v>
       </c>
       <c r="H81" s="3">
-        <v>76800</v>
+        <v>53300</v>
       </c>
       <c r="I81" s="3">
-        <v>56000</v>
+        <v>71200</v>
       </c>
       <c r="J81" s="3">
+        <v>51900</v>
+      </c>
+      <c r="K81" s="3">
         <v>45600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>58600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>71200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>62700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>51000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>52500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>44400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>42700</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3826,55 +4024,59 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>5800</v>
+        <v>11300</v>
       </c>
       <c r="E83" s="3">
         <v>5400</v>
       </c>
       <c r="F83" s="3">
-        <v>4700</v>
+        <v>5000</v>
       </c>
       <c r="G83" s="3">
-        <v>4200</v>
+        <v>-2200</v>
       </c>
       <c r="H83" s="3">
-        <v>3100</v>
+        <v>10500</v>
       </c>
       <c r="I83" s="3">
-        <v>2700</v>
+        <v>2900</v>
       </c>
       <c r="J83" s="3">
         <v>2500</v>
       </c>
       <c r="K83" s="3">
+        <v>2500</v>
+      </c>
+      <c r="L83" s="3">
         <v>2700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>4100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>3300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>3000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>3400</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q83" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3920,8 +4122,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3967,8 +4172,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4014,8 +4222,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4061,8 +4272,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4108,55 +4322,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-44000</v>
+        <v>96700</v>
       </c>
       <c r="E89" s="3">
-        <v>-778500</v>
+        <v>-40800</v>
       </c>
       <c r="F89" s="3">
-        <v>272900</v>
+        <v>-721600</v>
       </c>
       <c r="G89" s="3">
-        <v>585100</v>
+        <v>253000</v>
       </c>
       <c r="H89" s="3">
-        <v>285600</v>
+        <v>542400</v>
       </c>
       <c r="I89" s="3">
-        <v>139300</v>
+        <v>264700</v>
       </c>
       <c r="J89" s="3">
+        <v>129100</v>
+      </c>
+      <c r="K89" s="3">
         <v>554900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>38600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>50500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-394400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>104700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>7500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-92100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>237600</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4174,55 +4394,59 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-14200</v>
+        <v>-10900</v>
       </c>
       <c r="E91" s="3">
-        <v>-17000</v>
+        <v>-13200</v>
       </c>
       <c r="F91" s="3">
-        <v>-12000</v>
+        <v>-15700</v>
       </c>
       <c r="G91" s="3">
-        <v>-11400</v>
+        <v>-11100</v>
       </c>
       <c r="H91" s="3">
-        <v>-9900</v>
+        <v>-10600</v>
       </c>
       <c r="I91" s="3">
-        <v>-9300</v>
+        <v>-9200</v>
       </c>
       <c r="J91" s="3">
+        <v>-8600</v>
+      </c>
+      <c r="K91" s="3">
         <v>-6700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-3300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-2000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-10200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-3500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4268,8 +4492,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4315,55 +4542,61 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-14200</v>
+        <v>-10900</v>
       </c>
       <c r="E94" s="3">
-        <v>-17000</v>
+        <v>-13200</v>
       </c>
       <c r="F94" s="3">
-        <v>-12000</v>
+        <v>-15700</v>
       </c>
       <c r="G94" s="3">
-        <v>-11400</v>
+        <v>-11100</v>
       </c>
       <c r="H94" s="3">
-        <v>-9900</v>
+        <v>-10600</v>
       </c>
       <c r="I94" s="3">
-        <v>-9300</v>
+        <v>-9200</v>
       </c>
       <c r="J94" s="3">
+        <v>-8600</v>
+      </c>
+      <c r="K94" s="3">
         <v>-6700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-3300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-8700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-8200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-4900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-7800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-7200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-7800</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4381,8 +4614,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4426,10 +4660,13 @@
         <v>0</v>
       </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-16800</v>
       </c>
     </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4475,8 +4712,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4522,8 +4762,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4569,145 +4812,157 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-27100</v>
+        <v>-26200</v>
       </c>
       <c r="E100" s="3">
-        <v>-7300</v>
+        <v>-25100</v>
       </c>
       <c r="F100" s="3">
-        <v>-114600</v>
+        <v>-6800</v>
       </c>
       <c r="G100" s="3">
-        <v>-9000</v>
+        <v>-106300</v>
       </c>
       <c r="H100" s="3">
-        <v>-47300</v>
+        <v>-8300</v>
       </c>
       <c r="I100" s="3">
-        <v>-74900</v>
+        <v>-43800</v>
       </c>
       <c r="J100" s="3">
+        <v>-69400</v>
+      </c>
+      <c r="K100" s="3">
         <v>-6700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-19600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>47000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>337200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-46300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>95100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-18900</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>4000</v>
+        <v>66500</v>
       </c>
       <c r="E101" s="3">
-        <v>334600</v>
+        <v>3700</v>
       </c>
       <c r="F101" s="3">
-        <v>-7900</v>
+        <v>310100</v>
       </c>
       <c r="G101" s="3">
-        <v>91800</v>
+        <v>-34600</v>
       </c>
       <c r="H101" s="3">
-        <v>-50000</v>
+        <v>112400</v>
       </c>
       <c r="I101" s="3">
-        <v>172400</v>
+        <v>-46300</v>
       </c>
       <c r="J101" s="3">
+        <v>159800</v>
+      </c>
+      <c r="K101" s="3">
         <v>99400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>23600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>18300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>33900</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>40700</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>10300</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>27000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>27700</v>
       </c>
     </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-81300</v>
+        <v>126100</v>
       </c>
       <c r="E102" s="3">
-        <v>-468200</v>
+        <v>-75400</v>
       </c>
       <c r="F102" s="3">
-        <v>138400</v>
+        <v>-434000</v>
       </c>
       <c r="G102" s="3">
-        <v>656500</v>
+        <v>128300</v>
       </c>
       <c r="H102" s="3">
-        <v>177400</v>
+        <v>608500</v>
       </c>
       <c r="I102" s="3">
-        <v>227500</v>
+        <v>164400</v>
       </c>
       <c r="J102" s="3">
+        <v>210900</v>
+      </c>
+      <c r="K102" s="3">
         <v>647800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>50200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>51200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-288400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>352000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-36300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>22800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>238500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BMA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BMA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="92">
   <si>
     <t>BMA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,131 +665,138 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>419400</v>
+        <v>365300</v>
       </c>
       <c r="E8" s="3">
-        <v>445300</v>
+        <v>401900</v>
       </c>
       <c r="F8" s="3">
-        <v>482800</v>
+        <v>404900</v>
       </c>
       <c r="G8" s="3">
-        <v>425200</v>
+        <v>439100</v>
       </c>
       <c r="H8" s="3">
-        <v>511800</v>
+        <v>567900</v>
       </c>
       <c r="I8" s="3">
-        <v>323200</v>
+        <v>491300</v>
       </c>
       <c r="J8" s="3">
+        <v>293900</v>
+      </c>
+      <c r="K8" s="3">
         <v>228100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>199300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>187400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>239600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>203500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>179400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>195300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>198300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>194100</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -838,8 +845,11 @@
       <c r="R9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -888,8 +898,11 @@
       <c r="R10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -908,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -958,8 +972,11 @@
       <c r="R12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,8 +1025,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1058,58 +1078,64 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-11300</v>
+        <v>-11400</v>
       </c>
       <c r="E15" s="3">
-        <v>-5400</v>
+        <v>-10900</v>
       </c>
       <c r="F15" s="3">
-        <v>-5000</v>
+        <v>-4900</v>
       </c>
       <c r="G15" s="3">
-        <v>-4300</v>
+        <v>-4500</v>
       </c>
       <c r="H15" s="3">
-        <v>-10500</v>
+        <v>-10300</v>
       </c>
       <c r="I15" s="3">
-        <v>-2900</v>
+        <v>-10000</v>
       </c>
       <c r="J15" s="3">
-        <v>-2500</v>
+        <v>-2600</v>
       </c>
       <c r="K15" s="3">
         <v>-2500</v>
       </c>
       <c r="L15" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="M15" s="3">
         <v>-2700</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>-5900</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>-5000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>-4500</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>-5000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>-2900</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>-2700</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,108 +1151,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>142100</v>
+        <v>146900</v>
       </c>
       <c r="E17" s="3">
-        <v>164100</v>
+        <v>136100</v>
       </c>
       <c r="F17" s="3">
-        <v>221900</v>
+        <v>149200</v>
       </c>
       <c r="G17" s="3">
-        <v>208900</v>
+        <v>201700</v>
       </c>
       <c r="H17" s="3">
-        <v>262400</v>
+        <v>278200</v>
       </c>
       <c r="I17" s="3">
-        <v>167800</v>
+        <v>252200</v>
       </c>
       <c r="J17" s="3">
+        <v>152500</v>
+      </c>
+      <c r="K17" s="3">
         <v>98000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>74600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>65500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>79300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>71700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>64600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>69100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>96500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>96400</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>277400</v>
+        <v>218400</v>
       </c>
       <c r="E18" s="3">
-        <v>281200</v>
+        <v>265800</v>
       </c>
       <c r="F18" s="3">
-        <v>261000</v>
+        <v>255700</v>
       </c>
       <c r="G18" s="3">
-        <v>216300</v>
+        <v>237300</v>
       </c>
       <c r="H18" s="3">
-        <v>249500</v>
+        <v>289800</v>
       </c>
       <c r="I18" s="3">
-        <v>155400</v>
+        <v>239000</v>
       </c>
       <c r="J18" s="3">
+        <v>141300</v>
+      </c>
+      <c r="K18" s="3">
         <v>130100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>124700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>121900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>160300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>131700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>114800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>126200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>101800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>97600</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,108 +1278,115 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-127900</v>
+        <v>-107300</v>
       </c>
       <c r="E20" s="3">
-        <v>-57900</v>
+        <v>-122500</v>
       </c>
       <c r="F20" s="3">
-        <v>-99600</v>
+        <v>-52600</v>
       </c>
       <c r="G20" s="3">
-        <v>-81800</v>
+        <v>-90500</v>
       </c>
       <c r="H20" s="3">
-        <v>-119100</v>
+        <v>-197200</v>
       </c>
       <c r="I20" s="3">
-        <v>-53000</v>
+        <v>-114200</v>
       </c>
       <c r="J20" s="3">
+        <v>-48200</v>
+      </c>
+      <c r="K20" s="3">
         <v>-54800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-60200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-36100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-62700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-33700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-35900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-44500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-35400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-31300</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>160900</v>
+        <v>123000</v>
       </c>
       <c r="E21" s="3">
-        <v>228700</v>
+        <v>153600</v>
       </c>
       <c r="F21" s="3">
-        <v>166400</v>
+        <v>208000</v>
       </c>
       <c r="G21" s="3">
-        <v>132200</v>
+        <v>138500</v>
       </c>
       <c r="H21" s="3">
-        <v>140800</v>
+        <v>103400</v>
       </c>
       <c r="I21" s="3">
-        <v>105300</v>
+        <v>134400</v>
       </c>
       <c r="J21" s="3">
+        <v>95800</v>
+      </c>
+      <c r="K21" s="3">
         <v>77800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>67100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>88500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>101700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>101400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>81800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>85100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>66600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>66500</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1395,108 +1435,117 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>149500</v>
+        <v>111100</v>
       </c>
       <c r="E23" s="3">
-        <v>223300</v>
+        <v>143300</v>
       </c>
       <c r="F23" s="3">
-        <v>161400</v>
+        <v>203100</v>
       </c>
       <c r="G23" s="3">
-        <v>134400</v>
+        <v>146800</v>
       </c>
       <c r="H23" s="3">
-        <v>130300</v>
+        <v>92600</v>
       </c>
       <c r="I23" s="3">
-        <v>102400</v>
+        <v>124900</v>
       </c>
       <c r="J23" s="3">
+        <v>93100</v>
+      </c>
+      <c r="K23" s="3">
         <v>75300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>64500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>85800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>97600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>98000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>78800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>81700</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>66400</v>
       </c>
       <c r="R23" s="3">
         <v>66400</v>
       </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3">
+        <v>66400</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>53500</v>
+        <v>32100</v>
       </c>
       <c r="E24" s="3">
-        <v>43300</v>
+        <v>51300</v>
       </c>
       <c r="F24" s="3">
-        <v>-17100</v>
+        <v>39400</v>
       </c>
       <c r="G24" s="3">
-        <v>39000</v>
+        <v>-15600</v>
       </c>
       <c r="H24" s="3">
-        <v>77000</v>
+        <v>55300</v>
       </c>
       <c r="I24" s="3">
-        <v>31900</v>
+        <v>73800</v>
       </c>
       <c r="J24" s="3">
+        <v>29000</v>
+      </c>
+      <c r="K24" s="3">
         <v>23300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>18600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>26900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>25800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>34900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>27400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>28700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>22000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>23600</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>96000</v>
+        <v>78900</v>
       </c>
       <c r="E26" s="3">
-        <v>180000</v>
+        <v>92000</v>
       </c>
       <c r="F26" s="3">
-        <v>178600</v>
+        <v>163700</v>
       </c>
       <c r="G26" s="3">
-        <v>95400</v>
+        <v>162400</v>
       </c>
       <c r="H26" s="3">
-        <v>53300</v>
+        <v>37300</v>
       </c>
       <c r="I26" s="3">
-        <v>70500</v>
+        <v>51100</v>
       </c>
       <c r="J26" s="3">
+        <v>64100</v>
+      </c>
+      <c r="K26" s="3">
         <v>52000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>45900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>58900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>71800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>63200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>51500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>53000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>44400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>42700</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>96000</v>
+        <v>78900</v>
       </c>
       <c r="E27" s="3">
-        <v>180000</v>
+        <v>92000</v>
       </c>
       <c r="F27" s="3">
-        <v>178600</v>
+        <v>163700</v>
       </c>
       <c r="G27" s="3">
-        <v>95400</v>
+        <v>162400</v>
       </c>
       <c r="H27" s="3">
-        <v>53300</v>
+        <v>37300</v>
       </c>
       <c r="I27" s="3">
+        <v>51100</v>
+      </c>
+      <c r="J27" s="3">
+        <v>64700</v>
+      </c>
+      <c r="K27" s="3">
+        <v>51900</v>
+      </c>
+      <c r="L27" s="3">
+        <v>45600</v>
+      </c>
+      <c r="M27" s="3">
+        <v>58600</v>
+      </c>
+      <c r="N27" s="3">
         <v>71200</v>
       </c>
-      <c r="J27" s="3">
-        <v>51900</v>
-      </c>
-      <c r="K27" s="3">
-        <v>45600</v>
-      </c>
-      <c r="L27" s="3">
-        <v>58600</v>
-      </c>
-      <c r="M27" s="3">
-        <v>71200</v>
-      </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>62700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>51000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>52500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>44400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>42700</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,108 +1912,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>127900</v>
+        <v>107300</v>
       </c>
       <c r="E32" s="3">
-        <v>57900</v>
+        <v>122500</v>
       </c>
       <c r="F32" s="3">
-        <v>99600</v>
+        <v>52600</v>
       </c>
       <c r="G32" s="3">
-        <v>81800</v>
+        <v>90500</v>
       </c>
       <c r="H32" s="3">
-        <v>119100</v>
+        <v>197200</v>
       </c>
       <c r="I32" s="3">
-        <v>53000</v>
+        <v>114200</v>
       </c>
       <c r="J32" s="3">
+        <v>48200</v>
+      </c>
+      <c r="K32" s="3">
         <v>54800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>60200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>36100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>62700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>33700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>35900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>44500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>35400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>31300</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>96000</v>
+        <v>78900</v>
       </c>
       <c r="E33" s="3">
-        <v>180000</v>
+        <v>92000</v>
       </c>
       <c r="F33" s="3">
-        <v>178600</v>
+        <v>163700</v>
       </c>
       <c r="G33" s="3">
-        <v>95400</v>
+        <v>162400</v>
       </c>
       <c r="H33" s="3">
-        <v>53300</v>
+        <v>37300</v>
       </c>
       <c r="I33" s="3">
+        <v>51100</v>
+      </c>
+      <c r="J33" s="3">
+        <v>64700</v>
+      </c>
+      <c r="K33" s="3">
+        <v>51900</v>
+      </c>
+      <c r="L33" s="3">
+        <v>45600</v>
+      </c>
+      <c r="M33" s="3">
+        <v>58600</v>
+      </c>
+      <c r="N33" s="3">
         <v>71200</v>
       </c>
-      <c r="J33" s="3">
-        <v>51900</v>
-      </c>
-      <c r="K33" s="3">
-        <v>45600</v>
-      </c>
-      <c r="L33" s="3">
-        <v>58600</v>
-      </c>
-      <c r="M33" s="3">
-        <v>71200</v>
-      </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>62700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>51000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>52500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>44400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>42700</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>96000</v>
+        <v>78900</v>
       </c>
       <c r="E35" s="3">
-        <v>180000</v>
+        <v>92000</v>
       </c>
       <c r="F35" s="3">
-        <v>178600</v>
+        <v>163700</v>
       </c>
       <c r="G35" s="3">
-        <v>95400</v>
+        <v>162400</v>
       </c>
       <c r="H35" s="3">
-        <v>53300</v>
+        <v>37300</v>
       </c>
       <c r="I35" s="3">
+        <v>51100</v>
+      </c>
+      <c r="J35" s="3">
+        <v>64700</v>
+      </c>
+      <c r="K35" s="3">
+        <v>51900</v>
+      </c>
+      <c r="L35" s="3">
+        <v>45600</v>
+      </c>
+      <c r="M35" s="3">
+        <v>58600</v>
+      </c>
+      <c r="N35" s="3">
         <v>71200</v>
       </c>
-      <c r="J35" s="3">
-        <v>51900</v>
-      </c>
-      <c r="K35" s="3">
-        <v>45600</v>
-      </c>
-      <c r="L35" s="3">
-        <v>58600</v>
-      </c>
-      <c r="M35" s="3">
-        <v>71200</v>
-      </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>62700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>51000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>52500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>44400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>42700</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,108 +2226,115 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1226500</v>
+        <v>775600</v>
       </c>
       <c r="E41" s="3">
-        <v>1092400</v>
+        <v>1115300</v>
       </c>
       <c r="F41" s="3">
-        <v>956000</v>
+        <v>1046700</v>
       </c>
       <c r="G41" s="3">
-        <v>1077000</v>
+        <v>869300</v>
       </c>
       <c r="H41" s="3">
-        <v>893600</v>
+        <v>979400</v>
       </c>
       <c r="I41" s="3">
-        <v>832700</v>
+        <v>812600</v>
       </c>
       <c r="J41" s="3">
+        <v>757200</v>
+      </c>
+      <c r="K41" s="3">
         <v>807800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>661100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>454500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>823900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>700900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>660600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>744300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>924100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>607900</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>493800</v>
+        <v>1542000</v>
       </c>
       <c r="E42" s="3">
-        <v>527400</v>
+        <v>449100</v>
       </c>
       <c r="F42" s="3">
-        <v>425000</v>
+        <v>516100</v>
       </c>
       <c r="G42" s="3">
-        <v>274400</v>
+        <v>386500</v>
       </c>
       <c r="H42" s="3">
-        <v>190400</v>
+        <v>249600</v>
       </c>
       <c r="I42" s="3">
-        <v>231900</v>
+        <v>173100</v>
       </c>
       <c r="J42" s="3">
+        <v>210900</v>
+      </c>
+      <c r="K42" s="3">
         <v>164000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>136800</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>61700</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>432500</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>396500</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>357300</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>163500</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>188700</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>176500</v>
       </c>
     </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2290,8 +2383,11 @@
       <c r="R43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2340,8 +2436,11 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2390,8 +2489,11 @@
       <c r="R45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2440,49 +2542,52 @@
       <c r="R46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>23800</v>
+        <v>21700</v>
       </c>
       <c r="E47" s="3">
-        <v>24600</v>
+        <v>21600</v>
       </c>
       <c r="F47" s="3">
-        <v>22400</v>
+        <v>23600</v>
       </c>
       <c r="G47" s="3">
-        <v>22200</v>
+        <v>20300</v>
       </c>
       <c r="H47" s="3">
-        <v>22100</v>
+        <v>20200</v>
       </c>
       <c r="I47" s="3">
+        <v>20100</v>
+      </c>
+      <c r="J47" s="3">
+        <v>2000</v>
+      </c>
+      <c r="K47" s="3">
+        <v>1900</v>
+      </c>
+      <c r="L47" s="3">
         <v>2200</v>
       </c>
-      <c r="J47" s="3">
-        <v>1900</v>
-      </c>
-      <c r="K47" s="3">
-        <v>2200</v>
-      </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>6600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>11500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>2100</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>800</v>
-      </c>
-      <c r="P47" s="3">
-        <v>300</v>
       </c>
       <c r="Q47" s="3">
         <v>300</v>
@@ -2490,108 +2595,117 @@
       <c r="R47" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>374000</v>
+        <v>355000</v>
       </c>
       <c r="E48" s="3">
-        <v>376600</v>
+        <v>340100</v>
       </c>
       <c r="F48" s="3">
-        <v>145100</v>
+        <v>360900</v>
       </c>
       <c r="G48" s="3">
-        <v>137200</v>
+        <v>131900</v>
       </c>
       <c r="H48" s="3">
-        <v>133700</v>
+        <v>124800</v>
       </c>
       <c r="I48" s="3">
-        <v>122200</v>
+        <v>121500</v>
       </c>
       <c r="J48" s="3">
+        <v>111100</v>
+      </c>
+      <c r="K48" s="3">
         <v>107200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>111100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>119600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>161500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>35600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>34100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>39400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>38200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>34700</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>53600</v>
+        <v>50900</v>
       </c>
       <c r="E49" s="3">
-        <v>51800</v>
+        <v>48700</v>
       </c>
       <c r="F49" s="3">
-        <v>27800</v>
+        <v>49700</v>
       </c>
       <c r="G49" s="3">
-        <v>25400</v>
+        <v>25300</v>
       </c>
       <c r="H49" s="3">
-        <v>21000</v>
+        <v>23100</v>
       </c>
       <c r="I49" s="3">
-        <v>19000</v>
+        <v>19100</v>
       </c>
       <c r="J49" s="3">
+        <v>17300</v>
+      </c>
+      <c r="K49" s="3">
         <v>15600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>14500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>15700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>40500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>19200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>17700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>19900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>17400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>16200</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,44 +2807,47 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>27200</v>
+        <v>26000</v>
       </c>
       <c r="E52" s="3">
-        <v>26300</v>
+        <v>24800</v>
       </c>
       <c r="F52" s="3">
-        <v>43700</v>
+        <v>25200</v>
       </c>
       <c r="G52" s="3">
-        <v>7000</v>
+        <v>39700</v>
       </c>
       <c r="H52" s="3">
-        <v>8700</v>
+        <v>6400</v>
       </c>
       <c r="I52" s="3">
-        <v>11500</v>
+        <v>7900</v>
       </c>
       <c r="J52" s="3">
-        <v>2500</v>
+        <v>10500</v>
       </c>
       <c r="K52" s="3">
         <v>2500</v>
       </c>
       <c r="L52" s="3">
+        <v>2500</v>
+      </c>
+      <c r="M52" s="3">
         <v>2400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>5200</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O52" s="3" t="s">
         <v>5</v>
       </c>
@@ -2740,8 +2860,11 @@
       <c r="R52" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,58 +2913,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>6877000</v>
+        <v>7716900</v>
       </c>
       <c r="E54" s="3">
-        <v>6489700</v>
+        <v>6253700</v>
       </c>
       <c r="F54" s="3">
-        <v>5464000</v>
+        <v>6218700</v>
       </c>
       <c r="G54" s="3">
-        <v>5442000</v>
+        <v>4968800</v>
       </c>
       <c r="H54" s="3">
-        <v>5296300</v>
+        <v>4948700</v>
       </c>
       <c r="I54" s="3">
-        <v>4652300</v>
+        <v>4816300</v>
       </c>
       <c r="J54" s="3">
+        <v>4230600</v>
+      </c>
+      <c r="K54" s="3">
         <v>4222300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3978200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3829400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>5192200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>4733600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>4307400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>4371900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>4057900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>3580900</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,58 +3010,62 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>318700</v>
+        <v>355300</v>
       </c>
       <c r="E57" s="3">
-        <v>324300</v>
+        <v>289800</v>
       </c>
       <c r="F57" s="3">
-        <v>226800</v>
+        <v>310800</v>
       </c>
       <c r="G57" s="3">
-        <v>201300</v>
+        <v>206200</v>
       </c>
       <c r="H57" s="3">
-        <v>225600</v>
+        <v>183000</v>
       </c>
       <c r="I57" s="3">
-        <v>207800</v>
+        <v>205100</v>
       </c>
       <c r="J57" s="3">
+        <v>189000</v>
+      </c>
+      <c r="K57" s="3">
         <v>173600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>163900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>150300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>374000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>219100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>219900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>222000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>239200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>182100</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2980,49 +3114,52 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>139700</v>
+        <v>92400</v>
       </c>
       <c r="E59" s="3">
-        <v>119000</v>
+        <v>127000</v>
       </c>
       <c r="F59" s="3">
-        <v>61200</v>
+        <v>114000</v>
       </c>
       <c r="G59" s="3">
-        <v>56300</v>
+        <v>55600</v>
       </c>
       <c r="H59" s="3">
-        <v>62000</v>
+        <v>51200</v>
       </c>
       <c r="I59" s="3">
-        <v>40000</v>
+        <v>56400</v>
       </c>
       <c r="J59" s="3">
+        <v>36400</v>
+      </c>
+      <c r="K59" s="3">
         <v>28600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>26100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>67300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>91200</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O59" s="3">
-        <v>0</v>
-      </c>
-      <c r="P59" s="3" t="s">
-        <v>5</v>
+      <c r="O59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P59" s="3">
+        <v>0</v>
       </c>
       <c r="Q59" s="3" t="s">
         <v>5</v>
@@ -3030,8 +3167,11 @@
       <c r="R59" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3080,108 +3220,117 @@
       <c r="R60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>446900</v>
+        <v>426600</v>
       </c>
       <c r="E61" s="3">
-        <v>469300</v>
+        <v>406400</v>
       </c>
       <c r="F61" s="3">
-        <v>448900</v>
+        <v>449700</v>
       </c>
       <c r="G61" s="3">
-        <v>347200</v>
+        <v>408200</v>
       </c>
       <c r="H61" s="3">
-        <v>369900</v>
+        <v>315700</v>
       </c>
       <c r="I61" s="3">
-        <v>334700</v>
+        <v>336400</v>
       </c>
       <c r="J61" s="3">
+        <v>304400</v>
+      </c>
+      <c r="K61" s="3">
         <v>360300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>316200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>225800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>308600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>285000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>270200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>166300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>211200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>104400</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>21600</v>
+        <v>65100</v>
       </c>
       <c r="E62" s="3">
-        <v>23900</v>
+        <v>19600</v>
       </c>
       <c r="F62" s="3">
-        <v>18000</v>
+        <v>22900</v>
       </c>
       <c r="G62" s="3">
-        <v>20400</v>
+        <v>16400</v>
       </c>
       <c r="H62" s="3">
-        <v>18600</v>
+        <v>18500</v>
       </c>
       <c r="I62" s="3">
-        <v>17300</v>
+        <v>17000</v>
       </c>
       <c r="J62" s="3">
+        <v>15700</v>
+      </c>
+      <c r="K62" s="3">
         <v>12600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>14600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>18100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>27300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>11000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>8600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>9200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>8800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>7700</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,58 +3485,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>5261300</v>
+        <v>6246000</v>
       </c>
       <c r="E66" s="3">
-        <v>4955800</v>
+        <v>4784400</v>
       </c>
       <c r="F66" s="3">
-        <v>4427700</v>
+        <v>4748800</v>
       </c>
       <c r="G66" s="3">
-        <v>4590700</v>
+        <v>4026300</v>
       </c>
       <c r="H66" s="3">
-        <v>4453800</v>
+        <v>4174600</v>
       </c>
       <c r="I66" s="3">
-        <v>3910900</v>
+        <v>4050100</v>
       </c>
       <c r="J66" s="3">
+        <v>3556400</v>
+      </c>
+      <c r="K66" s="3">
         <v>3530700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3244100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3001500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4124700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3813200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3485500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3746900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3479100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3046600</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,58 +3771,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>934700</v>
+        <v>818300</v>
       </c>
       <c r="E72" s="3">
-        <v>852800</v>
+        <v>850000</v>
       </c>
       <c r="F72" s="3">
-        <v>859000</v>
+        <v>817200</v>
       </c>
       <c r="G72" s="3">
-        <v>673500</v>
+        <v>781100</v>
       </c>
       <c r="H72" s="3">
-        <v>664700</v>
+        <v>612400</v>
       </c>
       <c r="I72" s="3">
-        <v>563600</v>
+        <v>604400</v>
       </c>
       <c r="J72" s="3">
+        <v>512500</v>
+      </c>
+      <c r="K72" s="3">
         <v>513800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>542300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>611300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>881500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>613400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>553800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>599000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>552900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>508500</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +3983,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1615800</v>
+        <v>1470900</v>
       </c>
       <c r="E76" s="3">
-        <v>1533900</v>
+        <v>1469300</v>
       </c>
       <c r="F76" s="3">
-        <v>1036400</v>
+        <v>1469800</v>
       </c>
       <c r="G76" s="3">
-        <v>851300</v>
+        <v>942400</v>
       </c>
       <c r="H76" s="3">
-        <v>842500</v>
+        <v>774100</v>
       </c>
       <c r="I76" s="3">
-        <v>741400</v>
+        <v>766100</v>
       </c>
       <c r="J76" s="3">
+        <v>674200</v>
+      </c>
+      <c r="K76" s="3">
         <v>691600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>734100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>827900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1067500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>920300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>821900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>624900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>578700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>534400</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>96000</v>
+        <v>78900</v>
       </c>
       <c r="E81" s="3">
-        <v>180000</v>
+        <v>92000</v>
       </c>
       <c r="F81" s="3">
-        <v>178600</v>
+        <v>163700</v>
       </c>
       <c r="G81" s="3">
-        <v>95400</v>
+        <v>162400</v>
       </c>
       <c r="H81" s="3">
-        <v>53300</v>
+        <v>37300</v>
       </c>
       <c r="I81" s="3">
+        <v>51100</v>
+      </c>
+      <c r="J81" s="3">
+        <v>64700</v>
+      </c>
+      <c r="K81" s="3">
+        <v>51900</v>
+      </c>
+      <c r="L81" s="3">
+        <v>45600</v>
+      </c>
+      <c r="M81" s="3">
+        <v>58600</v>
+      </c>
+      <c r="N81" s="3">
         <v>71200</v>
       </c>
-      <c r="J81" s="3">
-        <v>51900</v>
-      </c>
-      <c r="K81" s="3">
-        <v>45600</v>
-      </c>
-      <c r="L81" s="3">
-        <v>58600</v>
-      </c>
-      <c r="M81" s="3">
-        <v>71200</v>
-      </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>62700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>51000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>52500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>44400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>42700</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,58 +4223,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>11300</v>
+        <v>11900</v>
       </c>
       <c r="E83" s="3">
-        <v>5400</v>
+        <v>10300</v>
       </c>
       <c r="F83" s="3">
-        <v>5000</v>
+        <v>4900</v>
       </c>
       <c r="G83" s="3">
-        <v>-2200</v>
+        <v>-8300</v>
       </c>
       <c r="H83" s="3">
-        <v>10500</v>
+        <v>10800</v>
       </c>
       <c r="I83" s="3">
-        <v>2900</v>
+        <v>9500</v>
       </c>
       <c r="J83" s="3">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="K83" s="3">
         <v>2500</v>
       </c>
       <c r="L83" s="3">
+        <v>2500</v>
+      </c>
+      <c r="M83" s="3">
         <v>2700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>4100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>3300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>3000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>3400</v>
       </c>
-      <c r="Q83" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R83" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,58 +4539,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>96700</v>
+        <v>404900</v>
       </c>
       <c r="E89" s="3">
-        <v>-40800</v>
+        <v>87900</v>
       </c>
       <c r="F89" s="3">
-        <v>-721600</v>
+        <v>-37100</v>
       </c>
       <c r="G89" s="3">
-        <v>253000</v>
+        <v>-656200</v>
       </c>
       <c r="H89" s="3">
-        <v>542400</v>
+        <v>230000</v>
       </c>
       <c r="I89" s="3">
-        <v>264700</v>
+        <v>493200</v>
       </c>
       <c r="J89" s="3">
+        <v>240700</v>
+      </c>
+      <c r="K89" s="3">
         <v>129100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>554900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>38600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>50500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-394400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>104700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>7500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-92100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>237600</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,58 +4615,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-10900</v>
+        <v>-7600</v>
       </c>
       <c r="E91" s="3">
-        <v>-13200</v>
+        <v>-9900</v>
       </c>
       <c r="F91" s="3">
-        <v>-15700</v>
+        <v>-12000</v>
       </c>
       <c r="G91" s="3">
-        <v>-11100</v>
+        <v>-14300</v>
       </c>
       <c r="H91" s="3">
-        <v>-10600</v>
+        <v>-10100</v>
       </c>
       <c r="I91" s="3">
-        <v>-9200</v>
+        <v>-9600</v>
       </c>
       <c r="J91" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="K91" s="3">
         <v>-8600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-6700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-3300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-2900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-2000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-10200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-3500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,58 +4772,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-10900</v>
+        <v>-7600</v>
       </c>
       <c r="E94" s="3">
-        <v>-13200</v>
+        <v>-9900</v>
       </c>
       <c r="F94" s="3">
-        <v>-15700</v>
+        <v>-12000</v>
       </c>
       <c r="G94" s="3">
-        <v>-11100</v>
+        <v>-14300</v>
       </c>
       <c r="H94" s="3">
-        <v>-10600</v>
+        <v>-10100</v>
       </c>
       <c r="I94" s="3">
-        <v>-9200</v>
+        <v>-9600</v>
       </c>
       <c r="J94" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="K94" s="3">
         <v>-8600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-6700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-3300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-8700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-8200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-4900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-7800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-7200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-7800</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4663,10 +4897,13 @@
         <v>0</v>
       </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-16800</v>
       </c>
     </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,154 +5058,166 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-26200</v>
+        <v>-23000</v>
       </c>
       <c r="E100" s="3">
-        <v>-25100</v>
+        <v>-23800</v>
       </c>
       <c r="F100" s="3">
-        <v>-6800</v>
+        <v>-22900</v>
       </c>
       <c r="G100" s="3">
-        <v>-106300</v>
+        <v>-6200</v>
       </c>
       <c r="H100" s="3">
-        <v>-8300</v>
+        <v>-96600</v>
       </c>
       <c r="I100" s="3">
-        <v>-43800</v>
+        <v>-7600</v>
       </c>
       <c r="J100" s="3">
+        <v>-39800</v>
+      </c>
+      <c r="K100" s="3">
         <v>-69400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-6700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-19600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>47000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>337200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-46300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>95100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-18900</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>66500</v>
+        <v>79200</v>
       </c>
       <c r="E101" s="3">
-        <v>3700</v>
+        <v>60400</v>
       </c>
       <c r="F101" s="3">
-        <v>310100</v>
+        <v>3400</v>
       </c>
       <c r="G101" s="3">
-        <v>-34600</v>
+        <v>248400</v>
       </c>
       <c r="H101" s="3">
-        <v>112400</v>
+        <v>2200</v>
       </c>
       <c r="I101" s="3">
-        <v>-46300</v>
+        <v>102200</v>
       </c>
       <c r="J101" s="3">
+        <v>-42100</v>
+      </c>
+      <c r="K101" s="3">
         <v>159800</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>99400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>23600</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>18300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>33900</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>40700</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>10300</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>27000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>27700</v>
       </c>
     </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>126100</v>
+        <v>453400</v>
       </c>
       <c r="E102" s="3">
-        <v>-75400</v>
+        <v>114600</v>
       </c>
       <c r="F102" s="3">
-        <v>-434000</v>
+        <v>-68500</v>
       </c>
       <c r="G102" s="3">
-        <v>128300</v>
+        <v>-394700</v>
       </c>
       <c r="H102" s="3">
-        <v>608500</v>
+        <v>116700</v>
       </c>
       <c r="I102" s="3">
-        <v>164400</v>
+        <v>553400</v>
       </c>
       <c r="J102" s="3">
+        <v>149500</v>
+      </c>
+      <c r="K102" s="3">
         <v>210900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>647800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>50200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>51200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-288400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>352000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-36300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>22800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>238500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BMA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BMA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="92">
   <si>
     <t>BMA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,138 +665,151 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>365300</v>
+        <v>582600</v>
       </c>
       <c r="E8" s="3">
-        <v>401900</v>
+        <v>401700</v>
       </c>
       <c r="F8" s="3">
-        <v>404900</v>
+        <v>730900</v>
       </c>
       <c r="G8" s="3">
-        <v>439100</v>
+        <v>355700</v>
       </c>
       <c r="H8" s="3">
-        <v>567900</v>
+        <v>686700</v>
       </c>
       <c r="I8" s="3">
+        <v>558300</v>
+      </c>
+      <c r="J8" s="3">
+        <v>1008300</v>
+      </c>
+      <c r="K8" s="3">
         <v>491300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>293900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>228100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>199300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>187400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>239600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>203500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>179400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>195300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>198300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>194100</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -848,8 +861,14 @@
       <c r="S9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -901,8 +920,14 @@
       <c r="S10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -922,8 +947,10 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -975,8 +1002,14 @@
       <c r="S12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,8 +1061,14 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1081,61 +1120,73 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-11400</v>
+        <v>-15800</v>
       </c>
       <c r="E15" s="3">
-        <v>-10900</v>
+        <v>-11100</v>
       </c>
       <c r="F15" s="3">
-        <v>-4900</v>
+        <v>-21200</v>
       </c>
       <c r="G15" s="3">
-        <v>-4500</v>
+        <v>-9600</v>
       </c>
       <c r="H15" s="3">
-        <v>-10300</v>
+        <v>-14900</v>
       </c>
       <c r="I15" s="3">
+        <v>-10400</v>
+      </c>
+      <c r="J15" s="3">
+        <v>-19300</v>
+      </c>
+      <c r="K15" s="3">
         <v>-10000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>-2600</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>-2500</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>-2500</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>-2700</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>-5900</v>
-      </c>
-      <c r="O15" s="3">
-        <v>-5000</v>
-      </c>
-      <c r="P15" s="3">
-        <v>-4500</v>
       </c>
       <c r="Q15" s="3">
         <v>-5000</v>
       </c>
       <c r="R15" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="S15" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="T15" s="3">
         <v>-2900</v>
       </c>
-      <c r="S15" s="3">
+      <c r="U15" s="3">
         <v>-2700</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1203,128 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>146900</v>
+        <v>292200</v>
       </c>
       <c r="E17" s="3">
-        <v>136100</v>
+        <v>189800</v>
       </c>
       <c r="F17" s="3">
-        <v>149200</v>
+        <v>269700</v>
       </c>
       <c r="G17" s="3">
-        <v>201700</v>
+        <v>120500</v>
       </c>
       <c r="H17" s="3">
-        <v>278200</v>
+        <v>264100</v>
       </c>
       <c r="I17" s="3">
+        <v>248800</v>
+      </c>
+      <c r="J17" s="3">
+        <v>504500</v>
+      </c>
+      <c r="K17" s="3">
         <v>252200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>152500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>98000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>74600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>65500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>79300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>71700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>64600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>69100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>96500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>96400</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>218400</v>
+        <v>290400</v>
       </c>
       <c r="E18" s="3">
-        <v>265800</v>
+        <v>211900</v>
       </c>
       <c r="F18" s="3">
-        <v>255700</v>
+        <v>461300</v>
       </c>
       <c r="G18" s="3">
-        <v>237300</v>
+        <v>235200</v>
       </c>
       <c r="H18" s="3">
-        <v>289800</v>
+        <v>422600</v>
       </c>
       <c r="I18" s="3">
+        <v>309400</v>
+      </c>
+      <c r="J18" s="3">
+        <v>503800</v>
+      </c>
+      <c r="K18" s="3">
         <v>239000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>141300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>130100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>124700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>121900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>160300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>131700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>114800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>126200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>101800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>97600</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,114 +1344,128 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-107300</v>
+        <v>-169400</v>
       </c>
       <c r="E20" s="3">
-        <v>-122500</v>
+        <v>-111100</v>
       </c>
       <c r="F20" s="3">
-        <v>-52600</v>
+        <v>-219000</v>
       </c>
       <c r="G20" s="3">
-        <v>-90500</v>
+        <v>-108400</v>
       </c>
       <c r="H20" s="3">
-        <v>-197200</v>
+        <v>-243000</v>
       </c>
       <c r="I20" s="3">
+        <v>-221400</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-296600</v>
+      </c>
+      <c r="K20" s="3">
         <v>-114200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-48200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-54800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-60200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-36100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-62700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-33700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-35900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-44500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>-35400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>-31300</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>123000</v>
+        <v>136800</v>
       </c>
       <c r="E21" s="3">
-        <v>153600</v>
+        <v>113500</v>
       </c>
       <c r="F21" s="3">
-        <v>208000</v>
+        <v>262000</v>
       </c>
       <c r="G21" s="3">
-        <v>138500</v>
+        <v>135900</v>
       </c>
       <c r="H21" s="3">
-        <v>103400</v>
+        <v>194500</v>
       </c>
       <c r="I21" s="3">
+        <v>99900</v>
+      </c>
+      <c r="J21" s="3">
+        <v>225100</v>
+      </c>
+      <c r="K21" s="3">
         <v>134400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>95800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>77800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>67100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>88500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>101700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>101400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>81800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>85100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>66600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>66500</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1438,114 +1517,132 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>111100</v>
+        <v>121000</v>
       </c>
       <c r="E23" s="3">
-        <v>143300</v>
+        <v>100900</v>
       </c>
       <c r="F23" s="3">
-        <v>203100</v>
+        <v>242300</v>
       </c>
       <c r="G23" s="3">
-        <v>146800</v>
+        <v>126800</v>
       </c>
       <c r="H23" s="3">
-        <v>92600</v>
+        <v>179600</v>
       </c>
       <c r="I23" s="3">
+        <v>88100</v>
+      </c>
+      <c r="J23" s="3">
+        <v>207200</v>
+      </c>
+      <c r="K23" s="3">
         <v>124900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>93100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>75300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>64500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>85800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>97600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>98000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>78800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>81700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>66400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>66400</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>32100</v>
+        <v>19600</v>
       </c>
       <c r="E24" s="3">
-        <v>51300</v>
+        <v>34600</v>
       </c>
       <c r="F24" s="3">
-        <v>39400</v>
+        <v>79500</v>
       </c>
       <c r="G24" s="3">
-        <v>-15600</v>
+        <v>45400</v>
       </c>
       <c r="H24" s="3">
-        <v>55300</v>
+        <v>74200</v>
       </c>
       <c r="I24" s="3">
+        <v>-11400</v>
+      </c>
+      <c r="J24" s="3">
+        <v>123000</v>
+      </c>
+      <c r="K24" s="3">
         <v>73800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>29000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>23300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>18600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>26900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>25800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>34900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>27400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>28700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>22000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>23600</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1694,132 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>78900</v>
+        <v>101400</v>
       </c>
       <c r="E26" s="3">
-        <v>92000</v>
+        <v>66300</v>
       </c>
       <c r="F26" s="3">
-        <v>163700</v>
+        <v>162800</v>
       </c>
       <c r="G26" s="3">
-        <v>162400</v>
+        <v>81400</v>
       </c>
       <c r="H26" s="3">
-        <v>37300</v>
+        <v>105400</v>
       </c>
       <c r="I26" s="3">
+        <v>99500</v>
+      </c>
+      <c r="J26" s="3">
+        <v>84200</v>
+      </c>
+      <c r="K26" s="3">
         <v>51100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>64100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>52000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>45900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>58900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>71800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>63200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>51500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>53000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>44400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>42700</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>78900</v>
+        <v>101400</v>
       </c>
       <c r="E27" s="3">
-        <v>92000</v>
+        <v>66300</v>
       </c>
       <c r="F27" s="3">
-        <v>163700</v>
+        <v>162800</v>
       </c>
       <c r="G27" s="3">
-        <v>162400</v>
+        <v>81400</v>
       </c>
       <c r="H27" s="3">
-        <v>37300</v>
+        <v>105400</v>
       </c>
       <c r="I27" s="3">
+        <v>99500</v>
+      </c>
+      <c r="J27" s="3">
+        <v>84200</v>
+      </c>
+      <c r="K27" s="3">
         <v>51100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>64700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>51900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>45600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>58600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>71200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>62700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>51000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>52500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>44400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>42700</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1871,14 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1930,14 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1989,14 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,114 +2048,132 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>107300</v>
+        <v>169400</v>
       </c>
       <c r="E32" s="3">
-        <v>122500</v>
+        <v>111100</v>
       </c>
       <c r="F32" s="3">
-        <v>52600</v>
+        <v>219000</v>
       </c>
       <c r="G32" s="3">
-        <v>90500</v>
+        <v>108400</v>
       </c>
       <c r="H32" s="3">
-        <v>197200</v>
+        <v>243000</v>
       </c>
       <c r="I32" s="3">
+        <v>221400</v>
+      </c>
+      <c r="J32" s="3">
+        <v>296600</v>
+      </c>
+      <c r="K32" s="3">
         <v>114200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>48200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>54800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>60200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>36100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>62700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>33700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>35900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>44500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>35400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>31300</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>78900</v>
+        <v>101400</v>
       </c>
       <c r="E33" s="3">
-        <v>92000</v>
+        <v>66300</v>
       </c>
       <c r="F33" s="3">
-        <v>163700</v>
+        <v>162800</v>
       </c>
       <c r="G33" s="3">
-        <v>162400</v>
+        <v>81400</v>
       </c>
       <c r="H33" s="3">
-        <v>37300</v>
+        <v>105400</v>
       </c>
       <c r="I33" s="3">
+        <v>99500</v>
+      </c>
+      <c r="J33" s="3">
+        <v>84200</v>
+      </c>
+      <c r="K33" s="3">
         <v>51100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>64700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>51900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>45600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>58600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>71200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>62700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>51000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>52500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>44400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>42700</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2225,137 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>78900</v>
+        <v>101400</v>
       </c>
       <c r="E35" s="3">
-        <v>92000</v>
+        <v>66300</v>
       </c>
       <c r="F35" s="3">
-        <v>163700</v>
+        <v>162800</v>
       </c>
       <c r="G35" s="3">
-        <v>162400</v>
+        <v>81400</v>
       </c>
       <c r="H35" s="3">
-        <v>37300</v>
+        <v>105400</v>
       </c>
       <c r="I35" s="3">
+        <v>99500</v>
+      </c>
+      <c r="J35" s="3">
+        <v>84200</v>
+      </c>
+      <c r="K35" s="3">
         <v>51100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>64700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>51900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>45600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>58600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>71200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>62700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>51000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>52500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>44400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>42700</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2375,10 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,114 +2398,128 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>775600</v>
+        <v>823600</v>
       </c>
       <c r="E41" s="3">
-        <v>1115300</v>
+        <v>944800</v>
       </c>
       <c r="F41" s="3">
-        <v>1046700</v>
+        <v>686400</v>
       </c>
       <c r="G41" s="3">
-        <v>869300</v>
+        <v>987000</v>
       </c>
       <c r="H41" s="3">
-        <v>979400</v>
+        <v>1110100</v>
       </c>
       <c r="I41" s="3">
+        <v>769300</v>
+      </c>
+      <c r="J41" s="3">
+        <v>866700</v>
+      </c>
+      <c r="K41" s="3">
         <v>812600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>757200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>807800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>661100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>454500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>823900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>700900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>660600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>744300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>924100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>607900</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1542000</v>
+        <v>1651200</v>
       </c>
       <c r="E42" s="3">
-        <v>449100</v>
+        <v>1072800</v>
       </c>
       <c r="F42" s="3">
-        <v>516100</v>
+        <v>1364600</v>
       </c>
       <c r="G42" s="3">
-        <v>386500</v>
+        <v>397400</v>
       </c>
       <c r="H42" s="3">
-        <v>249600</v>
+        <v>559900</v>
       </c>
       <c r="I42" s="3">
+        <v>342000</v>
+      </c>
+      <c r="J42" s="3">
+        <v>220800</v>
+      </c>
+      <c r="K42" s="3">
         <v>173100</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>210900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>164000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>136800</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>61700</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>432500</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>396500</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>357300</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>163500</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>188700</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>176500</v>
       </c>
     </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2386,8 +2571,14 @@
       <c r="S43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2439,8 +2630,14 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2492,8 +2689,14 @@
       <c r="S45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2545,167 +2748,191 @@
       <c r="S46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>21700</v>
+        <v>20400</v>
       </c>
       <c r="E47" s="3">
-        <v>21600</v>
+        <v>19700</v>
       </c>
       <c r="F47" s="3">
-        <v>23600</v>
+        <v>19200</v>
       </c>
       <c r="G47" s="3">
-        <v>20300</v>
+        <v>19100</v>
       </c>
       <c r="H47" s="3">
-        <v>20200</v>
+        <v>25000</v>
       </c>
       <c r="I47" s="3">
+        <v>18000</v>
+      </c>
+      <c r="J47" s="3">
+        <v>17800</v>
+      </c>
+      <c r="K47" s="3">
         <v>20100</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>2000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>1900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>2200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>6600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>11500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>2100</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>800</v>
-      </c>
-      <c r="Q47" s="3">
-        <v>300</v>
-      </c>
-      <c r="R47" s="3">
-        <v>300</v>
       </c>
       <c r="S47" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>300</v>
+      </c>
+      <c r="U47" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>355000</v>
+        <v>375300</v>
       </c>
       <c r="E48" s="3">
-        <v>340100</v>
+        <v>337400</v>
       </c>
       <c r="F48" s="3">
-        <v>360900</v>
+        <v>314100</v>
       </c>
       <c r="G48" s="3">
-        <v>131900</v>
+        <v>301000</v>
       </c>
       <c r="H48" s="3">
-        <v>124800</v>
+        <v>382800</v>
       </c>
       <c r="I48" s="3">
+        <v>116700</v>
+      </c>
+      <c r="J48" s="3">
+        <v>110400</v>
+      </c>
+      <c r="K48" s="3">
         <v>121500</v>
-      </c>
-      <c r="J48" s="3">
-        <v>111100</v>
-      </c>
-      <c r="K48" s="3">
-        <v>107200</v>
       </c>
       <c r="L48" s="3">
         <v>111100</v>
       </c>
       <c r="M48" s="3">
+        <v>107200</v>
+      </c>
+      <c r="N48" s="3">
+        <v>111100</v>
+      </c>
+      <c r="O48" s="3">
         <v>119600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>161500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>35600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>34100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>39400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>38200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>34700</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>50900</v>
+        <v>55700</v>
       </c>
       <c r="E49" s="3">
-        <v>48700</v>
+        <v>48400</v>
       </c>
       <c r="F49" s="3">
-        <v>49700</v>
+        <v>45000</v>
       </c>
       <c r="G49" s="3">
-        <v>25300</v>
+        <v>43100</v>
       </c>
       <c r="H49" s="3">
-        <v>23100</v>
+        <v>52700</v>
       </c>
       <c r="I49" s="3">
+        <v>22400</v>
+      </c>
+      <c r="J49" s="3">
+        <v>20400</v>
+      </c>
+      <c r="K49" s="3">
         <v>19100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>17300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>15600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>14500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>15700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>40500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>19200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>17700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>19900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>17400</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>16200</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2984,14 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,50 +3043,56 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>26000</v>
+        <v>25300</v>
       </c>
       <c r="E52" s="3">
-        <v>24800</v>
+        <v>25300</v>
       </c>
       <c r="F52" s="3">
-        <v>25200</v>
+        <v>23000</v>
       </c>
       <c r="G52" s="3">
-        <v>39700</v>
+        <v>21900</v>
       </c>
       <c r="H52" s="3">
-        <v>6400</v>
+        <v>26700</v>
       </c>
       <c r="I52" s="3">
+        <v>35100</v>
+      </c>
+      <c r="J52" s="3">
+        <v>5700</v>
+      </c>
+      <c r="K52" s="3">
         <v>7900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>10500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>2500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>2500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>2400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>5200</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q52" s="3" t="s">
         <v>5</v>
       </c>
@@ -2863,8 +3102,14 @@
       <c r="S52" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3161,73 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>7716900</v>
+        <v>8407300</v>
       </c>
       <c r="E54" s="3">
-        <v>6253700</v>
+        <v>7979500</v>
       </c>
       <c r="F54" s="3">
-        <v>6218700</v>
+        <v>6828900</v>
       </c>
       <c r="G54" s="3">
-        <v>4968800</v>
+        <v>5534100</v>
       </c>
       <c r="H54" s="3">
-        <v>4948700</v>
+        <v>6595400</v>
       </c>
       <c r="I54" s="3">
+        <v>4397000</v>
+      </c>
+      <c r="J54" s="3">
+        <v>4379300</v>
+      </c>
+      <c r="K54" s="3">
         <v>4816300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>4230600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>4222300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>3978200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>3829400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>5192200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>4733600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>4307400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>4371900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>4057900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>3580900</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3247,10 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,61 +3270,69 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>355300</v>
+        <v>537400</v>
       </c>
       <c r="E57" s="3">
-        <v>289800</v>
+        <v>312700</v>
       </c>
       <c r="F57" s="3">
-        <v>310800</v>
+        <v>314400</v>
       </c>
       <c r="G57" s="3">
-        <v>206200</v>
+        <v>256500</v>
       </c>
       <c r="H57" s="3">
-        <v>183000</v>
+        <v>329600</v>
       </c>
       <c r="I57" s="3">
+        <v>182500</v>
+      </c>
+      <c r="J57" s="3">
+        <v>162000</v>
+      </c>
+      <c r="K57" s="3">
         <v>205100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>189000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>173600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>163900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>150300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>374000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>219100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>219900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>222000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>239200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>182100</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3117,61 +3384,73 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>92400</v>
+        <v>56200</v>
       </c>
       <c r="E59" s="3">
-        <v>127000</v>
+        <v>108800</v>
       </c>
       <c r="F59" s="3">
-        <v>114000</v>
+        <v>81800</v>
       </c>
       <c r="G59" s="3">
-        <v>55600</v>
+        <v>112400</v>
       </c>
       <c r="H59" s="3">
-        <v>51200</v>
+        <v>121000</v>
       </c>
       <c r="I59" s="3">
+        <v>49200</v>
+      </c>
+      <c r="J59" s="3">
+        <v>45300</v>
+      </c>
+      <c r="K59" s="3">
         <v>56400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>36400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>28600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>26100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>67300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>91200</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P59" s="3">
-        <v>0</v>
-      </c>
       <c r="Q59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>5</v>
+      <c r="R59" s="3">
+        <v>0</v>
       </c>
       <c r="S59" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3223,114 +3502,132 @@
       <c r="S60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3">
+        <v>0</v>
+      </c>
+      <c r="U60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>426600</v>
+        <v>438400</v>
       </c>
       <c r="E61" s="3">
-        <v>406400</v>
+        <v>406600</v>
       </c>
       <c r="F61" s="3">
-        <v>449700</v>
+        <v>377500</v>
       </c>
       <c r="G61" s="3">
-        <v>408200</v>
+        <v>359600</v>
       </c>
       <c r="H61" s="3">
-        <v>315700</v>
+        <v>477000</v>
       </c>
       <c r="I61" s="3">
+        <v>361200</v>
+      </c>
+      <c r="J61" s="3">
+        <v>279400</v>
+      </c>
+      <c r="K61" s="3">
         <v>336400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>304400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>360300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>316200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>225800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>308600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>285000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>270200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>166300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>211200</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>104400</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>65100</v>
+        <v>82900</v>
       </c>
       <c r="E62" s="3">
-        <v>19600</v>
+        <v>45400</v>
       </c>
       <c r="F62" s="3">
-        <v>22900</v>
+        <v>57700</v>
       </c>
       <c r="G62" s="3">
+        <v>17400</v>
+      </c>
+      <c r="H62" s="3">
+        <v>24300</v>
+      </c>
+      <c r="I62" s="3">
+        <v>14500</v>
+      </c>
+      <c r="J62" s="3">
         <v>16400</v>
       </c>
-      <c r="H62" s="3">
-        <v>18500</v>
-      </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>17000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>15700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>12600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>14600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>18100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>27300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>11000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>8600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>9200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>8800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>7700</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3679,14 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3738,14 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3797,73 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>6246000</v>
+        <v>6790300</v>
       </c>
       <c r="E66" s="3">
-        <v>4784400</v>
+        <v>6517100</v>
       </c>
       <c r="F66" s="3">
-        <v>4748800</v>
+        <v>5527300</v>
       </c>
       <c r="G66" s="3">
-        <v>4026300</v>
+        <v>4233800</v>
       </c>
       <c r="H66" s="3">
-        <v>4174600</v>
+        <v>5036500</v>
       </c>
       <c r="I66" s="3">
+        <v>3563000</v>
+      </c>
+      <c r="J66" s="3">
+        <v>3694200</v>
+      </c>
+      <c r="K66" s="3">
         <v>4050100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>3556400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>3530700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>3244100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>3001500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>4124700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>3813200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>3485500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>3746900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>3479100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>3046600</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3883,10 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3938,14 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3997,14 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +4056,14 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +4115,73 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>818300</v>
+        <v>924900</v>
       </c>
       <c r="E72" s="3">
-        <v>850000</v>
+        <v>840700</v>
       </c>
       <c r="F72" s="3">
-        <v>817200</v>
+        <v>724200</v>
       </c>
       <c r="G72" s="3">
-        <v>781100</v>
+        <v>752200</v>
       </c>
       <c r="H72" s="3">
-        <v>612400</v>
+        <v>866700</v>
       </c>
       <c r="I72" s="3">
+        <v>691200</v>
+      </c>
+      <c r="J72" s="3">
+        <v>542000</v>
+      </c>
+      <c r="K72" s="3">
         <v>604400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>512500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>513800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>542300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>611300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>881500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>613400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>553800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>599000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>552900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>508500</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4233,14 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4292,14 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4351,73 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1470900</v>
+        <v>1617000</v>
       </c>
       <c r="E76" s="3">
-        <v>1469300</v>
+        <v>1462400</v>
       </c>
       <c r="F76" s="3">
-        <v>1469800</v>
+        <v>1301700</v>
       </c>
       <c r="G76" s="3">
-        <v>942400</v>
+        <v>1300200</v>
       </c>
       <c r="H76" s="3">
-        <v>774100</v>
+        <v>1558900</v>
       </c>
       <c r="I76" s="3">
+        <v>834000</v>
+      </c>
+      <c r="J76" s="3">
+        <v>685000</v>
+      </c>
+      <c r="K76" s="3">
         <v>766100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>674200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>691600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>734100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>827900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>1067500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>920300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>821900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>624900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>578700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>534400</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4469,137 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>78900</v>
+        <v>101400</v>
       </c>
       <c r="E81" s="3">
-        <v>92000</v>
+        <v>66300</v>
       </c>
       <c r="F81" s="3">
-        <v>163700</v>
+        <v>162800</v>
       </c>
       <c r="G81" s="3">
-        <v>162400</v>
+        <v>81400</v>
       </c>
       <c r="H81" s="3">
-        <v>37300</v>
+        <v>105400</v>
       </c>
       <c r="I81" s="3">
+        <v>99500</v>
+      </c>
+      <c r="J81" s="3">
+        <v>84200</v>
+      </c>
+      <c r="K81" s="3">
         <v>51100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>64700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>51900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>45600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>58600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>71200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>62700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>51000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>52500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>44400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>42700</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,61 +4619,69 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>11900</v>
+        <v>15800</v>
       </c>
       <c r="E83" s="3">
-        <v>10300</v>
+        <v>12600</v>
       </c>
       <c r="F83" s="3">
-        <v>4900</v>
+        <v>19700</v>
       </c>
       <c r="G83" s="3">
-        <v>-8300</v>
+        <v>9100</v>
       </c>
       <c r="H83" s="3">
-        <v>10800</v>
+        <v>14900</v>
       </c>
       <c r="I83" s="3">
+        <v>11800</v>
+      </c>
+      <c r="J83" s="3">
+        <v>17900</v>
+      </c>
+      <c r="K83" s="3">
         <v>9500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>2600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>2500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>2500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>2700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>4100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>3300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>3000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>3400</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S83" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U83" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4733,14 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4792,14 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4851,14 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4910,14 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4969,73 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>404900</v>
+        <v>-80900</v>
       </c>
       <c r="E89" s="3">
-        <v>87900</v>
+        <v>129600</v>
       </c>
       <c r="F89" s="3">
-        <v>-37100</v>
+        <v>436100</v>
       </c>
       <c r="G89" s="3">
-        <v>-656200</v>
+        <v>77800</v>
       </c>
       <c r="H89" s="3">
-        <v>230000</v>
+        <v>-32800</v>
       </c>
       <c r="I89" s="3">
+        <v>-580700</v>
+      </c>
+      <c r="J89" s="3">
+        <v>640000</v>
+      </c>
+      <c r="K89" s="3">
         <v>493200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>240700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>129100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>554900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>38600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>50500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-394400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>104700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>7500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-92100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>237600</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,61 +5055,69 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-7600</v>
+        <v>-13700</v>
       </c>
       <c r="E91" s="3">
-        <v>-9900</v>
+        <v>-10900</v>
       </c>
       <c r="F91" s="3">
-        <v>-12000</v>
+        <v>-15500</v>
       </c>
       <c r="G91" s="3">
-        <v>-14300</v>
+        <v>-8700</v>
       </c>
       <c r="H91" s="3">
-        <v>-10100</v>
+        <v>-10600</v>
       </c>
       <c r="I91" s="3">
+        <v>-12700</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-17500</v>
+      </c>
+      <c r="K91" s="3">
         <v>-9600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-8300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-8600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-6700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-3300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-2900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-2000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-10200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-3500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +5169,14 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,61 +5228,73 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-7600</v>
+        <v>-13700</v>
       </c>
       <c r="E94" s="3">
-        <v>-9900</v>
+        <v>-10900</v>
       </c>
       <c r="F94" s="3">
-        <v>-12000</v>
+        <v>-15500</v>
       </c>
       <c r="G94" s="3">
-        <v>-14300</v>
+        <v>-8700</v>
       </c>
       <c r="H94" s="3">
-        <v>-10100</v>
+        <v>-10600</v>
       </c>
       <c r="I94" s="3">
+        <v>-12700</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-17500</v>
+      </c>
+      <c r="K94" s="3">
         <v>-9600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-8300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-8600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-6700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-3300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-8700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-8200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-4900</v>
-      </c>
-      <c r="Q94" s="3">
-        <v>-7800</v>
-      </c>
-      <c r="R94" s="3">
-        <v>-7200</v>
       </c>
       <c r="S94" s="3">
         <v>-7800</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="U94" s="3">
+        <v>-7800</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5314,10 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4873,7 +5340,7 @@
         <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-69800</v>
       </c>
       <c r="K96" s="3">
         <v>0</v>
@@ -4900,10 +5367,16 @@
         <v>0</v>
       </c>
       <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
         <v>-16800</v>
       </c>
     </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5428,14 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5487,14 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,163 +5546,187 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-23000</v>
+        <v>-22900</v>
       </c>
       <c r="E100" s="3">
-        <v>-23800</v>
+        <v>-11500</v>
       </c>
       <c r="F100" s="3">
-        <v>-22900</v>
+        <v>-41500</v>
       </c>
       <c r="G100" s="3">
-        <v>-6200</v>
+        <v>-21100</v>
       </c>
       <c r="H100" s="3">
-        <v>-96600</v>
+        <v>-20200</v>
       </c>
       <c r="I100" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-92200</v>
+      </c>
+      <c r="K100" s="3">
         <v>-7600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-39800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-69400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-6700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-19600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>47000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>337200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-46300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>95100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-18900</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>79200</v>
+        <v>110200</v>
       </c>
       <c r="E101" s="3">
-        <v>60400</v>
+        <v>84800</v>
       </c>
       <c r="F101" s="3">
-        <v>3400</v>
+        <v>123600</v>
       </c>
       <c r="G101" s="3">
-        <v>248400</v>
+        <v>53500</v>
       </c>
       <c r="H101" s="3">
-        <v>2200</v>
+        <v>106400</v>
       </c>
       <c r="I101" s="3">
+        <v>371000</v>
+      </c>
+      <c r="J101" s="3">
+        <v>92300</v>
+      </c>
+      <c r="K101" s="3">
         <v>102200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>-42100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>159800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>99400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>23600</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>18300</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>33900</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>40700</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>10300</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>27000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>27700</v>
       </c>
     </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>453400</v>
+        <v>-7300</v>
       </c>
       <c r="E102" s="3">
-        <v>114600</v>
+        <v>192000</v>
       </c>
       <c r="F102" s="3">
-        <v>-68500</v>
+        <v>502700</v>
       </c>
       <c r="G102" s="3">
-        <v>-394700</v>
+        <v>101400</v>
       </c>
       <c r="H102" s="3">
-        <v>116700</v>
+        <v>-60700</v>
       </c>
       <c r="I102" s="3">
+        <v>-349200</v>
+      </c>
+      <c r="J102" s="3">
+        <v>592900</v>
+      </c>
+      <c r="K102" s="3">
         <v>553400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>149500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>210900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>647800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>50200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>51200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-288400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>352000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-36300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>22800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>238500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BMA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BMA_QTR_FIN.xlsx
@@ -755,25 +755,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>582600</v>
+        <v>566100</v>
       </c>
       <c r="E8" s="3">
-        <v>401700</v>
+        <v>390300</v>
       </c>
       <c r="F8" s="3">
-        <v>730900</v>
+        <v>710200</v>
       </c>
       <c r="G8" s="3">
-        <v>355700</v>
+        <v>345600</v>
       </c>
       <c r="H8" s="3">
-        <v>686700</v>
+        <v>667200</v>
       </c>
       <c r="I8" s="3">
-        <v>558300</v>
+        <v>542400</v>
       </c>
       <c r="J8" s="3">
-        <v>1008300</v>
+        <v>979700</v>
       </c>
       <c r="K8" s="3">
         <v>491300</v>
@@ -1132,25 +1132,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-15800</v>
+        <v>-15400</v>
       </c>
       <c r="E15" s="3">
-        <v>-11100</v>
+        <v>-10800</v>
       </c>
       <c r="F15" s="3">
-        <v>-21200</v>
+        <v>-20600</v>
       </c>
       <c r="G15" s="3">
-        <v>-9600</v>
+        <v>-9300</v>
       </c>
       <c r="H15" s="3">
-        <v>-14900</v>
+        <v>-14500</v>
       </c>
       <c r="I15" s="3">
-        <v>-10400</v>
+        <v>-10100</v>
       </c>
       <c r="J15" s="3">
-        <v>-19300</v>
+        <v>-18800</v>
       </c>
       <c r="K15" s="3">
         <v>-10000</v>
@@ -1211,25 +1211,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>292200</v>
+        <v>283900</v>
       </c>
       <c r="E17" s="3">
-        <v>189800</v>
+        <v>184400</v>
       </c>
       <c r="F17" s="3">
-        <v>269700</v>
+        <v>262000</v>
       </c>
       <c r="G17" s="3">
-        <v>120500</v>
+        <v>117100</v>
       </c>
       <c r="H17" s="3">
-        <v>264100</v>
+        <v>256600</v>
       </c>
       <c r="I17" s="3">
-        <v>248800</v>
+        <v>241800</v>
       </c>
       <c r="J17" s="3">
-        <v>504500</v>
+        <v>490200</v>
       </c>
       <c r="K17" s="3">
         <v>252200</v>
@@ -1270,25 +1270,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>290400</v>
+        <v>282200</v>
       </c>
       <c r="E18" s="3">
-        <v>211900</v>
+        <v>205900</v>
       </c>
       <c r="F18" s="3">
-        <v>461300</v>
+        <v>448200</v>
       </c>
       <c r="G18" s="3">
-        <v>235200</v>
+        <v>228500</v>
       </c>
       <c r="H18" s="3">
-        <v>422600</v>
+        <v>410600</v>
       </c>
       <c r="I18" s="3">
-        <v>309400</v>
+        <v>300700</v>
       </c>
       <c r="J18" s="3">
-        <v>503800</v>
+        <v>489500</v>
       </c>
       <c r="K18" s="3">
         <v>239000</v>
@@ -1352,25 +1352,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-169400</v>
+        <v>-164600</v>
       </c>
       <c r="E20" s="3">
-        <v>-111100</v>
+        <v>-107900</v>
       </c>
       <c r="F20" s="3">
-        <v>-219000</v>
+        <v>-212800</v>
       </c>
       <c r="G20" s="3">
-        <v>-108400</v>
+        <v>-105300</v>
       </c>
       <c r="H20" s="3">
-        <v>-243000</v>
+        <v>-236100</v>
       </c>
       <c r="I20" s="3">
-        <v>-221400</v>
+        <v>-215100</v>
       </c>
       <c r="J20" s="3">
-        <v>-296600</v>
+        <v>-288200</v>
       </c>
       <c r="K20" s="3">
         <v>-114200</v>
@@ -1411,25 +1411,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>136800</v>
+        <v>132900</v>
       </c>
       <c r="E21" s="3">
-        <v>113500</v>
+        <v>110300</v>
       </c>
       <c r="F21" s="3">
-        <v>262000</v>
+        <v>254500</v>
       </c>
       <c r="G21" s="3">
-        <v>135900</v>
+        <v>132100</v>
       </c>
       <c r="H21" s="3">
-        <v>194500</v>
+        <v>189000</v>
       </c>
       <c r="I21" s="3">
-        <v>99900</v>
+        <v>97100</v>
       </c>
       <c r="J21" s="3">
-        <v>225100</v>
+        <v>218800</v>
       </c>
       <c r="K21" s="3">
         <v>134400</v>
@@ -1529,25 +1529,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>121000</v>
+        <v>117600</v>
       </c>
       <c r="E23" s="3">
-        <v>100900</v>
+        <v>98000</v>
       </c>
       <c r="F23" s="3">
-        <v>242300</v>
+        <v>235400</v>
       </c>
       <c r="G23" s="3">
-        <v>126800</v>
+        <v>123200</v>
       </c>
       <c r="H23" s="3">
-        <v>179600</v>
+        <v>174500</v>
       </c>
       <c r="I23" s="3">
-        <v>88100</v>
+        <v>85600</v>
       </c>
       <c r="J23" s="3">
-        <v>207200</v>
+        <v>201300</v>
       </c>
       <c r="K23" s="3">
         <v>124900</v>
@@ -1588,25 +1588,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>19600</v>
+        <v>19100</v>
       </c>
       <c r="E24" s="3">
-        <v>34600</v>
+        <v>33600</v>
       </c>
       <c r="F24" s="3">
-        <v>79500</v>
+        <v>77200</v>
       </c>
       <c r="G24" s="3">
-        <v>45400</v>
+        <v>44100</v>
       </c>
       <c r="H24" s="3">
-        <v>74200</v>
+        <v>72100</v>
       </c>
       <c r="I24" s="3">
-        <v>-11400</v>
+        <v>-11100</v>
       </c>
       <c r="J24" s="3">
-        <v>123000</v>
+        <v>119500</v>
       </c>
       <c r="K24" s="3">
         <v>73800</v>
@@ -1706,25 +1706,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>101400</v>
+        <v>98500</v>
       </c>
       <c r="E26" s="3">
-        <v>66300</v>
+        <v>64500</v>
       </c>
       <c r="F26" s="3">
-        <v>162800</v>
+        <v>158200</v>
       </c>
       <c r="G26" s="3">
-        <v>81400</v>
+        <v>79100</v>
       </c>
       <c r="H26" s="3">
-        <v>105400</v>
+        <v>102400</v>
       </c>
       <c r="I26" s="3">
-        <v>99500</v>
+        <v>96700</v>
       </c>
       <c r="J26" s="3">
-        <v>84200</v>
+        <v>81800</v>
       </c>
       <c r="K26" s="3">
         <v>51100</v>
@@ -1765,25 +1765,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>101400</v>
+        <v>98500</v>
       </c>
       <c r="E27" s="3">
-        <v>66300</v>
+        <v>64500</v>
       </c>
       <c r="F27" s="3">
-        <v>162800</v>
+        <v>158200</v>
       </c>
       <c r="G27" s="3">
-        <v>81400</v>
+        <v>79100</v>
       </c>
       <c r="H27" s="3">
-        <v>105400</v>
+        <v>102400</v>
       </c>
       <c r="I27" s="3">
-        <v>99500</v>
+        <v>96700</v>
       </c>
       <c r="J27" s="3">
-        <v>84200</v>
+        <v>81800</v>
       </c>
       <c r="K27" s="3">
         <v>51100</v>
@@ -2060,25 +2060,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>169400</v>
+        <v>164600</v>
       </c>
       <c r="E32" s="3">
-        <v>111100</v>
+        <v>107900</v>
       </c>
       <c r="F32" s="3">
-        <v>219000</v>
+        <v>212800</v>
       </c>
       <c r="G32" s="3">
-        <v>108400</v>
+        <v>105300</v>
       </c>
       <c r="H32" s="3">
-        <v>243000</v>
+        <v>236100</v>
       </c>
       <c r="I32" s="3">
-        <v>221400</v>
+        <v>215100</v>
       </c>
       <c r="J32" s="3">
-        <v>296600</v>
+        <v>288200</v>
       </c>
       <c r="K32" s="3">
         <v>114200</v>
@@ -2119,25 +2119,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>101400</v>
+        <v>98500</v>
       </c>
       <c r="E33" s="3">
-        <v>66300</v>
+        <v>64500</v>
       </c>
       <c r="F33" s="3">
-        <v>162800</v>
+        <v>158200</v>
       </c>
       <c r="G33" s="3">
-        <v>81400</v>
+        <v>79100</v>
       </c>
       <c r="H33" s="3">
-        <v>105400</v>
+        <v>102400</v>
       </c>
       <c r="I33" s="3">
-        <v>99500</v>
+        <v>96700</v>
       </c>
       <c r="J33" s="3">
-        <v>84200</v>
+        <v>81800</v>
       </c>
       <c r="K33" s="3">
         <v>51100</v>
@@ -2237,25 +2237,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>101400</v>
+        <v>98500</v>
       </c>
       <c r="E35" s="3">
-        <v>66300</v>
+        <v>64500</v>
       </c>
       <c r="F35" s="3">
-        <v>162800</v>
+        <v>158200</v>
       </c>
       <c r="G35" s="3">
-        <v>81400</v>
+        <v>79100</v>
       </c>
       <c r="H35" s="3">
-        <v>105400</v>
+        <v>102400</v>
       </c>
       <c r="I35" s="3">
-        <v>99500</v>
+        <v>96700</v>
       </c>
       <c r="J35" s="3">
-        <v>84200</v>
+        <v>81800</v>
       </c>
       <c r="K35" s="3">
         <v>51100</v>
@@ -2406,25 +2406,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>823600</v>
+        <v>800200</v>
       </c>
       <c r="E41" s="3">
-        <v>944800</v>
+        <v>918000</v>
       </c>
       <c r="F41" s="3">
-        <v>686400</v>
+        <v>666900</v>
       </c>
       <c r="G41" s="3">
-        <v>987000</v>
+        <v>958900</v>
       </c>
       <c r="H41" s="3">
-        <v>1110100</v>
+        <v>1078600</v>
       </c>
       <c r="I41" s="3">
-        <v>769300</v>
+        <v>747500</v>
       </c>
       <c r="J41" s="3">
-        <v>866700</v>
+        <v>842100</v>
       </c>
       <c r="K41" s="3">
         <v>812600</v>
@@ -2465,25 +2465,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1651200</v>
+        <v>1604300</v>
       </c>
       <c r="E42" s="3">
-        <v>1072800</v>
+        <v>1042300</v>
       </c>
       <c r="F42" s="3">
-        <v>1364600</v>
+        <v>1325800</v>
       </c>
       <c r="G42" s="3">
-        <v>397400</v>
+        <v>386100</v>
       </c>
       <c r="H42" s="3">
-        <v>559900</v>
+        <v>544000</v>
       </c>
       <c r="I42" s="3">
-        <v>342000</v>
+        <v>332300</v>
       </c>
       <c r="J42" s="3">
-        <v>220800</v>
+        <v>214600</v>
       </c>
       <c r="K42" s="3">
         <v>173100</v>
@@ -2760,25 +2760,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>20400</v>
+        <v>19800</v>
       </c>
       <c r="E47" s="3">
-        <v>19700</v>
+        <v>19200</v>
       </c>
       <c r="F47" s="3">
-        <v>19200</v>
+        <v>18700</v>
       </c>
       <c r="G47" s="3">
-        <v>19100</v>
+        <v>18600</v>
       </c>
       <c r="H47" s="3">
-        <v>25000</v>
+        <v>24300</v>
       </c>
       <c r="I47" s="3">
-        <v>18000</v>
+        <v>17500</v>
       </c>
       <c r="J47" s="3">
-        <v>17800</v>
+        <v>17300</v>
       </c>
       <c r="K47" s="3">
         <v>20100</v>
@@ -2819,25 +2819,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>375300</v>
+        <v>364700</v>
       </c>
       <c r="E48" s="3">
-        <v>337400</v>
+        <v>327800</v>
       </c>
       <c r="F48" s="3">
-        <v>314100</v>
+        <v>305200</v>
       </c>
       <c r="G48" s="3">
-        <v>301000</v>
+        <v>292400</v>
       </c>
       <c r="H48" s="3">
-        <v>382800</v>
+        <v>371900</v>
       </c>
       <c r="I48" s="3">
-        <v>116700</v>
+        <v>113400</v>
       </c>
       <c r="J48" s="3">
-        <v>110400</v>
+        <v>107300</v>
       </c>
       <c r="K48" s="3">
         <v>121500</v>
@@ -2878,25 +2878,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>55700</v>
+        <v>54200</v>
       </c>
       <c r="E49" s="3">
-        <v>48400</v>
+        <v>47000</v>
       </c>
       <c r="F49" s="3">
-        <v>45000</v>
+        <v>43700</v>
       </c>
       <c r="G49" s="3">
-        <v>43100</v>
+        <v>41900</v>
       </c>
       <c r="H49" s="3">
-        <v>52700</v>
+        <v>51200</v>
       </c>
       <c r="I49" s="3">
-        <v>22400</v>
+        <v>21700</v>
       </c>
       <c r="J49" s="3">
-        <v>20400</v>
+        <v>19800</v>
       </c>
       <c r="K49" s="3">
         <v>19100</v>
@@ -3055,25 +3055,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>25300</v>
+        <v>24600</v>
       </c>
       <c r="E52" s="3">
-        <v>25300</v>
+        <v>24600</v>
       </c>
       <c r="F52" s="3">
-        <v>23000</v>
+        <v>22300</v>
       </c>
       <c r="G52" s="3">
-        <v>21900</v>
+        <v>21300</v>
       </c>
       <c r="H52" s="3">
-        <v>26700</v>
+        <v>25900</v>
       </c>
       <c r="I52" s="3">
-        <v>35100</v>
+        <v>34100</v>
       </c>
       <c r="J52" s="3">
-        <v>5700</v>
+        <v>5500</v>
       </c>
       <c r="K52" s="3">
         <v>7900</v>
@@ -3173,25 +3173,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>8407300</v>
+        <v>8168700</v>
       </c>
       <c r="E54" s="3">
-        <v>7979500</v>
+        <v>7753000</v>
       </c>
       <c r="F54" s="3">
-        <v>6828900</v>
+        <v>6635100</v>
       </c>
       <c r="G54" s="3">
-        <v>5534100</v>
+        <v>5377000</v>
       </c>
       <c r="H54" s="3">
-        <v>6595400</v>
+        <v>6408200</v>
       </c>
       <c r="I54" s="3">
-        <v>4397000</v>
+        <v>4272200</v>
       </c>
       <c r="J54" s="3">
-        <v>4379300</v>
+        <v>4255000</v>
       </c>
       <c r="K54" s="3">
         <v>4816300</v>
@@ -3278,25 +3278,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>537400</v>
+        <v>522200</v>
       </c>
       <c r="E57" s="3">
-        <v>312700</v>
+        <v>303800</v>
       </c>
       <c r="F57" s="3">
-        <v>314400</v>
+        <v>305500</v>
       </c>
       <c r="G57" s="3">
-        <v>256500</v>
+        <v>249200</v>
       </c>
       <c r="H57" s="3">
-        <v>329600</v>
+        <v>320200</v>
       </c>
       <c r="I57" s="3">
-        <v>182500</v>
+        <v>177300</v>
       </c>
       <c r="J57" s="3">
-        <v>162000</v>
+        <v>157400</v>
       </c>
       <c r="K57" s="3">
         <v>205100</v>
@@ -3396,25 +3396,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>56200</v>
+        <v>54600</v>
       </c>
       <c r="E59" s="3">
-        <v>108800</v>
+        <v>105700</v>
       </c>
       <c r="F59" s="3">
-        <v>81800</v>
+        <v>79500</v>
       </c>
       <c r="G59" s="3">
-        <v>112400</v>
+        <v>109200</v>
       </c>
       <c r="H59" s="3">
-        <v>121000</v>
+        <v>117500</v>
       </c>
       <c r="I59" s="3">
-        <v>49200</v>
+        <v>47800</v>
       </c>
       <c r="J59" s="3">
-        <v>45300</v>
+        <v>44000</v>
       </c>
       <c r="K59" s="3">
         <v>56400</v>
@@ -3514,25 +3514,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>438400</v>
+        <v>426000</v>
       </c>
       <c r="E61" s="3">
-        <v>406600</v>
+        <v>395100</v>
       </c>
       <c r="F61" s="3">
-        <v>377500</v>
+        <v>366800</v>
       </c>
       <c r="G61" s="3">
-        <v>359600</v>
+        <v>349400</v>
       </c>
       <c r="H61" s="3">
-        <v>477000</v>
+        <v>463400</v>
       </c>
       <c r="I61" s="3">
-        <v>361200</v>
+        <v>351000</v>
       </c>
       <c r="J61" s="3">
-        <v>279400</v>
+        <v>271400</v>
       </c>
       <c r="K61" s="3">
         <v>336400</v>
@@ -3573,25 +3573,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>82900</v>
+        <v>80600</v>
       </c>
       <c r="E62" s="3">
-        <v>45400</v>
+        <v>44100</v>
       </c>
       <c r="F62" s="3">
-        <v>57700</v>
+        <v>56000</v>
       </c>
       <c r="G62" s="3">
-        <v>17400</v>
+        <v>16900</v>
       </c>
       <c r="H62" s="3">
-        <v>24300</v>
+        <v>23600</v>
       </c>
       <c r="I62" s="3">
-        <v>14500</v>
+        <v>14100</v>
       </c>
       <c r="J62" s="3">
-        <v>16400</v>
+        <v>15900</v>
       </c>
       <c r="K62" s="3">
         <v>17000</v>
@@ -3809,25 +3809,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>6790300</v>
+        <v>6597500</v>
       </c>
       <c r="E66" s="3">
-        <v>6517100</v>
+        <v>6332100</v>
       </c>
       <c r="F66" s="3">
-        <v>5527300</v>
+        <v>5370300</v>
       </c>
       <c r="G66" s="3">
-        <v>4233800</v>
+        <v>4113600</v>
       </c>
       <c r="H66" s="3">
-        <v>5036500</v>
+        <v>4893500</v>
       </c>
       <c r="I66" s="3">
-        <v>3563000</v>
+        <v>3461900</v>
       </c>
       <c r="J66" s="3">
-        <v>3694200</v>
+        <v>3589400</v>
       </c>
       <c r="K66" s="3">
         <v>4050100</v>
@@ -4127,25 +4127,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>924900</v>
+        <v>898600</v>
       </c>
       <c r="E72" s="3">
-        <v>840700</v>
+        <v>816900</v>
       </c>
       <c r="F72" s="3">
-        <v>724200</v>
+        <v>703600</v>
       </c>
       <c r="G72" s="3">
-        <v>752200</v>
+        <v>730800</v>
       </c>
       <c r="H72" s="3">
-        <v>866700</v>
+        <v>842100</v>
       </c>
       <c r="I72" s="3">
-        <v>691200</v>
+        <v>671600</v>
       </c>
       <c r="J72" s="3">
-        <v>542000</v>
+        <v>526600</v>
       </c>
       <c r="K72" s="3">
         <v>604400</v>
@@ -4363,25 +4363,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1617000</v>
+        <v>1571100</v>
       </c>
       <c r="E76" s="3">
-        <v>1462400</v>
+        <v>1420900</v>
       </c>
       <c r="F76" s="3">
-        <v>1301700</v>
+        <v>1264700</v>
       </c>
       <c r="G76" s="3">
-        <v>1300200</v>
+        <v>1263300</v>
       </c>
       <c r="H76" s="3">
-        <v>1558900</v>
+        <v>1514600</v>
       </c>
       <c r="I76" s="3">
-        <v>834000</v>
+        <v>810300</v>
       </c>
       <c r="J76" s="3">
-        <v>685000</v>
+        <v>665600</v>
       </c>
       <c r="K76" s="3">
         <v>766100</v>
@@ -4545,25 +4545,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>101400</v>
+        <v>98500</v>
       </c>
       <c r="E81" s="3">
-        <v>66300</v>
+        <v>64500</v>
       </c>
       <c r="F81" s="3">
-        <v>162800</v>
+        <v>158200</v>
       </c>
       <c r="G81" s="3">
-        <v>81400</v>
+        <v>79100</v>
       </c>
       <c r="H81" s="3">
-        <v>105400</v>
+        <v>102400</v>
       </c>
       <c r="I81" s="3">
-        <v>99500</v>
+        <v>96700</v>
       </c>
       <c r="J81" s="3">
-        <v>84200</v>
+        <v>81800</v>
       </c>
       <c r="K81" s="3">
         <v>51100</v>
@@ -4627,25 +4627,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>15800</v>
+        <v>15400</v>
       </c>
       <c r="E83" s="3">
-        <v>12600</v>
+        <v>12200</v>
       </c>
       <c r="F83" s="3">
-        <v>19700</v>
+        <v>19100</v>
       </c>
       <c r="G83" s="3">
-        <v>9100</v>
+        <v>8900</v>
       </c>
       <c r="H83" s="3">
-        <v>14900</v>
+        <v>14500</v>
       </c>
       <c r="I83" s="3">
-        <v>11800</v>
+        <v>11500</v>
       </c>
       <c r="J83" s="3">
-        <v>17900</v>
+        <v>17400</v>
       </c>
       <c r="K83" s="3">
         <v>9500</v>
@@ -4981,25 +4981,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-80900</v>
+        <v>-78600</v>
       </c>
       <c r="E89" s="3">
-        <v>129600</v>
+        <v>125900</v>
       </c>
       <c r="F89" s="3">
-        <v>436100</v>
+        <v>423700</v>
       </c>
       <c r="G89" s="3">
-        <v>77800</v>
+        <v>75600</v>
       </c>
       <c r="H89" s="3">
-        <v>-32800</v>
+        <v>-31900</v>
       </c>
       <c r="I89" s="3">
-        <v>-580700</v>
+        <v>-564200</v>
       </c>
       <c r="J89" s="3">
-        <v>640000</v>
+        <v>621800</v>
       </c>
       <c r="K89" s="3">
         <v>493200</v>
@@ -5063,25 +5063,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-13700</v>
+        <v>-13300</v>
       </c>
       <c r="E91" s="3">
-        <v>-10900</v>
+        <v>-10600</v>
       </c>
       <c r="F91" s="3">
-        <v>-15500</v>
+        <v>-15100</v>
       </c>
       <c r="G91" s="3">
-        <v>-8700</v>
+        <v>-8500</v>
       </c>
       <c r="H91" s="3">
-        <v>-10600</v>
+        <v>-10300</v>
       </c>
       <c r="I91" s="3">
-        <v>-12700</v>
+        <v>-12300</v>
       </c>
       <c r="J91" s="3">
-        <v>-17500</v>
+        <v>-17000</v>
       </c>
       <c r="K91" s="3">
         <v>-9600</v>
@@ -5240,25 +5240,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-13700</v>
+        <v>-13300</v>
       </c>
       <c r="E94" s="3">
-        <v>-10900</v>
+        <v>-10600</v>
       </c>
       <c r="F94" s="3">
-        <v>-15500</v>
+        <v>-15100</v>
       </c>
       <c r="G94" s="3">
-        <v>-8700</v>
+        <v>-8500</v>
       </c>
       <c r="H94" s="3">
-        <v>-10600</v>
+        <v>-10300</v>
       </c>
       <c r="I94" s="3">
-        <v>-12700</v>
+        <v>-12300</v>
       </c>
       <c r="J94" s="3">
-        <v>-17500</v>
+        <v>-17000</v>
       </c>
       <c r="K94" s="3">
         <v>-9600</v>
@@ -5340,7 +5340,7 @@
         <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>-69800</v>
+        <v>-67800</v>
       </c>
       <c r="K96" s="3">
         <v>0</v>
@@ -5558,25 +5558,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-22900</v>
+        <v>-22300</v>
       </c>
       <c r="E100" s="3">
-        <v>-11500</v>
+        <v>-11100</v>
       </c>
       <c r="F100" s="3">
-        <v>-41500</v>
+        <v>-40300</v>
       </c>
       <c r="G100" s="3">
-        <v>-21100</v>
+        <v>-20500</v>
       </c>
       <c r="H100" s="3">
-        <v>-20200</v>
+        <v>-19700</v>
       </c>
       <c r="I100" s="3">
-        <v>-5400</v>
+        <v>-5300</v>
       </c>
       <c r="J100" s="3">
-        <v>-92200</v>
+        <v>-89600</v>
       </c>
       <c r="K100" s="3">
         <v>-7600</v>
@@ -5617,25 +5617,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>110200</v>
+        <v>107100</v>
       </c>
       <c r="E101" s="3">
-        <v>84800</v>
+        <v>82400</v>
       </c>
       <c r="F101" s="3">
-        <v>123600</v>
+        <v>120100</v>
       </c>
       <c r="G101" s="3">
-        <v>53500</v>
+        <v>52000</v>
       </c>
       <c r="H101" s="3">
-        <v>106400</v>
+        <v>103400</v>
       </c>
       <c r="I101" s="3">
-        <v>371000</v>
+        <v>360500</v>
       </c>
       <c r="J101" s="3">
-        <v>92300</v>
+        <v>89700</v>
       </c>
       <c r="K101" s="3">
         <v>102200</v>
@@ -5676,25 +5676,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-7300</v>
+        <v>-7100</v>
       </c>
       <c r="E102" s="3">
-        <v>192000</v>
+        <v>186600</v>
       </c>
       <c r="F102" s="3">
-        <v>502700</v>
+        <v>488400</v>
       </c>
       <c r="G102" s="3">
-        <v>101400</v>
+        <v>98600</v>
       </c>
       <c r="H102" s="3">
-        <v>-60700</v>
+        <v>-58900</v>
       </c>
       <c r="I102" s="3">
-        <v>-349200</v>
+        <v>-339300</v>
       </c>
       <c r="J102" s="3">
-        <v>592900</v>
+        <v>576100</v>
       </c>
       <c r="K102" s="3">
         <v>553400</v>

--- a/AAII_Financials/Quarterly/BMA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BMA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="92">
   <si>
     <t>BMA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,151 +665,158 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>566100</v>
+        <v>463600</v>
       </c>
       <c r="E8" s="3">
-        <v>390300</v>
+        <v>548500</v>
       </c>
       <c r="F8" s="3">
-        <v>710200</v>
+        <v>378200</v>
       </c>
       <c r="G8" s="3">
-        <v>345600</v>
+        <v>688100</v>
       </c>
       <c r="H8" s="3">
-        <v>667200</v>
+        <v>453300</v>
       </c>
       <c r="I8" s="3">
-        <v>542400</v>
+        <v>646500</v>
       </c>
       <c r="J8" s="3">
+        <v>525600</v>
+      </c>
+      <c r="K8" s="3">
         <v>979700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>491300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>293900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>228100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>199300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>187400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>239600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>203500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>179400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>195300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>198300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>194100</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -867,8 +874,11 @@
       <c r="U9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -926,8 +936,11 @@
       <c r="U10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -949,8 +962,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1008,8 +1022,11 @@
       <c r="U12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1067,8 +1084,11 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1126,67 +1146,73 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-15400</v>
+        <v>-13200</v>
       </c>
       <c r="E15" s="3">
-        <v>-10800</v>
+        <v>-14900</v>
       </c>
       <c r="F15" s="3">
-        <v>-20600</v>
+        <v>-10400</v>
       </c>
       <c r="G15" s="3">
-        <v>-9300</v>
+        <v>-19900</v>
       </c>
       <c r="H15" s="3">
-        <v>-14500</v>
+        <v>-12300</v>
       </c>
       <c r="I15" s="3">
-        <v>-10100</v>
+        <v>-14100</v>
       </c>
       <c r="J15" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="K15" s="3">
         <v>-18800</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>-10000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>-2600</v>
-      </c>
-      <c r="M15" s="3">
-        <v>-2500</v>
       </c>
       <c r="N15" s="3">
         <v>-2500</v>
       </c>
       <c r="O15" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="P15" s="3">
         <v>-2700</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>-5900</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>-5000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>-4500</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>-5000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>-2900</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>-2700</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,126 +1231,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>283900</v>
+        <v>219100</v>
       </c>
       <c r="E17" s="3">
-        <v>184400</v>
+        <v>275700</v>
       </c>
       <c r="F17" s="3">
-        <v>262000</v>
+        <v>179100</v>
       </c>
       <c r="G17" s="3">
-        <v>117100</v>
+        <v>254700</v>
       </c>
       <c r="H17" s="3">
-        <v>256600</v>
+        <v>154000</v>
       </c>
       <c r="I17" s="3">
-        <v>241800</v>
+        <v>249300</v>
       </c>
       <c r="J17" s="3">
+        <v>234600</v>
+      </c>
+      <c r="K17" s="3">
         <v>490200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>252200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>152500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>98000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>74600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>65500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>79300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>71700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>64600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>69100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>96500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>96400</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>282200</v>
+        <v>244500</v>
       </c>
       <c r="E18" s="3">
-        <v>205900</v>
+        <v>272800</v>
       </c>
       <c r="F18" s="3">
-        <v>448200</v>
+        <v>199100</v>
       </c>
       <c r="G18" s="3">
-        <v>228500</v>
+        <v>433400</v>
       </c>
       <c r="H18" s="3">
-        <v>410600</v>
+        <v>299300</v>
       </c>
       <c r="I18" s="3">
-        <v>300700</v>
+        <v>397100</v>
       </c>
       <c r="J18" s="3">
+        <v>290900</v>
+      </c>
+      <c r="K18" s="3">
         <v>489500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>239000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>141300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>130100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>124700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>121900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>160300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>131700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>114800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>126200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>101800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>97600</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1346,126 +1379,133 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-164600</v>
+        <v>-198200</v>
       </c>
       <c r="E20" s="3">
-        <v>-107900</v>
+        <v>-158900</v>
       </c>
       <c r="F20" s="3">
-        <v>-212800</v>
+        <v>-104100</v>
       </c>
       <c r="G20" s="3">
-        <v>-105300</v>
+        <v>-205300</v>
       </c>
       <c r="H20" s="3">
-        <v>-236100</v>
+        <v>-142700</v>
       </c>
       <c r="I20" s="3">
-        <v>-215100</v>
+        <v>-228100</v>
       </c>
       <c r="J20" s="3">
+        <v>-208000</v>
+      </c>
+      <c r="K20" s="3">
         <v>-288200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-114200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-48200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-54800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-60200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-36100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-62700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-33700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-35900</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-44500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-35400</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-31300</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>132900</v>
+        <v>59500</v>
       </c>
       <c r="E21" s="3">
-        <v>110300</v>
+        <v>128800</v>
       </c>
       <c r="F21" s="3">
-        <v>254500</v>
+        <v>106800</v>
       </c>
       <c r="G21" s="3">
-        <v>132100</v>
+        <v>246600</v>
       </c>
       <c r="H21" s="3">
-        <v>189000</v>
+        <v>168800</v>
       </c>
       <c r="I21" s="3">
-        <v>97100</v>
+        <v>183100</v>
       </c>
       <c r="J21" s="3">
+        <v>94000</v>
+      </c>
+      <c r="K21" s="3">
         <v>218800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>134400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>95800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>77800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>67100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>88500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>101700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>101400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>81800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>85100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>66600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>66500</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1523,126 +1563,135 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>117600</v>
+        <v>46300</v>
       </c>
       <c r="E23" s="3">
+        <v>113900</v>
+      </c>
+      <c r="F23" s="3">
+        <v>95000</v>
+      </c>
+      <c r="G23" s="3">
+        <v>228100</v>
+      </c>
+      <c r="H23" s="3">
+        <v>156600</v>
+      </c>
+      <c r="I23" s="3">
+        <v>169000</v>
+      </c>
+      <c r="J23" s="3">
+        <v>82900</v>
+      </c>
+      <c r="K23" s="3">
+        <v>201300</v>
+      </c>
+      <c r="L23" s="3">
+        <v>124900</v>
+      </c>
+      <c r="M23" s="3">
+        <v>93100</v>
+      </c>
+      <c r="N23" s="3">
+        <v>75300</v>
+      </c>
+      <c r="O23" s="3">
+        <v>64500</v>
+      </c>
+      <c r="P23" s="3">
+        <v>85800</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>97600</v>
+      </c>
+      <c r="R23" s="3">
         <v>98000</v>
       </c>
-      <c r="F23" s="3">
-        <v>235400</v>
-      </c>
-      <c r="G23" s="3">
-        <v>123200</v>
-      </c>
-      <c r="H23" s="3">
-        <v>174500</v>
-      </c>
-      <c r="I23" s="3">
-        <v>85600</v>
-      </c>
-      <c r="J23" s="3">
-        <v>201300</v>
-      </c>
-      <c r="K23" s="3">
-        <v>124900</v>
-      </c>
-      <c r="L23" s="3">
-        <v>93100</v>
-      </c>
-      <c r="M23" s="3">
-        <v>75300</v>
-      </c>
-      <c r="N23" s="3">
-        <v>64500</v>
-      </c>
-      <c r="O23" s="3">
-        <v>85800</v>
-      </c>
-      <c r="P23" s="3">
-        <v>97600</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>98000</v>
-      </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>78800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>81700</v>
-      </c>
-      <c r="T23" s="3">
-        <v>66400</v>
       </c>
       <c r="U23" s="3">
         <v>66400</v>
       </c>
-    </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V23" s="3">
+        <v>66400</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>19100</v>
+        <v>23800</v>
       </c>
       <c r="E24" s="3">
-        <v>33600</v>
+        <v>18500</v>
       </c>
       <c r="F24" s="3">
-        <v>77200</v>
+        <v>32500</v>
       </c>
       <c r="G24" s="3">
-        <v>44100</v>
+        <v>74800</v>
       </c>
       <c r="H24" s="3">
-        <v>72100</v>
+        <v>57800</v>
       </c>
       <c r="I24" s="3">
-        <v>-11100</v>
+        <v>69800</v>
       </c>
       <c r="J24" s="3">
+        <v>-10800</v>
+      </c>
+      <c r="K24" s="3">
         <v>119500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>73800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>29000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>23300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>18600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>26900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>25800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>34900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>27400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>28700</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>22000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>23600</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1700,126 +1749,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>98500</v>
+        <v>22500</v>
       </c>
       <c r="E26" s="3">
-        <v>64500</v>
+        <v>95400</v>
       </c>
       <c r="F26" s="3">
-        <v>158200</v>
+        <v>62500</v>
       </c>
       <c r="G26" s="3">
-        <v>79100</v>
+        <v>153300</v>
       </c>
       <c r="H26" s="3">
-        <v>102400</v>
+        <v>98700</v>
       </c>
       <c r="I26" s="3">
-        <v>96700</v>
+        <v>99200</v>
       </c>
       <c r="J26" s="3">
+        <v>93700</v>
+      </c>
+      <c r="K26" s="3">
         <v>81800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>51100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>64100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>52000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>45900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>58900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>71800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>63200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>51500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>53000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>44400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>42700</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>98500</v>
+        <v>22500</v>
       </c>
       <c r="E27" s="3">
-        <v>64500</v>
+        <v>95400</v>
       </c>
       <c r="F27" s="3">
-        <v>158200</v>
+        <v>62500</v>
       </c>
       <c r="G27" s="3">
-        <v>79100</v>
+        <v>153300</v>
       </c>
       <c r="H27" s="3">
-        <v>102400</v>
+        <v>98700</v>
       </c>
       <c r="I27" s="3">
-        <v>96700</v>
+        <v>99200</v>
       </c>
       <c r="J27" s="3">
+        <v>93700</v>
+      </c>
+      <c r="K27" s="3">
         <v>81800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>51100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>64700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>51900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>45600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>58600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>71200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>62700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>51000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>52500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>44400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>42700</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1877,8 +1935,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1936,8 +1997,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1995,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2054,126 +2121,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>164600</v>
+        <v>198200</v>
       </c>
       <c r="E32" s="3">
-        <v>107900</v>
+        <v>158900</v>
       </c>
       <c r="F32" s="3">
-        <v>212800</v>
+        <v>104100</v>
       </c>
       <c r="G32" s="3">
-        <v>105300</v>
+        <v>205300</v>
       </c>
       <c r="H32" s="3">
-        <v>236100</v>
+        <v>142700</v>
       </c>
       <c r="I32" s="3">
-        <v>215100</v>
+        <v>228100</v>
       </c>
       <c r="J32" s="3">
+        <v>208000</v>
+      </c>
+      <c r="K32" s="3">
         <v>288200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>114200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>48200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>54800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>60200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>36100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>62700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>33700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>35900</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>44500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>35400</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>31300</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>98500</v>
+        <v>22500</v>
       </c>
       <c r="E33" s="3">
-        <v>64500</v>
+        <v>95400</v>
       </c>
       <c r="F33" s="3">
-        <v>158200</v>
+        <v>62500</v>
       </c>
       <c r="G33" s="3">
-        <v>79100</v>
+        <v>153300</v>
       </c>
       <c r="H33" s="3">
-        <v>102400</v>
+        <v>98700</v>
       </c>
       <c r="I33" s="3">
-        <v>96700</v>
+        <v>99200</v>
       </c>
       <c r="J33" s="3">
+        <v>93700</v>
+      </c>
+      <c r="K33" s="3">
         <v>81800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>51100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>64700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>51900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>45600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>58600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>71200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>62700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>51000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>52500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>44400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>42700</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2231,131 +2307,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>98500</v>
+        <v>22500</v>
       </c>
       <c r="E35" s="3">
-        <v>64500</v>
+        <v>95400</v>
       </c>
       <c r="F35" s="3">
-        <v>158200</v>
+        <v>62500</v>
       </c>
       <c r="G35" s="3">
-        <v>79100</v>
+        <v>153300</v>
       </c>
       <c r="H35" s="3">
-        <v>102400</v>
+        <v>98700</v>
       </c>
       <c r="I35" s="3">
-        <v>96700</v>
+        <v>99200</v>
       </c>
       <c r="J35" s="3">
+        <v>93700</v>
+      </c>
+      <c r="K35" s="3">
         <v>81800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>51100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>64700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>51900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>45600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>58600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>71200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>62700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>51000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>52500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>44400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>42700</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2377,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2400,126 +2486,133 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>800200</v>
+        <v>1022800</v>
       </c>
       <c r="E41" s="3">
-        <v>918000</v>
+        <v>875800</v>
       </c>
       <c r="F41" s="3">
-        <v>666900</v>
+        <v>889500</v>
       </c>
       <c r="G41" s="3">
-        <v>958900</v>
+        <v>646100</v>
       </c>
       <c r="H41" s="3">
-        <v>1078600</v>
+        <v>929100</v>
       </c>
       <c r="I41" s="3">
-        <v>747500</v>
+        <v>1045100</v>
       </c>
       <c r="J41" s="3">
+        <v>724200</v>
+      </c>
+      <c r="K41" s="3">
         <v>842100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>812600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>757200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>807800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>661100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>454500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>823900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>700900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>660600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>744300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>924100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>607900</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1604300</v>
+        <v>1100800</v>
       </c>
       <c r="E42" s="3">
-        <v>1042300</v>
+        <v>1755700</v>
       </c>
       <c r="F42" s="3">
-        <v>1325800</v>
+        <v>1009800</v>
       </c>
       <c r="G42" s="3">
-        <v>386100</v>
+        <v>1284400</v>
       </c>
       <c r="H42" s="3">
-        <v>544000</v>
+        <v>373700</v>
       </c>
       <c r="I42" s="3">
-        <v>332300</v>
+        <v>526400</v>
       </c>
       <c r="J42" s="3">
+        <v>321400</v>
+      </c>
+      <c r="K42" s="3">
         <v>214600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>173100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>210900</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>164000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>136800</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>61700</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>432500</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>396500</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>357300</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>163500</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>188700</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>176500</v>
       </c>
     </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2577,8 +2670,11 @@
       <c r="U43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2636,8 +2732,11 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2695,8 +2794,11 @@
       <c r="U45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2754,58 +2856,61 @@
       <c r="U46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>19800</v>
+        <v>23700</v>
       </c>
       <c r="E47" s="3">
-        <v>19200</v>
+        <v>21700</v>
       </c>
       <c r="F47" s="3">
-        <v>18700</v>
+        <v>18600</v>
       </c>
       <c r="G47" s="3">
-        <v>18600</v>
+        <v>18100</v>
       </c>
       <c r="H47" s="3">
-        <v>24300</v>
+        <v>18000</v>
       </c>
       <c r="I47" s="3">
-        <v>17500</v>
+        <v>23500</v>
       </c>
       <c r="J47" s="3">
+        <v>16900</v>
+      </c>
+      <c r="K47" s="3">
         <v>17300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>20100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>2000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>2200</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>6600</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>11500</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>2100</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>800</v>
-      </c>
-      <c r="S47" s="3">
-        <v>300</v>
       </c>
       <c r="T47" s="3">
         <v>300</v>
@@ -2813,126 +2918,135 @@
       <c r="U47" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>364700</v>
+        <v>399500</v>
       </c>
       <c r="E48" s="3">
-        <v>327800</v>
+        <v>399100</v>
       </c>
       <c r="F48" s="3">
-        <v>305200</v>
+        <v>317600</v>
       </c>
       <c r="G48" s="3">
-        <v>292400</v>
+        <v>295700</v>
       </c>
       <c r="H48" s="3">
-        <v>371900</v>
+        <v>283300</v>
       </c>
       <c r="I48" s="3">
-        <v>113400</v>
+        <v>360300</v>
       </c>
       <c r="J48" s="3">
+        <v>109900</v>
+      </c>
+      <c r="K48" s="3">
         <v>107300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>121500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>111100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>107200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>111100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>119600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>161500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>35600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>34100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>39400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>38200</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>34700</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>54200</v>
+        <v>59800</v>
       </c>
       <c r="E49" s="3">
-        <v>47000</v>
+        <v>59300</v>
       </c>
       <c r="F49" s="3">
-        <v>43700</v>
+        <v>45600</v>
       </c>
       <c r="G49" s="3">
-        <v>41900</v>
+        <v>42400</v>
       </c>
       <c r="H49" s="3">
-        <v>51200</v>
+        <v>40600</v>
       </c>
       <c r="I49" s="3">
-        <v>21700</v>
+        <v>49600</v>
       </c>
       <c r="J49" s="3">
+        <v>21100</v>
+      </c>
+      <c r="K49" s="3">
         <v>19800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>19100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>17300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>15600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>14500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>15700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>40500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>19200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>17700</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>19900</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>17400</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>16200</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2990,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3049,53 +3166,56 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>24600</v>
+        <v>26800</v>
       </c>
       <c r="E52" s="3">
-        <v>24600</v>
+        <v>27000</v>
       </c>
       <c r="F52" s="3">
-        <v>22300</v>
+        <v>23800</v>
       </c>
       <c r="G52" s="3">
-        <v>21300</v>
+        <v>21600</v>
       </c>
       <c r="H52" s="3">
-        <v>25900</v>
+        <v>20600</v>
       </c>
       <c r="I52" s="3">
-        <v>34100</v>
+        <v>25100</v>
       </c>
       <c r="J52" s="3">
+        <v>33100</v>
+      </c>
+      <c r="K52" s="3">
         <v>5500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>7900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>10500</v>
-      </c>
-      <c r="M52" s="3">
-        <v>2500</v>
       </c>
       <c r="N52" s="3">
         <v>2500</v>
       </c>
       <c r="O52" s="3">
+        <v>2500</v>
+      </c>
+      <c r="P52" s="3">
         <v>2400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>5200</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R52" s="3" t="s">
         <v>5</v>
       </c>
@@ -3108,8 +3228,11 @@
       <c r="U52" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3167,67 +3290,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>8168700</v>
+        <v>7872400</v>
       </c>
       <c r="E54" s="3">
-        <v>7753000</v>
+        <v>8939800</v>
       </c>
       <c r="F54" s="3">
-        <v>6635100</v>
+        <v>7511800</v>
       </c>
       <c r="G54" s="3">
-        <v>5377000</v>
+        <v>6428700</v>
       </c>
       <c r="H54" s="3">
-        <v>6408200</v>
+        <v>5209700</v>
       </c>
       <c r="I54" s="3">
-        <v>4272200</v>
+        <v>6208800</v>
       </c>
       <c r="J54" s="3">
+        <v>4139300</v>
+      </c>
+      <c r="K54" s="3">
         <v>4255000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4816300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>4230600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>4222300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>3978200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>3829400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>5192200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>4733600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>4307400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>4371900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>4057900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>3580900</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3249,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3272,67 +3402,71 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>522200</v>
+        <v>512700</v>
       </c>
       <c r="E57" s="3">
-        <v>303800</v>
+        <v>571500</v>
       </c>
       <c r="F57" s="3">
-        <v>305500</v>
+        <v>294400</v>
       </c>
       <c r="G57" s="3">
-        <v>249200</v>
+        <v>296000</v>
       </c>
       <c r="H57" s="3">
-        <v>320200</v>
+        <v>241400</v>
       </c>
       <c r="I57" s="3">
-        <v>177300</v>
+        <v>310300</v>
       </c>
       <c r="J57" s="3">
+        <v>171800</v>
+      </c>
+      <c r="K57" s="3">
         <v>157400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>205100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>189000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>173600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>163900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>150300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>374000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>219100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>219900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>222000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>239200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>182100</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3390,58 +3524,61 @@
       <c r="U58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>54600</v>
+        <v>48600</v>
       </c>
       <c r="E59" s="3">
-        <v>105700</v>
+        <v>59700</v>
       </c>
       <c r="F59" s="3">
-        <v>79500</v>
+        <v>102400</v>
       </c>
       <c r="G59" s="3">
-        <v>109200</v>
+        <v>77000</v>
       </c>
       <c r="H59" s="3">
-        <v>117500</v>
+        <v>105800</v>
       </c>
       <c r="I59" s="3">
-        <v>47800</v>
+        <v>113900</v>
       </c>
       <c r="J59" s="3">
+        <v>46300</v>
+      </c>
+      <c r="K59" s="3">
         <v>44000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>56400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>36400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>28600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>26100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>67300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>91200</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R59" s="3">
-        <v>0</v>
-      </c>
-      <c r="S59" s="3" t="s">
-        <v>5</v>
+      <c r="R59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S59" s="3">
+        <v>0</v>
       </c>
       <c r="T59" s="3" t="s">
         <v>5</v>
@@ -3449,8 +3586,11 @@
       <c r="U59" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3508,126 +3648,135 @@
       <c r="U60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>426000</v>
+        <v>455900</v>
       </c>
       <c r="E61" s="3">
-        <v>395100</v>
+        <v>466200</v>
       </c>
       <c r="F61" s="3">
-        <v>366800</v>
+        <v>382800</v>
       </c>
       <c r="G61" s="3">
-        <v>349400</v>
+        <v>355400</v>
       </c>
       <c r="H61" s="3">
-        <v>463400</v>
+        <v>338600</v>
       </c>
       <c r="I61" s="3">
-        <v>351000</v>
+        <v>449000</v>
       </c>
       <c r="J61" s="3">
+        <v>340100</v>
+      </c>
+      <c r="K61" s="3">
         <v>271400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>336400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>304400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>360300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>316200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>225800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>308600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>285000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>270200</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>166300</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>211200</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>104400</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>80600</v>
+        <v>97500</v>
       </c>
       <c r="E62" s="3">
-        <v>44100</v>
+        <v>88200</v>
       </c>
       <c r="F62" s="3">
-        <v>56000</v>
+        <v>42800</v>
       </c>
       <c r="G62" s="3">
-        <v>16900</v>
+        <v>54300</v>
       </c>
       <c r="H62" s="3">
-        <v>23600</v>
+        <v>16400</v>
       </c>
       <c r="I62" s="3">
-        <v>14100</v>
+        <v>22900</v>
       </c>
       <c r="J62" s="3">
+        <v>13700</v>
+      </c>
+      <c r="K62" s="3">
         <v>15900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>17000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>15700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>12600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>14600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>18100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>27300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>11000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>8600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>9200</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>8800</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>7700</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3685,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3744,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3803,67 +3958,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>6597500</v>
+        <v>6124400</v>
       </c>
       <c r="E66" s="3">
-        <v>6332100</v>
+        <v>7220300</v>
       </c>
       <c r="F66" s="3">
-        <v>5370300</v>
+        <v>6135100</v>
       </c>
       <c r="G66" s="3">
-        <v>4113600</v>
+        <v>5203300</v>
       </c>
       <c r="H66" s="3">
-        <v>4893500</v>
+        <v>3985700</v>
       </c>
       <c r="I66" s="3">
-        <v>3461900</v>
+        <v>4741300</v>
       </c>
       <c r="J66" s="3">
+        <v>3354200</v>
+      </c>
+      <c r="K66" s="3">
         <v>3589400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4050100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3556400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3530700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3244100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3001500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>4124700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3813200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3485500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>3746900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>3479100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>3046600</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3885,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3944,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4003,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4062,8 +4230,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4121,67 +4292,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>898600</v>
+        <v>1012000</v>
       </c>
       <c r="E72" s="3">
-        <v>816900</v>
+        <v>983500</v>
       </c>
       <c r="F72" s="3">
-        <v>703600</v>
+        <v>791400</v>
       </c>
       <c r="G72" s="3">
-        <v>730800</v>
+        <v>681700</v>
       </c>
       <c r="H72" s="3">
-        <v>842100</v>
+        <v>708100</v>
       </c>
       <c r="I72" s="3">
-        <v>671600</v>
+        <v>815900</v>
       </c>
       <c r="J72" s="3">
+        <v>650700</v>
+      </c>
+      <c r="K72" s="3">
         <v>526600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>604400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>512500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>513800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>542300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>611300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>881500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>613400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>553800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>599000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>552900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>508500</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4239,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4298,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4357,67 +4540,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1571100</v>
+        <v>1748000</v>
       </c>
       <c r="E76" s="3">
-        <v>1420900</v>
+        <v>1719400</v>
       </c>
       <c r="F76" s="3">
-        <v>1264700</v>
+        <v>1376700</v>
       </c>
       <c r="G76" s="3">
-        <v>1263300</v>
+        <v>1225400</v>
       </c>
       <c r="H76" s="3">
-        <v>1514600</v>
+        <v>1224000</v>
       </c>
       <c r="I76" s="3">
-        <v>810300</v>
+        <v>1467500</v>
       </c>
       <c r="J76" s="3">
+        <v>785100</v>
+      </c>
+      <c r="K76" s="3">
         <v>665600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>766100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>674200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>691600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>734100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>827900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1067500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>920300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>821900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>624900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>578700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>534400</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4475,131 +4664,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>98500</v>
+        <v>22500</v>
       </c>
       <c r="E81" s="3">
-        <v>64500</v>
+        <v>95400</v>
       </c>
       <c r="F81" s="3">
-        <v>158200</v>
+        <v>62500</v>
       </c>
       <c r="G81" s="3">
-        <v>79100</v>
+        <v>153300</v>
       </c>
       <c r="H81" s="3">
-        <v>102400</v>
+        <v>98700</v>
       </c>
       <c r="I81" s="3">
-        <v>96700</v>
+        <v>99200</v>
       </c>
       <c r="J81" s="3">
+        <v>93700</v>
+      </c>
+      <c r="K81" s="3">
         <v>81800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>51100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>64700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>51900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>45600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>58600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>71200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>62700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>51000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>52500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>44400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>42700</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4621,67 +4819,71 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>15400</v>
+        <v>13200</v>
       </c>
       <c r="E83" s="3">
-        <v>12200</v>
+        <v>14900</v>
       </c>
       <c r="F83" s="3">
-        <v>19100</v>
+        <v>11900</v>
       </c>
       <c r="G83" s="3">
-        <v>8900</v>
+        <v>18500</v>
       </c>
       <c r="H83" s="3">
-        <v>14500</v>
+        <v>12300</v>
       </c>
       <c r="I83" s="3">
-        <v>11500</v>
+        <v>14100</v>
       </c>
       <c r="J83" s="3">
+        <v>11100</v>
+      </c>
+      <c r="K83" s="3">
         <v>17400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>9500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>2600</v>
-      </c>
-      <c r="M83" s="3">
-        <v>2500</v>
       </c>
       <c r="N83" s="3">
         <v>2500</v>
       </c>
       <c r="O83" s="3">
+        <v>2500</v>
+      </c>
+      <c r="P83" s="3">
         <v>2700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>4100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>3300</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>3000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>3400</v>
       </c>
-      <c r="T83" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="U83" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4739,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4798,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4857,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4916,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4975,67 +5189,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-78600</v>
+        <v>-290300</v>
       </c>
       <c r="E89" s="3">
-        <v>125900</v>
+        <v>-76200</v>
       </c>
       <c r="F89" s="3">
-        <v>423700</v>
+        <v>122000</v>
       </c>
       <c r="G89" s="3">
-        <v>75600</v>
+        <v>410500</v>
       </c>
       <c r="H89" s="3">
-        <v>-31900</v>
+        <v>111400</v>
       </c>
       <c r="I89" s="3">
-        <v>-564200</v>
+        <v>-30900</v>
       </c>
       <c r="J89" s="3">
+        <v>-546700</v>
+      </c>
+      <c r="K89" s="3">
         <v>621800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>493200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>240700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>129100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>554900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>38600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>50500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-394400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>104700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>7500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-92100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>237600</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5057,8 +5277,9 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5066,58 +5287,61 @@
         <v>-13300</v>
       </c>
       <c r="E91" s="3">
-        <v>-10600</v>
+        <v>-12900</v>
       </c>
       <c r="F91" s="3">
-        <v>-15100</v>
+        <v>-10300</v>
       </c>
       <c r="G91" s="3">
-        <v>-8500</v>
+        <v>-14600</v>
       </c>
       <c r="H91" s="3">
-        <v>-10300</v>
+        <v>-8200</v>
       </c>
       <c r="I91" s="3">
-        <v>-12300</v>
+        <v>-10000</v>
       </c>
       <c r="J91" s="3">
+        <v>-11900</v>
+      </c>
+      <c r="K91" s="3">
         <v>-17000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-9600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-8300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-8600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-6700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-3300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-2900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-2000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-1100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-10200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-3500</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5175,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5234,8 +5461,11 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5243,58 +5473,61 @@
         <v>-13300</v>
       </c>
       <c r="E94" s="3">
-        <v>-10600</v>
+        <v>-12900</v>
       </c>
       <c r="F94" s="3">
-        <v>-15100</v>
+        <v>-10300</v>
       </c>
       <c r="G94" s="3">
-        <v>-8500</v>
+        <v>-14600</v>
       </c>
       <c r="H94" s="3">
-        <v>-10300</v>
+        <v>-8200</v>
       </c>
       <c r="I94" s="3">
-        <v>-12300</v>
+        <v>-10000</v>
       </c>
       <c r="J94" s="3">
+        <v>-11900</v>
+      </c>
+      <c r="K94" s="3">
         <v>-17000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-9600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-8300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-8600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-6700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-3300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-8700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-8200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-4900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-7800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-7200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-7800</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5316,8 +5549,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5340,11 +5574,11 @@
         <v>0</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-67800</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
         <v>0</v>
       </c>
@@ -5373,10 +5607,13 @@
         <v>0</v>
       </c>
       <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
         <v>-16800</v>
       </c>
     </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5434,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5493,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5552,181 +5795,193 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-22300</v>
+        <v>-2200</v>
       </c>
       <c r="E100" s="3">
-        <v>-11100</v>
+        <v>-21600</v>
       </c>
       <c r="F100" s="3">
-        <v>-40300</v>
+        <v>-10800</v>
       </c>
       <c r="G100" s="3">
-        <v>-20500</v>
+        <v>-39000</v>
       </c>
       <c r="H100" s="3">
-        <v>-19700</v>
+        <v>-19900</v>
       </c>
       <c r="I100" s="3">
-        <v>-5300</v>
+        <v>-19000</v>
       </c>
       <c r="J100" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="K100" s="3">
         <v>-89600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-7600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-39800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-69400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-6700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-19600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>47000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>337200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-46300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>95100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-18900</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>107100</v>
+        <v>107900</v>
       </c>
       <c r="E101" s="3">
-        <v>82400</v>
+        <v>103700</v>
       </c>
       <c r="F101" s="3">
-        <v>120100</v>
+        <v>79800</v>
       </c>
       <c r="G101" s="3">
-        <v>52000</v>
+        <v>116400</v>
       </c>
       <c r="H101" s="3">
-        <v>103400</v>
+        <v>71800</v>
       </c>
       <c r="I101" s="3">
-        <v>360500</v>
+        <v>100200</v>
       </c>
       <c r="J101" s="3">
+        <v>349300</v>
+      </c>
+      <c r="K101" s="3">
         <v>89700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>102200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-42100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>159800</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>99400</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>23600</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>18300</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>33900</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>40700</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>10300</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>27000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>27700</v>
       </c>
     </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-7100</v>
+        <v>-197900</v>
       </c>
       <c r="E102" s="3">
-        <v>186600</v>
+        <v>-6900</v>
       </c>
       <c r="F102" s="3">
-        <v>488400</v>
+        <v>180800</v>
       </c>
       <c r="G102" s="3">
-        <v>98600</v>
+        <v>473200</v>
       </c>
       <c r="H102" s="3">
-        <v>-58900</v>
+        <v>143200</v>
       </c>
       <c r="I102" s="3">
-        <v>-339300</v>
+        <v>-57100</v>
       </c>
       <c r="J102" s="3">
+        <v>-328800</v>
+      </c>
+      <c r="K102" s="3">
         <v>576100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>553400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>149500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>210900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>647800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>50200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>51200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-288400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>352000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-36300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>22800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>238500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BMA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BMA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="92">
   <si>
     <t>BMA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,158 +665,172 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>463600</v>
+        <v>494900</v>
       </c>
       <c r="E8" s="3">
-        <v>548500</v>
+        <v>1022100</v>
       </c>
       <c r="F8" s="3">
-        <v>378200</v>
+        <v>496300</v>
       </c>
       <c r="G8" s="3">
-        <v>688100</v>
+        <v>529300</v>
       </c>
       <c r="H8" s="3">
-        <v>453300</v>
+        <v>556400</v>
       </c>
       <c r="I8" s="3">
+        <v>1012400</v>
+      </c>
+      <c r="J8" s="3">
+        <v>485300</v>
+      </c>
+      <c r="K8" s="3">
         <v>646500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>525600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>979700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>491300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>293900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>228100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>199300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>187400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>239600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>203500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>179400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>195300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>198300</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>194100</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -877,8 +891,14 @@
       <c r="V9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -939,8 +959,14 @@
       <c r="V10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -963,8 +989,10 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1025,8 +1053,14 @@
       <c r="V12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,8 +1121,14 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1149,70 +1189,82 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-13200</v>
+        <v>-16400</v>
       </c>
       <c r="E15" s="3">
-        <v>-14900</v>
+        <v>-31000</v>
       </c>
       <c r="F15" s="3">
-        <v>-10400</v>
+        <v>-14200</v>
       </c>
       <c r="G15" s="3">
-        <v>-19900</v>
+        <v>-14400</v>
       </c>
       <c r="H15" s="3">
-        <v>-12300</v>
+        <v>-15400</v>
       </c>
       <c r="I15" s="3">
+        <v>-29300</v>
+      </c>
+      <c r="J15" s="3">
+        <v>-13100</v>
+      </c>
+      <c r="K15" s="3">
         <v>-14100</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>-9800</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>-18800</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>-10000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>-2600</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>-2500</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>-2500</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="S15" s="3">
         <v>-5900</v>
-      </c>
-      <c r="R15" s="3">
-        <v>-5000</v>
-      </c>
-      <c r="S15" s="3">
-        <v>-4500</v>
       </c>
       <c r="T15" s="3">
         <v>-5000</v>
       </c>
       <c r="U15" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="V15" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="W15" s="3">
         <v>-2900</v>
       </c>
-      <c r="V15" s="3">
+      <c r="X15" s="3">
         <v>-2700</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,132 +1284,146 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>219100</v>
+        <v>202400</v>
       </c>
       <c r="E17" s="3">
-        <v>275700</v>
+        <v>462600</v>
       </c>
       <c r="F17" s="3">
-        <v>179100</v>
+        <v>234500</v>
       </c>
       <c r="G17" s="3">
-        <v>254700</v>
+        <v>266000</v>
       </c>
       <c r="H17" s="3">
-        <v>154000</v>
+        <v>263500</v>
       </c>
       <c r="I17" s="3">
+        <v>374800</v>
+      </c>
+      <c r="J17" s="3">
+        <v>164900</v>
+      </c>
+      <c r="K17" s="3">
         <v>249300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>234600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>490200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>252200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>152500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>98000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>74600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>65500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>79300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>71700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>64600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>69100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>96500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>96400</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>244500</v>
+        <v>292500</v>
       </c>
       <c r="E18" s="3">
-        <v>272800</v>
+        <v>559500</v>
       </c>
       <c r="F18" s="3">
-        <v>199100</v>
+        <v>261800</v>
       </c>
       <c r="G18" s="3">
-        <v>433400</v>
+        <v>263200</v>
       </c>
       <c r="H18" s="3">
-        <v>299300</v>
+        <v>293000</v>
       </c>
       <c r="I18" s="3">
+        <v>637600</v>
+      </c>
+      <c r="J18" s="3">
+        <v>320400</v>
+      </c>
+      <c r="K18" s="3">
         <v>397100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>290900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>489500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>239000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>141300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>130100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>124700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>121900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>160300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>131700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>114800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>126200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>101800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>97600</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,132 +1446,146 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-198200</v>
+        <v>-216700</v>
       </c>
       <c r="E20" s="3">
-        <v>-158900</v>
+        <v>-441300</v>
       </c>
       <c r="F20" s="3">
-        <v>-104100</v>
+        <v>-212200</v>
       </c>
       <c r="G20" s="3">
-        <v>-205300</v>
+        <v>-153300</v>
       </c>
       <c r="H20" s="3">
-        <v>-142700</v>
+        <v>-172000</v>
       </c>
       <c r="I20" s="3">
+        <v>-312700</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-152800</v>
+      </c>
+      <c r="K20" s="3">
         <v>-228100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-208000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-288200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-114200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-48200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-54800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-60200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-36100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-62700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>-33700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>-35900</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>-44500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>-35400</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>-31300</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>59500</v>
+        <v>94900</v>
       </c>
       <c r="E21" s="3">
-        <v>128800</v>
+        <v>146600</v>
       </c>
       <c r="F21" s="3">
-        <v>106800</v>
+        <v>62400</v>
       </c>
       <c r="G21" s="3">
-        <v>246600</v>
+        <v>108900</v>
       </c>
       <c r="H21" s="3">
-        <v>168800</v>
+        <v>138800</v>
       </c>
       <c r="I21" s="3">
+        <v>351800</v>
+      </c>
+      <c r="J21" s="3">
+        <v>179500</v>
+      </c>
+      <c r="K21" s="3">
         <v>183100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>94000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>218800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>134400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>95800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>77800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>67100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>88500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>101700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>101400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>81800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>85100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>66600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>66500</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1566,132 +1646,150 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>46300</v>
+        <v>75800</v>
       </c>
       <c r="E23" s="3">
-        <v>113900</v>
+        <v>118200</v>
       </c>
       <c r="F23" s="3">
-        <v>95000</v>
+        <v>49600</v>
       </c>
       <c r="G23" s="3">
-        <v>228100</v>
+        <v>109900</v>
       </c>
       <c r="H23" s="3">
-        <v>156600</v>
+        <v>121000</v>
       </c>
       <c r="I23" s="3">
+        <v>324900</v>
+      </c>
+      <c r="J23" s="3">
+        <v>167600</v>
+      </c>
+      <c r="K23" s="3">
         <v>169000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>82900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>201300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>124900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>93100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>75300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>64500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>85800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>97600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>98000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>78800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>81700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>66400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>66400</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>23800</v>
+        <v>2800</v>
       </c>
       <c r="E24" s="3">
-        <v>18500</v>
+        <v>41800</v>
       </c>
       <c r="F24" s="3">
-        <v>32500</v>
+        <v>25500</v>
       </c>
       <c r="G24" s="3">
-        <v>74800</v>
+        <v>17800</v>
       </c>
       <c r="H24" s="3">
-        <v>57800</v>
+        <v>47900</v>
       </c>
       <c r="I24" s="3">
+        <v>110100</v>
+      </c>
+      <c r="J24" s="3">
+        <v>61900</v>
+      </c>
+      <c r="K24" s="3">
         <v>69800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>-10800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>119500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>73800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>29000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>23300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>18600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>26900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>25800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>34900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>27400</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>28700</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>22000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>23600</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,132 +1850,150 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>22500</v>
+        <v>73000</v>
       </c>
       <c r="E26" s="3">
-        <v>95400</v>
+        <v>76400</v>
       </c>
       <c r="F26" s="3">
-        <v>62500</v>
+        <v>24100</v>
       </c>
       <c r="G26" s="3">
-        <v>153300</v>
+        <v>92100</v>
       </c>
       <c r="H26" s="3">
-        <v>98700</v>
+        <v>73100</v>
       </c>
       <c r="I26" s="3">
+        <v>214800</v>
+      </c>
+      <c r="J26" s="3">
+        <v>105700</v>
+      </c>
+      <c r="K26" s="3">
         <v>99200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>93700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>81800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>51100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>64100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>52000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>45900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>58900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>71800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>63200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>51500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>53000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>44400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>42700</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>22500</v>
+        <v>73000</v>
       </c>
       <c r="E27" s="3">
-        <v>95400</v>
+        <v>76400</v>
       </c>
       <c r="F27" s="3">
-        <v>62500</v>
+        <v>24100</v>
       </c>
       <c r="G27" s="3">
-        <v>153300</v>
+        <v>92100</v>
       </c>
       <c r="H27" s="3">
-        <v>98700</v>
+        <v>73100</v>
       </c>
       <c r="I27" s="3">
+        <v>214800</v>
+      </c>
+      <c r="J27" s="3">
+        <v>105700</v>
+      </c>
+      <c r="K27" s="3">
         <v>99200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>93700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>81800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>51100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>64700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>51900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>45600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>58600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>71200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>62700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>51000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>52500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>44400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>42700</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +2054,14 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2000,8 +2122,14 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2190,14 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,132 +2258,150 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>198200</v>
+        <v>216700</v>
       </c>
       <c r="E32" s="3">
-        <v>158900</v>
+        <v>441300</v>
       </c>
       <c r="F32" s="3">
-        <v>104100</v>
+        <v>212200</v>
       </c>
       <c r="G32" s="3">
-        <v>205300</v>
+        <v>153300</v>
       </c>
       <c r="H32" s="3">
-        <v>142700</v>
+        <v>172000</v>
       </c>
       <c r="I32" s="3">
+        <v>312700</v>
+      </c>
+      <c r="J32" s="3">
+        <v>152800</v>
+      </c>
+      <c r="K32" s="3">
         <v>228100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>208000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>288200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>114200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>48200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>54800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>60200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>36100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>62700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>33700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>35900</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>44500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>35400</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>31300</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>22500</v>
+        <v>73000</v>
       </c>
       <c r="E33" s="3">
-        <v>95400</v>
+        <v>76400</v>
       </c>
       <c r="F33" s="3">
-        <v>62500</v>
+        <v>24100</v>
       </c>
       <c r="G33" s="3">
-        <v>153300</v>
+        <v>92100</v>
       </c>
       <c r="H33" s="3">
-        <v>98700</v>
+        <v>73100</v>
       </c>
       <c r="I33" s="3">
+        <v>214800</v>
+      </c>
+      <c r="J33" s="3">
+        <v>105700</v>
+      </c>
+      <c r="K33" s="3">
         <v>99200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>93700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>81800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>51100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>64700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>51900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>45600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>58600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>71200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>62700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>51000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>52500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>44400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>42700</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,137 +2462,155 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>22500</v>
+        <v>73000</v>
       </c>
       <c r="E35" s="3">
-        <v>95400</v>
+        <v>76400</v>
       </c>
       <c r="F35" s="3">
-        <v>62500</v>
+        <v>24100</v>
       </c>
       <c r="G35" s="3">
-        <v>153300</v>
+        <v>92100</v>
       </c>
       <c r="H35" s="3">
-        <v>98700</v>
+        <v>73100</v>
       </c>
       <c r="I35" s="3">
+        <v>214800</v>
+      </c>
+      <c r="J35" s="3">
+        <v>105700</v>
+      </c>
+      <c r="K35" s="3">
         <v>99200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>93700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>81800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>51100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>64700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>51900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>45600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>58600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>71200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>62700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>51000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>52500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>44400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>42700</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2633,10 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,132 +2659,146 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1022800</v>
+        <v>1176300</v>
       </c>
       <c r="E41" s="3">
-        <v>875800</v>
+        <v>980000</v>
       </c>
       <c r="F41" s="3">
-        <v>889500</v>
+        <v>987000</v>
       </c>
       <c r="G41" s="3">
-        <v>646100</v>
+        <v>1024700</v>
       </c>
       <c r="H41" s="3">
-        <v>929100</v>
+        <v>858300</v>
       </c>
       <c r="I41" s="3">
+        <v>623500</v>
+      </c>
+      <c r="J41" s="3">
+        <v>896600</v>
+      </c>
+      <c r="K41" s="3">
         <v>1045100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>724200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>842100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>812600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>757200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>807800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>661100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>454500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>823900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>700900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>660600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>744300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>924100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>607900</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1100800</v>
+        <v>945500</v>
       </c>
       <c r="E42" s="3">
-        <v>1755700</v>
+        <v>1209700</v>
       </c>
       <c r="F42" s="3">
-        <v>1009800</v>
+        <v>1062300</v>
       </c>
       <c r="G42" s="3">
-        <v>1284400</v>
+        <v>2054200</v>
       </c>
       <c r="H42" s="3">
-        <v>373700</v>
+        <v>974400</v>
       </c>
       <c r="I42" s="3">
+        <v>1239400</v>
+      </c>
+      <c r="J42" s="3">
+        <v>360600</v>
+      </c>
+      <c r="K42" s="3">
         <v>526400</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>321400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>214600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>173100</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>210900</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>164000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>136800</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>61700</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>432500</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>396500</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>357300</v>
       </c>
-      <c r="T42" s="3">
+      <c r="V42" s="3">
         <v>163500</v>
       </c>
-      <c r="U42" s="3">
+      <c r="W42" s="3">
         <v>188700</v>
       </c>
-      <c r="V42" s="3">
+      <c r="X42" s="3">
         <v>176500</v>
       </c>
     </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2673,8 +2859,14 @@
       <c r="V43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+      <c r="X43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2735,8 +2927,14 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2797,8 +2995,14 @@
       <c r="V45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2859,194 +3063,218 @@
       <c r="V46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3">
+        <v>0</v>
+      </c>
+      <c r="X46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>23700</v>
+        <v>24600</v>
       </c>
       <c r="E47" s="3">
-        <v>21700</v>
+        <v>24500</v>
       </c>
       <c r="F47" s="3">
-        <v>18600</v>
+        <v>22800</v>
       </c>
       <c r="G47" s="3">
-        <v>18100</v>
+        <v>25400</v>
       </c>
       <c r="H47" s="3">
-        <v>18000</v>
+        <v>17900</v>
       </c>
       <c r="I47" s="3">
+        <v>17500</v>
+      </c>
+      <c r="J47" s="3">
+        <v>17400</v>
+      </c>
+      <c r="K47" s="3">
         <v>23500</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>16900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>17300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>20100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>2000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>1900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>2200</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>6600</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>11500</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>2100</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>800</v>
-      </c>
-      <c r="T47" s="3">
-        <v>300</v>
-      </c>
-      <c r="U47" s="3">
-        <v>300</v>
       </c>
       <c r="V47" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>300</v>
+      </c>
+      <c r="X47" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>399500</v>
+        <v>477700</v>
       </c>
       <c r="E48" s="3">
-        <v>399100</v>
+        <v>430300</v>
       </c>
       <c r="F48" s="3">
-        <v>317600</v>
+        <v>385600</v>
       </c>
       <c r="G48" s="3">
-        <v>295700</v>
+        <v>467000</v>
       </c>
       <c r="H48" s="3">
-        <v>283300</v>
+        <v>306500</v>
       </c>
       <c r="I48" s="3">
+        <v>285400</v>
+      </c>
+      <c r="J48" s="3">
+        <v>273400</v>
+      </c>
+      <c r="K48" s="3">
         <v>360300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>109900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>107300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>121500</v>
-      </c>
-      <c r="M48" s="3">
-        <v>111100</v>
-      </c>
-      <c r="N48" s="3">
-        <v>107200</v>
       </c>
       <c r="O48" s="3">
         <v>111100</v>
       </c>
       <c r="P48" s="3">
+        <v>107200</v>
+      </c>
+      <c r="Q48" s="3">
+        <v>111100</v>
+      </c>
+      <c r="R48" s="3">
         <v>119600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>161500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>35600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>34100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>39400</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>38200</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>34700</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>59800</v>
+        <v>74800</v>
       </c>
       <c r="E49" s="3">
-        <v>59300</v>
+        <v>65900</v>
       </c>
       <c r="F49" s="3">
-        <v>45600</v>
+        <v>57700</v>
       </c>
       <c r="G49" s="3">
-        <v>42400</v>
+        <v>69300</v>
       </c>
       <c r="H49" s="3">
-        <v>40600</v>
+        <v>44000</v>
       </c>
       <c r="I49" s="3">
+        <v>40900</v>
+      </c>
+      <c r="J49" s="3">
+        <v>39200</v>
+      </c>
+      <c r="K49" s="3">
         <v>49600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>21100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>19800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>19100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>17300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>15600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>14500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>15700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>40500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>19200</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>17700</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>19900</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>17400</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>16200</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3335,14 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,59 +3403,65 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>26800</v>
+        <v>30000</v>
       </c>
       <c r="E52" s="3">
-        <v>27000</v>
+        <v>28700</v>
       </c>
       <c r="F52" s="3">
-        <v>23800</v>
+        <v>25800</v>
       </c>
       <c r="G52" s="3">
-        <v>21600</v>
+        <v>31500</v>
       </c>
       <c r="H52" s="3">
-        <v>20600</v>
+        <v>23000</v>
       </c>
       <c r="I52" s="3">
+        <v>20900</v>
+      </c>
+      <c r="J52" s="3">
+        <v>19900</v>
+      </c>
+      <c r="K52" s="3">
         <v>25100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>33100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>5500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>7900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>10500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>2500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>2500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>2400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>5200</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T52" s="3" t="s">
         <v>5</v>
       </c>
@@ -3231,8 +3471,14 @@
       <c r="V52" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,70 +3539,82 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>7872400</v>
+        <v>8919300</v>
       </c>
       <c r="E54" s="3">
-        <v>8939800</v>
+        <v>8044100</v>
       </c>
       <c r="F54" s="3">
-        <v>7511800</v>
+        <v>7596700</v>
       </c>
       <c r="G54" s="3">
-        <v>6428700</v>
+        <v>10460100</v>
       </c>
       <c r="H54" s="3">
-        <v>5209700</v>
+        <v>7248800</v>
       </c>
       <c r="I54" s="3">
+        <v>6203600</v>
+      </c>
+      <c r="J54" s="3">
+        <v>5027300</v>
+      </c>
+      <c r="K54" s="3">
         <v>6208800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>4139300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>4255000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>4816300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>4230600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>4222300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>3978200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>3829400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>5192200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>4733600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>4307400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>4371900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>4057900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>3580900</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3637,10 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,70 +3663,78 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>512700</v>
+        <v>462400</v>
       </c>
       <c r="E57" s="3">
-        <v>571500</v>
+        <v>400400</v>
       </c>
       <c r="F57" s="3">
-        <v>294400</v>
+        <v>494800</v>
       </c>
       <c r="G57" s="3">
-        <v>296000</v>
+        <v>668700</v>
       </c>
       <c r="H57" s="3">
-        <v>241400</v>
+        <v>284100</v>
       </c>
       <c r="I57" s="3">
+        <v>285600</v>
+      </c>
+      <c r="J57" s="3">
+        <v>233000</v>
+      </c>
+      <c r="K57" s="3">
         <v>310300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>171800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>157400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>205100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>189000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>173600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>163900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>150300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>374000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>219100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>219900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>222000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>239200</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>182100</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3527,70 +3795,82 @@
       <c r="V58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>48600</v>
+        <v>24100</v>
       </c>
       <c r="E59" s="3">
-        <v>59700</v>
+        <v>15700</v>
       </c>
       <c r="F59" s="3">
-        <v>102400</v>
+        <v>46900</v>
       </c>
       <c r="G59" s="3">
-        <v>77000</v>
+        <v>69900</v>
       </c>
       <c r="H59" s="3">
-        <v>105800</v>
+        <v>98800</v>
       </c>
       <c r="I59" s="3">
+        <v>74300</v>
+      </c>
+      <c r="J59" s="3">
+        <v>102100</v>
+      </c>
+      <c r="K59" s="3">
         <v>113900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>46300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>44000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>56400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>36400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>28600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>26100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>67300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>91200</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S59" s="3">
-        <v>0</v>
-      </c>
       <c r="T59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U59" s="3" t="s">
-        <v>5</v>
+      <c r="U59" s="3">
+        <v>0</v>
       </c>
       <c r="V59" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3651,132 +3931,150 @@
       <c r="V60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3">
+        <v>0</v>
+      </c>
+      <c r="X60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>455900</v>
+        <v>438200</v>
       </c>
       <c r="E61" s="3">
-        <v>466200</v>
+        <v>419000</v>
       </c>
       <c r="F61" s="3">
-        <v>382800</v>
+        <v>440000</v>
       </c>
       <c r="G61" s="3">
-        <v>355400</v>
+        <v>545400</v>
       </c>
       <c r="H61" s="3">
-        <v>338600</v>
+        <v>369400</v>
       </c>
       <c r="I61" s="3">
+        <v>342900</v>
+      </c>
+      <c r="J61" s="3">
+        <v>326700</v>
+      </c>
+      <c r="K61" s="3">
         <v>449000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>340100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>271400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>336400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>304400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>360300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>316200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>225800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>308600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>285000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>270200</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>166300</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>211200</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>104400</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>97500</v>
+        <v>91100</v>
       </c>
       <c r="E62" s="3">
-        <v>88200</v>
+        <v>99400</v>
       </c>
       <c r="F62" s="3">
-        <v>42800</v>
+        <v>94100</v>
       </c>
       <c r="G62" s="3">
-        <v>54300</v>
+        <v>103200</v>
       </c>
       <c r="H62" s="3">
-        <v>16400</v>
+        <v>41300</v>
       </c>
       <c r="I62" s="3">
+        <v>52400</v>
+      </c>
+      <c r="J62" s="3">
+        <v>15800</v>
+      </c>
+      <c r="K62" s="3">
         <v>22900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>13700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>15900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>17000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>15700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>12600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>14600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>18100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>27300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>11000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>8600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>9200</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>8800</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>7700</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +4135,14 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4203,14 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,70 +4271,82 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>6124400</v>
+        <v>6867400</v>
       </c>
       <c r="E66" s="3">
-        <v>7220300</v>
+        <v>6233700</v>
       </c>
       <c r="F66" s="3">
-        <v>6135100</v>
+        <v>5909900</v>
       </c>
       <c r="G66" s="3">
-        <v>5203300</v>
+        <v>8448200</v>
       </c>
       <c r="H66" s="3">
-        <v>3985700</v>
+        <v>5920300</v>
       </c>
       <c r="I66" s="3">
+        <v>5021100</v>
+      </c>
+      <c r="J66" s="3">
+        <v>3846100</v>
+      </c>
+      <c r="K66" s="3">
         <v>4741300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>3354200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>3589400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>4050100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>3556400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>3530700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>3244100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>3001500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>4124700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>3813200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>3485500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>3746900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>3479100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>3046600</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4369,10 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4433,14 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4501,14 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4569,14 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,70 +4637,82 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1012000</v>
+        <v>1190800</v>
       </c>
       <c r="E72" s="3">
-        <v>983500</v>
+        <v>1022400</v>
       </c>
       <c r="F72" s="3">
-        <v>791400</v>
+        <v>976600</v>
       </c>
       <c r="G72" s="3">
-        <v>681700</v>
+        <v>1150700</v>
       </c>
       <c r="H72" s="3">
-        <v>708100</v>
+        <v>763700</v>
       </c>
       <c r="I72" s="3">
+        <v>657800</v>
+      </c>
+      <c r="J72" s="3">
+        <v>683300</v>
+      </c>
+      <c r="K72" s="3">
         <v>815900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>650700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>526600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>604400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>512500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>513800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>542300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>611300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>881500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>613400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>553800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>599000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>552900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>508500</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4773,14 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4841,14 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,70 +4909,82 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1748000</v>
+        <v>2051900</v>
       </c>
       <c r="E76" s="3">
-        <v>1719400</v>
+        <v>1810300</v>
       </c>
       <c r="F76" s="3">
-        <v>1376700</v>
+        <v>1686700</v>
       </c>
       <c r="G76" s="3">
-        <v>1225400</v>
+        <v>2011800</v>
       </c>
       <c r="H76" s="3">
-        <v>1224000</v>
+        <v>1328500</v>
       </c>
       <c r="I76" s="3">
+        <v>1182500</v>
+      </c>
+      <c r="J76" s="3">
+        <v>1181200</v>
+      </c>
+      <c r="K76" s="3">
         <v>1467500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>785100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>665600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>766100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>674200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>691600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>734100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>827900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>1067500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>920300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>821900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>624900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>578700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>534400</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,137 +5045,155 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>22500</v>
+        <v>73000</v>
       </c>
       <c r="E81" s="3">
-        <v>95400</v>
+        <v>76400</v>
       </c>
       <c r="F81" s="3">
-        <v>62500</v>
+        <v>24100</v>
       </c>
       <c r="G81" s="3">
-        <v>153300</v>
+        <v>92100</v>
       </c>
       <c r="H81" s="3">
-        <v>98700</v>
+        <v>73100</v>
       </c>
       <c r="I81" s="3">
+        <v>214800</v>
+      </c>
+      <c r="J81" s="3">
+        <v>105700</v>
+      </c>
+      <c r="K81" s="3">
         <v>99200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>93700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>81800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>51100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>64700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>51900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>45600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>58600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>71200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>62700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>51000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>52500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>44400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>42700</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,70 +5216,78 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>13200</v>
+        <v>19100</v>
       </c>
       <c r="E83" s="3">
-        <v>14900</v>
+        <v>28400</v>
       </c>
       <c r="F83" s="3">
-        <v>11900</v>
+        <v>12800</v>
       </c>
       <c r="G83" s="3">
-        <v>18500</v>
+        <v>-1000</v>
       </c>
       <c r="H83" s="3">
-        <v>12300</v>
+        <v>17800</v>
       </c>
       <c r="I83" s="3">
+        <v>26800</v>
+      </c>
+      <c r="J83" s="3">
+        <v>11800</v>
+      </c>
+      <c r="K83" s="3">
         <v>14100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>11100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>17400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>9500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>2600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>2500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>2500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>2700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>4100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>3300</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>3000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>3400</v>
       </c>
-      <c r="U83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V83" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X83" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5348,14 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5416,14 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5484,14 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5552,14 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,70 +5620,82 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-290300</v>
+        <v>-2200</v>
       </c>
       <c r="E89" s="3">
-        <v>-76200</v>
+        <v>-619400</v>
       </c>
       <c r="F89" s="3">
-        <v>122000</v>
+        <v>-280100</v>
       </c>
       <c r="G89" s="3">
-        <v>410500</v>
+        <v>-343200</v>
       </c>
       <c r="H89" s="3">
-        <v>111400</v>
+        <v>188500</v>
       </c>
       <c r="I89" s="3">
+        <v>595100</v>
+      </c>
+      <c r="J89" s="3">
+        <v>107500</v>
+      </c>
+      <c r="K89" s="3">
         <v>-30900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-546700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>621800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>493200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>240700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>129100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>554900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>38600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>50500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-394400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>104700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>7500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>-92100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>237600</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,70 +5718,78 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-13300</v>
+        <v>-22000</v>
       </c>
       <c r="E91" s="3">
-        <v>-12900</v>
+        <v>-31000</v>
       </c>
       <c r="F91" s="3">
-        <v>-10300</v>
+        <v>-12800</v>
       </c>
       <c r="G91" s="3">
-        <v>-14600</v>
+        <v>-12400</v>
       </c>
       <c r="H91" s="3">
-        <v>-8200</v>
+        <v>-9900</v>
       </c>
       <c r="I91" s="3">
+        <v>-14100</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="K91" s="3">
         <v>-10000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-11900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-17000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-9600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-8300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-8600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-6700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-3300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-2900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-2000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-1100</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-10200</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-3500</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5850,14 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,70 +5918,82 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-13300</v>
+        <v>-22000</v>
       </c>
       <c r="E94" s="3">
-        <v>-12900</v>
+        <v>-31000</v>
       </c>
       <c r="F94" s="3">
-        <v>-10300</v>
+        <v>-12800</v>
       </c>
       <c r="G94" s="3">
-        <v>-14600</v>
+        <v>-12400</v>
       </c>
       <c r="H94" s="3">
+        <v>-9900</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-14100</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="K94" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="L94" s="3">
+        <v>-11900</v>
+      </c>
+      <c r="M94" s="3">
+        <v>-17000</v>
+      </c>
+      <c r="N94" s="3">
+        <v>-9600</v>
+      </c>
+      <c r="O94" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="P94" s="3">
+        <v>-8600</v>
+      </c>
+      <c r="Q94" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="R94" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="S94" s="3">
+        <v>-8700</v>
+      </c>
+      <c r="T94" s="3">
         <v>-8200</v>
       </c>
-      <c r="I94" s="3">
-        <v>-10000</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-11900</v>
-      </c>
-      <c r="K94" s="3">
-        <v>-17000</v>
-      </c>
-      <c r="L94" s="3">
-        <v>-9600</v>
-      </c>
-      <c r="M94" s="3">
-        <v>-8300</v>
-      </c>
-      <c r="N94" s="3">
-        <v>-8600</v>
-      </c>
-      <c r="O94" s="3">
-        <v>-6700</v>
-      </c>
-      <c r="P94" s="3">
-        <v>-3300</v>
-      </c>
-      <c r="Q94" s="3">
-        <v>-8700</v>
-      </c>
-      <c r="R94" s="3">
-        <v>-8200</v>
-      </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-4900</v>
-      </c>
-      <c r="T94" s="3">
-        <v>-7800</v>
-      </c>
-      <c r="U94" s="3">
-        <v>-7200</v>
       </c>
       <c r="V94" s="3">
         <v>-7800</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="X94" s="3">
+        <v>-7800</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +6016,10 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5577,14 +6045,14 @@
         <v>0</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-67800</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
         <v>0</v>
       </c>
@@ -5610,10 +6078,16 @@
         <v>0</v>
       </c>
       <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
         <v>-16800</v>
       </c>
     </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +6148,14 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +6216,14 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,190 +6284,214 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2200</v>
+        <v>-7800</v>
       </c>
       <c r="E100" s="3">
-        <v>-21600</v>
+        <v>-51000</v>
       </c>
       <c r="F100" s="3">
-        <v>-10800</v>
+        <v>-2100</v>
       </c>
       <c r="G100" s="3">
-        <v>-39000</v>
+        <v>-20800</v>
       </c>
       <c r="H100" s="3">
-        <v>-19900</v>
+        <v>-10400</v>
       </c>
       <c r="I100" s="3">
+        <v>-37700</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-19200</v>
+      </c>
+      <c r="K100" s="3">
         <v>-19000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-5100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-89600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-7600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-39800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-69400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-6700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-19600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>47000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>337200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-46300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>95100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>-18900</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>107900</v>
+        <v>50500</v>
       </c>
       <c r="E101" s="3">
-        <v>103700</v>
+        <v>148200</v>
       </c>
       <c r="F101" s="3">
-        <v>79800</v>
+        <v>104200</v>
       </c>
       <c r="G101" s="3">
-        <v>116400</v>
+        <v>700</v>
       </c>
       <c r="H101" s="3">
-        <v>71800</v>
+        <v>120000</v>
       </c>
       <c r="I101" s="3">
+        <v>168700</v>
+      </c>
+      <c r="J101" s="3">
+        <v>69300</v>
+      </c>
+      <c r="K101" s="3">
         <v>100200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>349300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>89700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>102200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>-42100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>159800</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>99400</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>23600</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>18300</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>33900</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>40700</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>10300</v>
       </c>
-      <c r="U101" s="3">
+      <c r="W101" s="3">
         <v>27000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="X101" s="3">
         <v>27700</v>
       </c>
     </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-197900</v>
+        <v>18500</v>
       </c>
       <c r="E102" s="3">
-        <v>-6900</v>
+        <v>-553200</v>
       </c>
       <c r="F102" s="3">
-        <v>180800</v>
+        <v>-190900</v>
       </c>
       <c r="G102" s="3">
-        <v>473200</v>
+        <v>-337800</v>
       </c>
       <c r="H102" s="3">
-        <v>143200</v>
+        <v>276300</v>
       </c>
       <c r="I102" s="3">
+        <v>685900</v>
+      </c>
+      <c r="J102" s="3">
+        <v>138200</v>
+      </c>
+      <c r="K102" s="3">
         <v>-57100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-328800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>576100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>553400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>149500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>210900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>647800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>50200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>51200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-288400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>352000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>-36300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>22800</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>238500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BMA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BMA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="92">
   <si>
     <t>BMA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,172 +665,178 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>494900</v>
+        <v>666300</v>
       </c>
       <c r="E8" s="3">
-        <v>1022100</v>
+        <v>458500</v>
       </c>
       <c r="F8" s="3">
-        <v>496300</v>
+        <v>946900</v>
       </c>
       <c r="G8" s="3">
-        <v>529300</v>
+        <v>459800</v>
       </c>
       <c r="H8" s="3">
-        <v>556400</v>
+        <v>725500</v>
       </c>
       <c r="I8" s="3">
-        <v>1012400</v>
+        <v>515500</v>
       </c>
       <c r="J8" s="3">
+        <v>937900</v>
+      </c>
+      <c r="K8" s="3">
         <v>485300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>646500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>525600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>979700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>491300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>293900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>228100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>199300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>187400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>239600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>203500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>179400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>195300</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>198300</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>194100</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -897,8 +903,11 @@
       <c r="X9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -965,8 +974,11 @@
       <c r="X10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -991,8 +1003,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1059,8 +1072,11 @@
       <c r="X12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,8 +1143,11 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1195,76 +1214,82 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-16400</v>
+        <v>-21500</v>
       </c>
       <c r="E15" s="3">
-        <v>-31000</v>
+        <v>-15200</v>
       </c>
       <c r="F15" s="3">
+        <v>-28800</v>
+      </c>
+      <c r="G15" s="3">
+        <v>-13100</v>
+      </c>
+      <c r="H15" s="3">
+        <v>-19700</v>
+      </c>
+      <c r="I15" s="3">
         <v>-14200</v>
       </c>
-      <c r="G15" s="3">
-        <v>-14400</v>
-      </c>
-      <c r="H15" s="3">
-        <v>-15400</v>
-      </c>
-      <c r="I15" s="3">
-        <v>-29300</v>
-      </c>
       <c r="J15" s="3">
+        <v>-27200</v>
+      </c>
+      <c r="K15" s="3">
         <v>-13100</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>-14100</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>-9800</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>-18800</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>-10000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>-2600</v>
-      </c>
-      <c r="P15" s="3">
-        <v>-2500</v>
       </c>
       <c r="Q15" s="3">
         <v>-2500</v>
       </c>
       <c r="R15" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="S15" s="3">
         <v>-2700</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>-5900</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>-5000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>-4500</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>-5000</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>-2900</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>-2700</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,144 +1311,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>202400</v>
+        <v>276300</v>
       </c>
       <c r="E17" s="3">
-        <v>462600</v>
+        <v>187500</v>
       </c>
       <c r="F17" s="3">
-        <v>234500</v>
+        <v>428600</v>
       </c>
       <c r="G17" s="3">
-        <v>266000</v>
+        <v>217300</v>
       </c>
       <c r="H17" s="3">
-        <v>263500</v>
+        <v>366100</v>
       </c>
       <c r="I17" s="3">
-        <v>374800</v>
+        <v>244100</v>
       </c>
       <c r="J17" s="3">
+        <v>347200</v>
+      </c>
+      <c r="K17" s="3">
         <v>164900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>249300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>234600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>490200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>252200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>152500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>98000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>74600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>65500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>79300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>71700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>64600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>69100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>96500</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>96400</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>292500</v>
+        <v>390000</v>
       </c>
       <c r="E18" s="3">
-        <v>559500</v>
+        <v>271000</v>
       </c>
       <c r="F18" s="3">
-        <v>261800</v>
+        <v>518400</v>
       </c>
       <c r="G18" s="3">
-        <v>263200</v>
+        <v>242500</v>
       </c>
       <c r="H18" s="3">
-        <v>293000</v>
+        <v>359500</v>
       </c>
       <c r="I18" s="3">
-        <v>637600</v>
+        <v>271400</v>
       </c>
       <c r="J18" s="3">
+        <v>590700</v>
+      </c>
+      <c r="K18" s="3">
         <v>320400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>397100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>290900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>489500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>239000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>141300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>130100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>124700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>121900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>160300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>131700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>114800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>126200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>101800</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>97600</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,144 +1480,151 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-216700</v>
+        <v>-305100</v>
       </c>
       <c r="E20" s="3">
-        <v>-441300</v>
+        <v>-200800</v>
       </c>
       <c r="F20" s="3">
-        <v>-212200</v>
+        <v>-408900</v>
       </c>
       <c r="G20" s="3">
-        <v>-153300</v>
+        <v>-196600</v>
       </c>
       <c r="H20" s="3">
-        <v>-172000</v>
+        <v>-264700</v>
       </c>
       <c r="I20" s="3">
-        <v>-312700</v>
+        <v>-159300</v>
       </c>
       <c r="J20" s="3">
+        <v>-289700</v>
+      </c>
+      <c r="K20" s="3">
         <v>-152800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-228100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-208000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-288200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-114200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-48200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-54800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-60200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-36100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-62700</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-33700</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-35900</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-44500</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-35400</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-31300</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>94900</v>
+        <v>106300</v>
       </c>
       <c r="E21" s="3">
-        <v>146600</v>
+        <v>87900</v>
       </c>
       <c r="F21" s="3">
-        <v>62400</v>
+        <v>135800</v>
       </c>
       <c r="G21" s="3">
-        <v>108900</v>
+        <v>57800</v>
       </c>
       <c r="H21" s="3">
-        <v>138800</v>
+        <v>114400</v>
       </c>
       <c r="I21" s="3">
-        <v>351800</v>
+        <v>128600</v>
       </c>
       <c r="J21" s="3">
+        <v>325900</v>
+      </c>
+      <c r="K21" s="3">
         <v>179500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>183100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>94000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>218800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>134400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>95800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>77800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>67100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>88500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>101700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>101400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>81800</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>85100</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>66600</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>66500</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1652,144 +1691,153 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>75800</v>
+        <v>84800</v>
       </c>
       <c r="E23" s="3">
-        <v>118200</v>
+        <v>70200</v>
       </c>
       <c r="F23" s="3">
-        <v>49600</v>
+        <v>109500</v>
       </c>
       <c r="G23" s="3">
-        <v>109900</v>
+        <v>45900</v>
       </c>
       <c r="H23" s="3">
-        <v>121000</v>
+        <v>94800</v>
       </c>
       <c r="I23" s="3">
-        <v>324900</v>
+        <v>112100</v>
       </c>
       <c r="J23" s="3">
+        <v>301000</v>
+      </c>
+      <c r="K23" s="3">
         <v>167600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>169000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>82900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>201300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>124900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>93100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>75300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>64500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>85800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>97600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>98000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>78800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>81700</v>
-      </c>
-      <c r="W23" s="3">
-        <v>66400</v>
       </c>
       <c r="X23" s="3">
         <v>66400</v>
       </c>
-    </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y23" s="3">
+        <v>66400</v>
+      </c>
+    </row>
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>2800</v>
+        <v>-26100</v>
       </c>
       <c r="E24" s="3">
-        <v>41800</v>
+        <v>2600</v>
       </c>
       <c r="F24" s="3">
-        <v>25500</v>
+        <v>38700</v>
       </c>
       <c r="G24" s="3">
-        <v>17800</v>
+        <v>23600</v>
       </c>
       <c r="H24" s="3">
-        <v>47900</v>
+        <v>23500</v>
       </c>
       <c r="I24" s="3">
-        <v>110100</v>
+        <v>44300</v>
       </c>
       <c r="J24" s="3">
+        <v>102000</v>
+      </c>
+      <c r="K24" s="3">
         <v>61900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>69800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-10800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>119500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>73800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>29000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>23300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>18600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>26900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>25800</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>34900</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>27400</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>28700</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>22000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>23600</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,144 +1904,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>73000</v>
+        <v>110900</v>
       </c>
       <c r="E26" s="3">
-        <v>76400</v>
+        <v>67600</v>
       </c>
       <c r="F26" s="3">
-        <v>24100</v>
+        <v>70700</v>
       </c>
       <c r="G26" s="3">
-        <v>92100</v>
+        <v>22300</v>
       </c>
       <c r="H26" s="3">
-        <v>73100</v>
+        <v>71300</v>
       </c>
       <c r="I26" s="3">
-        <v>214800</v>
+        <v>67700</v>
       </c>
       <c r="J26" s="3">
+        <v>199000</v>
+      </c>
+      <c r="K26" s="3">
         <v>105700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>99200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>93700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>81800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>51100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>64100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>52000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>45900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>58900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>71800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>63200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>51500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>53000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>44400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>42700</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>73000</v>
+        <v>110900</v>
       </c>
       <c r="E27" s="3">
-        <v>76400</v>
+        <v>67600</v>
       </c>
       <c r="F27" s="3">
-        <v>24100</v>
+        <v>70700</v>
       </c>
       <c r="G27" s="3">
-        <v>92100</v>
+        <v>22300</v>
       </c>
       <c r="H27" s="3">
-        <v>73100</v>
+        <v>71300</v>
       </c>
       <c r="I27" s="3">
-        <v>214800</v>
+        <v>67700</v>
       </c>
       <c r="J27" s="3">
+        <v>199000</v>
+      </c>
+      <c r="K27" s="3">
         <v>105700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>99200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>93700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>81800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>51100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>64700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>51900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>45600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>58600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>71200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>62700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>51000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>52500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>44400</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>42700</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2117,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2128,8 +2188,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2259,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,144 +2330,153 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>216700</v>
+        <v>305100</v>
       </c>
       <c r="E32" s="3">
-        <v>441300</v>
+        <v>200800</v>
       </c>
       <c r="F32" s="3">
-        <v>212200</v>
+        <v>408900</v>
       </c>
       <c r="G32" s="3">
-        <v>153300</v>
+        <v>196600</v>
       </c>
       <c r="H32" s="3">
-        <v>172000</v>
+        <v>264700</v>
       </c>
       <c r="I32" s="3">
-        <v>312700</v>
+        <v>159300</v>
       </c>
       <c r="J32" s="3">
+        <v>289700</v>
+      </c>
+      <c r="K32" s="3">
         <v>152800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>228100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>208000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>288200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>114200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>48200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>54800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>60200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>36100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>62700</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>33700</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>35900</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>44500</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>35400</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>31300</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>73000</v>
+        <v>110900</v>
       </c>
       <c r="E33" s="3">
-        <v>76400</v>
+        <v>67600</v>
       </c>
       <c r="F33" s="3">
-        <v>24100</v>
+        <v>70700</v>
       </c>
       <c r="G33" s="3">
-        <v>92100</v>
+        <v>22300</v>
       </c>
       <c r="H33" s="3">
-        <v>73100</v>
+        <v>71300</v>
       </c>
       <c r="I33" s="3">
-        <v>214800</v>
+        <v>67700</v>
       </c>
       <c r="J33" s="3">
+        <v>199000</v>
+      </c>
+      <c r="K33" s="3">
         <v>105700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>99200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>93700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>81800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>51100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>64700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>51900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>45600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>58600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>71200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>62700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>51000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>52500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>44400</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>42700</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2543,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>73000</v>
+        <v>110900</v>
       </c>
       <c r="E35" s="3">
-        <v>76400</v>
+        <v>67600</v>
       </c>
       <c r="F35" s="3">
-        <v>24100</v>
+        <v>70700</v>
       </c>
       <c r="G35" s="3">
-        <v>92100</v>
+        <v>22300</v>
       </c>
       <c r="H35" s="3">
-        <v>73100</v>
+        <v>71300</v>
       </c>
       <c r="I35" s="3">
-        <v>214800</v>
+        <v>67700</v>
       </c>
       <c r="J35" s="3">
+        <v>199000</v>
+      </c>
+      <c r="K35" s="3">
         <v>105700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>99200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>93700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>81800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>51100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>64700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>51900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>45600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>58600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>71200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>62700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>51000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>52500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>44400</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>42700</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2719,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,144 +2746,151 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1176300</v>
+        <v>1224800</v>
       </c>
       <c r="E41" s="3">
-        <v>980000</v>
+        <v>1089800</v>
       </c>
       <c r="F41" s="3">
-        <v>987000</v>
+        <v>907900</v>
       </c>
       <c r="G41" s="3">
-        <v>1024700</v>
+        <v>914300</v>
       </c>
       <c r="H41" s="3">
-        <v>858300</v>
+        <v>1046200</v>
       </c>
       <c r="I41" s="3">
-        <v>623500</v>
+        <v>795100</v>
       </c>
       <c r="J41" s="3">
+        <v>577600</v>
+      </c>
+      <c r="K41" s="3">
         <v>896600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1045100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>724200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>842100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>812600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>757200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>807800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>661100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>454500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>823900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>700900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>660600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>744300</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>924100</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>607900</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>945500</v>
+        <v>967800</v>
       </c>
       <c r="E42" s="3">
-        <v>1209700</v>
+        <v>875900</v>
       </c>
       <c r="F42" s="3">
-        <v>1062300</v>
+        <v>1120700</v>
       </c>
       <c r="G42" s="3">
-        <v>2054200</v>
+        <v>984100</v>
       </c>
       <c r="H42" s="3">
-        <v>974400</v>
+        <v>2100400</v>
       </c>
       <c r="I42" s="3">
-        <v>1239400</v>
+        <v>902700</v>
       </c>
       <c r="J42" s="3">
+        <v>1148200</v>
+      </c>
+      <c r="K42" s="3">
         <v>360600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>526400</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>321400</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>214600</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>173100</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>210900</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>164000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>136800</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>61700</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>432500</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>396500</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>357300</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>163500</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>188700</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>176500</v>
       </c>
     </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2865,8 +2957,11 @@
       <c r="X43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2933,8 +3028,11 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3001,8 +3099,11 @@
       <c r="X45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3069,67 +3170,70 @@
       <c r="X46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>24600</v>
+        <v>24500</v>
       </c>
       <c r="E47" s="3">
-        <v>24500</v>
+        <v>22800</v>
       </c>
       <c r="F47" s="3">
-        <v>22800</v>
+        <v>22700</v>
       </c>
       <c r="G47" s="3">
-        <v>25400</v>
+        <v>21200</v>
       </c>
       <c r="H47" s="3">
-        <v>17900</v>
+        <v>25900</v>
       </c>
       <c r="I47" s="3">
-        <v>17500</v>
+        <v>16600</v>
       </c>
       <c r="J47" s="3">
+        <v>16200</v>
+      </c>
+      <c r="K47" s="3">
         <v>17400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>23500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>16900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>17300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>20100</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>2000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1900</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>2200</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>6600</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>11500</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>2100</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>800</v>
-      </c>
-      <c r="V47" s="3">
-        <v>300</v>
       </c>
       <c r="W47" s="3">
         <v>300</v>
@@ -3137,144 +3241,153 @@
       <c r="X47" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>477700</v>
+        <v>485900</v>
       </c>
       <c r="E48" s="3">
-        <v>430300</v>
+        <v>442500</v>
       </c>
       <c r="F48" s="3">
-        <v>385600</v>
+        <v>398600</v>
       </c>
       <c r="G48" s="3">
-        <v>467000</v>
+        <v>357200</v>
       </c>
       <c r="H48" s="3">
-        <v>306500</v>
+        <v>476800</v>
       </c>
       <c r="I48" s="3">
-        <v>285400</v>
+        <v>284000</v>
       </c>
       <c r="J48" s="3">
+        <v>264400</v>
+      </c>
+      <c r="K48" s="3">
         <v>273400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>360300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>109900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>107300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>121500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>111100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>107200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>111100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>119600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>161500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>35600</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>34100</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>39400</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>38200</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>34700</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>74800</v>
+        <v>77200</v>
       </c>
       <c r="E49" s="3">
-        <v>65900</v>
+        <v>69300</v>
       </c>
       <c r="F49" s="3">
-        <v>57700</v>
+        <v>61100</v>
       </c>
       <c r="G49" s="3">
-        <v>69300</v>
+        <v>53500</v>
       </c>
       <c r="H49" s="3">
-        <v>44000</v>
+        <v>70800</v>
       </c>
       <c r="I49" s="3">
-        <v>40900</v>
+        <v>40700</v>
       </c>
       <c r="J49" s="3">
+        <v>37900</v>
+      </c>
+      <c r="K49" s="3">
         <v>39200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>49600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>21100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>19800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>19100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>17300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>15600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>14500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>15700</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>40500</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>19200</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>17700</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>19900</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>17400</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>16200</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3454,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,62 +3525,65 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>30000</v>
+        <v>30200</v>
       </c>
       <c r="E52" s="3">
-        <v>28700</v>
+        <v>27800</v>
       </c>
       <c r="F52" s="3">
-        <v>25800</v>
+        <v>26600</v>
       </c>
       <c r="G52" s="3">
-        <v>31500</v>
+        <v>23900</v>
       </c>
       <c r="H52" s="3">
-        <v>23000</v>
+        <v>32200</v>
       </c>
       <c r="I52" s="3">
-        <v>20900</v>
+        <v>21300</v>
       </c>
       <c r="J52" s="3">
+        <v>19300</v>
+      </c>
+      <c r="K52" s="3">
         <v>19900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>25100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>33100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>5500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>7900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>10500</v>
-      </c>
-      <c r="P52" s="3">
-        <v>2500</v>
       </c>
       <c r="Q52" s="3">
         <v>2500</v>
       </c>
       <c r="R52" s="3">
+        <v>2500</v>
+      </c>
+      <c r="S52" s="3">
         <v>2400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>5200</v>
       </c>
-      <c r="T52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="U52" s="3" t="s">
         <v>5</v>
       </c>
@@ -3477,8 +3596,11 @@
       <c r="X52" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,76 +3667,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>8919300</v>
+        <v>9168900</v>
       </c>
       <c r="E54" s="3">
-        <v>8044100</v>
+        <v>8262900</v>
       </c>
       <c r="F54" s="3">
-        <v>7596700</v>
+        <v>7452100</v>
       </c>
       <c r="G54" s="3">
-        <v>10460100</v>
+        <v>7037600</v>
       </c>
       <c r="H54" s="3">
-        <v>7248800</v>
+        <v>10679700</v>
       </c>
       <c r="I54" s="3">
-        <v>6203600</v>
+        <v>6715300</v>
       </c>
       <c r="J54" s="3">
+        <v>5747100</v>
+      </c>
+      <c r="K54" s="3">
         <v>5027300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>6208800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>4139300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>4255000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>4816300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>4230600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>4222300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>3978200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>3829400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>5192200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>4733600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>4307400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>4371900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>4057900</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>3580900</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3767,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,76 +3794,80 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>462400</v>
+        <v>624300</v>
       </c>
       <c r="E57" s="3">
-        <v>400400</v>
+        <v>428300</v>
       </c>
       <c r="F57" s="3">
-        <v>494800</v>
+        <v>371000</v>
       </c>
       <c r="G57" s="3">
-        <v>668700</v>
+        <v>458400</v>
       </c>
       <c r="H57" s="3">
-        <v>284100</v>
+        <v>682700</v>
       </c>
       <c r="I57" s="3">
-        <v>285600</v>
+        <v>263200</v>
       </c>
       <c r="J57" s="3">
+        <v>264600</v>
+      </c>
+      <c r="K57" s="3">
         <v>233000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>310300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>171800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>157400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>205100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>189000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>173600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>163900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>150300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>374000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>219100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>219900</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>222000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>239200</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>182100</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3801,67 +3934,70 @@
       <c r="X58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>24100</v>
+        <v>3200</v>
       </c>
       <c r="E59" s="3">
-        <v>15700</v>
+        <v>22400</v>
       </c>
       <c r="F59" s="3">
-        <v>46900</v>
+        <v>14600</v>
       </c>
       <c r="G59" s="3">
-        <v>69900</v>
+        <v>43500</v>
       </c>
       <c r="H59" s="3">
-        <v>98800</v>
+        <v>71400</v>
       </c>
       <c r="I59" s="3">
-        <v>74300</v>
+        <v>91500</v>
       </c>
       <c r="J59" s="3">
+        <v>68800</v>
+      </c>
+      <c r="K59" s="3">
         <v>102100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>113900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>46300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>44000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>56400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>36400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>28600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>26100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>67300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>91200</v>
       </c>
-      <c r="T59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U59" s="3">
-        <v>0</v>
-      </c>
-      <c r="V59" s="3" t="s">
-        <v>5</v>
+      <c r="U59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V59" s="3">
+        <v>0</v>
       </c>
       <c r="W59" s="3" t="s">
         <v>5</v>
@@ -3869,8 +4005,11 @@
       <c r="X59" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3937,144 +4076,153 @@
       <c r="X60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>438200</v>
+        <v>417300</v>
       </c>
       <c r="E61" s="3">
-        <v>419000</v>
+        <v>405900</v>
       </c>
       <c r="F61" s="3">
-        <v>440000</v>
+        <v>388100</v>
       </c>
       <c r="G61" s="3">
-        <v>545400</v>
+        <v>407600</v>
       </c>
       <c r="H61" s="3">
-        <v>369400</v>
+        <v>556900</v>
       </c>
       <c r="I61" s="3">
-        <v>342900</v>
+        <v>342200</v>
       </c>
       <c r="J61" s="3">
+        <v>317700</v>
+      </c>
+      <c r="K61" s="3">
         <v>326700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>449000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>340100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>271400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>336400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>304400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>360300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>316200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>225800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>308600</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>285000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>270200</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>166300</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>211200</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>104400</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>91100</v>
+        <v>67400</v>
       </c>
       <c r="E62" s="3">
-        <v>99400</v>
+        <v>84400</v>
       </c>
       <c r="F62" s="3">
-        <v>94100</v>
+        <v>92100</v>
       </c>
       <c r="G62" s="3">
-        <v>103200</v>
+        <v>87200</v>
       </c>
       <c r="H62" s="3">
-        <v>41300</v>
+        <v>105400</v>
       </c>
       <c r="I62" s="3">
-        <v>52400</v>
+        <v>38200</v>
       </c>
       <c r="J62" s="3">
+        <v>48500</v>
+      </c>
+      <c r="K62" s="3">
         <v>15800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>22900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>13700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>15900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>17000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>15700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>12600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>14600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>18100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>27300</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>11000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>8600</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>9200</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>8800</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>7700</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4289,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4360,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4431,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>6867400</v>
+        <v>6976400</v>
       </c>
       <c r="E66" s="3">
-        <v>6233700</v>
+        <v>6362000</v>
       </c>
       <c r="F66" s="3">
-        <v>5909900</v>
+        <v>5775000</v>
       </c>
       <c r="G66" s="3">
-        <v>8448200</v>
+        <v>5475000</v>
       </c>
       <c r="H66" s="3">
-        <v>5920300</v>
+        <v>8625600</v>
       </c>
       <c r="I66" s="3">
-        <v>5021100</v>
+        <v>5484600</v>
       </c>
       <c r="J66" s="3">
+        <v>4651600</v>
+      </c>
+      <c r="K66" s="3">
         <v>3846100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4741300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3354200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3589400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4050100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3556400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3530700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3244100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3001500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>4124700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>3813200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>3485500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>3746900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>3479100</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>3046600</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4531,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4600,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4671,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4742,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4813,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1190800</v>
+        <v>1313200</v>
       </c>
       <c r="E72" s="3">
-        <v>1022400</v>
+        <v>1103200</v>
       </c>
       <c r="F72" s="3">
-        <v>976600</v>
+        <v>947100</v>
       </c>
       <c r="G72" s="3">
-        <v>1150700</v>
+        <v>904700</v>
       </c>
       <c r="H72" s="3">
-        <v>763700</v>
+        <v>1174900</v>
       </c>
       <c r="I72" s="3">
-        <v>657800</v>
+        <v>707500</v>
       </c>
       <c r="J72" s="3">
+        <v>609400</v>
+      </c>
+      <c r="K72" s="3">
         <v>683300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>815900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>650700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>526600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>604400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>512500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>513800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>542300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>611300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>881500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>613400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>553800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>599000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>552900</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>508500</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4955,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5026,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5097,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2051900</v>
+        <v>2192400</v>
       </c>
       <c r="E76" s="3">
-        <v>1810300</v>
+        <v>1900900</v>
       </c>
       <c r="F76" s="3">
-        <v>1686700</v>
+        <v>1677100</v>
       </c>
       <c r="G76" s="3">
-        <v>2011800</v>
+        <v>1562600</v>
       </c>
       <c r="H76" s="3">
-        <v>1328500</v>
+        <v>2054100</v>
       </c>
       <c r="I76" s="3">
-        <v>1182500</v>
+        <v>1230700</v>
       </c>
       <c r="J76" s="3">
+        <v>1095500</v>
+      </c>
+      <c r="K76" s="3">
         <v>1181200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1467500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>785100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>665600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>766100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>674200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>691600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>734100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>827900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1067500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>920300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>821900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>624900</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>578700</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>534400</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5239,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>73000</v>
+        <v>110900</v>
       </c>
       <c r="E81" s="3">
-        <v>76400</v>
+        <v>67600</v>
       </c>
       <c r="F81" s="3">
-        <v>24100</v>
+        <v>70700</v>
       </c>
       <c r="G81" s="3">
-        <v>92100</v>
+        <v>22300</v>
       </c>
       <c r="H81" s="3">
-        <v>73100</v>
+        <v>71300</v>
       </c>
       <c r="I81" s="3">
-        <v>214800</v>
+        <v>67700</v>
       </c>
       <c r="J81" s="3">
+        <v>199000</v>
+      </c>
+      <c r="K81" s="3">
         <v>105700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>99200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>93700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>81800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>51100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>64700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>51900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>45600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>58600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>71200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>62700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>51000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>52500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>44400</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>42700</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,76 +5415,80 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>19100</v>
+        <v>21500</v>
       </c>
       <c r="E83" s="3">
-        <v>28400</v>
+        <v>17700</v>
       </c>
       <c r="F83" s="3">
-        <v>12800</v>
+        <v>26300</v>
       </c>
       <c r="G83" s="3">
-        <v>-1000</v>
+        <v>11800</v>
       </c>
       <c r="H83" s="3">
-        <v>17800</v>
+        <v>19700</v>
       </c>
       <c r="I83" s="3">
-        <v>26800</v>
+        <v>16500</v>
       </c>
       <c r="J83" s="3">
+        <v>24900</v>
+      </c>
+      <c r="K83" s="3">
         <v>11800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>14100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>11100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>17400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>9500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>2600</v>
-      </c>
-      <c r="P83" s="3">
-        <v>2500</v>
       </c>
       <c r="Q83" s="3">
         <v>2500</v>
       </c>
       <c r="R83" s="3">
+        <v>2500</v>
+      </c>
+      <c r="S83" s="3">
         <v>2700</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>4100</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>3300</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>3000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>3400</v>
       </c>
-      <c r="W83" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="X83" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5555,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5626,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5697,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5768,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,76 +5839,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-2200</v>
+        <v>-338800</v>
       </c>
       <c r="E89" s="3">
-        <v>-619400</v>
+        <v>-2000</v>
       </c>
       <c r="F89" s="3">
-        <v>-280100</v>
+        <v>-573800</v>
       </c>
       <c r="G89" s="3">
-        <v>-343200</v>
+        <v>-259500</v>
       </c>
       <c r="H89" s="3">
-        <v>188500</v>
+        <v>-111400</v>
       </c>
       <c r="I89" s="3">
-        <v>595100</v>
+        <v>174700</v>
       </c>
       <c r="J89" s="3">
+        <v>551300</v>
+      </c>
+      <c r="K89" s="3">
         <v>107500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-30900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-546700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>621800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>493200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>240700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>129100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>554900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>38600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>50500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-394400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>104700</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>7500</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-92100</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>237600</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,76 +5939,80 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-22000</v>
+        <v>-14200</v>
       </c>
       <c r="E91" s="3">
-        <v>-31000</v>
+        <v>-20400</v>
       </c>
       <c r="F91" s="3">
-        <v>-12800</v>
+        <v>-28700</v>
       </c>
       <c r="G91" s="3">
-        <v>-12400</v>
+        <v>-11900</v>
       </c>
       <c r="H91" s="3">
-        <v>-9900</v>
+        <v>-11500</v>
       </c>
       <c r="I91" s="3">
-        <v>-14100</v>
+        <v>-9200</v>
       </c>
       <c r="J91" s="3">
+        <v>-13100</v>
+      </c>
+      <c r="K91" s="3">
         <v>-7900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-10000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-11900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-17000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-9600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-8300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-8600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-6700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-3300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-2900</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-2000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-1100</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-10200</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-3500</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6079,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,76 +6150,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-22000</v>
+        <v>-14500</v>
       </c>
       <c r="E94" s="3">
-        <v>-31000</v>
+        <v>-20400</v>
       </c>
       <c r="F94" s="3">
-        <v>-12800</v>
+        <v>-28700</v>
       </c>
       <c r="G94" s="3">
-        <v>-12400</v>
+        <v>-11900</v>
       </c>
       <c r="H94" s="3">
-        <v>-9900</v>
+        <v>-11500</v>
       </c>
       <c r="I94" s="3">
-        <v>-14100</v>
+        <v>-9200</v>
       </c>
       <c r="J94" s="3">
+        <v>-13100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-7900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-10000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-11900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-17000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-9600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-8300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-8600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-6700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-3300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-8700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-8200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-4900</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-7800</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-7200</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-7800</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6250,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6051,11 +6284,11 @@
         <v>0</v>
       </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-67800</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
         <v>0</v>
       </c>
@@ -6084,10 +6317,13 @@
         <v>0</v>
       </c>
       <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3">
         <v>-16800</v>
       </c>
     </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6390,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6461,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,208 +6532,220 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-7800</v>
+        <v>-24500</v>
       </c>
       <c r="E100" s="3">
-        <v>-51000</v>
+        <v>-7200</v>
       </c>
       <c r="F100" s="3">
-        <v>-2100</v>
+        <v>-47200</v>
       </c>
       <c r="G100" s="3">
-        <v>-20800</v>
+        <v>-2000</v>
       </c>
       <c r="H100" s="3">
-        <v>-10400</v>
+        <v>-19300</v>
       </c>
       <c r="I100" s="3">
-        <v>-37700</v>
+        <v>-9700</v>
       </c>
       <c r="J100" s="3">
+        <v>-34900</v>
+      </c>
+      <c r="K100" s="3">
         <v>-19200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-19000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-5100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-89600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-7600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-39800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-69400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-6700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-19600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>47000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>337200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-46300</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>95100</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-18900</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>50500</v>
+        <v>64900</v>
       </c>
       <c r="E101" s="3">
-        <v>148200</v>
+        <v>46700</v>
       </c>
       <c r="F101" s="3">
-        <v>104200</v>
+        <v>137300</v>
       </c>
       <c r="G101" s="3">
-        <v>700</v>
+        <v>96500</v>
       </c>
       <c r="H101" s="3">
-        <v>120000</v>
+        <v>137300</v>
       </c>
       <c r="I101" s="3">
-        <v>168700</v>
+        <v>111200</v>
       </c>
       <c r="J101" s="3">
+        <v>156300</v>
+      </c>
+      <c r="K101" s="3">
         <v>69300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>100200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>349300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>89700</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>102200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-42100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>159800</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>99400</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>23600</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>18300</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>33900</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>40700</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>10300</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>27000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>27700</v>
       </c>
     </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>18500</v>
+        <v>-312900</v>
       </c>
       <c r="E102" s="3">
-        <v>-553200</v>
+        <v>17100</v>
       </c>
       <c r="F102" s="3">
-        <v>-190900</v>
+        <v>-512500</v>
       </c>
       <c r="G102" s="3">
-        <v>-337800</v>
+        <v>-176900</v>
       </c>
       <c r="H102" s="3">
-        <v>276300</v>
+        <v>-18300</v>
       </c>
       <c r="I102" s="3">
-        <v>685900</v>
+        <v>256000</v>
       </c>
       <c r="J102" s="3">
+        <v>635400</v>
+      </c>
+      <c r="K102" s="3">
         <v>138200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-57100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-328800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>576100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>553400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>149500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>210900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>647800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>50200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>51200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-288400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>352000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-36300</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>22800</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>238500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BMA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BMA_QTR_FIN.xlsx
@@ -770,25 +770,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>666300</v>
+        <v>618400</v>
       </c>
       <c r="E8" s="3">
-        <v>458500</v>
+        <v>425600</v>
       </c>
       <c r="F8" s="3">
-        <v>946900</v>
+        <v>878900</v>
       </c>
       <c r="G8" s="3">
-        <v>459800</v>
+        <v>426800</v>
       </c>
       <c r="H8" s="3">
-        <v>725500</v>
+        <v>673400</v>
       </c>
       <c r="I8" s="3">
-        <v>515500</v>
+        <v>478500</v>
       </c>
       <c r="J8" s="3">
-        <v>937900</v>
+        <v>870500</v>
       </c>
       <c r="K8" s="3">
         <v>485300</v>
@@ -1223,25 +1223,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-21500</v>
+        <v>-20000</v>
       </c>
       <c r="E15" s="3">
-        <v>-15200</v>
+        <v>-14100</v>
       </c>
       <c r="F15" s="3">
-        <v>-28800</v>
+        <v>-26700</v>
       </c>
       <c r="G15" s="3">
-        <v>-13100</v>
+        <v>-12200</v>
       </c>
       <c r="H15" s="3">
-        <v>-19700</v>
+        <v>-18300</v>
       </c>
       <c r="I15" s="3">
-        <v>-14200</v>
+        <v>-13200</v>
       </c>
       <c r="J15" s="3">
-        <v>-27200</v>
+        <v>-25200</v>
       </c>
       <c r="K15" s="3">
         <v>-13100</v>
@@ -1318,25 +1318,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>276300</v>
+        <v>256500</v>
       </c>
       <c r="E17" s="3">
-        <v>187500</v>
+        <v>174100</v>
       </c>
       <c r="F17" s="3">
-        <v>428600</v>
+        <v>397800</v>
       </c>
       <c r="G17" s="3">
-        <v>217300</v>
+        <v>201700</v>
       </c>
       <c r="H17" s="3">
-        <v>366100</v>
+        <v>339800</v>
       </c>
       <c r="I17" s="3">
-        <v>244100</v>
+        <v>226600</v>
       </c>
       <c r="J17" s="3">
-        <v>347200</v>
+        <v>322300</v>
       </c>
       <c r="K17" s="3">
         <v>164900</v>
@@ -1389,25 +1389,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>390000</v>
+        <v>362000</v>
       </c>
       <c r="E18" s="3">
-        <v>271000</v>
+        <v>251500</v>
       </c>
       <c r="F18" s="3">
-        <v>518400</v>
+        <v>481100</v>
       </c>
       <c r="G18" s="3">
-        <v>242500</v>
+        <v>225100</v>
       </c>
       <c r="H18" s="3">
-        <v>359500</v>
+        <v>333600</v>
       </c>
       <c r="I18" s="3">
-        <v>271400</v>
+        <v>251900</v>
       </c>
       <c r="J18" s="3">
-        <v>590700</v>
+        <v>548300</v>
       </c>
       <c r="K18" s="3">
         <v>320400</v>
@@ -1487,25 +1487,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-305100</v>
+        <v>-283200</v>
       </c>
       <c r="E20" s="3">
-        <v>-200800</v>
+        <v>-186300</v>
       </c>
       <c r="F20" s="3">
-        <v>-408900</v>
+        <v>-379500</v>
       </c>
       <c r="G20" s="3">
-        <v>-196600</v>
+        <v>-182500</v>
       </c>
       <c r="H20" s="3">
-        <v>-264700</v>
+        <v>-245700</v>
       </c>
       <c r="I20" s="3">
-        <v>-159300</v>
+        <v>-147900</v>
       </c>
       <c r="J20" s="3">
-        <v>-289700</v>
+        <v>-268900</v>
       </c>
       <c r="K20" s="3">
         <v>-152800</v>
@@ -1558,25 +1558,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>106300</v>
+        <v>98700</v>
       </c>
       <c r="E21" s="3">
-        <v>87900</v>
+        <v>81600</v>
       </c>
       <c r="F21" s="3">
-        <v>135800</v>
+        <v>126100</v>
       </c>
       <c r="G21" s="3">
-        <v>57800</v>
+        <v>53600</v>
       </c>
       <c r="H21" s="3">
-        <v>114400</v>
+        <v>106200</v>
       </c>
       <c r="I21" s="3">
-        <v>128600</v>
+        <v>119400</v>
       </c>
       <c r="J21" s="3">
-        <v>325900</v>
+        <v>302500</v>
       </c>
       <c r="K21" s="3">
         <v>179500</v>
@@ -1700,25 +1700,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>84800</v>
+        <v>78800</v>
       </c>
       <c r="E23" s="3">
-        <v>70200</v>
+        <v>65200</v>
       </c>
       <c r="F23" s="3">
-        <v>109500</v>
+        <v>101600</v>
       </c>
       <c r="G23" s="3">
-        <v>45900</v>
+        <v>42600</v>
       </c>
       <c r="H23" s="3">
-        <v>94800</v>
+        <v>87900</v>
       </c>
       <c r="I23" s="3">
-        <v>112100</v>
+        <v>104000</v>
       </c>
       <c r="J23" s="3">
-        <v>301000</v>
+        <v>279400</v>
       </c>
       <c r="K23" s="3">
         <v>167600</v>
@@ -1771,25 +1771,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-26100</v>
+        <v>-24200</v>
       </c>
       <c r="E24" s="3">
-        <v>2600</v>
+        <v>2400</v>
       </c>
       <c r="F24" s="3">
-        <v>38700</v>
+        <v>36000</v>
       </c>
       <c r="G24" s="3">
-        <v>23600</v>
+        <v>21900</v>
       </c>
       <c r="H24" s="3">
-        <v>23500</v>
+        <v>21800</v>
       </c>
       <c r="I24" s="3">
-        <v>44300</v>
+        <v>41200</v>
       </c>
       <c r="J24" s="3">
-        <v>102000</v>
+        <v>94700</v>
       </c>
       <c r="K24" s="3">
         <v>61900</v>
@@ -1913,25 +1913,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>110900</v>
+        <v>103000</v>
       </c>
       <c r="E26" s="3">
-        <v>67600</v>
+        <v>62700</v>
       </c>
       <c r="F26" s="3">
-        <v>70700</v>
+        <v>65700</v>
       </c>
       <c r="G26" s="3">
-        <v>22300</v>
+        <v>20700</v>
       </c>
       <c r="H26" s="3">
-        <v>71300</v>
+        <v>66200</v>
       </c>
       <c r="I26" s="3">
-        <v>67700</v>
+        <v>62900</v>
       </c>
       <c r="J26" s="3">
-        <v>199000</v>
+        <v>184700</v>
       </c>
       <c r="K26" s="3">
         <v>105700</v>
@@ -1984,25 +1984,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>110900</v>
+        <v>103000</v>
       </c>
       <c r="E27" s="3">
-        <v>67600</v>
+        <v>62700</v>
       </c>
       <c r="F27" s="3">
-        <v>70700</v>
+        <v>65700</v>
       </c>
       <c r="G27" s="3">
-        <v>22300</v>
+        <v>20700</v>
       </c>
       <c r="H27" s="3">
-        <v>71300</v>
+        <v>66200</v>
       </c>
       <c r="I27" s="3">
-        <v>67700</v>
+        <v>62900</v>
       </c>
       <c r="J27" s="3">
-        <v>199000</v>
+        <v>184700</v>
       </c>
       <c r="K27" s="3">
         <v>105700</v>
@@ -2339,25 +2339,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>305100</v>
+        <v>283200</v>
       </c>
       <c r="E32" s="3">
-        <v>200800</v>
+        <v>186300</v>
       </c>
       <c r="F32" s="3">
-        <v>408900</v>
+        <v>379500</v>
       </c>
       <c r="G32" s="3">
-        <v>196600</v>
+        <v>182500</v>
       </c>
       <c r="H32" s="3">
-        <v>264700</v>
+        <v>245700</v>
       </c>
       <c r="I32" s="3">
-        <v>159300</v>
+        <v>147900</v>
       </c>
       <c r="J32" s="3">
-        <v>289700</v>
+        <v>268900</v>
       </c>
       <c r="K32" s="3">
         <v>152800</v>
@@ -2410,25 +2410,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>110900</v>
+        <v>103000</v>
       </c>
       <c r="E33" s="3">
-        <v>67600</v>
+        <v>62700</v>
       </c>
       <c r="F33" s="3">
-        <v>70700</v>
+        <v>65700</v>
       </c>
       <c r="G33" s="3">
-        <v>22300</v>
+        <v>20700</v>
       </c>
       <c r="H33" s="3">
-        <v>71300</v>
+        <v>66200</v>
       </c>
       <c r="I33" s="3">
-        <v>67700</v>
+        <v>62900</v>
       </c>
       <c r="J33" s="3">
-        <v>199000</v>
+        <v>184700</v>
       </c>
       <c r="K33" s="3">
         <v>105700</v>
@@ -2552,25 +2552,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>110900</v>
+        <v>103000</v>
       </c>
       <c r="E35" s="3">
-        <v>67600</v>
+        <v>62700</v>
       </c>
       <c r="F35" s="3">
-        <v>70700</v>
+        <v>65700</v>
       </c>
       <c r="G35" s="3">
-        <v>22300</v>
+        <v>20700</v>
       </c>
       <c r="H35" s="3">
-        <v>71300</v>
+        <v>66200</v>
       </c>
       <c r="I35" s="3">
-        <v>67700</v>
+        <v>62900</v>
       </c>
       <c r="J35" s="3">
-        <v>199000</v>
+        <v>184700</v>
       </c>
       <c r="K35" s="3">
         <v>105700</v>
@@ -2753,25 +2753,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1224800</v>
+        <v>1136800</v>
       </c>
       <c r="E41" s="3">
-        <v>1089800</v>
+        <v>1011500</v>
       </c>
       <c r="F41" s="3">
-        <v>907900</v>
+        <v>842700</v>
       </c>
       <c r="G41" s="3">
-        <v>914300</v>
+        <v>848700</v>
       </c>
       <c r="H41" s="3">
-        <v>1046200</v>
+        <v>971100</v>
       </c>
       <c r="I41" s="3">
-        <v>795100</v>
+        <v>738000</v>
       </c>
       <c r="J41" s="3">
-        <v>577600</v>
+        <v>536100</v>
       </c>
       <c r="K41" s="3">
         <v>896600</v>
@@ -2824,25 +2824,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>967800</v>
+        <v>898300</v>
       </c>
       <c r="E42" s="3">
-        <v>875900</v>
+        <v>813000</v>
       </c>
       <c r="F42" s="3">
-        <v>1120700</v>
+        <v>1040200</v>
       </c>
       <c r="G42" s="3">
-        <v>984100</v>
+        <v>913400</v>
       </c>
       <c r="H42" s="3">
-        <v>2100400</v>
+        <v>1949500</v>
       </c>
       <c r="I42" s="3">
-        <v>902700</v>
+        <v>837900</v>
       </c>
       <c r="J42" s="3">
-        <v>1148200</v>
+        <v>1065800</v>
       </c>
       <c r="K42" s="3">
         <v>360600</v>
@@ -3179,25 +3179,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>24500</v>
+        <v>22800</v>
       </c>
       <c r="E47" s="3">
-        <v>22800</v>
+        <v>21100</v>
       </c>
       <c r="F47" s="3">
-        <v>22700</v>
+        <v>21100</v>
       </c>
       <c r="G47" s="3">
-        <v>21200</v>
+        <v>19600</v>
       </c>
       <c r="H47" s="3">
-        <v>25900</v>
+        <v>24000</v>
       </c>
       <c r="I47" s="3">
-        <v>16600</v>
+        <v>15400</v>
       </c>
       <c r="J47" s="3">
-        <v>16200</v>
+        <v>15000</v>
       </c>
       <c r="K47" s="3">
         <v>17400</v>
@@ -3250,25 +3250,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>485900</v>
+        <v>451000</v>
       </c>
       <c r="E48" s="3">
+        <v>410700</v>
+      </c>
+      <c r="F48" s="3">
+        <v>370000</v>
+      </c>
+      <c r="G48" s="3">
+        <v>331500</v>
+      </c>
+      <c r="H48" s="3">
         <v>442500</v>
       </c>
-      <c r="F48" s="3">
-        <v>398600</v>
-      </c>
-      <c r="G48" s="3">
-        <v>357200</v>
-      </c>
-      <c r="H48" s="3">
-        <v>476800</v>
-      </c>
       <c r="I48" s="3">
-        <v>284000</v>
+        <v>263600</v>
       </c>
       <c r="J48" s="3">
-        <v>264400</v>
+        <v>245400</v>
       </c>
       <c r="K48" s="3">
         <v>273400</v>
@@ -3321,25 +3321,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>77200</v>
+        <v>71700</v>
       </c>
       <c r="E49" s="3">
-        <v>69300</v>
+        <v>64300</v>
       </c>
       <c r="F49" s="3">
-        <v>61100</v>
+        <v>56700</v>
       </c>
       <c r="G49" s="3">
-        <v>53500</v>
+        <v>49600</v>
       </c>
       <c r="H49" s="3">
-        <v>70800</v>
+        <v>65700</v>
       </c>
       <c r="I49" s="3">
-        <v>40700</v>
+        <v>37800</v>
       </c>
       <c r="J49" s="3">
-        <v>37900</v>
+        <v>35200</v>
       </c>
       <c r="K49" s="3">
         <v>39200</v>
@@ -3534,25 +3534,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>30200</v>
+        <v>28100</v>
       </c>
       <c r="E52" s="3">
-        <v>27800</v>
+        <v>25800</v>
       </c>
       <c r="F52" s="3">
-        <v>26600</v>
+        <v>24700</v>
       </c>
       <c r="G52" s="3">
-        <v>23900</v>
+        <v>22200</v>
       </c>
       <c r="H52" s="3">
-        <v>32200</v>
+        <v>29900</v>
       </c>
       <c r="I52" s="3">
-        <v>21300</v>
+        <v>19800</v>
       </c>
       <c r="J52" s="3">
-        <v>19300</v>
+        <v>18000</v>
       </c>
       <c r="K52" s="3">
         <v>19900</v>
@@ -3676,25 +3676,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>9168900</v>
+        <v>8510400</v>
       </c>
       <c r="E54" s="3">
-        <v>8262900</v>
+        <v>7669500</v>
       </c>
       <c r="F54" s="3">
-        <v>7452100</v>
+        <v>6916900</v>
       </c>
       <c r="G54" s="3">
-        <v>7037600</v>
+        <v>6532200</v>
       </c>
       <c r="H54" s="3">
-        <v>10679700</v>
+        <v>9912700</v>
       </c>
       <c r="I54" s="3">
-        <v>6715300</v>
+        <v>6233100</v>
       </c>
       <c r="J54" s="3">
-        <v>5747100</v>
+        <v>5334300</v>
       </c>
       <c r="K54" s="3">
         <v>5027300</v>
@@ -3801,25 +3801,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>624300</v>
+        <v>579500</v>
       </c>
       <c r="E57" s="3">
-        <v>428300</v>
+        <v>397600</v>
       </c>
       <c r="F57" s="3">
-        <v>371000</v>
+        <v>344300</v>
       </c>
       <c r="G57" s="3">
-        <v>458400</v>
+        <v>425400</v>
       </c>
       <c r="H57" s="3">
-        <v>682700</v>
+        <v>633700</v>
       </c>
       <c r="I57" s="3">
-        <v>263200</v>
+        <v>244300</v>
       </c>
       <c r="J57" s="3">
-        <v>264600</v>
+        <v>245600</v>
       </c>
       <c r="K57" s="3">
         <v>233000</v>
@@ -3943,25 +3943,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3200</v>
+        <v>3000</v>
       </c>
       <c r="E59" s="3">
-        <v>22400</v>
+        <v>20700</v>
       </c>
       <c r="F59" s="3">
-        <v>14600</v>
+        <v>13500</v>
       </c>
       <c r="G59" s="3">
-        <v>43500</v>
+        <v>40300</v>
       </c>
       <c r="H59" s="3">
-        <v>71400</v>
+        <v>66200</v>
       </c>
       <c r="I59" s="3">
-        <v>91500</v>
+        <v>85000</v>
       </c>
       <c r="J59" s="3">
-        <v>68800</v>
+        <v>63900</v>
       </c>
       <c r="K59" s="3">
         <v>102100</v>
@@ -4085,25 +4085,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>417300</v>
+        <v>387300</v>
       </c>
       <c r="E61" s="3">
-        <v>405900</v>
+        <v>376800</v>
       </c>
       <c r="F61" s="3">
-        <v>388100</v>
+        <v>360300</v>
       </c>
       <c r="G61" s="3">
-        <v>407600</v>
+        <v>378300</v>
       </c>
       <c r="H61" s="3">
-        <v>556900</v>
+        <v>516900</v>
       </c>
       <c r="I61" s="3">
-        <v>342200</v>
+        <v>317600</v>
       </c>
       <c r="J61" s="3">
-        <v>317700</v>
+        <v>294900</v>
       </c>
       <c r="K61" s="3">
         <v>326700</v>
@@ -4156,25 +4156,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>67400</v>
+        <v>62600</v>
       </c>
       <c r="E62" s="3">
-        <v>84400</v>
+        <v>78300</v>
       </c>
       <c r="F62" s="3">
-        <v>92100</v>
+        <v>85500</v>
       </c>
       <c r="G62" s="3">
-        <v>87200</v>
+        <v>80900</v>
       </c>
       <c r="H62" s="3">
-        <v>105400</v>
+        <v>97800</v>
       </c>
       <c r="I62" s="3">
-        <v>38200</v>
+        <v>35500</v>
       </c>
       <c r="J62" s="3">
-        <v>48500</v>
+        <v>45000</v>
       </c>
       <c r="K62" s="3">
         <v>15800</v>
@@ -4440,25 +4440,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>6976400</v>
+        <v>6475400</v>
       </c>
       <c r="E66" s="3">
-        <v>6362000</v>
+        <v>5905100</v>
       </c>
       <c r="F66" s="3">
-        <v>5775000</v>
+        <v>5360200</v>
       </c>
       <c r="G66" s="3">
-        <v>5475000</v>
+        <v>5081800</v>
       </c>
       <c r="H66" s="3">
-        <v>8625600</v>
+        <v>8006200</v>
       </c>
       <c r="I66" s="3">
-        <v>5484600</v>
+        <v>5090700</v>
       </c>
       <c r="J66" s="3">
-        <v>4651600</v>
+        <v>4317500</v>
       </c>
       <c r="K66" s="3">
         <v>3846100</v>
@@ -4822,25 +4822,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1313200</v>
+        <v>1218900</v>
       </c>
       <c r="E72" s="3">
-        <v>1103200</v>
+        <v>1023900</v>
       </c>
       <c r="F72" s="3">
-        <v>947100</v>
+        <v>879100</v>
       </c>
       <c r="G72" s="3">
-        <v>904700</v>
+        <v>839700</v>
       </c>
       <c r="H72" s="3">
-        <v>1174900</v>
+        <v>1090500</v>
       </c>
       <c r="I72" s="3">
-        <v>707500</v>
+        <v>656700</v>
       </c>
       <c r="J72" s="3">
-        <v>609400</v>
+        <v>565700</v>
       </c>
       <c r="K72" s="3">
         <v>683300</v>
@@ -5106,25 +5106,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2192400</v>
+        <v>2035000</v>
       </c>
       <c r="E76" s="3">
-        <v>1900900</v>
+        <v>1764400</v>
       </c>
       <c r="F76" s="3">
-        <v>1677100</v>
+        <v>1556700</v>
       </c>
       <c r="G76" s="3">
-        <v>1562600</v>
+        <v>1450400</v>
       </c>
       <c r="H76" s="3">
-        <v>2054100</v>
+        <v>1906600</v>
       </c>
       <c r="I76" s="3">
-        <v>1230700</v>
+        <v>1142400</v>
       </c>
       <c r="J76" s="3">
-        <v>1095500</v>
+        <v>1016800</v>
       </c>
       <c r="K76" s="3">
         <v>1181200</v>
@@ -5324,25 +5324,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>110900</v>
+        <v>103000</v>
       </c>
       <c r="E81" s="3">
-        <v>67600</v>
+        <v>62700</v>
       </c>
       <c r="F81" s="3">
-        <v>70700</v>
+        <v>65700</v>
       </c>
       <c r="G81" s="3">
-        <v>22300</v>
+        <v>20700</v>
       </c>
       <c r="H81" s="3">
-        <v>71300</v>
+        <v>66200</v>
       </c>
       <c r="I81" s="3">
-        <v>67700</v>
+        <v>62900</v>
       </c>
       <c r="J81" s="3">
-        <v>199000</v>
+        <v>184700</v>
       </c>
       <c r="K81" s="3">
         <v>105700</v>
@@ -5422,25 +5422,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>21500</v>
+        <v>20000</v>
       </c>
       <c r="E83" s="3">
-        <v>17700</v>
+        <v>16400</v>
       </c>
       <c r="F83" s="3">
-        <v>26300</v>
+        <v>24400</v>
       </c>
       <c r="G83" s="3">
-        <v>11800</v>
+        <v>11000</v>
       </c>
       <c r="H83" s="3">
-        <v>19700</v>
+        <v>18300</v>
       </c>
       <c r="I83" s="3">
-        <v>16500</v>
+        <v>15300</v>
       </c>
       <c r="J83" s="3">
-        <v>24900</v>
+        <v>23100</v>
       </c>
       <c r="K83" s="3">
         <v>11800</v>
@@ -5848,25 +5848,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-338800</v>
+        <v>-314500</v>
       </c>
       <c r="E89" s="3">
-        <v>-2000</v>
+        <v>-1900</v>
       </c>
       <c r="F89" s="3">
-        <v>-573800</v>
+        <v>-532600</v>
       </c>
       <c r="G89" s="3">
-        <v>-259500</v>
+        <v>-240900</v>
       </c>
       <c r="H89" s="3">
-        <v>-111400</v>
+        <v>-103400</v>
       </c>
       <c r="I89" s="3">
-        <v>174700</v>
+        <v>162100</v>
       </c>
       <c r="J89" s="3">
-        <v>551300</v>
+        <v>511700</v>
       </c>
       <c r="K89" s="3">
         <v>107500</v>
@@ -5946,25 +5946,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-14200</v>
+        <v>-13200</v>
       </c>
       <c r="E91" s="3">
-        <v>-20400</v>
+        <v>-18900</v>
       </c>
       <c r="F91" s="3">
-        <v>-28700</v>
+        <v>-26700</v>
       </c>
       <c r="G91" s="3">
-        <v>-11900</v>
+        <v>-11000</v>
       </c>
       <c r="H91" s="3">
-        <v>-11500</v>
+        <v>-10700</v>
       </c>
       <c r="I91" s="3">
-        <v>-9200</v>
+        <v>-8600</v>
       </c>
       <c r="J91" s="3">
-        <v>-13100</v>
+        <v>-12100</v>
       </c>
       <c r="K91" s="3">
         <v>-7900</v>
@@ -6159,25 +6159,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-14500</v>
+        <v>-13500</v>
       </c>
       <c r="E94" s="3">
-        <v>-20400</v>
+        <v>-18900</v>
       </c>
       <c r="F94" s="3">
-        <v>-28700</v>
+        <v>-26700</v>
       </c>
       <c r="G94" s="3">
-        <v>-11900</v>
+        <v>-11000</v>
       </c>
       <c r="H94" s="3">
-        <v>-11500</v>
+        <v>-10700</v>
       </c>
       <c r="I94" s="3">
-        <v>-9200</v>
+        <v>-8600</v>
       </c>
       <c r="J94" s="3">
-        <v>-13100</v>
+        <v>-12100</v>
       </c>
       <c r="K94" s="3">
         <v>-7900</v>
@@ -6541,25 +6541,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-24500</v>
+        <v>-22800</v>
       </c>
       <c r="E100" s="3">
-        <v>-7200</v>
+        <v>-6700</v>
       </c>
       <c r="F100" s="3">
-        <v>-47200</v>
+        <v>-43800</v>
       </c>
       <c r="G100" s="3">
-        <v>-2000</v>
+        <v>-1800</v>
       </c>
       <c r="H100" s="3">
-        <v>-19300</v>
+        <v>-17900</v>
       </c>
       <c r="I100" s="3">
-        <v>-9700</v>
+        <v>-9000</v>
       </c>
       <c r="J100" s="3">
-        <v>-34900</v>
+        <v>-32400</v>
       </c>
       <c r="K100" s="3">
         <v>-19200</v>
@@ -6612,25 +6612,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>64900</v>
+        <v>60300</v>
       </c>
       <c r="E101" s="3">
-        <v>46700</v>
+        <v>43400</v>
       </c>
       <c r="F101" s="3">
-        <v>137300</v>
+        <v>127500</v>
       </c>
       <c r="G101" s="3">
-        <v>96500</v>
+        <v>89600</v>
       </c>
       <c r="H101" s="3">
-        <v>137300</v>
+        <v>127400</v>
       </c>
       <c r="I101" s="3">
-        <v>111200</v>
+        <v>103200</v>
       </c>
       <c r="J101" s="3">
-        <v>156300</v>
+        <v>145000</v>
       </c>
       <c r="K101" s="3">
         <v>69300</v>
@@ -6683,25 +6683,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-312900</v>
+        <v>-290500</v>
       </c>
       <c r="E102" s="3">
-        <v>17100</v>
+        <v>15900</v>
       </c>
       <c r="F102" s="3">
-        <v>-512500</v>
+        <v>-475700</v>
       </c>
       <c r="G102" s="3">
-        <v>-176900</v>
+        <v>-164200</v>
       </c>
       <c r="H102" s="3">
-        <v>-18300</v>
+        <v>-16900</v>
       </c>
       <c r="I102" s="3">
-        <v>256000</v>
+        <v>237600</v>
       </c>
       <c r="J102" s="3">
-        <v>635400</v>
+        <v>589800</v>
       </c>
       <c r="K102" s="3">
         <v>138200</v>

--- a/AAII_Financials/Quarterly/BMA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BMA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="92">
   <si>
     <t>BMA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,178 +665,185 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>618400</v>
+        <v>501200</v>
       </c>
       <c r="E8" s="3">
-        <v>425600</v>
+        <v>527800</v>
       </c>
       <c r="F8" s="3">
-        <v>878900</v>
+        <v>363200</v>
       </c>
       <c r="G8" s="3">
-        <v>426800</v>
+        <v>750100</v>
       </c>
       <c r="H8" s="3">
-        <v>673400</v>
+        <v>509200</v>
       </c>
       <c r="I8" s="3">
-        <v>478500</v>
+        <v>574800</v>
       </c>
       <c r="J8" s="3">
+        <v>408400</v>
+      </c>
+      <c r="K8" s="3">
         <v>870500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>485300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>646500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>525600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>979700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>491300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>293900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>228100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>199300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>187400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>239600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>203500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>179400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>195300</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>198300</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>194100</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -906,8 +913,11 @@
       <c r="Y9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,8 +987,11 @@
       <c r="Y10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1004,8 +1017,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1075,8 +1089,11 @@
       <c r="Y12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1146,8 +1163,11 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1217,79 +1237,85 @@
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-20000</v>
+        <v>-16000</v>
       </c>
       <c r="E15" s="3">
+        <v>-17000</v>
+      </c>
+      <c r="F15" s="3">
+        <v>-12100</v>
+      </c>
+      <c r="G15" s="3">
+        <v>-22800</v>
+      </c>
+      <c r="H15" s="3">
+        <v>-14500</v>
+      </c>
+      <c r="I15" s="3">
+        <v>-15600</v>
+      </c>
+      <c r="J15" s="3">
+        <v>-11300</v>
+      </c>
+      <c r="K15" s="3">
+        <v>-25200</v>
+      </c>
+      <c r="L15" s="3">
+        <v>-13100</v>
+      </c>
+      <c r="M15" s="3">
         <v>-14100</v>
       </c>
-      <c r="F15" s="3">
-        <v>-26700</v>
-      </c>
-      <c r="G15" s="3">
-        <v>-12200</v>
-      </c>
-      <c r="H15" s="3">
-        <v>-18300</v>
-      </c>
-      <c r="I15" s="3">
-        <v>-13200</v>
-      </c>
-      <c r="J15" s="3">
-        <v>-25200</v>
-      </c>
-      <c r="K15" s="3">
-        <v>-13100</v>
-      </c>
-      <c r="L15" s="3">
-        <v>-14100</v>
-      </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>-9800</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>-18800</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>-10000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>-2600</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>-2500</v>
       </c>
       <c r="R15" s="3">
         <v>-2500</v>
       </c>
       <c r="S15" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="T15" s="3">
         <v>-2700</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>-5900</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>-5000</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>-4500</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>-5000</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>-2900</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>-2700</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1312,150 +1338,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>256500</v>
+        <v>201900</v>
       </c>
       <c r="E17" s="3">
-        <v>174100</v>
+        <v>218900</v>
       </c>
       <c r="F17" s="3">
-        <v>397800</v>
+        <v>148600</v>
       </c>
       <c r="G17" s="3">
-        <v>201700</v>
+        <v>339500</v>
       </c>
       <c r="H17" s="3">
-        <v>339800</v>
+        <v>240600</v>
       </c>
       <c r="I17" s="3">
-        <v>226600</v>
+        <v>290000</v>
       </c>
       <c r="J17" s="3">
+        <v>193400</v>
+      </c>
+      <c r="K17" s="3">
         <v>322300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>164900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>249300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>234600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>490200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>252200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>152500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>98000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>74600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>65500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>79300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>71700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>64600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>69100</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>96500</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>96400</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>362000</v>
+        <v>299300</v>
       </c>
       <c r="E18" s="3">
-        <v>251500</v>
+        <v>308900</v>
       </c>
       <c r="F18" s="3">
-        <v>481100</v>
+        <v>214600</v>
       </c>
       <c r="G18" s="3">
-        <v>225100</v>
+        <v>410600</v>
       </c>
       <c r="H18" s="3">
-        <v>333600</v>
+        <v>268600</v>
       </c>
       <c r="I18" s="3">
-        <v>251900</v>
+        <v>284800</v>
       </c>
       <c r="J18" s="3">
+        <v>215000</v>
+      </c>
+      <c r="K18" s="3">
         <v>548300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>320400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>397100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>290900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>489500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>239000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>141300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>130100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>124700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>121900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>160300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>131700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>114800</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>126200</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>101800</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>97600</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1481,150 +1514,157 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-283200</v>
+        <v>-244100</v>
       </c>
       <c r="E20" s="3">
-        <v>-186300</v>
+        <v>-241700</v>
       </c>
       <c r="F20" s="3">
-        <v>-379500</v>
+        <v>-159000</v>
       </c>
       <c r="G20" s="3">
-        <v>-182500</v>
+        <v>-323900</v>
       </c>
       <c r="H20" s="3">
-        <v>-245700</v>
+        <v>-217700</v>
       </c>
       <c r="I20" s="3">
-        <v>-147900</v>
+        <v>-209700</v>
       </c>
       <c r="J20" s="3">
+        <v>-126200</v>
+      </c>
+      <c r="K20" s="3">
         <v>-268900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-152800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-228100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-208000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-288200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-114200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-48200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-54800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-60200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-36100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-62700</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-33700</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-35900</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-44500</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-35400</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-31300</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>98700</v>
+        <v>71200</v>
       </c>
       <c r="E21" s="3">
-        <v>81600</v>
+        <v>84200</v>
       </c>
       <c r="F21" s="3">
-        <v>126100</v>
+        <v>69600</v>
       </c>
       <c r="G21" s="3">
-        <v>53600</v>
+        <v>107600</v>
       </c>
       <c r="H21" s="3">
-        <v>106200</v>
+        <v>65400</v>
       </c>
       <c r="I21" s="3">
-        <v>119400</v>
+        <v>90600</v>
       </c>
       <c r="J21" s="3">
+        <v>101900</v>
+      </c>
+      <c r="K21" s="3">
         <v>302500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>179500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>183100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>94000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>218800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>134400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>95800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>77800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>67100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>88500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>101700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>101400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>81800</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>85100</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>66600</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>66500</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1694,150 +1734,159 @@
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>55200</v>
+      </c>
+      <c r="E23" s="3">
+        <v>67200</v>
+      </c>
+      <c r="F23" s="3">
+        <v>55600</v>
+      </c>
+      <c r="G23" s="3">
+        <v>86700</v>
+      </c>
+      <c r="H23" s="3">
+        <v>50900</v>
+      </c>
+      <c r="I23" s="3">
+        <v>75100</v>
+      </c>
+      <c r="J23" s="3">
+        <v>88800</v>
+      </c>
+      <c r="K23" s="3">
+        <v>279400</v>
+      </c>
+      <c r="L23" s="3">
+        <v>167600</v>
+      </c>
+      <c r="M23" s="3">
+        <v>169000</v>
+      </c>
+      <c r="N23" s="3">
+        <v>82900</v>
+      </c>
+      <c r="O23" s="3">
+        <v>201300</v>
+      </c>
+      <c r="P23" s="3">
+        <v>124900</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>93100</v>
+      </c>
+      <c r="R23" s="3">
+        <v>75300</v>
+      </c>
+      <c r="S23" s="3">
+        <v>64500</v>
+      </c>
+      <c r="T23" s="3">
+        <v>85800</v>
+      </c>
+      <c r="U23" s="3">
+        <v>97600</v>
+      </c>
+      <c r="V23" s="3">
+        <v>98000</v>
+      </c>
+      <c r="W23" s="3">
         <v>78800</v>
       </c>
-      <c r="E23" s="3">
-        <v>65200</v>
-      </c>
-      <c r="F23" s="3">
-        <v>101600</v>
-      </c>
-      <c r="G23" s="3">
-        <v>42600</v>
-      </c>
-      <c r="H23" s="3">
-        <v>87900</v>
-      </c>
-      <c r="I23" s="3">
-        <v>104000</v>
-      </c>
-      <c r="J23" s="3">
-        <v>279400</v>
-      </c>
-      <c r="K23" s="3">
-        <v>167600</v>
-      </c>
-      <c r="L23" s="3">
-        <v>169000</v>
-      </c>
-      <c r="M23" s="3">
-        <v>82900</v>
-      </c>
-      <c r="N23" s="3">
-        <v>201300</v>
-      </c>
-      <c r="O23" s="3">
-        <v>124900</v>
-      </c>
-      <c r="P23" s="3">
-        <v>93100</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>75300</v>
-      </c>
-      <c r="R23" s="3">
-        <v>64500</v>
-      </c>
-      <c r="S23" s="3">
-        <v>85800</v>
-      </c>
-      <c r="T23" s="3">
-        <v>97600</v>
-      </c>
-      <c r="U23" s="3">
-        <v>98000</v>
-      </c>
-      <c r="V23" s="3">
-        <v>78800</v>
-      </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>81700</v>
-      </c>
-      <c r="X23" s="3">
-        <v>66400</v>
       </c>
       <c r="Y23" s="3">
         <v>66400</v>
       </c>
-    </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z23" s="3">
+        <v>66400</v>
+      </c>
+    </row>
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-24200</v>
+        <v>11500</v>
       </c>
       <c r="E24" s="3">
-        <v>2400</v>
+        <v>-20700</v>
       </c>
       <c r="F24" s="3">
-        <v>36000</v>
+        <v>2100</v>
       </c>
       <c r="G24" s="3">
-        <v>21900</v>
+        <v>30700</v>
       </c>
       <c r="H24" s="3">
-        <v>21800</v>
+        <v>26200</v>
       </c>
       <c r="I24" s="3">
-        <v>41200</v>
+        <v>18600</v>
       </c>
       <c r="J24" s="3">
+        <v>35100</v>
+      </c>
+      <c r="K24" s="3">
         <v>94700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>61900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>69800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-10800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>119500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>73800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>29000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>23300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>18600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>26900</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>25800</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>34900</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>27400</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>28700</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>22000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>23600</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1907,150 +1956,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>103000</v>
+        <v>43700</v>
       </c>
       <c r="E26" s="3">
-        <v>62700</v>
+        <v>87900</v>
       </c>
       <c r="F26" s="3">
-        <v>65700</v>
+        <v>53500</v>
       </c>
       <c r="G26" s="3">
-        <v>20700</v>
+        <v>56000</v>
       </c>
       <c r="H26" s="3">
-        <v>66200</v>
+        <v>24700</v>
       </c>
       <c r="I26" s="3">
-        <v>62900</v>
+        <v>56500</v>
       </c>
       <c r="J26" s="3">
+        <v>53700</v>
+      </c>
+      <c r="K26" s="3">
         <v>184700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>105700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>99200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>93700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>81800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>51100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>64100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>52000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>45900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>58900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>71800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>63200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>51500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>53000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>44400</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>42700</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>103000</v>
+        <v>43800</v>
       </c>
       <c r="E27" s="3">
+        <v>87900</v>
+      </c>
+      <c r="F27" s="3">
+        <v>53500</v>
+      </c>
+      <c r="G27" s="3">
+        <v>56000</v>
+      </c>
+      <c r="H27" s="3">
+        <v>24700</v>
+      </c>
+      <c r="I27" s="3">
+        <v>56500</v>
+      </c>
+      <c r="J27" s="3">
+        <v>53700</v>
+      </c>
+      <c r="K27" s="3">
+        <v>184700</v>
+      </c>
+      <c r="L27" s="3">
+        <v>105700</v>
+      </c>
+      <c r="M27" s="3">
+        <v>99200</v>
+      </c>
+      <c r="N27" s="3">
+        <v>93700</v>
+      </c>
+      <c r="O27" s="3">
+        <v>81800</v>
+      </c>
+      <c r="P27" s="3">
+        <v>51100</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>64700</v>
+      </c>
+      <c r="R27" s="3">
+        <v>51900</v>
+      </c>
+      <c r="S27" s="3">
+        <v>45600</v>
+      </c>
+      <c r="T27" s="3">
+        <v>58600</v>
+      </c>
+      <c r="U27" s="3">
+        <v>71200</v>
+      </c>
+      <c r="V27" s="3">
         <v>62700</v>
       </c>
-      <c r="F27" s="3">
-        <v>65700</v>
-      </c>
-      <c r="G27" s="3">
-        <v>20700</v>
-      </c>
-      <c r="H27" s="3">
-        <v>66200</v>
-      </c>
-      <c r="I27" s="3">
-        <v>62900</v>
-      </c>
-      <c r="J27" s="3">
-        <v>184700</v>
-      </c>
-      <c r="K27" s="3">
-        <v>105700</v>
-      </c>
-      <c r="L27" s="3">
-        <v>99200</v>
-      </c>
-      <c r="M27" s="3">
-        <v>93700</v>
-      </c>
-      <c r="N27" s="3">
-        <v>81800</v>
-      </c>
-      <c r="O27" s="3">
-        <v>51100</v>
-      </c>
-      <c r="P27" s="3">
-        <v>64700</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>51900</v>
-      </c>
-      <c r="R27" s="3">
-        <v>45600</v>
-      </c>
-      <c r="S27" s="3">
-        <v>58600</v>
-      </c>
-      <c r="T27" s="3">
-        <v>71200</v>
-      </c>
-      <c r="U27" s="3">
-        <v>62700</v>
-      </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>51000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>52500</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>44400</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>42700</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2120,8 +2178,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2191,8 +2252,11 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2262,8 +2326,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2333,150 +2400,159 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>283200</v>
+        <v>244100</v>
       </c>
       <c r="E32" s="3">
-        <v>186300</v>
+        <v>241700</v>
       </c>
       <c r="F32" s="3">
-        <v>379500</v>
+        <v>159000</v>
       </c>
       <c r="G32" s="3">
-        <v>182500</v>
+        <v>323900</v>
       </c>
       <c r="H32" s="3">
-        <v>245700</v>
+        <v>217700</v>
       </c>
       <c r="I32" s="3">
-        <v>147900</v>
+        <v>209700</v>
       </c>
       <c r="J32" s="3">
+        <v>126200</v>
+      </c>
+      <c r="K32" s="3">
         <v>268900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>152800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>228100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>208000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>288200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>114200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>48200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>54800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>60200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>36100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>62700</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>33700</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>35900</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>44500</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>35400</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>31300</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>103000</v>
+        <v>43800</v>
       </c>
       <c r="E33" s="3">
+        <v>87900</v>
+      </c>
+      <c r="F33" s="3">
+        <v>53500</v>
+      </c>
+      <c r="G33" s="3">
+        <v>56000</v>
+      </c>
+      <c r="H33" s="3">
+        <v>24700</v>
+      </c>
+      <c r="I33" s="3">
+        <v>56500</v>
+      </c>
+      <c r="J33" s="3">
+        <v>53700</v>
+      </c>
+      <c r="K33" s="3">
+        <v>184700</v>
+      </c>
+      <c r="L33" s="3">
+        <v>105700</v>
+      </c>
+      <c r="M33" s="3">
+        <v>99200</v>
+      </c>
+      <c r="N33" s="3">
+        <v>93700</v>
+      </c>
+      <c r="O33" s="3">
+        <v>81800</v>
+      </c>
+      <c r="P33" s="3">
+        <v>51100</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>64700</v>
+      </c>
+      <c r="R33" s="3">
+        <v>51900</v>
+      </c>
+      <c r="S33" s="3">
+        <v>45600</v>
+      </c>
+      <c r="T33" s="3">
+        <v>58600</v>
+      </c>
+      <c r="U33" s="3">
+        <v>71200</v>
+      </c>
+      <c r="V33" s="3">
         <v>62700</v>
       </c>
-      <c r="F33" s="3">
-        <v>65700</v>
-      </c>
-      <c r="G33" s="3">
-        <v>20700</v>
-      </c>
-      <c r="H33" s="3">
-        <v>66200</v>
-      </c>
-      <c r="I33" s="3">
-        <v>62900</v>
-      </c>
-      <c r="J33" s="3">
-        <v>184700</v>
-      </c>
-      <c r="K33" s="3">
-        <v>105700</v>
-      </c>
-      <c r="L33" s="3">
-        <v>99200</v>
-      </c>
-      <c r="M33" s="3">
-        <v>93700</v>
-      </c>
-      <c r="N33" s="3">
-        <v>81800</v>
-      </c>
-      <c r="O33" s="3">
-        <v>51100</v>
-      </c>
-      <c r="P33" s="3">
-        <v>64700</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>51900</v>
-      </c>
-      <c r="R33" s="3">
-        <v>45600</v>
-      </c>
-      <c r="S33" s="3">
-        <v>58600</v>
-      </c>
-      <c r="T33" s="3">
-        <v>71200</v>
-      </c>
-      <c r="U33" s="3">
-        <v>62700</v>
-      </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>51000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>52500</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>44400</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>42700</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2546,155 +2622,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>103000</v>
+        <v>43800</v>
       </c>
       <c r="E35" s="3">
+        <v>87900</v>
+      </c>
+      <c r="F35" s="3">
+        <v>53500</v>
+      </c>
+      <c r="G35" s="3">
+        <v>56000</v>
+      </c>
+      <c r="H35" s="3">
+        <v>24700</v>
+      </c>
+      <c r="I35" s="3">
+        <v>56500</v>
+      </c>
+      <c r="J35" s="3">
+        <v>53700</v>
+      </c>
+      <c r="K35" s="3">
+        <v>184700</v>
+      </c>
+      <c r="L35" s="3">
+        <v>105700</v>
+      </c>
+      <c r="M35" s="3">
+        <v>99200</v>
+      </c>
+      <c r="N35" s="3">
+        <v>93700</v>
+      </c>
+      <c r="O35" s="3">
+        <v>81800</v>
+      </c>
+      <c r="P35" s="3">
+        <v>51100</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>64700</v>
+      </c>
+      <c r="R35" s="3">
+        <v>51900</v>
+      </c>
+      <c r="S35" s="3">
+        <v>45600</v>
+      </c>
+      <c r="T35" s="3">
+        <v>58600</v>
+      </c>
+      <c r="U35" s="3">
+        <v>71200</v>
+      </c>
+      <c r="V35" s="3">
         <v>62700</v>
       </c>
-      <c r="F35" s="3">
-        <v>65700</v>
-      </c>
-      <c r="G35" s="3">
-        <v>20700</v>
-      </c>
-      <c r="H35" s="3">
-        <v>66200</v>
-      </c>
-      <c r="I35" s="3">
-        <v>62900</v>
-      </c>
-      <c r="J35" s="3">
-        <v>184700</v>
-      </c>
-      <c r="K35" s="3">
-        <v>105700</v>
-      </c>
-      <c r="L35" s="3">
-        <v>99200</v>
-      </c>
-      <c r="M35" s="3">
-        <v>93700</v>
-      </c>
-      <c r="N35" s="3">
-        <v>81800</v>
-      </c>
-      <c r="O35" s="3">
-        <v>51100</v>
-      </c>
-      <c r="P35" s="3">
-        <v>64700</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>51900</v>
-      </c>
-      <c r="R35" s="3">
-        <v>45600</v>
-      </c>
-      <c r="S35" s="3">
-        <v>58600</v>
-      </c>
-      <c r="T35" s="3">
-        <v>71200</v>
-      </c>
-      <c r="U35" s="3">
-        <v>62700</v>
-      </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>51000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>52500</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>44400</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>42700</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2720,8 +2805,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2747,150 +2833,157 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1136800</v>
+        <v>936500</v>
       </c>
       <c r="E41" s="3">
-        <v>1011500</v>
+        <v>1126100</v>
       </c>
       <c r="F41" s="3">
-        <v>842700</v>
+        <v>863300</v>
       </c>
       <c r="G41" s="3">
-        <v>848700</v>
+        <v>719200</v>
       </c>
       <c r="H41" s="3">
-        <v>971100</v>
+        <v>724300</v>
       </c>
       <c r="I41" s="3">
-        <v>738000</v>
+        <v>828800</v>
       </c>
       <c r="J41" s="3">
+        <v>629900</v>
+      </c>
+      <c r="K41" s="3">
         <v>536100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>896600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1045100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>724200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>842100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>812600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>757200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>807800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>661100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>454500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>823900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>700900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>660600</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>744300</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>924100</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>607900</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>898300</v>
+        <v>692900</v>
       </c>
       <c r="E42" s="3">
-        <v>813000</v>
+        <v>889900</v>
       </c>
       <c r="F42" s="3">
-        <v>1040200</v>
+        <v>693900</v>
       </c>
       <c r="G42" s="3">
-        <v>913400</v>
+        <v>887800</v>
       </c>
       <c r="H42" s="3">
-        <v>1949500</v>
+        <v>779600</v>
       </c>
       <c r="I42" s="3">
-        <v>837900</v>
+        <v>1663800</v>
       </c>
       <c r="J42" s="3">
+        <v>715100</v>
+      </c>
+      <c r="K42" s="3">
         <v>1065800</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>360600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>526400</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>321400</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>214600</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>173100</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>210900</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>164000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>136800</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>61700</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>432500</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>396500</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>357300</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>163500</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>188700</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>176500</v>
       </c>
     </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2960,8 +3053,11 @@
       <c r="Y43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3031,8 +3127,11 @@
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3102,8 +3201,11 @@
       <c r="Y45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3173,70 +3275,73 @@
       <c r="Y46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>22800</v>
+        <v>8200</v>
       </c>
       <c r="E47" s="3">
-        <v>21100</v>
+        <v>22600</v>
       </c>
       <c r="F47" s="3">
-        <v>21100</v>
+        <v>18000</v>
       </c>
       <c r="G47" s="3">
-        <v>19600</v>
+        <v>18000</v>
       </c>
       <c r="H47" s="3">
-        <v>24000</v>
+        <v>16800</v>
       </c>
       <c r="I47" s="3">
-        <v>15400</v>
+        <v>20500</v>
       </c>
       <c r="J47" s="3">
+        <v>13200</v>
+      </c>
+      <c r="K47" s="3">
         <v>15000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>17400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>23500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>16900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>17300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>20100</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>2000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>1900</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>2200</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>6600</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>11500</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>2100</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>800</v>
-      </c>
-      <c r="W47" s="3">
-        <v>300</v>
       </c>
       <c r="X47" s="3">
         <v>300</v>
@@ -3244,150 +3349,159 @@
       <c r="Y47" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>451000</v>
+        <v>443400</v>
       </c>
       <c r="E48" s="3">
-        <v>410700</v>
+        <v>446800</v>
       </c>
       <c r="F48" s="3">
-        <v>370000</v>
+        <v>350500</v>
       </c>
       <c r="G48" s="3">
-        <v>331500</v>
+        <v>315700</v>
       </c>
       <c r="H48" s="3">
-        <v>442500</v>
+        <v>282900</v>
       </c>
       <c r="I48" s="3">
-        <v>263600</v>
+        <v>377700</v>
       </c>
       <c r="J48" s="3">
+        <v>224900</v>
+      </c>
+      <c r="K48" s="3">
         <v>245400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>273400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>360300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>109900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>107300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>121500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>111100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>107200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>111100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>119600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>161500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>35600</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>34100</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>39400</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>38200</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>34700</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>71700</v>
+        <v>70700</v>
       </c>
       <c r="E49" s="3">
-        <v>64300</v>
+        <v>71000</v>
       </c>
       <c r="F49" s="3">
-        <v>56700</v>
+        <v>54900</v>
       </c>
       <c r="G49" s="3">
+        <v>48400</v>
+      </c>
+      <c r="H49" s="3">
+        <v>42400</v>
+      </c>
+      <c r="I49" s="3">
+        <v>56100</v>
+      </c>
+      <c r="J49" s="3">
+        <v>32300</v>
+      </c>
+      <c r="K49" s="3">
+        <v>35200</v>
+      </c>
+      <c r="L49" s="3">
+        <v>39200</v>
+      </c>
+      <c r="M49" s="3">
         <v>49600</v>
       </c>
-      <c r="H49" s="3">
-        <v>65700</v>
-      </c>
-      <c r="I49" s="3">
-        <v>37800</v>
-      </c>
-      <c r="J49" s="3">
-        <v>35200</v>
-      </c>
-      <c r="K49" s="3">
-        <v>39200</v>
-      </c>
-      <c r="L49" s="3">
-        <v>49600</v>
-      </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>21100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>19800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>19100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>17300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>15600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>14500</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>15700</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>40500</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>19200</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>17700</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>19900</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>17400</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>16200</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3457,8 +3571,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3528,65 +3645,68 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>28100</v>
+        <v>27600</v>
       </c>
       <c r="E52" s="3">
-        <v>25800</v>
+        <v>27800</v>
       </c>
       <c r="F52" s="3">
-        <v>24700</v>
+        <v>22000</v>
       </c>
       <c r="G52" s="3">
-        <v>22200</v>
+        <v>21100</v>
       </c>
       <c r="H52" s="3">
-        <v>29900</v>
+        <v>19000</v>
       </c>
       <c r="I52" s="3">
-        <v>19800</v>
+        <v>25500</v>
       </c>
       <c r="J52" s="3">
+        <v>16900</v>
+      </c>
+      <c r="K52" s="3">
         <v>18000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>19900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>25100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>33100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>5500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>7900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>10500</v>
-      </c>
-      <c r="Q52" s="3">
-        <v>2500</v>
       </c>
       <c r="R52" s="3">
         <v>2500</v>
       </c>
       <c r="S52" s="3">
+        <v>2500</v>
+      </c>
+      <c r="T52" s="3">
         <v>2400</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>5200</v>
       </c>
-      <c r="U52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="V52" s="3" t="s">
         <v>5</v>
       </c>
@@ -3599,8 +3719,11 @@
       <c r="Y52" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3670,79 +3793,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>8510400</v>
+        <v>8303800</v>
       </c>
       <c r="E54" s="3">
-        <v>7669500</v>
+        <v>8430400</v>
       </c>
       <c r="F54" s="3">
-        <v>6916900</v>
+        <v>6545600</v>
       </c>
       <c r="G54" s="3">
-        <v>6532200</v>
+        <v>5903300</v>
       </c>
       <c r="H54" s="3">
-        <v>9912700</v>
+        <v>5575000</v>
       </c>
       <c r="I54" s="3">
-        <v>6233100</v>
+        <v>8460100</v>
       </c>
       <c r="J54" s="3">
+        <v>5319700</v>
+      </c>
+      <c r="K54" s="3">
         <v>5334300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5027300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>6208800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>4139300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>4255000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>4816300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>4230600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>4222300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>3978200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>3829400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>5192200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>4733600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>4307400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>4371900</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>4057900</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>3580900</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3768,8 +3897,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3795,79 +3925,83 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>579500</v>
+        <v>434900</v>
       </c>
       <c r="E57" s="3">
-        <v>397600</v>
+        <v>574000</v>
       </c>
       <c r="F57" s="3">
-        <v>344300</v>
+        <v>339300</v>
       </c>
       <c r="G57" s="3">
-        <v>425400</v>
+        <v>293900</v>
       </c>
       <c r="H57" s="3">
-        <v>633700</v>
+        <v>363100</v>
       </c>
       <c r="I57" s="3">
-        <v>244300</v>
+        <v>540800</v>
       </c>
       <c r="J57" s="3">
+        <v>208500</v>
+      </c>
+      <c r="K57" s="3">
         <v>245600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>233000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>310300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>171800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>157400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>205100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>189000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>173600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>163900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>150300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>374000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>219100</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>219900</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>222000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>239200</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>182100</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3937,70 +4071,73 @@
       <c r="Y58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E59" s="3">
         <v>3000</v>
       </c>
-      <c r="E59" s="3">
-        <v>20700</v>
-      </c>
       <c r="F59" s="3">
-        <v>13500</v>
+        <v>17700</v>
       </c>
       <c r="G59" s="3">
-        <v>40300</v>
+        <v>11500</v>
       </c>
       <c r="H59" s="3">
-        <v>66200</v>
+        <v>34400</v>
       </c>
       <c r="I59" s="3">
-        <v>85000</v>
+        <v>56500</v>
       </c>
       <c r="J59" s="3">
+        <v>72500</v>
+      </c>
+      <c r="K59" s="3">
         <v>63900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>102100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>113900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>46300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>44000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>56400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>36400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>28600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>26100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>67300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>91200</v>
       </c>
-      <c r="U59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V59" s="3">
-        <v>0</v>
-      </c>
-      <c r="W59" s="3" t="s">
-        <v>5</v>
+      <c r="V59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W59" s="3">
+        <v>0</v>
       </c>
       <c r="X59" s="3" t="s">
         <v>5</v>
@@ -4008,8 +4145,11 @@
       <c r="Y59" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4079,150 +4219,159 @@
       <c r="Y60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>387300</v>
+        <v>372200</v>
       </c>
       <c r="E61" s="3">
-        <v>376800</v>
+        <v>383600</v>
       </c>
       <c r="F61" s="3">
+        <v>321600</v>
+      </c>
+      <c r="G61" s="3">
+        <v>307500</v>
+      </c>
+      <c r="H61" s="3">
+        <v>322900</v>
+      </c>
+      <c r="I61" s="3">
+        <v>441100</v>
+      </c>
+      <c r="J61" s="3">
+        <v>271100</v>
+      </c>
+      <c r="K61" s="3">
+        <v>294900</v>
+      </c>
+      <c r="L61" s="3">
+        <v>326700</v>
+      </c>
+      <c r="M61" s="3">
+        <v>449000</v>
+      </c>
+      <c r="N61" s="3">
+        <v>340100</v>
+      </c>
+      <c r="O61" s="3">
+        <v>271400</v>
+      </c>
+      <c r="P61" s="3">
+        <v>336400</v>
+      </c>
+      <c r="Q61" s="3">
+        <v>304400</v>
+      </c>
+      <c r="R61" s="3">
         <v>360300</v>
       </c>
-      <c r="G61" s="3">
-        <v>378300</v>
-      </c>
-      <c r="H61" s="3">
-        <v>516900</v>
-      </c>
-      <c r="I61" s="3">
-        <v>317600</v>
-      </c>
-      <c r="J61" s="3">
-        <v>294900</v>
-      </c>
-      <c r="K61" s="3">
-        <v>326700</v>
-      </c>
-      <c r="L61" s="3">
-        <v>449000</v>
-      </c>
-      <c r="M61" s="3">
-        <v>340100</v>
-      </c>
-      <c r="N61" s="3">
-        <v>271400</v>
-      </c>
-      <c r="O61" s="3">
-        <v>336400</v>
-      </c>
-      <c r="P61" s="3">
-        <v>304400</v>
-      </c>
-      <c r="Q61" s="3">
-        <v>360300</v>
-      </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>316200</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>225800</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>308600</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>285000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>270200</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>166300</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>211200</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>104400</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>62600</v>
+        <v>69600</v>
       </c>
       <c r="E62" s="3">
-        <v>78300</v>
+        <v>62000</v>
       </c>
       <c r="F62" s="3">
-        <v>85500</v>
+        <v>66900</v>
       </c>
       <c r="G62" s="3">
-        <v>80900</v>
+        <v>72900</v>
       </c>
       <c r="H62" s="3">
-        <v>97800</v>
+        <v>69100</v>
       </c>
       <c r="I62" s="3">
-        <v>35500</v>
+        <v>83500</v>
       </c>
       <c r="J62" s="3">
+        <v>30300</v>
+      </c>
+      <c r="K62" s="3">
         <v>45000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>15800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>22900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>13700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>15900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>17000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>15700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>12600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>14600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>18100</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>27300</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>11000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>8600</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>9200</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>8800</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>7700</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4292,8 +4441,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4363,8 +4515,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4434,79 +4589,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>6475400</v>
+        <v>6248500</v>
       </c>
       <c r="E66" s="3">
-        <v>5905100</v>
+        <v>6414600</v>
       </c>
       <c r="F66" s="3">
-        <v>5360200</v>
+        <v>5039800</v>
       </c>
       <c r="G66" s="3">
-        <v>5081800</v>
+        <v>4574700</v>
       </c>
       <c r="H66" s="3">
-        <v>8006200</v>
+        <v>4337100</v>
       </c>
       <c r="I66" s="3">
-        <v>5090700</v>
+        <v>6832900</v>
       </c>
       <c r="J66" s="3">
+        <v>4344700</v>
+      </c>
+      <c r="K66" s="3">
         <v>4317500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3846100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4741300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3354200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3589400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4050100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3556400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3530700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3244100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>3001500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>4124700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>3813200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>3485500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>3746900</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>3479100</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>3046600</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4532,8 +4693,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4603,8 +4765,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4674,8 +4839,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4745,8 +4913,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4816,79 +4987,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1218900</v>
+        <v>1246900</v>
       </c>
       <c r="E72" s="3">
-        <v>1023900</v>
+        <v>1207500</v>
       </c>
       <c r="F72" s="3">
-        <v>879100</v>
+        <v>873900</v>
       </c>
       <c r="G72" s="3">
-        <v>839700</v>
+        <v>750300</v>
       </c>
       <c r="H72" s="3">
-        <v>1090500</v>
+        <v>716700</v>
       </c>
       <c r="I72" s="3">
-        <v>656700</v>
+        <v>930700</v>
       </c>
       <c r="J72" s="3">
+        <v>560500</v>
+      </c>
+      <c r="K72" s="3">
         <v>565700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>683300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>815900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>650700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>526600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>604400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>512500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>513800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>542300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>611300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>881500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>613400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>553800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>599000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>552900</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>508500</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4958,8 +5135,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5029,8 +5209,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5100,79 +5283,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2035000</v>
+        <v>2055300</v>
       </c>
       <c r="E76" s="3">
-        <v>1764400</v>
+        <v>2015900</v>
       </c>
       <c r="F76" s="3">
-        <v>1556700</v>
+        <v>1505800</v>
       </c>
       <c r="G76" s="3">
-        <v>1450400</v>
+        <v>1328600</v>
       </c>
       <c r="H76" s="3">
-        <v>1906600</v>
+        <v>1237900</v>
       </c>
       <c r="I76" s="3">
-        <v>1142400</v>
+        <v>1627200</v>
       </c>
       <c r="J76" s="3">
+        <v>975000</v>
+      </c>
+      <c r="K76" s="3">
         <v>1016800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1181200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1467500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>785100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>665600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>766100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>674200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>691600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>734100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>827900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1067500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>920300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>821900</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>624900</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>578700</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>534400</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5242,155 +5431,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>103000</v>
+        <v>43800</v>
       </c>
       <c r="E81" s="3">
+        <v>87900</v>
+      </c>
+      <c r="F81" s="3">
+        <v>53500</v>
+      </c>
+      <c r="G81" s="3">
+        <v>56000</v>
+      </c>
+      <c r="H81" s="3">
+        <v>24700</v>
+      </c>
+      <c r="I81" s="3">
+        <v>56500</v>
+      </c>
+      <c r="J81" s="3">
+        <v>53700</v>
+      </c>
+      <c r="K81" s="3">
+        <v>184700</v>
+      </c>
+      <c r="L81" s="3">
+        <v>105700</v>
+      </c>
+      <c r="M81" s="3">
+        <v>99200</v>
+      </c>
+      <c r="N81" s="3">
+        <v>93700</v>
+      </c>
+      <c r="O81" s="3">
+        <v>81800</v>
+      </c>
+      <c r="P81" s="3">
+        <v>51100</v>
+      </c>
+      <c r="Q81" s="3">
+        <v>64700</v>
+      </c>
+      <c r="R81" s="3">
+        <v>51900</v>
+      </c>
+      <c r="S81" s="3">
+        <v>45600</v>
+      </c>
+      <c r="T81" s="3">
+        <v>58600</v>
+      </c>
+      <c r="U81" s="3">
+        <v>71200</v>
+      </c>
+      <c r="V81" s="3">
         <v>62700</v>
       </c>
-      <c r="F81" s="3">
-        <v>65700</v>
-      </c>
-      <c r="G81" s="3">
-        <v>20700</v>
-      </c>
-      <c r="H81" s="3">
-        <v>66200</v>
-      </c>
-      <c r="I81" s="3">
-        <v>62900</v>
-      </c>
-      <c r="J81" s="3">
-        <v>184700</v>
-      </c>
-      <c r="K81" s="3">
-        <v>105700</v>
-      </c>
-      <c r="L81" s="3">
-        <v>99200</v>
-      </c>
-      <c r="M81" s="3">
-        <v>93700</v>
-      </c>
-      <c r="N81" s="3">
-        <v>81800</v>
-      </c>
-      <c r="O81" s="3">
-        <v>51100</v>
-      </c>
-      <c r="P81" s="3">
-        <v>64700</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>51900</v>
-      </c>
-      <c r="R81" s="3">
-        <v>45600</v>
-      </c>
-      <c r="S81" s="3">
-        <v>58600</v>
-      </c>
-      <c r="T81" s="3">
-        <v>71200</v>
-      </c>
-      <c r="U81" s="3">
-        <v>62700</v>
-      </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>51000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>52500</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>44400</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>42700</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5416,79 +5614,83 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="E83" s="3">
-        <v>16400</v>
+        <v>17000</v>
       </c>
       <c r="F83" s="3">
-        <v>24400</v>
+        <v>14000</v>
       </c>
       <c r="G83" s="3">
-        <v>11000</v>
+        <v>20800</v>
       </c>
       <c r="H83" s="3">
-        <v>18300</v>
+        <v>14500</v>
       </c>
       <c r="I83" s="3">
-        <v>15300</v>
+        <v>15600</v>
       </c>
       <c r="J83" s="3">
+        <v>13100</v>
+      </c>
+      <c r="K83" s="3">
         <v>23100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>11800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>14100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>11100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>17400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>9500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>2600</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>2500</v>
       </c>
       <c r="R83" s="3">
         <v>2500</v>
       </c>
       <c r="S83" s="3">
+        <v>2500</v>
+      </c>
+      <c r="T83" s="3">
         <v>2700</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>4100</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>3300</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>3000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>3400</v>
       </c>
-      <c r="X83" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Y83" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5558,8 +5760,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5629,8 +5834,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5700,8 +5908,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5771,8 +5982,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5842,79 +6056,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-314500</v>
+        <v>146400</v>
       </c>
       <c r="E89" s="3">
-        <v>-1900</v>
+        <v>-268400</v>
       </c>
       <c r="F89" s="3">
-        <v>-532600</v>
+        <v>-1600</v>
       </c>
       <c r="G89" s="3">
-        <v>-240900</v>
+        <v>-454600</v>
       </c>
       <c r="H89" s="3">
-        <v>-103400</v>
+        <v>-205600</v>
       </c>
       <c r="I89" s="3">
-        <v>162100</v>
+        <v>-88200</v>
       </c>
       <c r="J89" s="3">
+        <v>138400</v>
+      </c>
+      <c r="K89" s="3">
         <v>511700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>107500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-30900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-546700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>621800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>493200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>240700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>129100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>554900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>38600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>50500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-394400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>104700</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>7500</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-92100</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>237600</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5940,79 +6160,83 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-13200</v>
+        <v>-11100</v>
       </c>
       <c r="E91" s="3">
-        <v>-18900</v>
+        <v>-11300</v>
       </c>
       <c r="F91" s="3">
-        <v>-26700</v>
+        <v>-16200</v>
       </c>
       <c r="G91" s="3">
-        <v>-11000</v>
+        <v>-22800</v>
       </c>
       <c r="H91" s="3">
-        <v>-10700</v>
+        <v>-9400</v>
       </c>
       <c r="I91" s="3">
+        <v>-9100</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="K91" s="3">
+        <v>-12100</v>
+      </c>
+      <c r="L91" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="M91" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="N91" s="3">
+        <v>-11900</v>
+      </c>
+      <c r="O91" s="3">
+        <v>-17000</v>
+      </c>
+      <c r="P91" s="3">
+        <v>-9600</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="R91" s="3">
         <v>-8600</v>
       </c>
-      <c r="J91" s="3">
-        <v>-12100</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-7900</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-10000</v>
-      </c>
-      <c r="M91" s="3">
-        <v>-11900</v>
-      </c>
-      <c r="N91" s="3">
-        <v>-17000</v>
-      </c>
-      <c r="O91" s="3">
-        <v>-9600</v>
-      </c>
-      <c r="P91" s="3">
-        <v>-8300</v>
-      </c>
-      <c r="Q91" s="3">
-        <v>-8600</v>
-      </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-6700</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-3300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-2900</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-2000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-1100</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-10200</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-3500</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6082,8 +6306,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6153,79 +6380,85 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-13500</v>
+        <v>-11100</v>
       </c>
       <c r="E94" s="3">
-        <v>-18900</v>
+        <v>-11500</v>
       </c>
       <c r="F94" s="3">
-        <v>-26700</v>
+        <v>-16200</v>
       </c>
       <c r="G94" s="3">
-        <v>-11000</v>
+        <v>-22800</v>
       </c>
       <c r="H94" s="3">
-        <v>-10700</v>
+        <v>-9400</v>
       </c>
       <c r="I94" s="3">
+        <v>-9100</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="K94" s="3">
+        <v>-12100</v>
+      </c>
+      <c r="L94" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="M94" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="N94" s="3">
+        <v>-11900</v>
+      </c>
+      <c r="O94" s="3">
+        <v>-17000</v>
+      </c>
+      <c r="P94" s="3">
+        <v>-9600</v>
+      </c>
+      <c r="Q94" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="R94" s="3">
         <v>-8600</v>
       </c>
-      <c r="J94" s="3">
-        <v>-12100</v>
-      </c>
-      <c r="K94" s="3">
-        <v>-7900</v>
-      </c>
-      <c r="L94" s="3">
-        <v>-10000</v>
-      </c>
-      <c r="M94" s="3">
-        <v>-11900</v>
-      </c>
-      <c r="N94" s="3">
-        <v>-17000</v>
-      </c>
-      <c r="O94" s="3">
-        <v>-9600</v>
-      </c>
-      <c r="P94" s="3">
-        <v>-8300</v>
-      </c>
-      <c r="Q94" s="3">
-        <v>-8600</v>
-      </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-6700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-3300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-8700</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-8200</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-4900</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-7800</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-7200</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-7800</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6251,8 +6484,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6287,11 +6521,11 @@
         <v>0</v>
       </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-67800</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
         <v>0</v>
       </c>
@@ -6320,10 +6554,13 @@
         <v>0</v>
       </c>
       <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="3">
         <v>-16800</v>
       </c>
     </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6393,8 +6630,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6464,8 +6704,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6535,217 +6778,229 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-22800</v>
+        <v>10300</v>
       </c>
       <c r="E100" s="3">
+        <v>-19400</v>
+      </c>
+      <c r="F100" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="G100" s="3">
+        <v>-37400</v>
+      </c>
+      <c r="H100" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="I100" s="3">
+        <v>-15300</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="K100" s="3">
+        <v>-32400</v>
+      </c>
+      <c r="L100" s="3">
+        <v>-19200</v>
+      </c>
+      <c r="M100" s="3">
+        <v>-19000</v>
+      </c>
+      <c r="N100" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="O100" s="3">
+        <v>-89600</v>
+      </c>
+      <c r="P100" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="Q100" s="3">
+        <v>-39800</v>
+      </c>
+      <c r="R100" s="3">
+        <v>-69400</v>
+      </c>
+      <c r="S100" s="3">
         <v>-6700</v>
       </c>
-      <c r="F100" s="3">
-        <v>-43800</v>
-      </c>
-      <c r="G100" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="H100" s="3">
-        <v>-17900</v>
-      </c>
-      <c r="I100" s="3">
-        <v>-9000</v>
-      </c>
-      <c r="J100" s="3">
-        <v>-32400</v>
-      </c>
-      <c r="K100" s="3">
-        <v>-19200</v>
-      </c>
-      <c r="L100" s="3">
-        <v>-19000</v>
-      </c>
-      <c r="M100" s="3">
-        <v>-5100</v>
-      </c>
-      <c r="N100" s="3">
-        <v>-89600</v>
-      </c>
-      <c r="O100" s="3">
-        <v>-7600</v>
-      </c>
-      <c r="P100" s="3">
-        <v>-39800</v>
-      </c>
-      <c r="Q100" s="3">
-        <v>-69400</v>
-      </c>
-      <c r="R100" s="3">
-        <v>-6700</v>
-      </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-800</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-19600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>47000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>337200</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-46300</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>95100</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-18900</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>60300</v>
+        <v>78000</v>
       </c>
       <c r="E101" s="3">
-        <v>43400</v>
+        <v>51400</v>
       </c>
       <c r="F101" s="3">
-        <v>127500</v>
+        <v>37000</v>
       </c>
       <c r="G101" s="3">
-        <v>89600</v>
+        <v>108800</v>
       </c>
       <c r="H101" s="3">
-        <v>127400</v>
+        <v>118600</v>
       </c>
       <c r="I101" s="3">
-        <v>103200</v>
+        <v>108700</v>
       </c>
       <c r="J101" s="3">
+        <v>88100</v>
+      </c>
+      <c r="K101" s="3">
         <v>145000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>69300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>100200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>349300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>89700</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>102200</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-42100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>159800</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>99400</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>23600</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>18300</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>33900</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>40700</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>10300</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>27000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>27700</v>
       </c>
     </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-290500</v>
+        <v>223500</v>
       </c>
       <c r="E102" s="3">
-        <v>15900</v>
+        <v>-247900</v>
       </c>
       <c r="F102" s="3">
-        <v>-475700</v>
+        <v>13500</v>
       </c>
       <c r="G102" s="3">
-        <v>-164200</v>
+        <v>-406000</v>
       </c>
       <c r="H102" s="3">
-        <v>-16900</v>
+        <v>-140100</v>
       </c>
       <c r="I102" s="3">
-        <v>237600</v>
+        <v>-14500</v>
       </c>
       <c r="J102" s="3">
+        <v>202800</v>
+      </c>
+      <c r="K102" s="3">
         <v>589800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>138200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-57100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-328800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>576100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>553400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>149500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>210900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>647800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>50200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>51200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-288400</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>352000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-36300</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>22800</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>238500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BMA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BMA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="92">
   <si>
     <t>BMA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,185 +665,192 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>501200</v>
+        <v>599300</v>
       </c>
       <c r="E8" s="3">
-        <v>527800</v>
+        <v>503900</v>
       </c>
       <c r="F8" s="3">
-        <v>363200</v>
+        <v>452400</v>
       </c>
       <c r="G8" s="3">
-        <v>750100</v>
+        <v>311300</v>
       </c>
       <c r="H8" s="3">
-        <v>509200</v>
+        <v>452800</v>
       </c>
       <c r="I8" s="3">
-        <v>574800</v>
+        <v>512000</v>
       </c>
       <c r="J8" s="3">
+        <v>492600</v>
+      </c>
+      <c r="K8" s="3">
         <v>408400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>870500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>485300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>646500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>525600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>979700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>491300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>293900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>228100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>199300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>187400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>239600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>203500</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>179400</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>195300</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>198300</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>194100</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -916,8 +923,11 @@
       <c r="Z9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -990,8 +1000,11 @@
       <c r="Z10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1018,8 +1031,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1092,8 +1106,11 @@
       <c r="Z12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1166,8 +1183,11 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1240,82 +1260,88 @@
       <c r="Z14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>-16500</v>
+      </c>
+      <c r="E15" s="3">
         <v>-16000</v>
       </c>
-      <c r="E15" s="3">
-        <v>-17000</v>
-      </c>
       <c r="F15" s="3">
-        <v>-12100</v>
+        <v>-14600</v>
       </c>
       <c r="G15" s="3">
-        <v>-22800</v>
+        <v>-10300</v>
       </c>
       <c r="H15" s="3">
-        <v>-14500</v>
+        <v>-14700</v>
       </c>
       <c r="I15" s="3">
-        <v>-15600</v>
+        <v>-14600</v>
       </c>
       <c r="J15" s="3">
+        <v>-13400</v>
+      </c>
+      <c r="K15" s="3">
         <v>-11300</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>-25200</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>-13100</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>-14100</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>-9800</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>-18800</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>-10000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>-2600</v>
-      </c>
-      <c r="R15" s="3">
-        <v>-2500</v>
       </c>
       <c r="S15" s="3">
         <v>-2500</v>
       </c>
       <c r="T15" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="U15" s="3">
         <v>-2700</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>-5900</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>-5000</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>-4500</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>-5000</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>-2900</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>-2700</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1339,156 +1365,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>201900</v>
+        <v>273200</v>
       </c>
       <c r="E17" s="3">
-        <v>218900</v>
+        <v>203000</v>
       </c>
       <c r="F17" s="3">
-        <v>148600</v>
+        <v>187600</v>
       </c>
       <c r="G17" s="3">
-        <v>339500</v>
+        <v>127300</v>
       </c>
       <c r="H17" s="3">
-        <v>240600</v>
+        <v>194700</v>
       </c>
       <c r="I17" s="3">
-        <v>290000</v>
+        <v>241900</v>
       </c>
       <c r="J17" s="3">
+        <v>248600</v>
+      </c>
+      <c r="K17" s="3">
         <v>193400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>322300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>164900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>249300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>234600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>490200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>252200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>152500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>98000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>74600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>65500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>79300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>71700</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>64600</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>69100</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>96500</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>96400</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>299300</v>
+        <v>326100</v>
       </c>
       <c r="E18" s="3">
-        <v>308900</v>
+        <v>300900</v>
       </c>
       <c r="F18" s="3">
-        <v>214600</v>
+        <v>264800</v>
       </c>
       <c r="G18" s="3">
-        <v>410600</v>
+        <v>184000</v>
       </c>
       <c r="H18" s="3">
-        <v>268600</v>
+        <v>258100</v>
       </c>
       <c r="I18" s="3">
-        <v>284800</v>
+        <v>270000</v>
       </c>
       <c r="J18" s="3">
+        <v>244100</v>
+      </c>
+      <c r="K18" s="3">
         <v>215000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>548300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>320400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>397100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>290900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>489500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>239000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>141300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>130100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>124700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>121900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>160300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>131700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>114800</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>126200</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>101800</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>97600</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1515,156 +1548,163 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-244100</v>
+        <v>-287400</v>
       </c>
       <c r="E20" s="3">
-        <v>-241700</v>
+        <v>-245400</v>
       </c>
       <c r="F20" s="3">
-        <v>-159000</v>
+        <v>-207200</v>
       </c>
       <c r="G20" s="3">
-        <v>-323900</v>
+        <v>-136300</v>
       </c>
       <c r="H20" s="3">
-        <v>-217700</v>
+        <v>-197700</v>
       </c>
       <c r="I20" s="3">
-        <v>-209700</v>
+        <v>-218900</v>
       </c>
       <c r="J20" s="3">
+        <v>-179700</v>
+      </c>
+      <c r="K20" s="3">
         <v>-126200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-268900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-152800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-228100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-208000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-288200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-114200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-48200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-54800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-60200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-36100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-62700</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-33700</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-35900</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-44500</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-35400</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-31300</v>
       </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>71200</v>
+        <v>57600</v>
       </c>
       <c r="E21" s="3">
-        <v>84200</v>
+        <v>69200</v>
       </c>
       <c r="F21" s="3">
-        <v>69600</v>
+        <v>72200</v>
       </c>
       <c r="G21" s="3">
-        <v>107600</v>
+        <v>48200</v>
       </c>
       <c r="H21" s="3">
-        <v>65400</v>
+        <v>77200</v>
       </c>
       <c r="I21" s="3">
-        <v>90600</v>
+        <v>63600</v>
       </c>
       <c r="J21" s="3">
+        <v>77700</v>
+      </c>
+      <c r="K21" s="3">
         <v>101900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>302500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>179500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>183100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>94000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>218800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>134400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>95800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>77800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>67100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>88500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>101700</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>101400</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>81800</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>85100</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>66600</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>66500</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1737,156 +1777,165 @@
       <c r="Z22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>55200</v>
+        <v>38800</v>
       </c>
       <c r="E23" s="3">
-        <v>67200</v>
+        <v>55500</v>
       </c>
       <c r="F23" s="3">
-        <v>55600</v>
+        <v>57600</v>
       </c>
       <c r="G23" s="3">
-        <v>86700</v>
+        <v>47700</v>
       </c>
       <c r="H23" s="3">
-        <v>50900</v>
+        <v>60400</v>
       </c>
       <c r="I23" s="3">
-        <v>75100</v>
+        <v>51100</v>
       </c>
       <c r="J23" s="3">
+        <v>64300</v>
+      </c>
+      <c r="K23" s="3">
         <v>88800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>279400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>167600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>169000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>82900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>201300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>124900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>93100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>75300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>64500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>85800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>97600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>98000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>78800</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>81700</v>
-      </c>
-      <c r="Y23" s="3">
-        <v>66400</v>
       </c>
       <c r="Z23" s="3">
         <v>66400</v>
       </c>
-    </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA23" s="3">
+        <v>66400</v>
+      </c>
+    </row>
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>12900</v>
+      </c>
+      <c r="E24" s="3">
         <v>11500</v>
       </c>
-      <c r="E24" s="3">
-        <v>-20700</v>
-      </c>
       <c r="F24" s="3">
-        <v>2100</v>
+        <v>-17700</v>
       </c>
       <c r="G24" s="3">
-        <v>30700</v>
+        <v>1800</v>
       </c>
       <c r="H24" s="3">
-        <v>26200</v>
+        <v>13200</v>
       </c>
       <c r="I24" s="3">
+        <v>26300</v>
+      </c>
+      <c r="J24" s="3">
+        <v>15900</v>
+      </c>
+      <c r="K24" s="3">
+        <v>35100</v>
+      </c>
+      <c r="L24" s="3">
+        <v>94700</v>
+      </c>
+      <c r="M24" s="3">
+        <v>61900</v>
+      </c>
+      <c r="N24" s="3">
+        <v>69800</v>
+      </c>
+      <c r="O24" s="3">
+        <v>-10800</v>
+      </c>
+      <c r="P24" s="3">
+        <v>119500</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>73800</v>
+      </c>
+      <c r="R24" s="3">
+        <v>29000</v>
+      </c>
+      <c r="S24" s="3">
+        <v>23300</v>
+      </c>
+      <c r="T24" s="3">
         <v>18600</v>
       </c>
-      <c r="J24" s="3">
-        <v>35100</v>
-      </c>
-      <c r="K24" s="3">
-        <v>94700</v>
-      </c>
-      <c r="L24" s="3">
-        <v>61900</v>
-      </c>
-      <c r="M24" s="3">
-        <v>69800</v>
-      </c>
-      <c r="N24" s="3">
-        <v>-10800</v>
-      </c>
-      <c r="O24" s="3">
-        <v>119500</v>
-      </c>
-      <c r="P24" s="3">
-        <v>73800</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>29000</v>
-      </c>
-      <c r="R24" s="3">
-        <v>23300</v>
-      </c>
-      <c r="S24" s="3">
-        <v>18600</v>
-      </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>26900</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>25800</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>34900</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>27400</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>28700</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>22000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>23600</v>
       </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1959,156 +2008,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>43700</v>
+        <v>25900</v>
       </c>
       <c r="E26" s="3">
-        <v>87900</v>
+        <v>44000</v>
       </c>
       <c r="F26" s="3">
-        <v>53500</v>
+        <v>75300</v>
       </c>
       <c r="G26" s="3">
-        <v>56000</v>
+        <v>45900</v>
       </c>
       <c r="H26" s="3">
-        <v>24700</v>
+        <v>47200</v>
       </c>
       <c r="I26" s="3">
-        <v>56500</v>
+        <v>24800</v>
       </c>
       <c r="J26" s="3">
+        <v>48400</v>
+      </c>
+      <c r="K26" s="3">
         <v>53700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>184700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>105700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>99200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>93700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>81800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>51100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>64100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>52000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>45900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>58900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>71800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>63200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>51500</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>53000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>44400</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>42700</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>43800</v>
+        <v>25900</v>
       </c>
       <c r="E27" s="3">
-        <v>87900</v>
+        <v>44100</v>
       </c>
       <c r="F27" s="3">
-        <v>53500</v>
+        <v>75300</v>
       </c>
       <c r="G27" s="3">
-        <v>56000</v>
+        <v>45900</v>
       </c>
       <c r="H27" s="3">
-        <v>24700</v>
+        <v>47200</v>
       </c>
       <c r="I27" s="3">
-        <v>56500</v>
+        <v>24800</v>
       </c>
       <c r="J27" s="3">
+        <v>48400</v>
+      </c>
+      <c r="K27" s="3">
         <v>53700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>184700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>105700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>99200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>93700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>81800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>51100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>64700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>51900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>45600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>58600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>71200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>62700</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>51000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>52500</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>44400</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>42700</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2181,8 +2239,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2255,8 +2316,11 @@
       <c r="Z29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2329,8 +2393,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2403,156 +2470,165 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>244100</v>
+        <v>287400</v>
       </c>
       <c r="E32" s="3">
-        <v>241700</v>
+        <v>245400</v>
       </c>
       <c r="F32" s="3">
-        <v>159000</v>
+        <v>207200</v>
       </c>
       <c r="G32" s="3">
-        <v>323900</v>
+        <v>136300</v>
       </c>
       <c r="H32" s="3">
-        <v>217700</v>
+        <v>197700</v>
       </c>
       <c r="I32" s="3">
-        <v>209700</v>
+        <v>218900</v>
       </c>
       <c r="J32" s="3">
+        <v>179700</v>
+      </c>
+      <c r="K32" s="3">
         <v>126200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>268900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>152800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>228100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>208000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>288200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>114200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>48200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>54800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>60200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>36100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>62700</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>33700</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>35900</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>44500</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>35400</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>31300</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>43800</v>
+        <v>25900</v>
       </c>
       <c r="E33" s="3">
-        <v>87900</v>
+        <v>44100</v>
       </c>
       <c r="F33" s="3">
-        <v>53500</v>
+        <v>75300</v>
       </c>
       <c r="G33" s="3">
-        <v>56000</v>
+        <v>45900</v>
       </c>
       <c r="H33" s="3">
-        <v>24700</v>
+        <v>47200</v>
       </c>
       <c r="I33" s="3">
-        <v>56500</v>
+        <v>24800</v>
       </c>
       <c r="J33" s="3">
+        <v>48400</v>
+      </c>
+      <c r="K33" s="3">
         <v>53700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>184700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>105700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>99200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>93700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>81800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>51100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>64700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>51900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>45600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>58600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>71200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>62700</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>51000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>52500</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>44400</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>42700</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2625,161 +2701,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>43800</v>
+        <v>25900</v>
       </c>
       <c r="E35" s="3">
-        <v>87900</v>
+        <v>44100</v>
       </c>
       <c r="F35" s="3">
-        <v>53500</v>
+        <v>75300</v>
       </c>
       <c r="G35" s="3">
-        <v>56000</v>
+        <v>45900</v>
       </c>
       <c r="H35" s="3">
-        <v>24700</v>
+        <v>47200</v>
       </c>
       <c r="I35" s="3">
-        <v>56500</v>
+        <v>24800</v>
       </c>
       <c r="J35" s="3">
+        <v>48400</v>
+      </c>
+      <c r="K35" s="3">
         <v>53700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>184700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>105700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>99200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>93700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>81800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>51100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>64700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>51900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>45600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>58600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>71200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>62700</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>51000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>52500</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>44400</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>42700</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2806,8 +2891,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2834,156 +2920,163 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>936500</v>
+        <v>792100</v>
       </c>
       <c r="E41" s="3">
-        <v>1126100</v>
+        <v>802700</v>
       </c>
       <c r="F41" s="3">
-        <v>863300</v>
+        <v>1132300</v>
       </c>
       <c r="G41" s="3">
-        <v>719200</v>
+        <v>740000</v>
       </c>
       <c r="H41" s="3">
-        <v>724300</v>
+        <v>616400</v>
       </c>
       <c r="I41" s="3">
-        <v>828800</v>
+        <v>620800</v>
       </c>
       <c r="J41" s="3">
+        <v>710400</v>
+      </c>
+      <c r="K41" s="3">
         <v>629900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>536100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>896600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1045100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>724200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>842100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>812600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>757200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>807800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>661100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>454500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>823900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>700900</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>660600</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>744300</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>924100</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>607900</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>692900</v>
+        <v>1172100</v>
       </c>
       <c r="E42" s="3">
-        <v>889900</v>
+        <v>593900</v>
       </c>
       <c r="F42" s="3">
-        <v>693900</v>
+        <v>894700</v>
       </c>
       <c r="G42" s="3">
-        <v>887800</v>
+        <v>594700</v>
       </c>
       <c r="H42" s="3">
-        <v>779600</v>
+        <v>760900</v>
       </c>
       <c r="I42" s="3">
-        <v>1663800</v>
+        <v>668200</v>
       </c>
       <c r="J42" s="3">
+        <v>1426200</v>
+      </c>
+      <c r="K42" s="3">
         <v>715100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1065800</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>360600</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>526400</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>321400</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>214600</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>173100</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>210900</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>164000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>136800</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>61700</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>432500</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>396500</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>357300</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>163500</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>188700</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>176500</v>
       </c>
     </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3056,8 +3149,11 @@
       <c r="Z43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3130,8 +3226,11 @@
       <c r="Z44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3204,8 +3303,11 @@
       <c r="Z45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3278,73 +3380,76 @@
       <c r="Z46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>8200</v>
+        <v>7900</v>
       </c>
       <c r="E47" s="3">
-        <v>22600</v>
+        <v>7000</v>
       </c>
       <c r="F47" s="3">
-        <v>18000</v>
+        <v>22700</v>
       </c>
       <c r="G47" s="3">
-        <v>18000</v>
+        <v>15500</v>
       </c>
       <c r="H47" s="3">
-        <v>16800</v>
+        <v>15400</v>
       </c>
       <c r="I47" s="3">
-        <v>20500</v>
+        <v>14400</v>
       </c>
       <c r="J47" s="3">
+        <v>17600</v>
+      </c>
+      <c r="K47" s="3">
         <v>13200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>15000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>17400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>23500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>16900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>17300</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>20100</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>2000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>1900</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>2200</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>6600</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>11500</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>2100</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>800</v>
-      </c>
-      <c r="X47" s="3">
-        <v>300</v>
       </c>
       <c r="Y47" s="3">
         <v>300</v>
@@ -3352,156 +3457,165 @@
       <c r="Z47" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>443400</v>
+        <v>445300</v>
       </c>
       <c r="E48" s="3">
-        <v>446800</v>
+        <v>380100</v>
       </c>
       <c r="F48" s="3">
-        <v>350500</v>
+        <v>449200</v>
       </c>
       <c r="G48" s="3">
-        <v>315700</v>
+        <v>300500</v>
       </c>
       <c r="H48" s="3">
-        <v>282900</v>
+        <v>270600</v>
       </c>
       <c r="I48" s="3">
-        <v>377700</v>
+        <v>242500</v>
       </c>
       <c r="J48" s="3">
+        <v>323700</v>
+      </c>
+      <c r="K48" s="3">
         <v>224900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>245400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>273400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>360300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>109900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>107300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>121500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>111100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>107200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>111100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>119600</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>161500</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>35600</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>34100</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>39400</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>38200</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>34700</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>70700</v>
+        <v>75400</v>
       </c>
       <c r="E49" s="3">
-        <v>71000</v>
+        <v>60600</v>
       </c>
       <c r="F49" s="3">
-        <v>54900</v>
+        <v>71400</v>
       </c>
       <c r="G49" s="3">
-        <v>48400</v>
+        <v>47100</v>
       </c>
       <c r="H49" s="3">
-        <v>42400</v>
+        <v>41500</v>
       </c>
       <c r="I49" s="3">
-        <v>56100</v>
+        <v>36300</v>
       </c>
       <c r="J49" s="3">
+        <v>48100</v>
+      </c>
+      <c r="K49" s="3">
         <v>32300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>35200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>39200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>49600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>21100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>19800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>19100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>17300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>15600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>14500</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>15700</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>40500</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>19200</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>17700</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>19900</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>17400</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>16200</v>
       </c>
     </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3574,8 +3688,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3648,68 +3765,71 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>27600</v>
+        <v>28000</v>
       </c>
       <c r="E52" s="3">
-        <v>27800</v>
+        <v>23700</v>
       </c>
       <c r="F52" s="3">
-        <v>22000</v>
+        <v>27900</v>
       </c>
       <c r="G52" s="3">
-        <v>21100</v>
+        <v>18900</v>
       </c>
       <c r="H52" s="3">
-        <v>19000</v>
+        <v>18100</v>
       </c>
       <c r="I52" s="3">
-        <v>25500</v>
+        <v>16300</v>
       </c>
       <c r="J52" s="3">
+        <v>21900</v>
+      </c>
+      <c r="K52" s="3">
         <v>16900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>18000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>19900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>25100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>33100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>5500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>7900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>10500</v>
-      </c>
-      <c r="R52" s="3">
-        <v>2500</v>
       </c>
       <c r="S52" s="3">
         <v>2500</v>
       </c>
       <c r="T52" s="3">
+        <v>2500</v>
+      </c>
+      <c r="U52" s="3">
         <v>2400</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>5200</v>
       </c>
-      <c r="V52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="W52" s="3" t="s">
         <v>5</v>
       </c>
@@ -3722,8 +3842,11 @@
       <c r="Z52" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3796,82 +3919,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>8303800</v>
+        <v>8587000</v>
       </c>
       <c r="E54" s="3">
-        <v>8430400</v>
+        <v>7117600</v>
       </c>
       <c r="F54" s="3">
-        <v>6545600</v>
+        <v>8476400</v>
       </c>
       <c r="G54" s="3">
-        <v>5903300</v>
+        <v>5610500</v>
       </c>
       <c r="H54" s="3">
-        <v>5575000</v>
+        <v>5060000</v>
       </c>
       <c r="I54" s="3">
-        <v>8460100</v>
+        <v>4778600</v>
       </c>
       <c r="J54" s="3">
+        <v>7251500</v>
+      </c>
+      <c r="K54" s="3">
         <v>5319700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5334300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>5027300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>6208800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>4139300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>4255000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>4816300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>4230600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>4222300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>3978200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>3829400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>5192200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>4733600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>4307400</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>4371900</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>4057900</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>3580900</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3898,8 +4027,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3926,82 +4056,86 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>434900</v>
+        <v>447000</v>
       </c>
       <c r="E57" s="3">
-        <v>574000</v>
+        <v>372800</v>
       </c>
       <c r="F57" s="3">
-        <v>339300</v>
+        <v>577200</v>
       </c>
       <c r="G57" s="3">
-        <v>293900</v>
+        <v>290800</v>
       </c>
       <c r="H57" s="3">
-        <v>363100</v>
+        <v>251900</v>
       </c>
       <c r="I57" s="3">
-        <v>540800</v>
+        <v>311200</v>
       </c>
       <c r="J57" s="3">
+        <v>463600</v>
+      </c>
+      <c r="K57" s="3">
         <v>208500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>245600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>233000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>310300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>171800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>157400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>205100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>189000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>173600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>163900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>150300</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>374000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>219100</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>219900</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>222000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>239200</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>182100</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4074,8 +4208,11 @@
       <c r="Z58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4083,64 +4220,64 @@
         <v>4000</v>
       </c>
       <c r="E59" s="3">
+        <v>3500</v>
+      </c>
+      <c r="F59" s="3">
         <v>3000</v>
       </c>
-      <c r="F59" s="3">
-        <v>17700</v>
-      </c>
       <c r="G59" s="3">
-        <v>11500</v>
+        <v>15200</v>
       </c>
       <c r="H59" s="3">
-        <v>34400</v>
+        <v>9900</v>
       </c>
       <c r="I59" s="3">
-        <v>56500</v>
+        <v>29500</v>
       </c>
       <c r="J59" s="3">
+        <v>48500</v>
+      </c>
+      <c r="K59" s="3">
         <v>72500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>63900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>102100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>113900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>46300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>44000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>56400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>36400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>28600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>26100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>67300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>91200</v>
       </c>
-      <c r="V59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W59" s="3">
-        <v>0</v>
-      </c>
-      <c r="X59" s="3" t="s">
-        <v>5</v>
+      <c r="W59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X59" s="3">
+        <v>0</v>
       </c>
       <c r="Y59" s="3" t="s">
         <v>5</v>
@@ -4148,8 +4285,11 @@
       <c r="Z59" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4222,156 +4362,165 @@
       <c r="Z60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>372200</v>
+        <v>345200</v>
       </c>
       <c r="E61" s="3">
-        <v>383600</v>
+        <v>319100</v>
       </c>
       <c r="F61" s="3">
-        <v>321600</v>
+        <v>385700</v>
       </c>
       <c r="G61" s="3">
-        <v>307500</v>
+        <v>275600</v>
       </c>
       <c r="H61" s="3">
-        <v>322900</v>
+        <v>263500</v>
       </c>
       <c r="I61" s="3">
-        <v>441100</v>
+        <v>276800</v>
       </c>
       <c r="J61" s="3">
+        <v>378100</v>
+      </c>
+      <c r="K61" s="3">
         <v>271100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>294900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>326700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>449000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>340100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>271400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>336400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>304400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>360300</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>316200</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>225800</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>308600</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>285000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>270200</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>166300</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>211200</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>104400</v>
       </c>
     </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>69600</v>
+        <v>74300</v>
       </c>
       <c r="E62" s="3">
-        <v>62000</v>
+        <v>59700</v>
       </c>
       <c r="F62" s="3">
-        <v>66900</v>
+        <v>62300</v>
       </c>
       <c r="G62" s="3">
-        <v>72900</v>
+        <v>57300</v>
       </c>
       <c r="H62" s="3">
-        <v>69100</v>
+        <v>62500</v>
       </c>
       <c r="I62" s="3">
-        <v>83500</v>
+        <v>59200</v>
       </c>
       <c r="J62" s="3">
+        <v>71500</v>
+      </c>
+      <c r="K62" s="3">
         <v>30300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>45000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>15800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>22900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>13700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>15900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>17000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>15700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>12600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>14600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>18100</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>27300</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>11000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>8600</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>9200</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>8800</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>7700</v>
       </c>
     </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4444,8 +4593,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4518,8 +4670,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4592,82 +4747,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>6248500</v>
+        <v>6469600</v>
       </c>
       <c r="E66" s="3">
-        <v>6414600</v>
+        <v>5355800</v>
       </c>
       <c r="F66" s="3">
-        <v>5039800</v>
+        <v>6449500</v>
       </c>
       <c r="G66" s="3">
-        <v>4574700</v>
+        <v>4319800</v>
       </c>
       <c r="H66" s="3">
-        <v>4337100</v>
+        <v>3921200</v>
       </c>
       <c r="I66" s="3">
-        <v>6832900</v>
+        <v>3717500</v>
       </c>
       <c r="J66" s="3">
+        <v>5856800</v>
+      </c>
+      <c r="K66" s="3">
         <v>4344700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4317500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3846100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4741300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3354200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3589400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>4050100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3556400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3530700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>3244100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>3001500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>4124700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>3813200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>3485500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>3746900</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>3479100</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>3046600</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4694,8 +4855,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4768,8 +4930,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4842,8 +5007,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4916,8 +5084,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4990,82 +5161,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1246900</v>
+        <v>1304600</v>
       </c>
       <c r="E72" s="3">
-        <v>1207500</v>
+        <v>1068800</v>
       </c>
       <c r="F72" s="3">
-        <v>873900</v>
+        <v>1214000</v>
       </c>
       <c r="G72" s="3">
-        <v>750300</v>
+        <v>749000</v>
       </c>
       <c r="H72" s="3">
-        <v>716700</v>
+        <v>643100</v>
       </c>
       <c r="I72" s="3">
-        <v>930700</v>
+        <v>614300</v>
       </c>
       <c r="J72" s="3">
+        <v>797700</v>
+      </c>
+      <c r="K72" s="3">
         <v>560500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>565700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>683300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>815900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>650700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>526600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>604400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>512500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>513800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>542300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>611300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>881500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>613400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>553800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>599000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>552900</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>508500</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5138,8 +5315,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5212,8 +5392,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5286,82 +5469,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2055300</v>
+        <v>2117400</v>
       </c>
       <c r="E76" s="3">
-        <v>2015900</v>
+        <v>1761700</v>
       </c>
       <c r="F76" s="3">
-        <v>1505800</v>
+        <v>2026900</v>
       </c>
       <c r="G76" s="3">
-        <v>1328600</v>
+        <v>1290700</v>
       </c>
       <c r="H76" s="3">
-        <v>1237900</v>
+        <v>1138800</v>
       </c>
       <c r="I76" s="3">
-        <v>1627200</v>
+        <v>1061000</v>
       </c>
       <c r="J76" s="3">
+        <v>1394700</v>
+      </c>
+      <c r="K76" s="3">
         <v>975000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1016800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1181200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1467500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>785100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>665600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>766100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>674200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>691600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>734100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>827900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1067500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>920300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>821900</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>624900</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>578700</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>534400</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5434,161 +5623,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>43800</v>
+        <v>25900</v>
       </c>
       <c r="E81" s="3">
-        <v>87900</v>
+        <v>44100</v>
       </c>
       <c r="F81" s="3">
-        <v>53500</v>
+        <v>75300</v>
       </c>
       <c r="G81" s="3">
-        <v>56000</v>
+        <v>45900</v>
       </c>
       <c r="H81" s="3">
-        <v>24700</v>
+        <v>47200</v>
       </c>
       <c r="I81" s="3">
-        <v>56500</v>
+        <v>24800</v>
       </c>
       <c r="J81" s="3">
+        <v>48400</v>
+      </c>
+      <c r="K81" s="3">
         <v>53700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>184700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>105700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>99200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>93700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>81800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>51100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>64700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>51900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>45600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>58600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>71200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>62700</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>51000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>52500</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>44400</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>42700</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5615,82 +5813,86 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>16000</v>
+        <v>18900</v>
       </c>
       <c r="E83" s="3">
-        <v>17000</v>
+        <v>13700</v>
       </c>
       <c r="F83" s="3">
-        <v>14000</v>
+        <v>14600</v>
       </c>
       <c r="G83" s="3">
-        <v>20800</v>
+        <v>600</v>
       </c>
       <c r="H83" s="3">
-        <v>14500</v>
+        <v>16800</v>
       </c>
       <c r="I83" s="3">
-        <v>15600</v>
+        <v>12500</v>
       </c>
       <c r="J83" s="3">
+        <v>13400</v>
+      </c>
+      <c r="K83" s="3">
         <v>13100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>23100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>11800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>14100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>11100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>17400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>9500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>2600</v>
-      </c>
-      <c r="R83" s="3">
-        <v>2500</v>
       </c>
       <c r="S83" s="3">
         <v>2500</v>
       </c>
       <c r="T83" s="3">
+        <v>2500</v>
+      </c>
+      <c r="U83" s="3">
         <v>2700</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>4100</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>3300</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>3000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>3400</v>
       </c>
-      <c r="Y83" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Z83" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA83" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5763,8 +5965,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5837,8 +6042,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5911,8 +6119,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5985,8 +6196,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6059,82 +6273,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>146400</v>
+        <v>73800</v>
       </c>
       <c r="E89" s="3">
-        <v>-268400</v>
+        <v>125500</v>
       </c>
       <c r="F89" s="3">
-        <v>-1600</v>
+        <v>-230000</v>
       </c>
       <c r="G89" s="3">
-        <v>-454600</v>
+        <v>-1400</v>
       </c>
       <c r="H89" s="3">
-        <v>-205600</v>
+        <v>-213400</v>
       </c>
       <c r="I89" s="3">
-        <v>-88200</v>
+        <v>-176200</v>
       </c>
       <c r="J89" s="3">
+        <v>-75600</v>
+      </c>
+      <c r="K89" s="3">
         <v>138400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>511700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>107500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-30900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-546700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>621800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>493200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>240700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>129100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>554900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>38600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>50500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-394400</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>104700</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>7500</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-92100</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>237600</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6161,82 +6381,86 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-11100</v>
+        <v>-32300</v>
       </c>
       <c r="E91" s="3">
-        <v>-11300</v>
+        <v>-9600</v>
       </c>
       <c r="F91" s="3">
-        <v>-16200</v>
+        <v>-9600</v>
       </c>
       <c r="G91" s="3">
-        <v>-22800</v>
+        <v>-13800</v>
       </c>
       <c r="H91" s="3">
-        <v>-9400</v>
+        <v>-11500</v>
       </c>
       <c r="I91" s="3">
-        <v>-9100</v>
+        <v>-8100</v>
       </c>
       <c r="J91" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="K91" s="3">
         <v>-7300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-12100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-7900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-10000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-11900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-17000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-9600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-8300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-8600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-6700</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-3300</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-2900</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-2000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-1100</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-10200</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-3500</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6309,8 +6533,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6383,82 +6610,88 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-11100</v>
+        <v>-32300</v>
       </c>
       <c r="E94" s="3">
+        <v>-9600</v>
+      </c>
+      <c r="F94" s="3">
+        <v>-9900</v>
+      </c>
+      <c r="G94" s="3">
+        <v>-13800</v>
+      </c>
+      <c r="H94" s="3">
         <v>-11500</v>
       </c>
-      <c r="F94" s="3">
-        <v>-16200</v>
-      </c>
-      <c r="G94" s="3">
-        <v>-22800</v>
-      </c>
-      <c r="H94" s="3">
-        <v>-9400</v>
-      </c>
       <c r="I94" s="3">
-        <v>-9100</v>
+        <v>-8100</v>
       </c>
       <c r="J94" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="K94" s="3">
         <v>-7300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-12100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-7900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-10000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-11900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-17000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-9600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-8300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-8600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-6700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-3300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-8700</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-8200</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-4900</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-7800</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-7200</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-7800</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6485,8 +6718,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6524,11 +6758,11 @@
         <v>0</v>
       </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-67800</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
         <v>0</v>
       </c>
@@ -6557,10 +6791,13 @@
         <v>0</v>
       </c>
       <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
         <v>-16800</v>
       </c>
     </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6633,8 +6870,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6707,8 +6947,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6781,226 +7024,238 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>10300</v>
+        <v>-63700</v>
       </c>
       <c r="E100" s="3">
-        <v>-19400</v>
+        <v>8800</v>
       </c>
       <c r="F100" s="3">
-        <v>-5700</v>
+        <v>-16600</v>
       </c>
       <c r="G100" s="3">
-        <v>-37400</v>
+        <v>-4900</v>
       </c>
       <c r="H100" s="3">
-        <v>-1600</v>
+        <v>-30700</v>
       </c>
       <c r="I100" s="3">
-        <v>-15300</v>
+        <v>-1400</v>
       </c>
       <c r="J100" s="3">
+        <v>-13100</v>
+      </c>
+      <c r="K100" s="3">
         <v>-7600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-32400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-19200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-19000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-5100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-89600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-7600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-39800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-69400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-6700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-800</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-19600</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>47000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>337200</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-46300</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>95100</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-18900</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>78000</v>
+        <v>125000</v>
       </c>
       <c r="E101" s="3">
-        <v>51400</v>
+        <v>66800</v>
       </c>
       <c r="F101" s="3">
-        <v>37000</v>
+        <v>44100</v>
       </c>
       <c r="G101" s="3">
-        <v>108800</v>
+        <v>-27900</v>
       </c>
       <c r="H101" s="3">
-        <v>118600</v>
+        <v>51300</v>
       </c>
       <c r="I101" s="3">
-        <v>108700</v>
+        <v>101600</v>
       </c>
       <c r="J101" s="3">
+        <v>93200</v>
+      </c>
+      <c r="K101" s="3">
         <v>88100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>145000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>69300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>100200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>349300</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>89700</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>102200</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-42100</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>159800</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>99400</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>23600</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>18300</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>33900</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>40700</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>10300</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>27000</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>27700</v>
       </c>
     </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>223500</v>
+        <v>102800</v>
       </c>
       <c r="E102" s="3">
-        <v>-247900</v>
+        <v>191600</v>
       </c>
       <c r="F102" s="3">
-        <v>13500</v>
+        <v>-212500</v>
       </c>
       <c r="G102" s="3">
-        <v>-406000</v>
+        <v>11600</v>
       </c>
       <c r="H102" s="3">
-        <v>-140100</v>
+        <v>-227900</v>
       </c>
       <c r="I102" s="3">
-        <v>-14500</v>
+        <v>-120100</v>
       </c>
       <c r="J102" s="3">
+        <v>-12400</v>
+      </c>
+      <c r="K102" s="3">
         <v>202800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>589800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>138200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-57100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-328800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>576100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>553400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>149500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>210900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>647800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>50200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>51200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-288400</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>352000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-36300</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>22800</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>238500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BMA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BMA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="92">
   <si>
     <t>BMA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,192 +665,205 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>599300</v>
+        <v>1295600</v>
       </c>
       <c r="E8" s="3">
-        <v>503900</v>
+        <v>684400</v>
       </c>
       <c r="F8" s="3">
-        <v>452400</v>
+        <v>1076200</v>
       </c>
       <c r="G8" s="3">
-        <v>311300</v>
+        <v>403000</v>
       </c>
       <c r="H8" s="3">
-        <v>452800</v>
+        <v>794500</v>
       </c>
       <c r="I8" s="3">
+        <v>455700</v>
+      </c>
+      <c r="J8" s="3">
+        <v>941100</v>
+      </c>
+      <c r="K8" s="3">
         <v>512000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>492600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>408400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>870500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>485300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>646500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>525600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>979700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>491300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>293900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>228100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>199300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>187400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>239600</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>203500</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>179400</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>195300</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AB8" s="3">
         <v>198300</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AC8" s="3">
         <v>194100</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -926,8 +939,14 @@
       <c r="AA9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1003,8 +1022,14 @@
       <c r="AA10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1032,8 +1057,10 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1109,8 +1136,14 @@
       <c r="AA12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1186,8 +1219,14 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1263,85 +1302,97 @@
       <c r="AA14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-16500</v>
+        <v>-28000</v>
       </c>
       <c r="E15" s="3">
-        <v>-16000</v>
+        <v>-16400</v>
       </c>
       <c r="F15" s="3">
+        <v>-31700</v>
+      </c>
+      <c r="G15" s="3">
+        <v>-12800</v>
+      </c>
+      <c r="H15" s="3">
+        <v>-25500</v>
+      </c>
+      <c r="I15" s="3">
+        <v>-15100</v>
+      </c>
+      <c r="J15" s="3">
+        <v>-28600</v>
+      </c>
+      <c r="K15" s="3">
         <v>-14600</v>
       </c>
-      <c r="G15" s="3">
-        <v>-10300</v>
-      </c>
-      <c r="H15" s="3">
-        <v>-14700</v>
-      </c>
-      <c r="I15" s="3">
-        <v>-14600</v>
-      </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>-13400</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>-11300</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>-25200</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>-13100</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>-14100</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>-9800</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>-18800</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="S15" s="3">
         <v>-10000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="T15" s="3">
         <v>-2600</v>
       </c>
-      <c r="S15" s="3">
+      <c r="U15" s="3">
         <v>-2500</v>
       </c>
-      <c r="T15" s="3">
+      <c r="V15" s="3">
         <v>-2500</v>
       </c>
-      <c r="U15" s="3">
+      <c r="W15" s="3">
         <v>-2700</v>
       </c>
-      <c r="V15" s="3">
+      <c r="X15" s="3">
         <v>-5900</v>
-      </c>
-      <c r="W15" s="3">
-        <v>-5000</v>
-      </c>
-      <c r="X15" s="3">
-        <v>-4500</v>
       </c>
       <c r="Y15" s="3">
         <v>-5000</v>
       </c>
       <c r="Z15" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="AA15" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="AB15" s="3">
         <v>-2900</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AC15" s="3">
         <v>-2700</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,162 +1417,176 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>273200</v>
+        <v>730900</v>
       </c>
       <c r="E17" s="3">
-        <v>203000</v>
+        <v>376300</v>
       </c>
       <c r="F17" s="3">
-        <v>187600</v>
+        <v>461800</v>
       </c>
       <c r="G17" s="3">
-        <v>127300</v>
+        <v>162400</v>
       </c>
       <c r="H17" s="3">
-        <v>194700</v>
+        <v>330500</v>
       </c>
       <c r="I17" s="3">
+        <v>186400</v>
+      </c>
+      <c r="J17" s="3">
+        <v>425900</v>
+      </c>
+      <c r="K17" s="3">
         <v>241900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>248600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>193400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>322300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>164900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>249300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>234600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>490200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>252200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>152500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>98000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>74600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>65500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>79300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>71700</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>64600</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>69100</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>96500</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AC17" s="3">
         <v>96400</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>326100</v>
+        <v>564700</v>
       </c>
       <c r="E18" s="3">
-        <v>300900</v>
+        <v>308100</v>
       </c>
       <c r="F18" s="3">
-        <v>264800</v>
+        <v>614300</v>
       </c>
       <c r="G18" s="3">
-        <v>184000</v>
+        <v>240600</v>
       </c>
       <c r="H18" s="3">
-        <v>258100</v>
+        <v>464000</v>
       </c>
       <c r="I18" s="3">
+        <v>269300</v>
+      </c>
+      <c r="J18" s="3">
+        <v>515100</v>
+      </c>
+      <c r="K18" s="3">
         <v>270000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>244100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>215000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>548300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>320400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>397100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>290900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>489500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>239000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>141300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>130100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>124700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>121900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>160300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>131700</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>114800</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>126200</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AB18" s="3">
         <v>101800</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AC18" s="3">
         <v>97600</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,162 +1614,176 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-287400</v>
+        <v>-428000</v>
       </c>
       <c r="E20" s="3">
-        <v>-245400</v>
+        <v>-224900</v>
       </c>
       <c r="F20" s="3">
-        <v>-207200</v>
+        <v>-522400</v>
       </c>
       <c r="G20" s="3">
-        <v>-136300</v>
+        <v>-196200</v>
       </c>
       <c r="H20" s="3">
-        <v>-197700</v>
+        <v>-362800</v>
       </c>
       <c r="I20" s="3">
+        <v>-199500</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-406300</v>
+      </c>
+      <c r="K20" s="3">
         <v>-218900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-179700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-126200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-268900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-152800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-228100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-208000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-288200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-114200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>-48200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>-54800</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>-60200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>-36100</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>-62700</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>-33700</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>-35900</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="AA20" s="3">
         <v>-44500</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AB20" s="3">
         <v>-35400</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AC20" s="3">
         <v>-31300</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>57600</v>
+        <v>164700</v>
       </c>
       <c r="E21" s="3">
-        <v>69200</v>
+        <v>105300</v>
       </c>
       <c r="F21" s="3">
-        <v>72200</v>
+        <v>118000</v>
       </c>
       <c r="G21" s="3">
-        <v>48200</v>
+        <v>55300</v>
       </c>
       <c r="H21" s="3">
-        <v>77200</v>
+        <v>126800</v>
       </c>
       <c r="I21" s="3">
+        <v>90100</v>
+      </c>
+      <c r="J21" s="3">
+        <v>132200</v>
+      </c>
+      <c r="K21" s="3">
         <v>63600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>77700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>101900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>302500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>179500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>183100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>94000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>218800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>134400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>95800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>77800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>67100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>88500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>101700</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>101400</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>81800</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>85100</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AB21" s="3">
         <v>66600</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AC21" s="3">
         <v>66500</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1780,162 +1859,180 @@
       <c r="AA22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>38800</v>
+        <v>136700</v>
       </c>
       <c r="E23" s="3">
-        <v>55500</v>
+        <v>83200</v>
       </c>
       <c r="F23" s="3">
-        <v>57600</v>
+        <v>92000</v>
       </c>
       <c r="G23" s="3">
-        <v>47700</v>
+        <v>44400</v>
       </c>
       <c r="H23" s="3">
-        <v>60400</v>
+        <v>101200</v>
       </c>
       <c r="I23" s="3">
+        <v>69800</v>
+      </c>
+      <c r="J23" s="3">
+        <v>108800</v>
+      </c>
+      <c r="K23" s="3">
         <v>51100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>64300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>88800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>279400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>167600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>169000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>82900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>201300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>124900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>93100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>75300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>64500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>85800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>97600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>98000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>78800</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>81700</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>66400</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AC23" s="3">
         <v>66400</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>12900</v>
+        <v>34400</v>
       </c>
       <c r="E24" s="3">
-        <v>11500</v>
+        <v>38800</v>
       </c>
       <c r="F24" s="3">
-        <v>-17700</v>
+        <v>23900</v>
       </c>
       <c r="G24" s="3">
-        <v>1800</v>
+        <v>9200</v>
       </c>
       <c r="H24" s="3">
-        <v>13200</v>
+        <v>-24900</v>
       </c>
       <c r="I24" s="3">
+        <v>2600</v>
+      </c>
+      <c r="J24" s="3">
+        <v>38500</v>
+      </c>
+      <c r="K24" s="3">
         <v>26300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>15900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>35100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>94700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>61900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>69800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>-10800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>119500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>73800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>29000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>23300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>18600</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>26900</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>25800</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>34900</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>27400</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="AA24" s="3">
         <v>28700</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AB24" s="3">
         <v>22000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AC24" s="3">
         <v>23600</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,162 +2108,180 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>25900</v>
+        <v>102400</v>
       </c>
       <c r="E26" s="3">
-        <v>44000</v>
+        <v>44300</v>
       </c>
       <c r="F26" s="3">
-        <v>75300</v>
+        <v>68100</v>
       </c>
       <c r="G26" s="3">
+        <v>35200</v>
+      </c>
+      <c r="H26" s="3">
+        <v>126200</v>
+      </c>
+      <c r="I26" s="3">
+        <v>67200</v>
+      </c>
+      <c r="J26" s="3">
+        <v>70300</v>
+      </c>
+      <c r="K26" s="3">
+        <v>24800</v>
+      </c>
+      <c r="L26" s="3">
+        <v>48400</v>
+      </c>
+      <c r="M26" s="3">
+        <v>53700</v>
+      </c>
+      <c r="N26" s="3">
+        <v>184700</v>
+      </c>
+      <c r="O26" s="3">
+        <v>105700</v>
+      </c>
+      <c r="P26" s="3">
+        <v>99200</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>93700</v>
+      </c>
+      <c r="R26" s="3">
+        <v>81800</v>
+      </c>
+      <c r="S26" s="3">
+        <v>51100</v>
+      </c>
+      <c r="T26" s="3">
+        <v>64100</v>
+      </c>
+      <c r="U26" s="3">
+        <v>52000</v>
+      </c>
+      <c r="V26" s="3">
         <v>45900</v>
       </c>
-      <c r="H26" s="3">
-        <v>47200</v>
-      </c>
-      <c r="I26" s="3">
-        <v>24800</v>
-      </c>
-      <c r="J26" s="3">
-        <v>48400</v>
-      </c>
-      <c r="K26" s="3">
-        <v>53700</v>
-      </c>
-      <c r="L26" s="3">
-        <v>184700</v>
-      </c>
-      <c r="M26" s="3">
-        <v>105700</v>
-      </c>
-      <c r="N26" s="3">
-        <v>99200</v>
-      </c>
-      <c r="O26" s="3">
-        <v>93700</v>
-      </c>
-      <c r="P26" s="3">
-        <v>81800</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>51100</v>
-      </c>
-      <c r="R26" s="3">
-        <v>64100</v>
-      </c>
-      <c r="S26" s="3">
-        <v>52000</v>
-      </c>
-      <c r="T26" s="3">
-        <v>45900</v>
-      </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>58900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>71800</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>63200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>51500</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>53000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>44400</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AC26" s="3">
         <v>42700</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>25900</v>
+        <v>102300</v>
       </c>
       <c r="E27" s="3">
-        <v>44100</v>
+        <v>44200</v>
       </c>
       <c r="F27" s="3">
-        <v>75300</v>
+        <v>68200</v>
       </c>
       <c r="G27" s="3">
-        <v>45900</v>
+        <v>35200</v>
       </c>
       <c r="H27" s="3">
-        <v>47200</v>
+        <v>126200</v>
       </c>
       <c r="I27" s="3">
+        <v>67200</v>
+      </c>
+      <c r="J27" s="3">
+        <v>70300</v>
+      </c>
+      <c r="K27" s="3">
         <v>24800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>48400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>53700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>184700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>105700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>99200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>93700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>81800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>51100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>64700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>51900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>45600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>58600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>71200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>62700</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>51000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>52500</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>44400</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AC27" s="3">
         <v>42700</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2357,14 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2319,8 +2440,14 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2523,14 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,162 +2606,180 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>287400</v>
+        <v>428000</v>
       </c>
       <c r="E32" s="3">
-        <v>245400</v>
+        <v>224900</v>
       </c>
       <c r="F32" s="3">
-        <v>207200</v>
+        <v>522400</v>
       </c>
       <c r="G32" s="3">
-        <v>136300</v>
+        <v>196200</v>
       </c>
       <c r="H32" s="3">
-        <v>197700</v>
+        <v>362800</v>
       </c>
       <c r="I32" s="3">
+        <v>199500</v>
+      </c>
+      <c r="J32" s="3">
+        <v>406300</v>
+      </c>
+      <c r="K32" s="3">
         <v>218900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>179700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>126200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>268900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>152800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>228100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>208000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>288200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>114200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>48200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>54800</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>60200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>36100</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>62700</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>33700</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>35900</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="AA32" s="3">
         <v>44500</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AB32" s="3">
         <v>35400</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AC32" s="3">
         <v>31300</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>25900</v>
+        <v>102300</v>
       </c>
       <c r="E33" s="3">
-        <v>44100</v>
+        <v>44200</v>
       </c>
       <c r="F33" s="3">
-        <v>75300</v>
+        <v>68200</v>
       </c>
       <c r="G33" s="3">
-        <v>45900</v>
+        <v>35200</v>
       </c>
       <c r="H33" s="3">
-        <v>47200</v>
+        <v>126200</v>
       </c>
       <c r="I33" s="3">
+        <v>67200</v>
+      </c>
+      <c r="J33" s="3">
+        <v>70300</v>
+      </c>
+      <c r="K33" s="3">
         <v>24800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>48400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>53700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>184700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>105700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>99200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>93700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>81800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>51100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>64700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>51900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>45600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>58600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>71200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>62700</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>51000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>52500</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AB33" s="3">
         <v>44400</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AC33" s="3">
         <v>42700</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,167 +2855,185 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>25900</v>
+        <v>102300</v>
       </c>
       <c r="E35" s="3">
-        <v>44100</v>
+        <v>44200</v>
       </c>
       <c r="F35" s="3">
-        <v>75300</v>
+        <v>68200</v>
       </c>
       <c r="G35" s="3">
-        <v>45900</v>
+        <v>35200</v>
       </c>
       <c r="H35" s="3">
-        <v>47200</v>
+        <v>126200</v>
       </c>
       <c r="I35" s="3">
+        <v>67200</v>
+      </c>
+      <c r="J35" s="3">
+        <v>70300</v>
+      </c>
+      <c r="K35" s="3">
         <v>24800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>48400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>53700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>184700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>105700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>99200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>93700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>81800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>51100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>64700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>51900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>45600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>58600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>71200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>62700</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>51000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>52500</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AB35" s="3">
         <v>44400</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AC35" s="3">
         <v>42700</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +3061,10 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,162 +3092,176 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>792100</v>
+        <v>854000</v>
       </c>
       <c r="E41" s="3">
-        <v>802700</v>
+        <v>666600</v>
       </c>
       <c r="F41" s="3">
-        <v>1132300</v>
+        <v>633400</v>
       </c>
       <c r="G41" s="3">
-        <v>740000</v>
+        <v>641900</v>
       </c>
       <c r="H41" s="3">
-        <v>616400</v>
+        <v>1295400</v>
       </c>
       <c r="I41" s="3">
+        <v>591700</v>
+      </c>
+      <c r="J41" s="3">
+        <v>493000</v>
+      </c>
+      <c r="K41" s="3">
         <v>620800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>710400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>629900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>536100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>896600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>1045100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>724200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>842100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>812600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>757200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>807800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>661100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>454500</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>823900</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>700900</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>660600</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>744300</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AB41" s="3">
         <v>924100</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AC41" s="3">
         <v>607900</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1172100</v>
+        <v>1785000</v>
       </c>
       <c r="E42" s="3">
-        <v>593900</v>
+        <v>1564500</v>
       </c>
       <c r="F42" s="3">
-        <v>894700</v>
+        <v>937300</v>
       </c>
       <c r="G42" s="3">
-        <v>594700</v>
+        <v>474900</v>
       </c>
       <c r="H42" s="3">
-        <v>760900</v>
+        <v>1032900</v>
       </c>
       <c r="I42" s="3">
+        <v>475600</v>
+      </c>
+      <c r="J42" s="3">
+        <v>608500</v>
+      </c>
+      <c r="K42" s="3">
         <v>668200</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>1426200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>715100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>1065800</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>360600</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>526400</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>321400</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>214600</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>173100</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>210900</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>164000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="V42" s="3">
         <v>136800</v>
       </c>
-      <c r="U42" s="3">
+      <c r="W42" s="3">
         <v>61700</v>
       </c>
-      <c r="V42" s="3">
+      <c r="X42" s="3">
         <v>432500</v>
       </c>
-      <c r="W42" s="3">
+      <c r="Y42" s="3">
         <v>396500</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Z42" s="3">
         <v>357300</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="AA42" s="3">
         <v>163500</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AB42" s="3">
         <v>188700</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AC42" s="3">
         <v>176500</v>
       </c>
     </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3152,8 +3337,14 @@
       <c r="AA43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3229,8 +3420,14 @@
       <c r="AA44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3306,8 +3503,14 @@
       <c r="AA45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3383,239 +3586,263 @@
       <c r="AA46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>7900</v>
+        <v>9900</v>
       </c>
       <c r="E47" s="3">
-        <v>7000</v>
+        <v>8200</v>
       </c>
       <c r="F47" s="3">
-        <v>22700</v>
+        <v>6400</v>
       </c>
       <c r="G47" s="3">
-        <v>15500</v>
+        <v>5600</v>
       </c>
       <c r="H47" s="3">
-        <v>15400</v>
+        <v>25900</v>
       </c>
       <c r="I47" s="3">
+        <v>12400</v>
+      </c>
+      <c r="J47" s="3">
+        <v>12300</v>
+      </c>
+      <c r="K47" s="3">
         <v>14400</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>17600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>13200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>15000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>17400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>23500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>16900</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>17300</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>20100</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>2000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>1900</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>2200</v>
       </c>
-      <c r="U47" s="3">
+      <c r="W47" s="3">
         <v>6600</v>
       </c>
-      <c r="V47" s="3">
+      <c r="X47" s="3">
         <v>11500</v>
       </c>
-      <c r="W47" s="3">
+      <c r="Y47" s="3">
         <v>2100</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Z47" s="3">
         <v>800</v>
-      </c>
-      <c r="Y47" s="3">
-        <v>300</v>
-      </c>
-      <c r="Z47" s="3">
-        <v>300</v>
       </c>
       <c r="AA47" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>300</v>
+      </c>
+      <c r="AC47" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>445300</v>
+        <v>508300</v>
       </c>
       <c r="E48" s="3">
-        <v>380100</v>
+        <v>431800</v>
       </c>
       <c r="F48" s="3">
-        <v>449200</v>
+        <v>356100</v>
       </c>
       <c r="G48" s="3">
-        <v>300500</v>
+        <v>303900</v>
       </c>
       <c r="H48" s="3">
-        <v>270600</v>
+        <v>513900</v>
       </c>
       <c r="I48" s="3">
+        <v>240300</v>
+      </c>
+      <c r="J48" s="3">
+        <v>216400</v>
+      </c>
+      <c r="K48" s="3">
         <v>242500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>323700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>224900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>245400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>273400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>360300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>109900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>107300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>121500</v>
-      </c>
-      <c r="R48" s="3">
-        <v>111100</v>
-      </c>
-      <c r="S48" s="3">
-        <v>107200</v>
       </c>
       <c r="T48" s="3">
         <v>111100</v>
       </c>
       <c r="U48" s="3">
+        <v>107200</v>
+      </c>
+      <c r="V48" s="3">
+        <v>111100</v>
+      </c>
+      <c r="W48" s="3">
         <v>119600</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>161500</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>35600</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>34100</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>39400</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AB48" s="3">
         <v>38200</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AC48" s="3">
         <v>34700</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>75400</v>
+        <v>87000</v>
       </c>
       <c r="E49" s="3">
-        <v>60600</v>
+        <v>74900</v>
       </c>
       <c r="F49" s="3">
-        <v>71400</v>
+        <v>60300</v>
       </c>
       <c r="G49" s="3">
-        <v>47100</v>
+        <v>48500</v>
       </c>
       <c r="H49" s="3">
-        <v>41500</v>
+        <v>81700</v>
       </c>
       <c r="I49" s="3">
+        <v>37600</v>
+      </c>
+      <c r="J49" s="3">
+        <v>33200</v>
+      </c>
+      <c r="K49" s="3">
         <v>36300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>48100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>32300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>35200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>39200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>49600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>21100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>19800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>19100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>17300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>15600</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>14500</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>15700</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>40500</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>19200</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Z49" s="3">
         <v>17700</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="AA49" s="3">
         <v>19900</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AB49" s="3">
         <v>17400</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AC49" s="3">
         <v>16200</v>
       </c>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3918,14 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,74 +4001,80 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>28000</v>
+        <v>44600</v>
       </c>
       <c r="E52" s="3">
-        <v>23700</v>
+        <v>26700</v>
       </c>
       <c r="F52" s="3">
-        <v>27900</v>
+        <v>22400</v>
       </c>
       <c r="G52" s="3">
         <v>18900</v>
       </c>
       <c r="H52" s="3">
-        <v>18100</v>
+        <v>32000</v>
       </c>
       <c r="I52" s="3">
+        <v>15100</v>
+      </c>
+      <c r="J52" s="3">
+        <v>14400</v>
+      </c>
+      <c r="K52" s="3">
         <v>16300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>21900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>16900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>18000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>19900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>25100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>33100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>5500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>7900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>10500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>2500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>2500</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>2400</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>5200</v>
       </c>
-      <c r="W52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Y52" s="3" t="s">
         <v>5</v>
       </c>
@@ -3845,8 +4084,14 @@
       <c r="AA52" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,85 +4167,97 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>8587000</v>
+        <v>10431400</v>
       </c>
       <c r="E54" s="3">
-        <v>7117600</v>
+        <v>8808000</v>
       </c>
       <c r="F54" s="3">
-        <v>8476400</v>
+        <v>6866800</v>
       </c>
       <c r="G54" s="3">
-        <v>5610500</v>
+        <v>5691800</v>
       </c>
       <c r="H54" s="3">
-        <v>5060000</v>
+        <v>9697800</v>
       </c>
       <c r="I54" s="3">
+        <v>4486600</v>
+      </c>
+      <c r="J54" s="3">
+        <v>4046400</v>
+      </c>
+      <c r="K54" s="3">
         <v>4778600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>7251500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>5319700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>5334300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>5027300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>6208800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>4139300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>4255000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>4816300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>4230600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>4222300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>3978200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>3829400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>5192200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>4733600</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>4307400</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>4371900</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>4057900</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AC54" s="3">
         <v>3580900</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4285,10 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,85 +4316,93 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>447000</v>
+        <v>674100</v>
       </c>
       <c r="E57" s="3">
-        <v>372800</v>
+        <v>424000</v>
       </c>
       <c r="F57" s="3">
-        <v>577200</v>
+        <v>357400</v>
       </c>
       <c r="G57" s="3">
-        <v>290800</v>
+        <v>298100</v>
       </c>
       <c r="H57" s="3">
-        <v>251900</v>
+        <v>655100</v>
       </c>
       <c r="I57" s="3">
+        <v>232600</v>
+      </c>
+      <c r="J57" s="3">
+        <v>201400</v>
+      </c>
+      <c r="K57" s="3">
         <v>311200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>463600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>208500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>245600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>233000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>310300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>171800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>157400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>205100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>189000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>173600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>163900</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>150300</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>374000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>219100</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>219900</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>222000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AB57" s="3">
         <v>239200</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AC57" s="3">
         <v>182100</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4211,85 +4478,97 @@
       <c r="AA58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>4000</v>
+        <v>54100</v>
       </c>
       <c r="E59" s="3">
-        <v>3500</v>
+        <v>33600</v>
       </c>
       <c r="F59" s="3">
-        <v>3000</v>
+        <v>3200</v>
       </c>
       <c r="G59" s="3">
-        <v>15200</v>
+        <v>2800</v>
       </c>
       <c r="H59" s="3">
-        <v>9900</v>
+        <v>3400</v>
       </c>
       <c r="I59" s="3">
+        <v>12100</v>
+      </c>
+      <c r="J59" s="3">
+        <v>7900</v>
+      </c>
+      <c r="K59" s="3">
         <v>29500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>48500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>72500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>63900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>102100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>113900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>46300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>44000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>56400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>36400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>28600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>26100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>67300</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>91200</v>
       </c>
-      <c r="W59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X59" s="3">
-        <v>0</v>
-      </c>
       <c r="Y59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Z59" s="3" t="s">
-        <v>5</v>
+      <c r="Z59" s="3">
+        <v>0</v>
       </c>
       <c r="AA59" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4365,162 +4644,180 @@
       <c r="AA60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB60" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>345200</v>
+        <v>385700</v>
       </c>
       <c r="E61" s="3">
-        <v>319100</v>
+        <v>328000</v>
       </c>
       <c r="F61" s="3">
-        <v>385700</v>
+        <v>276000</v>
       </c>
       <c r="G61" s="3">
-        <v>275600</v>
+        <v>255200</v>
       </c>
       <c r="H61" s="3">
-        <v>263500</v>
+        <v>441300</v>
       </c>
       <c r="I61" s="3">
+        <v>220400</v>
+      </c>
+      <c r="J61" s="3">
+        <v>210700</v>
+      </c>
+      <c r="K61" s="3">
         <v>276800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>378100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>271100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>294900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>326700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>449000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>340100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>271400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>336400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>304400</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>360300</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>316200</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>225800</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>308600</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>285000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Z61" s="3">
         <v>270200</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="AA61" s="3">
         <v>166300</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AB61" s="3">
         <v>211200</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AC61" s="3">
         <v>104400</v>
       </c>
     </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>74300</v>
+        <v>79800</v>
       </c>
       <c r="E62" s="3">
-        <v>59700</v>
+        <v>81400</v>
       </c>
       <c r="F62" s="3">
-        <v>62300</v>
+        <v>59400</v>
       </c>
       <c r="G62" s="3">
-        <v>57300</v>
+        <v>47700</v>
       </c>
       <c r="H62" s="3">
-        <v>62500</v>
+        <v>71300</v>
       </c>
       <c r="I62" s="3">
+        <v>45800</v>
+      </c>
+      <c r="J62" s="3">
+        <v>50000</v>
+      </c>
+      <c r="K62" s="3">
         <v>59200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>71500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>30300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>45000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>15800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>22900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>13700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>15900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>17000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>15700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>12600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>14600</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>18100</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>27300</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>11000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Z62" s="3">
         <v>8600</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="AA62" s="3">
         <v>9200</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AB62" s="3">
         <v>8800</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AC62" s="3">
         <v>7700</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4893,14 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4976,14 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,85 +5059,97 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>6469600</v>
+        <v>7874400</v>
       </c>
       <c r="E66" s="3">
-        <v>5355800</v>
+        <v>6688000</v>
       </c>
       <c r="F66" s="3">
-        <v>6449500</v>
+        <v>5173600</v>
       </c>
       <c r="G66" s="3">
-        <v>4319800</v>
+        <v>4282900</v>
       </c>
       <c r="H66" s="3">
-        <v>3921200</v>
+        <v>7378900</v>
       </c>
       <c r="I66" s="3">
+        <v>3454500</v>
+      </c>
+      <c r="J66" s="3">
+        <v>3135700</v>
+      </c>
+      <c r="K66" s="3">
         <v>3717500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>5856800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>4344700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>4317500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>3846100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>4741300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>3354200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>3589400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>4050100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>3556400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>3530700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>3244100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>3001500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>4124700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>3813200</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>3485500</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>3746900</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>3479100</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AC66" s="3">
         <v>3046600</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5177,10 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5256,14 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5339,14 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5087,8 +5422,14 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,85 +5505,97 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1304600</v>
+        <v>1627000</v>
       </c>
       <c r="E72" s="3">
-        <v>1068800</v>
+        <v>1327100</v>
       </c>
       <c r="F72" s="3">
-        <v>1214000</v>
+        <v>1043200</v>
       </c>
       <c r="G72" s="3">
-        <v>749000</v>
+        <v>854700</v>
       </c>
       <c r="H72" s="3">
-        <v>643100</v>
+        <v>1389000</v>
       </c>
       <c r="I72" s="3">
+        <v>599000</v>
+      </c>
+      <c r="J72" s="3">
+        <v>514300</v>
+      </c>
+      <c r="K72" s="3">
         <v>614300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>797700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>560500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>565700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>683300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>815900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>650700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>526600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>604400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>512500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>513800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>542300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>611300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>881500</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>613400</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>553800</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>599000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>552900</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>508500</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5671,14 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5754,14 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,85 +5837,97 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2117400</v>
+        <v>2556900</v>
       </c>
       <c r="E76" s="3">
-        <v>1761700</v>
+        <v>2119900</v>
       </c>
       <c r="F76" s="3">
-        <v>2026900</v>
+        <v>1693200</v>
       </c>
       <c r="G76" s="3">
-        <v>1290700</v>
+        <v>1408800</v>
       </c>
       <c r="H76" s="3">
-        <v>1138800</v>
+        <v>2318900</v>
       </c>
       <c r="I76" s="3">
+        <v>1032200</v>
+      </c>
+      <c r="J76" s="3">
+        <v>910600</v>
+      </c>
+      <c r="K76" s="3">
         <v>1061000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>1394700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>975000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>1016800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>1181200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>1467500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>785100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>665600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>766100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>674200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>691600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>734100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>827900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>1067500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>920300</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>821900</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>624900</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>578700</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AC76" s="3">
         <v>534400</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,167 +6003,185 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>25900</v>
+        <v>102300</v>
       </c>
       <c r="E81" s="3">
-        <v>44100</v>
+        <v>44200</v>
       </c>
       <c r="F81" s="3">
-        <v>75300</v>
+        <v>68200</v>
       </c>
       <c r="G81" s="3">
-        <v>45900</v>
+        <v>35200</v>
       </c>
       <c r="H81" s="3">
-        <v>47200</v>
+        <v>126200</v>
       </c>
       <c r="I81" s="3">
+        <v>67200</v>
+      </c>
+      <c r="J81" s="3">
+        <v>70300</v>
+      </c>
+      <c r="K81" s="3">
         <v>24800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>48400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>53700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>184700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>105700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>99200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>93700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>81800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>51100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>64700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>51900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>45600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>58600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>71200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>62700</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>51000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>52500</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AB81" s="3">
         <v>44400</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AC81" s="3">
         <v>42700</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,85 +6209,93 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>18900</v>
+        <v>28000</v>
       </c>
       <c r="E83" s="3">
-        <v>13700</v>
+        <v>22100</v>
       </c>
       <c r="F83" s="3">
-        <v>14600</v>
+        <v>26000</v>
       </c>
       <c r="G83" s="3">
-        <v>600</v>
+        <v>10900</v>
       </c>
       <c r="H83" s="3">
-        <v>16800</v>
+        <v>25500</v>
       </c>
       <c r="I83" s="3">
+        <v>20300</v>
+      </c>
+      <c r="J83" s="3">
+        <v>23400</v>
+      </c>
+      <c r="K83" s="3">
         <v>12500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>13400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>13100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>23100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>11800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>14100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>11100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>17400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>9500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>2600</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>2500</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>2500</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>2700</v>
       </c>
-      <c r="V83" s="3">
+      <c r="X83" s="3">
         <v>4100</v>
       </c>
-      <c r="W83" s="3">
+      <c r="Y83" s="3">
         <v>3300</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Z83" s="3">
         <v>3000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="AA83" s="3">
         <v>3400</v>
       </c>
-      <c r="Z83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA83" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC83" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6371,14 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6454,14 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6537,14 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6620,14 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,85 +6703,97 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>73800</v>
+        <v>-8700</v>
       </c>
       <c r="E89" s="3">
-        <v>125500</v>
+        <v>194600</v>
       </c>
       <c r="F89" s="3">
-        <v>-230000</v>
+        <v>159400</v>
       </c>
       <c r="G89" s="3">
-        <v>-1400</v>
+        <v>100400</v>
       </c>
       <c r="H89" s="3">
-        <v>-213400</v>
+        <v>-184000</v>
       </c>
       <c r="I89" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="J89" s="3">
+        <v>-311600</v>
+      </c>
+      <c r="K89" s="3">
         <v>-176200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-75600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>138400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>511700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>107500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-30900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-546700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>621800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>493200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>240700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>129100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>554900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>38600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>50500</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>-394400</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>104700</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>7500</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AB89" s="3">
         <v>-92100</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AC89" s="3">
         <v>237600</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,85 +6821,93 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-32300</v>
+        <v>-35700</v>
       </c>
       <c r="E91" s="3">
+        <v>-52200</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-33500</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-7700</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-11100</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-15600</v>
+      </c>
+      <c r="K91" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="L91" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="M91" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="N91" s="3">
+        <v>-12100</v>
+      </c>
+      <c r="O91" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="P91" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>-11900</v>
+      </c>
+      <c r="R91" s="3">
+        <v>-17000</v>
+      </c>
+      <c r="S91" s="3">
         <v>-9600</v>
       </c>
-      <c r="F91" s="3">
-        <v>-9600</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-13800</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-11500</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-8100</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-7800</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-7300</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-12100</v>
-      </c>
-      <c r="M91" s="3">
-        <v>-7900</v>
-      </c>
-      <c r="N91" s="3">
-        <v>-10000</v>
-      </c>
-      <c r="O91" s="3">
-        <v>-11900</v>
-      </c>
-      <c r="P91" s="3">
-        <v>-17000</v>
-      </c>
-      <c r="Q91" s="3">
-        <v>-9600</v>
-      </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-8300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-8600</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-6700</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-3300</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-2900</v>
       </c>
-      <c r="W91" s="3">
+      <c r="Y91" s="3">
         <v>-2000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Z91" s="3">
         <v>-1100</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="AA91" s="3">
         <v>-10200</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AB91" s="3">
         <v>-3500</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AC91" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6983,14 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,85 +7066,97 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-32300</v>
+        <v>-35700</v>
       </c>
       <c r="E94" s="3">
+        <v>-52200</v>
+      </c>
+      <c r="F94" s="3">
+        <v>-33500</v>
+      </c>
+      <c r="G94" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="H94" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-11100</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-15600</v>
+      </c>
+      <c r="K94" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="L94" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="M94" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="N94" s="3">
+        <v>-12100</v>
+      </c>
+      <c r="O94" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="P94" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="Q94" s="3">
+        <v>-11900</v>
+      </c>
+      <c r="R94" s="3">
+        <v>-17000</v>
+      </c>
+      <c r="S94" s="3">
         <v>-9600</v>
       </c>
-      <c r="F94" s="3">
-        <v>-9900</v>
-      </c>
-      <c r="G94" s="3">
-        <v>-13800</v>
-      </c>
-      <c r="H94" s="3">
-        <v>-11500</v>
-      </c>
-      <c r="I94" s="3">
-        <v>-8100</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-7800</v>
-      </c>
-      <c r="K94" s="3">
-        <v>-7300</v>
-      </c>
-      <c r="L94" s="3">
-        <v>-12100</v>
-      </c>
-      <c r="M94" s="3">
-        <v>-7900</v>
-      </c>
-      <c r="N94" s="3">
-        <v>-10000</v>
-      </c>
-      <c r="O94" s="3">
-        <v>-11900</v>
-      </c>
-      <c r="P94" s="3">
-        <v>-17000</v>
-      </c>
-      <c r="Q94" s="3">
-        <v>-9600</v>
-      </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-8300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-8600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-6700</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-3300</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-8700</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-8200</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>-4900</v>
-      </c>
-      <c r="Y94" s="3">
-        <v>-7800</v>
-      </c>
-      <c r="Z94" s="3">
-        <v>-7200</v>
       </c>
       <c r="AA94" s="3">
         <v>-7800</v>
       </c>
-    </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB94" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="AC94" s="3">
+        <v>-7800</v>
+      </c>
+    </row>
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,19 +7184,21 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-31000</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-27900</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-36300</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
@@ -6761,14 +7228,14 @@
         <v>0</v>
       </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-67800</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
       <c r="S96" s="3">
         <v>0</v>
       </c>
@@ -6794,10 +7261,16 @@
         <v>0</v>
       </c>
       <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC96" s="3">
         <v>-16800</v>
       </c>
     </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7346,14 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7429,14 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,235 +7512,259 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-63700</v>
+        <v>-48200</v>
       </c>
       <c r="E100" s="3">
-        <v>8800</v>
+        <v>-32600</v>
       </c>
       <c r="F100" s="3">
-        <v>-16600</v>
+        <v>-43900</v>
       </c>
       <c r="G100" s="3">
-        <v>-4900</v>
+        <v>7000</v>
       </c>
       <c r="H100" s="3">
-        <v>-30700</v>
+        <v>-13300</v>
       </c>
       <c r="I100" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-25700</v>
+      </c>
+      <c r="K100" s="3">
         <v>-1400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-13100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-7600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-32400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-19200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-19000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-5100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-89600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-7600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-39800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-69400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-6700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>-800</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>-19600</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>47000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>337200</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>-46300</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AB100" s="3">
         <v>95100</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AC100" s="3">
         <v>-18900</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>125000</v>
+        <v>258800</v>
       </c>
       <c r="E101" s="3">
-        <v>66800</v>
+        <v>218100</v>
       </c>
       <c r="F101" s="3">
-        <v>44100</v>
+        <v>153400</v>
       </c>
       <c r="G101" s="3">
-        <v>-27900</v>
+        <v>53500</v>
       </c>
       <c r="H101" s="3">
-        <v>51300</v>
+        <v>80400</v>
       </c>
       <c r="I101" s="3">
+        <v>60700</v>
+      </c>
+      <c r="J101" s="3">
+        <v>122300</v>
+      </c>
+      <c r="K101" s="3">
         <v>101600</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>93200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>88100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>145000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>69300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>100200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>349300</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>89700</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>102200</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>-42100</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>159800</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>99400</v>
       </c>
-      <c r="U101" s="3">
+      <c r="W101" s="3">
         <v>23600</v>
       </c>
-      <c r="V101" s="3">
+      <c r="X101" s="3">
         <v>18300</v>
       </c>
-      <c r="W101" s="3">
+      <c r="Y101" s="3">
         <v>33900</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Z101" s="3">
         <v>40700</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="AA101" s="3">
         <v>10300</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AB101" s="3">
         <v>27000</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AC101" s="3">
         <v>27700</v>
       </c>
     </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>102800</v>
+        <v>166200</v>
       </c>
       <c r="E102" s="3">
-        <v>191600</v>
+        <v>327900</v>
       </c>
       <c r="F102" s="3">
-        <v>-212500</v>
+        <v>235400</v>
       </c>
       <c r="G102" s="3">
-        <v>11600</v>
+        <v>153200</v>
       </c>
       <c r="H102" s="3">
-        <v>-227900</v>
+        <v>-169900</v>
       </c>
       <c r="I102" s="3">
+        <v>9300</v>
+      </c>
+      <c r="J102" s="3">
+        <v>-278300</v>
+      </c>
+      <c r="K102" s="3">
         <v>-120100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-12400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>202800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>589800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>138200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-57100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-328800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>576100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>553400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>149500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>210900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>647800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>50200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>51200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>-288400</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>352000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>-36300</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AB102" s="3">
         <v>22800</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AC102" s="3">
         <v>238500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BMA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BMA_QTR_FIN.xlsx
@@ -665,7 +665,8 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
@@ -785,25 +786,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1295600</v>
+        <v>1119100</v>
       </c>
       <c r="E8" s="3">
-        <v>684400</v>
+        <v>591200</v>
       </c>
       <c r="F8" s="3">
-        <v>1076200</v>
+        <v>929500</v>
       </c>
       <c r="G8" s="3">
-        <v>403000</v>
+        <v>348100</v>
       </c>
       <c r="H8" s="3">
-        <v>794500</v>
+        <v>686200</v>
       </c>
       <c r="I8" s="3">
-        <v>455700</v>
+        <v>393600</v>
       </c>
       <c r="J8" s="3">
-        <v>941100</v>
+        <v>812800</v>
       </c>
       <c r="K8" s="3">
         <v>512000</v>
@@ -1314,25 +1315,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-28000</v>
+        <v>-24100</v>
       </c>
       <c r="E15" s="3">
-        <v>-16400</v>
+        <v>-14200</v>
       </c>
       <c r="F15" s="3">
-        <v>-31700</v>
+        <v>-27400</v>
       </c>
       <c r="G15" s="3">
-        <v>-12800</v>
+        <v>-11100</v>
       </c>
       <c r="H15" s="3">
-        <v>-25500</v>
+        <v>-22100</v>
       </c>
       <c r="I15" s="3">
-        <v>-15100</v>
+        <v>-13100</v>
       </c>
       <c r="J15" s="3">
-        <v>-28600</v>
+        <v>-24700</v>
       </c>
       <c r="K15" s="3">
         <v>-14600</v>
@@ -1425,25 +1426,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>730900</v>
+        <v>631300</v>
       </c>
       <c r="E17" s="3">
-        <v>376300</v>
+        <v>325000</v>
       </c>
       <c r="F17" s="3">
-        <v>461800</v>
+        <v>398900</v>
       </c>
       <c r="G17" s="3">
-        <v>162400</v>
+        <v>140200</v>
       </c>
       <c r="H17" s="3">
-        <v>330500</v>
+        <v>285400</v>
       </c>
       <c r="I17" s="3">
-        <v>186400</v>
+        <v>161000</v>
       </c>
       <c r="J17" s="3">
-        <v>425900</v>
+        <v>367900</v>
       </c>
       <c r="K17" s="3">
         <v>241900</v>
@@ -1508,25 +1509,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>564700</v>
+        <v>487700</v>
       </c>
       <c r="E18" s="3">
-        <v>308100</v>
+        <v>266100</v>
       </c>
       <c r="F18" s="3">
-        <v>614300</v>
+        <v>530600</v>
       </c>
       <c r="G18" s="3">
-        <v>240600</v>
+        <v>207800</v>
       </c>
       <c r="H18" s="3">
-        <v>464000</v>
+        <v>400800</v>
       </c>
       <c r="I18" s="3">
-        <v>269300</v>
+        <v>232600</v>
       </c>
       <c r="J18" s="3">
-        <v>515100</v>
+        <v>444900</v>
       </c>
       <c r="K18" s="3">
         <v>270000</v>
@@ -1622,25 +1623,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-428000</v>
+        <v>-369700</v>
       </c>
       <c r="E20" s="3">
-        <v>-224900</v>
+        <v>-194300</v>
       </c>
       <c r="F20" s="3">
-        <v>-522400</v>
+        <v>-451200</v>
       </c>
       <c r="G20" s="3">
-        <v>-196200</v>
+        <v>-169500</v>
       </c>
       <c r="H20" s="3">
-        <v>-362800</v>
+        <v>-313400</v>
       </c>
       <c r="I20" s="3">
-        <v>-199500</v>
+        <v>-172300</v>
       </c>
       <c r="J20" s="3">
-        <v>-406300</v>
+        <v>-351000</v>
       </c>
       <c r="K20" s="3">
         <v>-218900</v>
@@ -1705,25 +1706,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>164700</v>
+        <v>142200</v>
       </c>
       <c r="E21" s="3">
-        <v>105300</v>
+        <v>90900</v>
       </c>
       <c r="F21" s="3">
-        <v>118000</v>
+        <v>101900</v>
       </c>
       <c r="G21" s="3">
-        <v>55300</v>
+        <v>47800</v>
       </c>
       <c r="H21" s="3">
-        <v>126800</v>
+        <v>109500</v>
       </c>
       <c r="I21" s="3">
-        <v>90100</v>
+        <v>77800</v>
       </c>
       <c r="J21" s="3">
-        <v>132200</v>
+        <v>114200</v>
       </c>
       <c r="K21" s="3">
         <v>63600</v>
@@ -1871,25 +1872,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>136700</v>
+        <v>118100</v>
       </c>
       <c r="E23" s="3">
-        <v>83200</v>
+        <v>71800</v>
       </c>
       <c r="F23" s="3">
-        <v>92000</v>
+        <v>79400</v>
       </c>
       <c r="G23" s="3">
-        <v>44400</v>
+        <v>38300</v>
       </c>
       <c r="H23" s="3">
-        <v>101200</v>
+        <v>87400</v>
       </c>
       <c r="I23" s="3">
-        <v>69800</v>
+        <v>60300</v>
       </c>
       <c r="J23" s="3">
-        <v>108800</v>
+        <v>94000</v>
       </c>
       <c r="K23" s="3">
         <v>51100</v>
@@ -1954,25 +1955,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>34400</v>
+        <v>29700</v>
       </c>
       <c r="E24" s="3">
-        <v>38800</v>
+        <v>33600</v>
       </c>
       <c r="F24" s="3">
-        <v>23900</v>
+        <v>20600</v>
       </c>
       <c r="G24" s="3">
-        <v>9200</v>
+        <v>8000</v>
       </c>
       <c r="H24" s="3">
-        <v>-24900</v>
+        <v>-21500</v>
       </c>
       <c r="I24" s="3">
-        <v>2600</v>
+        <v>2200</v>
       </c>
       <c r="J24" s="3">
-        <v>38500</v>
+        <v>33300</v>
       </c>
       <c r="K24" s="3">
         <v>26300</v>
@@ -2120,25 +2121,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>102400</v>
+        <v>88400</v>
       </c>
       <c r="E26" s="3">
-        <v>44300</v>
+        <v>38300</v>
       </c>
       <c r="F26" s="3">
-        <v>68100</v>
+        <v>58800</v>
       </c>
       <c r="G26" s="3">
-        <v>35200</v>
+        <v>30400</v>
       </c>
       <c r="H26" s="3">
-        <v>126200</v>
+        <v>109000</v>
       </c>
       <c r="I26" s="3">
-        <v>67200</v>
+        <v>58000</v>
       </c>
       <c r="J26" s="3">
-        <v>70300</v>
+        <v>60700</v>
       </c>
       <c r="K26" s="3">
         <v>24800</v>
@@ -2203,25 +2204,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>102300</v>
+        <v>88400</v>
       </c>
       <c r="E27" s="3">
-        <v>44200</v>
+        <v>38200</v>
       </c>
       <c r="F27" s="3">
-        <v>68200</v>
+        <v>58900</v>
       </c>
       <c r="G27" s="3">
-        <v>35200</v>
+        <v>30400</v>
       </c>
       <c r="H27" s="3">
-        <v>126200</v>
+        <v>109000</v>
       </c>
       <c r="I27" s="3">
-        <v>67200</v>
+        <v>58000</v>
       </c>
       <c r="J27" s="3">
-        <v>70300</v>
+        <v>60700</v>
       </c>
       <c r="K27" s="3">
         <v>24800</v>
@@ -2618,25 +2619,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>428000</v>
+        <v>369700</v>
       </c>
       <c r="E32" s="3">
-        <v>224900</v>
+        <v>194300</v>
       </c>
       <c r="F32" s="3">
-        <v>522400</v>
+        <v>451200</v>
       </c>
       <c r="G32" s="3">
-        <v>196200</v>
+        <v>169500</v>
       </c>
       <c r="H32" s="3">
-        <v>362800</v>
+        <v>313400</v>
       </c>
       <c r="I32" s="3">
-        <v>199500</v>
+        <v>172300</v>
       </c>
       <c r="J32" s="3">
-        <v>406300</v>
+        <v>351000</v>
       </c>
       <c r="K32" s="3">
         <v>218900</v>
@@ -2701,25 +2702,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>102300</v>
+        <v>88400</v>
       </c>
       <c r="E33" s="3">
-        <v>44200</v>
+        <v>38200</v>
       </c>
       <c r="F33" s="3">
-        <v>68200</v>
+        <v>58900</v>
       </c>
       <c r="G33" s="3">
-        <v>35200</v>
+        <v>30400</v>
       </c>
       <c r="H33" s="3">
-        <v>126200</v>
+        <v>109000</v>
       </c>
       <c r="I33" s="3">
-        <v>67200</v>
+        <v>58000</v>
       </c>
       <c r="J33" s="3">
-        <v>70300</v>
+        <v>60700</v>
       </c>
       <c r="K33" s="3">
         <v>24800</v>
@@ -2867,25 +2868,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>102300</v>
+        <v>88400</v>
       </c>
       <c r="E35" s="3">
-        <v>44200</v>
+        <v>38200</v>
       </c>
       <c r="F35" s="3">
-        <v>68200</v>
+        <v>58900</v>
       </c>
       <c r="G35" s="3">
-        <v>35200</v>
+        <v>30400</v>
       </c>
       <c r="H35" s="3">
-        <v>126200</v>
+        <v>109000</v>
       </c>
       <c r="I35" s="3">
-        <v>67200</v>
+        <v>58000</v>
       </c>
       <c r="J35" s="3">
-        <v>70300</v>
+        <v>60700</v>
       </c>
       <c r="K35" s="3">
         <v>24800</v>
@@ -3100,25 +3101,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>854000</v>
+        <v>737700</v>
       </c>
       <c r="E41" s="3">
-        <v>666600</v>
+        <v>575800</v>
       </c>
       <c r="F41" s="3">
-        <v>633400</v>
+        <v>547100</v>
       </c>
       <c r="G41" s="3">
-        <v>641900</v>
+        <v>554500</v>
       </c>
       <c r="H41" s="3">
-        <v>1295400</v>
+        <v>1118900</v>
       </c>
       <c r="I41" s="3">
-        <v>591700</v>
+        <v>511100</v>
       </c>
       <c r="J41" s="3">
-        <v>493000</v>
+        <v>425800</v>
       </c>
       <c r="K41" s="3">
         <v>620800</v>
@@ -3183,25 +3184,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1785000</v>
+        <v>1541800</v>
       </c>
       <c r="E42" s="3">
-        <v>1564500</v>
+        <v>1351300</v>
       </c>
       <c r="F42" s="3">
-        <v>937300</v>
+        <v>809600</v>
       </c>
       <c r="G42" s="3">
-        <v>474900</v>
+        <v>410200</v>
       </c>
       <c r="H42" s="3">
-        <v>1032900</v>
+        <v>892200</v>
       </c>
       <c r="I42" s="3">
-        <v>475600</v>
+        <v>410800</v>
       </c>
       <c r="J42" s="3">
-        <v>608500</v>
+        <v>525600</v>
       </c>
       <c r="K42" s="3">
         <v>668200</v>
@@ -3598,25 +3599,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>9900</v>
+        <v>8500</v>
       </c>
       <c r="E47" s="3">
-        <v>8200</v>
+        <v>7100</v>
       </c>
       <c r="F47" s="3">
-        <v>6400</v>
+        <v>5500</v>
       </c>
       <c r="G47" s="3">
-        <v>5600</v>
+        <v>4900</v>
       </c>
       <c r="H47" s="3">
-        <v>25900</v>
+        <v>22400</v>
       </c>
       <c r="I47" s="3">
-        <v>12400</v>
+        <v>10700</v>
       </c>
       <c r="J47" s="3">
-        <v>12300</v>
+        <v>10700</v>
       </c>
       <c r="K47" s="3">
         <v>14400</v>
@@ -3681,25 +3682,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>508300</v>
+        <v>439000</v>
       </c>
       <c r="E48" s="3">
-        <v>431800</v>
+        <v>373000</v>
       </c>
       <c r="F48" s="3">
-        <v>356100</v>
+        <v>307600</v>
       </c>
       <c r="G48" s="3">
-        <v>303900</v>
+        <v>262500</v>
       </c>
       <c r="H48" s="3">
-        <v>513900</v>
+        <v>443900</v>
       </c>
       <c r="I48" s="3">
-        <v>240300</v>
+        <v>207500</v>
       </c>
       <c r="J48" s="3">
-        <v>216400</v>
+        <v>186900</v>
       </c>
       <c r="K48" s="3">
         <v>242500</v>
@@ -3764,25 +3765,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>87000</v>
+        <v>75200</v>
       </c>
       <c r="E49" s="3">
-        <v>74900</v>
+        <v>64700</v>
       </c>
       <c r="F49" s="3">
-        <v>60300</v>
+        <v>52100</v>
       </c>
       <c r="G49" s="3">
-        <v>48500</v>
+        <v>41900</v>
       </c>
       <c r="H49" s="3">
-        <v>81700</v>
+        <v>70600</v>
       </c>
       <c r="I49" s="3">
-        <v>37600</v>
+        <v>32500</v>
       </c>
       <c r="J49" s="3">
-        <v>33200</v>
+        <v>28700</v>
       </c>
       <c r="K49" s="3">
         <v>36300</v>
@@ -4013,25 +4014,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>44600</v>
+        <v>38500</v>
       </c>
       <c r="E52" s="3">
-        <v>26700</v>
+        <v>23100</v>
       </c>
       <c r="F52" s="3">
-        <v>22400</v>
+        <v>19400</v>
       </c>
       <c r="G52" s="3">
-        <v>18900</v>
+        <v>16300</v>
       </c>
       <c r="H52" s="3">
-        <v>32000</v>
+        <v>27600</v>
       </c>
       <c r="I52" s="3">
-        <v>15100</v>
+        <v>13000</v>
       </c>
       <c r="J52" s="3">
-        <v>14400</v>
+        <v>12500</v>
       </c>
       <c r="K52" s="3">
         <v>16300</v>
@@ -4179,25 +4180,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>10431400</v>
+        <v>9009900</v>
       </c>
       <c r="E54" s="3">
-        <v>8808000</v>
+        <v>7607700</v>
       </c>
       <c r="F54" s="3">
-        <v>6866800</v>
+        <v>5931100</v>
       </c>
       <c r="G54" s="3">
-        <v>5691800</v>
+        <v>4916100</v>
       </c>
       <c r="H54" s="3">
-        <v>9697800</v>
+        <v>8376300</v>
       </c>
       <c r="I54" s="3">
-        <v>4486600</v>
+        <v>3875200</v>
       </c>
       <c r="J54" s="3">
-        <v>4046400</v>
+        <v>3494900</v>
       </c>
       <c r="K54" s="3">
         <v>4778600</v>
@@ -4324,25 +4325,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>674100</v>
+        <v>582200</v>
       </c>
       <c r="E57" s="3">
-        <v>424000</v>
+        <v>366200</v>
       </c>
       <c r="F57" s="3">
-        <v>357400</v>
+        <v>308700</v>
       </c>
       <c r="G57" s="3">
-        <v>298100</v>
+        <v>257500</v>
       </c>
       <c r="H57" s="3">
-        <v>655100</v>
+        <v>565800</v>
       </c>
       <c r="I57" s="3">
-        <v>232600</v>
+        <v>200900</v>
       </c>
       <c r="J57" s="3">
-        <v>201400</v>
+        <v>174000</v>
       </c>
       <c r="K57" s="3">
         <v>311200</v>
@@ -4490,25 +4491,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>54100</v>
+        <v>46800</v>
       </c>
       <c r="E59" s="3">
-        <v>33600</v>
+        <v>29000</v>
       </c>
       <c r="F59" s="3">
-        <v>3200</v>
+        <v>2800</v>
       </c>
       <c r="G59" s="3">
-        <v>2800</v>
+        <v>2400</v>
       </c>
       <c r="H59" s="3">
-        <v>3400</v>
+        <v>2900</v>
       </c>
       <c r="I59" s="3">
-        <v>12100</v>
+        <v>10500</v>
       </c>
       <c r="J59" s="3">
-        <v>7900</v>
+        <v>6800</v>
       </c>
       <c r="K59" s="3">
         <v>29500</v>
@@ -4656,25 +4657,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>385700</v>
+        <v>333100</v>
       </c>
       <c r="E61" s="3">
-        <v>328000</v>
+        <v>283300</v>
       </c>
       <c r="F61" s="3">
-        <v>276000</v>
+        <v>238400</v>
       </c>
       <c r="G61" s="3">
-        <v>255200</v>
+        <v>220400</v>
       </c>
       <c r="H61" s="3">
-        <v>441300</v>
+        <v>381200</v>
       </c>
       <c r="I61" s="3">
-        <v>220400</v>
+        <v>190400</v>
       </c>
       <c r="J61" s="3">
-        <v>210700</v>
+        <v>182000</v>
       </c>
       <c r="K61" s="3">
         <v>276800</v>
@@ -4739,25 +4740,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>79800</v>
+        <v>68900</v>
       </c>
       <c r="E62" s="3">
-        <v>81400</v>
+        <v>70300</v>
       </c>
       <c r="F62" s="3">
-        <v>59400</v>
+        <v>51300</v>
       </c>
       <c r="G62" s="3">
-        <v>47700</v>
+        <v>41200</v>
       </c>
       <c r="H62" s="3">
-        <v>71300</v>
+        <v>61600</v>
       </c>
       <c r="I62" s="3">
-        <v>45800</v>
+        <v>39600</v>
       </c>
       <c r="J62" s="3">
-        <v>50000</v>
+        <v>43200</v>
       </c>
       <c r="K62" s="3">
         <v>59200</v>
@@ -5071,25 +5072,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>7874400</v>
+        <v>6801400</v>
       </c>
       <c r="E66" s="3">
-        <v>6688000</v>
+        <v>5776600</v>
       </c>
       <c r="F66" s="3">
-        <v>5173600</v>
+        <v>4468600</v>
       </c>
       <c r="G66" s="3">
-        <v>4282900</v>
+        <v>3699300</v>
       </c>
       <c r="H66" s="3">
-        <v>7378900</v>
+        <v>6373400</v>
       </c>
       <c r="I66" s="3">
-        <v>3454500</v>
+        <v>2983700</v>
       </c>
       <c r="J66" s="3">
-        <v>3135700</v>
+        <v>2708400</v>
       </c>
       <c r="K66" s="3">
         <v>3717500</v>
@@ -5517,25 +5518,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1627000</v>
+        <v>1405300</v>
       </c>
       <c r="E72" s="3">
-        <v>1327100</v>
+        <v>1146300</v>
       </c>
       <c r="F72" s="3">
-        <v>1043200</v>
+        <v>901100</v>
       </c>
       <c r="G72" s="3">
-        <v>854700</v>
+        <v>738200</v>
       </c>
       <c r="H72" s="3">
-        <v>1389000</v>
+        <v>1199700</v>
       </c>
       <c r="I72" s="3">
-        <v>599000</v>
+        <v>517400</v>
       </c>
       <c r="J72" s="3">
-        <v>514300</v>
+        <v>444200</v>
       </c>
       <c r="K72" s="3">
         <v>614300</v>
@@ -5849,25 +5850,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2556900</v>
+        <v>2208500</v>
       </c>
       <c r="E76" s="3">
-        <v>2119900</v>
+        <v>1831000</v>
       </c>
       <c r="F76" s="3">
-        <v>1693200</v>
+        <v>1462500</v>
       </c>
       <c r="G76" s="3">
-        <v>1408800</v>
+        <v>1216800</v>
       </c>
       <c r="H76" s="3">
-        <v>2318900</v>
+        <v>2002900</v>
       </c>
       <c r="I76" s="3">
-        <v>1032200</v>
+        <v>891500</v>
       </c>
       <c r="J76" s="3">
-        <v>910600</v>
+        <v>786600</v>
       </c>
       <c r="K76" s="3">
         <v>1061000</v>
@@ -6103,25 +6104,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>102300</v>
+        <v>88400</v>
       </c>
       <c r="E81" s="3">
-        <v>44200</v>
+        <v>38200</v>
       </c>
       <c r="F81" s="3">
-        <v>68200</v>
+        <v>58900</v>
       </c>
       <c r="G81" s="3">
-        <v>35200</v>
+        <v>30400</v>
       </c>
       <c r="H81" s="3">
-        <v>126200</v>
+        <v>109000</v>
       </c>
       <c r="I81" s="3">
-        <v>67200</v>
+        <v>58000</v>
       </c>
       <c r="J81" s="3">
-        <v>70300</v>
+        <v>60700</v>
       </c>
       <c r="K81" s="3">
         <v>24800</v>
@@ -6217,25 +6218,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>28000</v>
+        <v>24100</v>
       </c>
       <c r="E83" s="3">
+        <v>19100</v>
+      </c>
+      <c r="F83" s="3">
+        <v>22500</v>
+      </c>
+      <c r="G83" s="3">
+        <v>9400</v>
+      </c>
+      <c r="H83" s="3">
         <v>22100</v>
       </c>
-      <c r="F83" s="3">
-        <v>26000</v>
-      </c>
-      <c r="G83" s="3">
-        <v>10900</v>
-      </c>
-      <c r="H83" s="3">
-        <v>25500</v>
-      </c>
       <c r="I83" s="3">
-        <v>20300</v>
+        <v>17500</v>
       </c>
       <c r="J83" s="3">
-        <v>23400</v>
+        <v>20200</v>
       </c>
       <c r="K83" s="3">
         <v>12500</v>
@@ -6715,25 +6716,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-8700</v>
+        <v>-7500</v>
       </c>
       <c r="E89" s="3">
-        <v>194600</v>
+        <v>168100</v>
       </c>
       <c r="F89" s="3">
-        <v>159400</v>
+        <v>137700</v>
       </c>
       <c r="G89" s="3">
-        <v>100400</v>
+        <v>86700</v>
       </c>
       <c r="H89" s="3">
-        <v>-184000</v>
+        <v>-158900</v>
       </c>
       <c r="I89" s="3">
-        <v>-1100</v>
+        <v>-1000</v>
       </c>
       <c r="J89" s="3">
-        <v>-311600</v>
+        <v>-269100</v>
       </c>
       <c r="K89" s="3">
         <v>-176200</v>
@@ -6829,25 +6830,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-35700</v>
+        <v>-7145000</v>
       </c>
       <c r="E91" s="3">
-        <v>-52200</v>
+        <v>-10466600</v>
       </c>
       <c r="F91" s="3">
-        <v>-33500</v>
+        <v>-5183800</v>
       </c>
       <c r="G91" s="3">
-        <v>-7600</v>
+        <v>-1531100</v>
       </c>
       <c r="H91" s="3">
-        <v>-7700</v>
+        <v>-3640300</v>
       </c>
       <c r="I91" s="3">
-        <v>-11100</v>
+        <v>-4657400</v>
       </c>
       <c r="J91" s="3">
-        <v>-15600</v>
+        <v>-3125900</v>
       </c>
       <c r="K91" s="3">
         <v>-8100</v>
@@ -7078,25 +7079,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-35700</v>
+        <v>-30800</v>
       </c>
       <c r="E94" s="3">
-        <v>-52200</v>
+        <v>-45100</v>
       </c>
       <c r="F94" s="3">
-        <v>-33500</v>
+        <v>-28900</v>
       </c>
       <c r="G94" s="3">
-        <v>-7600</v>
+        <v>-6600</v>
       </c>
       <c r="H94" s="3">
-        <v>-7900</v>
+        <v>-6800</v>
       </c>
       <c r="I94" s="3">
-        <v>-11100</v>
+        <v>-9600</v>
       </c>
       <c r="J94" s="3">
-        <v>-15600</v>
+        <v>-13500</v>
       </c>
       <c r="K94" s="3">
         <v>-8100</v>
@@ -7192,13 +7193,13 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-31000</v>
+        <v>-26800</v>
       </c>
       <c r="E96" s="3">
-        <v>-27900</v>
+        <v>-24100</v>
       </c>
       <c r="F96" s="3">
-        <v>-36300</v>
+        <v>-31400</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
@@ -7524,25 +7525,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-48200</v>
+        <v>-41600</v>
       </c>
       <c r="E100" s="3">
-        <v>-32600</v>
+        <v>-28100</v>
       </c>
       <c r="F100" s="3">
-        <v>-43900</v>
+        <v>-37900</v>
       </c>
       <c r="G100" s="3">
-        <v>7000</v>
+        <v>6100</v>
       </c>
       <c r="H100" s="3">
-        <v>-13300</v>
+        <v>-11500</v>
       </c>
       <c r="I100" s="3">
-        <v>-3900</v>
+        <v>-3400</v>
       </c>
       <c r="J100" s="3">
-        <v>-25700</v>
+        <v>-22200</v>
       </c>
       <c r="K100" s="3">
         <v>-1400</v>
@@ -7607,25 +7608,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>258800</v>
+        <v>223500</v>
       </c>
       <c r="E101" s="3">
-        <v>218100</v>
+        <v>188400</v>
       </c>
       <c r="F101" s="3">
-        <v>153400</v>
+        <v>132500</v>
       </c>
       <c r="G101" s="3">
-        <v>53500</v>
+        <v>46200</v>
       </c>
       <c r="H101" s="3">
-        <v>80400</v>
+        <v>69500</v>
       </c>
       <c r="I101" s="3">
-        <v>60700</v>
+        <v>52400</v>
       </c>
       <c r="J101" s="3">
-        <v>122300</v>
+        <v>105600</v>
       </c>
       <c r="K101" s="3">
         <v>101600</v>
@@ -7690,25 +7691,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>166200</v>
+        <v>143600</v>
       </c>
       <c r="E102" s="3">
-        <v>327900</v>
+        <v>283200</v>
       </c>
       <c r="F102" s="3">
-        <v>235400</v>
+        <v>203300</v>
       </c>
       <c r="G102" s="3">
-        <v>153200</v>
+        <v>132300</v>
       </c>
       <c r="H102" s="3">
-        <v>-169900</v>
+        <v>-146800</v>
       </c>
       <c r="I102" s="3">
-        <v>9300</v>
+        <v>8000</v>
       </c>
       <c r="J102" s="3">
-        <v>-278300</v>
+        <v>-240300</v>
       </c>
       <c r="K102" s="3">
         <v>-120100</v>

--- a/AAII_Financials/Quarterly/BMA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BMA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="92">
   <si>
     <t>BMA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,220 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1119100</v>
+        <v>878400</v>
       </c>
       <c r="E8" s="3">
-        <v>591200</v>
+        <v>809300</v>
       </c>
       <c r="F8" s="3">
-        <v>929500</v>
+        <v>742600</v>
       </c>
       <c r="G8" s="3">
-        <v>348100</v>
+        <v>392300</v>
       </c>
       <c r="H8" s="3">
-        <v>686200</v>
+        <v>616800</v>
       </c>
       <c r="I8" s="3">
+        <v>231000</v>
+      </c>
+      <c r="J8" s="3">
+        <v>455400</v>
+      </c>
+      <c r="K8" s="3">
         <v>393600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>812800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>512000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>492600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>408400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>870500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>485300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>646500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>525600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>979700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>491300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>293900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>228100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>199300</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>187400</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>239600</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>203500</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AB8" s="3">
         <v>179400</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AC8" s="3">
         <v>195300</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AD8" s="3">
         <v>198300</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AE8" s="3">
         <v>194100</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -946,8 +960,14 @@
       <c r="AC9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1029,8 +1049,14 @@
       <c r="AC10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1060,8 +1086,10 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1143,8 +1171,14 @@
       <c r="AC12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1226,8 +1260,14 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1309,91 +1349,103 @@
       <c r="AC14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-24100</v>
+        <v>-17700</v>
       </c>
       <c r="E15" s="3">
-        <v>-14200</v>
+        <v>-17300</v>
       </c>
       <c r="F15" s="3">
-        <v>-27400</v>
+        <v>-16000</v>
       </c>
       <c r="G15" s="3">
-        <v>-11100</v>
+        <v>-9400</v>
       </c>
       <c r="H15" s="3">
-        <v>-22100</v>
+        <v>-18200</v>
       </c>
       <c r="I15" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="J15" s="3">
+        <v>-14600</v>
+      </c>
+      <c r="K15" s="3">
         <v>-13100</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>-24700</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>-14600</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>-13400</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>-11300</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>-25200</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>-13100</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>-14100</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="S15" s="3">
         <v>-9800</v>
       </c>
-      <c r="R15" s="3">
+      <c r="T15" s="3">
         <v>-18800</v>
       </c>
-      <c r="S15" s="3">
+      <c r="U15" s="3">
         <v>-10000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="V15" s="3">
         <v>-2600</v>
       </c>
-      <c r="U15" s="3">
+      <c r="W15" s="3">
         <v>-2500</v>
       </c>
-      <c r="V15" s="3">
+      <c r="X15" s="3">
         <v>-2500</v>
       </c>
-      <c r="W15" s="3">
+      <c r="Y15" s="3">
         <v>-2700</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Z15" s="3">
         <v>-5900</v>
-      </c>
-      <c r="Y15" s="3">
-        <v>-5000</v>
-      </c>
-      <c r="Z15" s="3">
-        <v>-4500</v>
       </c>
       <c r="AA15" s="3">
         <v>-5000</v>
       </c>
       <c r="AB15" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="AC15" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="AD15" s="3">
         <v>-2900</v>
       </c>
-      <c r="AC15" s="3">
+      <c r="AE15" s="3">
         <v>-2700</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1420,174 +1472,188 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>631300</v>
+        <v>585400</v>
       </c>
       <c r="E17" s="3">
-        <v>325000</v>
+        <v>475900</v>
       </c>
       <c r="F17" s="3">
-        <v>398900</v>
+        <v>418900</v>
       </c>
       <c r="G17" s="3">
-        <v>140200</v>
+        <v>215700</v>
       </c>
       <c r="H17" s="3">
-        <v>285400</v>
+        <v>264700</v>
       </c>
       <c r="I17" s="3">
+        <v>93100</v>
+      </c>
+      <c r="J17" s="3">
+        <v>189400</v>
+      </c>
+      <c r="K17" s="3">
         <v>161000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>367900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>241900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>248600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>193400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>322300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>164900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>249300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>234600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>490200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>252200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>152500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>98000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>74600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>65500</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>79300</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>71700</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>64600</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AC17" s="3">
         <v>69100</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AD17" s="3">
         <v>96500</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AE17" s="3">
         <v>96400</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>487700</v>
+        <v>292900</v>
       </c>
       <c r="E18" s="3">
-        <v>266100</v>
+        <v>333400</v>
       </c>
       <c r="F18" s="3">
-        <v>530600</v>
+        <v>323700</v>
       </c>
       <c r="G18" s="3">
-        <v>207800</v>
+        <v>176600</v>
       </c>
       <c r="H18" s="3">
-        <v>400800</v>
+        <v>352100</v>
       </c>
       <c r="I18" s="3">
+        <v>137900</v>
+      </c>
+      <c r="J18" s="3">
+        <v>266000</v>
+      </c>
+      <c r="K18" s="3">
         <v>232600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>444900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>270000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>244100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>215000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>548300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>320400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>397100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>290900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>489500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>239000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>141300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>130100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>124700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>121900</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>160300</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>131700</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AB18" s="3">
         <v>114800</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AC18" s="3">
         <v>126200</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AD18" s="3">
         <v>101800</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AE18" s="3">
         <v>97600</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1617,174 +1683,188 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-369700</v>
+        <v>-111400</v>
       </c>
       <c r="E20" s="3">
-        <v>-194300</v>
+        <v>-279100</v>
       </c>
       <c r="F20" s="3">
-        <v>-451200</v>
+        <v>-245300</v>
       </c>
       <c r="G20" s="3">
-        <v>-169500</v>
+        <v>-128900</v>
       </c>
       <c r="H20" s="3">
-        <v>-313400</v>
+        <v>-299400</v>
       </c>
       <c r="I20" s="3">
+        <v>-112500</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-207900</v>
+      </c>
+      <c r="K20" s="3">
         <v>-172300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-351000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-218900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-179700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-126200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-268900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-152800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-228100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-208000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>-288200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>-114200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>-48200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>-54800</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>-60200</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>-36100</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>-62700</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="AA20" s="3">
         <v>-33700</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AB20" s="3">
         <v>-35900</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AC20" s="3">
         <v>-44500</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AD20" s="3">
         <v>-35400</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AE20" s="3">
         <v>-31300</v>
       </c>
     </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>142200</v>
+        <v>202500</v>
       </c>
       <c r="E21" s="3">
-        <v>90900</v>
+        <v>68300</v>
       </c>
       <c r="F21" s="3">
+        <v>94400</v>
+      </c>
+      <c r="G21" s="3">
+        <v>60300</v>
+      </c>
+      <c r="H21" s="3">
+        <v>67600</v>
+      </c>
+      <c r="I21" s="3">
+        <v>31700</v>
+      </c>
+      <c r="J21" s="3">
+        <v>72700</v>
+      </c>
+      <c r="K21" s="3">
+        <v>77800</v>
+      </c>
+      <c r="L21" s="3">
+        <v>114200</v>
+      </c>
+      <c r="M21" s="3">
+        <v>63600</v>
+      </c>
+      <c r="N21" s="3">
+        <v>77700</v>
+      </c>
+      <c r="O21" s="3">
         <v>101900</v>
       </c>
-      <c r="G21" s="3">
-        <v>47800</v>
-      </c>
-      <c r="H21" s="3">
-        <v>109500</v>
-      </c>
-      <c r="I21" s="3">
+      <c r="P21" s="3">
+        <v>302500</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>179500</v>
+      </c>
+      <c r="R21" s="3">
+        <v>183100</v>
+      </c>
+      <c r="S21" s="3">
+        <v>94000</v>
+      </c>
+      <c r="T21" s="3">
+        <v>218800</v>
+      </c>
+      <c r="U21" s="3">
+        <v>134400</v>
+      </c>
+      <c r="V21" s="3">
+        <v>95800</v>
+      </c>
+      <c r="W21" s="3">
         <v>77800</v>
       </c>
-      <c r="J21" s="3">
-        <v>114200</v>
-      </c>
-      <c r="K21" s="3">
-        <v>63600</v>
-      </c>
-      <c r="L21" s="3">
-        <v>77700</v>
-      </c>
-      <c r="M21" s="3">
-        <v>101900</v>
-      </c>
-      <c r="N21" s="3">
-        <v>302500</v>
-      </c>
-      <c r="O21" s="3">
-        <v>179500</v>
-      </c>
-      <c r="P21" s="3">
-        <v>183100</v>
-      </c>
-      <c r="Q21" s="3">
-        <v>94000</v>
-      </c>
-      <c r="R21" s="3">
-        <v>218800</v>
-      </c>
-      <c r="S21" s="3">
-        <v>134400</v>
-      </c>
-      <c r="T21" s="3">
-        <v>95800</v>
-      </c>
-      <c r="U21" s="3">
-        <v>77800</v>
-      </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>67100</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>88500</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>101700</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>101400</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AB21" s="3">
         <v>81800</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AC21" s="3">
         <v>85100</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AD21" s="3">
         <v>66600</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AE21" s="3">
         <v>66500</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1866,174 +1946,192 @@
       <c r="AC22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>118100</v>
+        <v>181500</v>
       </c>
       <c r="E23" s="3">
-        <v>71800</v>
+        <v>54300</v>
       </c>
       <c r="F23" s="3">
-        <v>79400</v>
+        <v>78400</v>
       </c>
       <c r="G23" s="3">
-        <v>38300</v>
+        <v>47700</v>
       </c>
       <c r="H23" s="3">
-        <v>87400</v>
+        <v>52700</v>
       </c>
       <c r="I23" s="3">
+        <v>25400</v>
+      </c>
+      <c r="J23" s="3">
+        <v>58000</v>
+      </c>
+      <c r="K23" s="3">
         <v>60300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>94000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>51100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>64300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>88800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>279400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>167600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>169000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>82900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>201300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>124900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>93100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>75300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>64500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>85800</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>97600</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>98000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>78800</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AC23" s="3">
         <v>81700</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AD23" s="3">
         <v>66400</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AE23" s="3">
         <v>66400</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>29700</v>
+        <v>55200</v>
       </c>
       <c r="E24" s="3">
-        <v>33600</v>
+        <v>19700</v>
       </c>
       <c r="F24" s="3">
-        <v>20600</v>
+        <v>19700</v>
       </c>
       <c r="G24" s="3">
-        <v>8000</v>
+        <v>22300</v>
       </c>
       <c r="H24" s="3">
-        <v>-21500</v>
+        <v>13700</v>
       </c>
       <c r="I24" s="3">
+        <v>5300</v>
+      </c>
+      <c r="J24" s="3">
+        <v>-14300</v>
+      </c>
+      <c r="K24" s="3">
         <v>2200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>33300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>26300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>15900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>35100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>94700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>61900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>69800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>-10800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>119500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>73800</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>29000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>23300</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>18600</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>26900</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>25800</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="AA24" s="3">
         <v>34900</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AB24" s="3">
         <v>27400</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AC24" s="3">
         <v>28700</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AD24" s="3">
         <v>22000</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AE24" s="3">
         <v>23600</v>
       </c>
     </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2115,174 +2213,192 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>88400</v>
+        <v>126300</v>
       </c>
       <c r="E26" s="3">
-        <v>38300</v>
+        <v>34600</v>
       </c>
       <c r="F26" s="3">
-        <v>58800</v>
+        <v>58700</v>
       </c>
       <c r="G26" s="3">
-        <v>30400</v>
+        <v>25400</v>
       </c>
       <c r="H26" s="3">
-        <v>109000</v>
+        <v>39000</v>
       </c>
       <c r="I26" s="3">
+        <v>20200</v>
+      </c>
+      <c r="J26" s="3">
+        <v>72300</v>
+      </c>
+      <c r="K26" s="3">
         <v>58000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>60700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>24800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>48400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>53700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>184700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>105700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>99200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>93700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>81800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>51100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>64100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>52000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>45900</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>58900</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>71800</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>63200</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>51500</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AC26" s="3">
         <v>53000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AD26" s="3">
         <v>44400</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AE26" s="3">
         <v>42700</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>88400</v>
+        <v>126200</v>
       </c>
       <c r="E27" s="3">
-        <v>38200</v>
+        <v>34600</v>
       </c>
       <c r="F27" s="3">
-        <v>58900</v>
+        <v>58600</v>
       </c>
       <c r="G27" s="3">
-        <v>30400</v>
+        <v>25400</v>
       </c>
       <c r="H27" s="3">
-        <v>109000</v>
+        <v>39100</v>
       </c>
       <c r="I27" s="3">
+        <v>20200</v>
+      </c>
+      <c r="J27" s="3">
+        <v>72300</v>
+      </c>
+      <c r="K27" s="3">
         <v>58000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>60700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>24800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>48400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>53700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>184700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>105700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>99200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>93700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>81800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>51100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>64700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>51900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>45600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>58600</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>71200</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>62700</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>51000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AC27" s="3">
         <v>52500</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AD27" s="3">
         <v>44400</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AE27" s="3">
         <v>42700</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2364,8 +2480,14 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2447,8 +2569,14 @@
       <c r="AC29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2530,8 +2658,14 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2613,174 +2747,192 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>369700</v>
+        <v>111400</v>
       </c>
       <c r="E32" s="3">
-        <v>194300</v>
+        <v>279100</v>
       </c>
       <c r="F32" s="3">
-        <v>451200</v>
+        <v>245300</v>
       </c>
       <c r="G32" s="3">
-        <v>169500</v>
+        <v>128900</v>
       </c>
       <c r="H32" s="3">
-        <v>313400</v>
+        <v>299400</v>
       </c>
       <c r="I32" s="3">
+        <v>112500</v>
+      </c>
+      <c r="J32" s="3">
+        <v>207900</v>
+      </c>
+      <c r="K32" s="3">
         <v>172300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>351000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>218900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>179700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>126200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>268900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>152800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>228100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>208000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>288200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>114200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>48200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>54800</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>60200</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>36100</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>62700</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="AA32" s="3">
         <v>33700</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AB32" s="3">
         <v>35900</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AC32" s="3">
         <v>44500</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AD32" s="3">
         <v>35400</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AE32" s="3">
         <v>31300</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>88400</v>
+        <v>126200</v>
       </c>
       <c r="E33" s="3">
-        <v>38200</v>
+        <v>34600</v>
       </c>
       <c r="F33" s="3">
-        <v>58900</v>
+        <v>58600</v>
       </c>
       <c r="G33" s="3">
-        <v>30400</v>
+        <v>25400</v>
       </c>
       <c r="H33" s="3">
-        <v>109000</v>
+        <v>39100</v>
       </c>
       <c r="I33" s="3">
+        <v>20200</v>
+      </c>
+      <c r="J33" s="3">
+        <v>72300</v>
+      </c>
+      <c r="K33" s="3">
         <v>58000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>60700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>24800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>48400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>53700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>184700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>105700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>99200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>93700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>81800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>51100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>64700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>51900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>45600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>58600</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>71200</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>62700</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AB33" s="3">
         <v>51000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AC33" s="3">
         <v>52500</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AD33" s="3">
         <v>44400</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AE33" s="3">
         <v>42700</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2862,179 +3014,197 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>88400</v>
+        <v>126200</v>
       </c>
       <c r="E35" s="3">
-        <v>38200</v>
+        <v>34600</v>
       </c>
       <c r="F35" s="3">
-        <v>58900</v>
+        <v>58600</v>
       </c>
       <c r="G35" s="3">
-        <v>30400</v>
+        <v>25400</v>
       </c>
       <c r="H35" s="3">
-        <v>109000</v>
+        <v>39100</v>
       </c>
       <c r="I35" s="3">
+        <v>20200</v>
+      </c>
+      <c r="J35" s="3">
+        <v>72300</v>
+      </c>
+      <c r="K35" s="3">
         <v>58000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>60700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>24800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>48400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>53700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>184700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>105700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>99200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>93700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>81800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>51100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>64700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>51900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>45600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>58600</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>71200</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>62700</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AB35" s="3">
         <v>51000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AC35" s="3">
         <v>52500</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AD35" s="3">
         <v>44400</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AE35" s="3">
         <v>42700</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3064,8 +3234,10 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3095,174 +3267,188 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>737700</v>
+        <v>661600</v>
       </c>
       <c r="E41" s="3">
-        <v>575800</v>
+        <v>619100</v>
       </c>
       <c r="F41" s="3">
-        <v>547100</v>
+        <v>489500</v>
       </c>
       <c r="G41" s="3">
-        <v>554500</v>
+        <v>382100</v>
       </c>
       <c r="H41" s="3">
-        <v>1118900</v>
+        <v>363000</v>
       </c>
       <c r="I41" s="3">
+        <v>367900</v>
+      </c>
+      <c r="J41" s="3">
+        <v>742500</v>
+      </c>
+      <c r="K41" s="3">
         <v>511100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>425800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>620800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>710400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>629900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>536100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>896600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>1045100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>724200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>842100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>812600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>757200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>807800</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>661100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>454500</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>823900</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>700900</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AB41" s="3">
         <v>660600</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AC41" s="3">
         <v>744300</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AD41" s="3">
         <v>924100</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AE41" s="3">
         <v>607900</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1541800</v>
+        <v>2401600</v>
       </c>
       <c r="E42" s="3">
-        <v>1351300</v>
+        <v>1198600</v>
       </c>
       <c r="F42" s="3">
-        <v>809600</v>
+        <v>1023100</v>
       </c>
       <c r="G42" s="3">
-        <v>410200</v>
+        <v>896700</v>
       </c>
       <c r="H42" s="3">
-        <v>892200</v>
+        <v>537200</v>
       </c>
       <c r="I42" s="3">
+        <v>272200</v>
+      </c>
+      <c r="J42" s="3">
+        <v>592000</v>
+      </c>
+      <c r="K42" s="3">
         <v>410800</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>525600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>668200</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>1426200</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>715100</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>1065800</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>360600</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>526400</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>321400</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>214600</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>173100</v>
       </c>
-      <c r="T42" s="3">
+      <c r="V42" s="3">
         <v>210900</v>
       </c>
-      <c r="U42" s="3">
+      <c r="W42" s="3">
         <v>164000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="X42" s="3">
         <v>136800</v>
       </c>
-      <c r="W42" s="3">
+      <c r="Y42" s="3">
         <v>61700</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Z42" s="3">
         <v>432500</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="AA42" s="3">
         <v>396500</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AB42" s="3">
         <v>357300</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AC42" s="3">
         <v>163500</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AD42" s="3">
         <v>188700</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AE42" s="3">
         <v>176500</v>
       </c>
     </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3344,8 +3530,14 @@
       <c r="AC43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3427,8 +3619,14 @@
       <c r="AC44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3510,8 +3708,14 @@
       <c r="AC45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3593,257 +3797,281 @@
       <c r="AC46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>8500</v>
+        <v>7300</v>
       </c>
       <c r="E47" s="3">
-        <v>7100</v>
+        <v>7300</v>
       </c>
       <c r="F47" s="3">
-        <v>5500</v>
+        <v>5700</v>
       </c>
       <c r="G47" s="3">
-        <v>4900</v>
+        <v>4700</v>
       </c>
       <c r="H47" s="3">
-        <v>22400</v>
+        <v>3600</v>
       </c>
       <c r="I47" s="3">
+        <v>3200</v>
+      </c>
+      <c r="J47" s="3">
+        <v>14900</v>
+      </c>
+      <c r="K47" s="3">
         <v>10700</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>10700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>14400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>17600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>13200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>15000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>17400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>23500</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>16900</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>17300</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>20100</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>2000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="W47" s="3">
         <v>1900</v>
       </c>
-      <c r="V47" s="3">
+      <c r="X47" s="3">
         <v>2200</v>
       </c>
-      <c r="W47" s="3">
+      <c r="Y47" s="3">
         <v>6600</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Z47" s="3">
         <v>11500</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="AA47" s="3">
         <v>2100</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AB47" s="3">
         <v>800</v>
-      </c>
-      <c r="AA47" s="3">
-        <v>300</v>
-      </c>
-      <c r="AB47" s="3">
-        <v>300</v>
       </c>
       <c r="AC47" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD47" s="3">
+        <v>300</v>
+      </c>
+      <c r="AE47" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>439000</v>
+        <v>440000</v>
       </c>
       <c r="E48" s="3">
-        <v>373000</v>
+        <v>355900</v>
       </c>
       <c r="F48" s="3">
-        <v>307600</v>
+        <v>291300</v>
       </c>
       <c r="G48" s="3">
-        <v>262500</v>
+        <v>247500</v>
       </c>
       <c r="H48" s="3">
-        <v>443900</v>
+        <v>204100</v>
       </c>
       <c r="I48" s="3">
+        <v>174200</v>
+      </c>
+      <c r="J48" s="3">
+        <v>294600</v>
+      </c>
+      <c r="K48" s="3">
         <v>207500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>186900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>242500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>323700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>224900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>245400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>273400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>360300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>109900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>107300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>121500</v>
-      </c>
-      <c r="T48" s="3">
-        <v>111100</v>
-      </c>
-      <c r="U48" s="3">
-        <v>107200</v>
       </c>
       <c r="V48" s="3">
         <v>111100</v>
       </c>
       <c r="W48" s="3">
+        <v>107200</v>
+      </c>
+      <c r="X48" s="3">
+        <v>111100</v>
+      </c>
+      <c r="Y48" s="3">
         <v>119600</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>161500</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>35600</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AB48" s="3">
         <v>34100</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AC48" s="3">
         <v>39400</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AD48" s="3">
         <v>38200</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AE48" s="3">
         <v>34700</v>
       </c>
     </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>75200</v>
+        <v>77200</v>
       </c>
       <c r="E49" s="3">
-        <v>64700</v>
+        <v>62400</v>
       </c>
       <c r="F49" s="3">
-        <v>52100</v>
+        <v>49900</v>
       </c>
       <c r="G49" s="3">
-        <v>41900</v>
+        <v>42900</v>
       </c>
       <c r="H49" s="3">
-        <v>70600</v>
+        <v>34600</v>
       </c>
       <c r="I49" s="3">
+        <v>27800</v>
+      </c>
+      <c r="J49" s="3">
+        <v>46800</v>
+      </c>
+      <c r="K49" s="3">
         <v>32500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>28700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>36300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>48100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>32300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>35200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>39200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>49600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>21100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>19800</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>19100</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>17300</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>15600</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>14500</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>15700</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Z49" s="3">
         <v>40500</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="AA49" s="3">
         <v>19200</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AB49" s="3">
         <v>17700</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AC49" s="3">
         <v>19900</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AD49" s="3">
         <v>17400</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AE49" s="3">
         <v>16200</v>
       </c>
     </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3925,8 +4153,14 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4008,80 +4242,86 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>38500</v>
+        <v>37700</v>
       </c>
       <c r="E52" s="3">
-        <v>23100</v>
+        <v>30400</v>
       </c>
       <c r="F52" s="3">
-        <v>19400</v>
+        <v>25500</v>
       </c>
       <c r="G52" s="3">
+        <v>15300</v>
+      </c>
+      <c r="H52" s="3">
+        <v>12800</v>
+      </c>
+      <c r="I52" s="3">
+        <v>10800</v>
+      </c>
+      <c r="J52" s="3">
+        <v>18300</v>
+      </c>
+      <c r="K52" s="3">
+        <v>13000</v>
+      </c>
+      <c r="L52" s="3">
+        <v>12500</v>
+      </c>
+      <c r="M52" s="3">
         <v>16300</v>
       </c>
-      <c r="H52" s="3">
-        <v>27600</v>
-      </c>
-      <c r="I52" s="3">
-        <v>13000</v>
-      </c>
-      <c r="J52" s="3">
-        <v>12500</v>
-      </c>
-      <c r="K52" s="3">
-        <v>16300</v>
-      </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>21900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>16900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>18000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>19900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>25100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>33100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>5500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>7900</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>10500</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>2500</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>2500</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>2400</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Z52" s="3">
         <v>5200</v>
       </c>
-      <c r="Y52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AA52" s="3" t="s">
         <v>5</v>
       </c>
@@ -4091,8 +4331,14 @@
       <c r="AC52" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4174,91 +4420,103 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>9009900</v>
+        <v>9095900</v>
       </c>
       <c r="E54" s="3">
-        <v>7607700</v>
+        <v>6950200</v>
       </c>
       <c r="F54" s="3">
-        <v>5931100</v>
+        <v>5978700</v>
       </c>
       <c r="G54" s="3">
-        <v>4916100</v>
+        <v>5048200</v>
       </c>
       <c r="H54" s="3">
-        <v>8376300</v>
+        <v>3935700</v>
       </c>
       <c r="I54" s="3">
+        <v>3262200</v>
+      </c>
+      <c r="J54" s="3">
+        <v>5558300</v>
+      </c>
+      <c r="K54" s="3">
         <v>3875200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>3494900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>4778600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>7251500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>5319700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>5334300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>5027300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>6208800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>4139300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>4255000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>4816300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>4230600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>4222300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>3978200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>3829400</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>5192200</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>4733600</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>4307400</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AC54" s="3">
         <v>4371900</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AD54" s="3">
         <v>4057900</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AE54" s="3">
         <v>3580900</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4288,8 +4546,10 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4319,91 +4579,99 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>582200</v>
+        <v>673000</v>
       </c>
       <c r="E57" s="3">
-        <v>366200</v>
+        <v>437600</v>
       </c>
       <c r="F57" s="3">
-        <v>308700</v>
+        <v>386400</v>
       </c>
       <c r="G57" s="3">
-        <v>257500</v>
+        <v>243000</v>
       </c>
       <c r="H57" s="3">
-        <v>565800</v>
+        <v>204900</v>
       </c>
       <c r="I57" s="3">
+        <v>170900</v>
+      </c>
+      <c r="J57" s="3">
+        <v>375500</v>
+      </c>
+      <c r="K57" s="3">
         <v>200900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>174000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>311200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>463600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>208500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>245600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>233000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>310300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>171800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>157400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>205100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>189000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>173600</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>163900</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>150300</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>374000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>219100</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AB57" s="3">
         <v>219900</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AC57" s="3">
         <v>222000</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AD57" s="3">
         <v>239200</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AE57" s="3">
         <v>182100</v>
       </c>
     </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4485,91 +4753,103 @@
       <c r="AC58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>46800</v>
+        <v>64900</v>
       </c>
       <c r="E59" s="3">
-        <v>29000</v>
+        <v>32600</v>
       </c>
       <c r="F59" s="3">
-        <v>2800</v>
+        <v>31000</v>
       </c>
       <c r="G59" s="3">
-        <v>2400</v>
+        <v>19300</v>
       </c>
       <c r="H59" s="3">
-        <v>2900</v>
+        <v>1800</v>
       </c>
       <c r="I59" s="3">
+        <v>1600</v>
+      </c>
+      <c r="J59" s="3">
+        <v>2000</v>
+      </c>
+      <c r="K59" s="3">
         <v>10500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>6800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>29500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>48500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>72500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>63900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>102100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>113900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>46300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>44000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>56400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>36400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>28600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>26100</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>67300</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>91200</v>
       </c>
-      <c r="Y59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z59" s="3">
-        <v>0</v>
-      </c>
       <c r="AA59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AB59" s="3" t="s">
-        <v>5</v>
+      <c r="AB59" s="3">
+        <v>0</v>
       </c>
       <c r="AC59" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4651,174 +4931,192 @@
       <c r="AC60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD60" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>333100</v>
+        <v>318900</v>
       </c>
       <c r="E61" s="3">
-        <v>283300</v>
+        <v>269400</v>
       </c>
       <c r="F61" s="3">
-        <v>238400</v>
+        <v>221100</v>
       </c>
       <c r="G61" s="3">
-        <v>220400</v>
+        <v>188000</v>
       </c>
       <c r="H61" s="3">
-        <v>381200</v>
+        <v>158200</v>
       </c>
       <c r="I61" s="3">
+        <v>146200</v>
+      </c>
+      <c r="J61" s="3">
+        <v>252900</v>
+      </c>
+      <c r="K61" s="3">
         <v>190400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>182000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>276800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>378100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>271100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>294900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>326700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>449000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>340100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>271400</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>336400</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>304400</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>360300</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>316200</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>225800</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Z61" s="3">
         <v>308600</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="AA61" s="3">
         <v>285000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AB61" s="3">
         <v>270200</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AC61" s="3">
         <v>166300</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AD61" s="3">
         <v>211200</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AE61" s="3">
         <v>104400</v>
       </c>
     </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>68900</v>
+        <v>66900</v>
       </c>
       <c r="E62" s="3">
-        <v>70300</v>
+        <v>56400</v>
       </c>
       <c r="F62" s="3">
-        <v>51300</v>
+        <v>45700</v>
       </c>
       <c r="G62" s="3">
-        <v>41200</v>
+        <v>46700</v>
       </c>
       <c r="H62" s="3">
-        <v>61600</v>
+        <v>34100</v>
       </c>
       <c r="I62" s="3">
+        <v>27300</v>
+      </c>
+      <c r="J62" s="3">
+        <v>40900</v>
+      </c>
+      <c r="K62" s="3">
         <v>39600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>43200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>59200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>71500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>30300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>45000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>15800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>22900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>13700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>15900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>17000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>15700</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>12600</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>14600</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>18100</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Z62" s="3">
         <v>27300</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="AA62" s="3">
         <v>11000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AB62" s="3">
         <v>8600</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AC62" s="3">
         <v>9200</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AD62" s="3">
         <v>8800</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AE62" s="3">
         <v>7700</v>
       </c>
     </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4900,8 +5198,14 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4983,8 +5287,14 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5066,91 +5376,103 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>6801400</v>
+        <v>6971400</v>
       </c>
       <c r="E66" s="3">
-        <v>5776600</v>
+        <v>5140600</v>
       </c>
       <c r="F66" s="3">
-        <v>4468600</v>
+        <v>4513200</v>
       </c>
       <c r="G66" s="3">
-        <v>3699300</v>
+        <v>3833200</v>
       </c>
       <c r="H66" s="3">
-        <v>6373400</v>
+        <v>2965200</v>
       </c>
       <c r="I66" s="3">
+        <v>2454800</v>
+      </c>
+      <c r="J66" s="3">
+        <v>4229200</v>
+      </c>
+      <c r="K66" s="3">
         <v>2983700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>2708400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>3717500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>5856800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>4344700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>4317500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>3846100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>4741300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>3354200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>3589400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>4050100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>3556400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>3530700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>3244100</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>3001500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>4124700</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>3813200</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>3485500</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AC66" s="3">
         <v>3746900</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AD66" s="3">
         <v>3479100</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AE66" s="3">
         <v>3046600</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5180,8 +5502,10 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5263,8 +5587,14 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5346,8 +5676,14 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5429,8 +5765,14 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5512,91 +5854,103 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1405300</v>
+        <v>1321400</v>
       </c>
       <c r="E72" s="3">
-        <v>1146300</v>
+        <v>1160700</v>
       </c>
       <c r="F72" s="3">
-        <v>901100</v>
+        <v>932500</v>
       </c>
       <c r="G72" s="3">
-        <v>738200</v>
+        <v>760600</v>
       </c>
       <c r="H72" s="3">
-        <v>1199700</v>
+        <v>597900</v>
       </c>
       <c r="I72" s="3">
+        <v>489900</v>
+      </c>
+      <c r="J72" s="3">
+        <v>796100</v>
+      </c>
+      <c r="K72" s="3">
         <v>517400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>444200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>614300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>797700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>560500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>565700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>683300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>815900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>650700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>526600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>604400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>512500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>513800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>542300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>611300</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>881500</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>613400</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>553800</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>599000</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AD72" s="3">
         <v>552900</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AE72" s="3">
         <v>508500</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5678,8 +6032,14 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5761,8 +6121,14 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5844,91 +6210,103 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2208500</v>
+        <v>2124500</v>
       </c>
       <c r="E76" s="3">
-        <v>1831000</v>
+        <v>1809500</v>
       </c>
       <c r="F76" s="3">
-        <v>1462500</v>
+        <v>1465500</v>
       </c>
       <c r="G76" s="3">
-        <v>1216800</v>
+        <v>1215000</v>
       </c>
       <c r="H76" s="3">
-        <v>2002900</v>
+        <v>970500</v>
       </c>
       <c r="I76" s="3">
+        <v>807500</v>
+      </c>
+      <c r="J76" s="3">
+        <v>1329100</v>
+      </c>
+      <c r="K76" s="3">
         <v>891500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>786600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>1061000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>1394700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>975000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>1016800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>1181200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>1467500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>785100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>665600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>766100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>674200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>691600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>734100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>827900</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>1067500</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>920300</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>821900</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AC76" s="3">
         <v>624900</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AD76" s="3">
         <v>578700</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AE76" s="3">
         <v>534400</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6010,179 +6388,197 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>88400</v>
+        <v>126200</v>
       </c>
       <c r="E81" s="3">
-        <v>38200</v>
+        <v>34600</v>
       </c>
       <c r="F81" s="3">
-        <v>58900</v>
+        <v>58600</v>
       </c>
       <c r="G81" s="3">
-        <v>30400</v>
+        <v>25400</v>
       </c>
       <c r="H81" s="3">
-        <v>109000</v>
+        <v>39100</v>
       </c>
       <c r="I81" s="3">
+        <v>20200</v>
+      </c>
+      <c r="J81" s="3">
+        <v>72300</v>
+      </c>
+      <c r="K81" s="3">
         <v>58000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>60700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>24800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>48400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>53700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>184700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>105700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>99200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>93700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>81800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>51100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>64700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>51900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>45600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>58600</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>71200</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>62700</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AB81" s="3">
         <v>51000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AC81" s="3">
         <v>52500</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AD81" s="3">
         <v>44400</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AE81" s="3">
         <v>42700</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6212,91 +6608,99 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>24100</v>
+        <v>21000</v>
       </c>
       <c r="E83" s="3">
-        <v>19100</v>
+        <v>14000</v>
       </c>
       <c r="F83" s="3">
-        <v>22500</v>
+        <v>16000</v>
       </c>
       <c r="G83" s="3">
-        <v>9400</v>
+        <v>12700</v>
       </c>
       <c r="H83" s="3">
-        <v>22100</v>
+        <v>14900</v>
       </c>
       <c r="I83" s="3">
+        <v>6300</v>
+      </c>
+      <c r="J83" s="3">
+        <v>14600</v>
+      </c>
+      <c r="K83" s="3">
         <v>17500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>20200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>12500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>13400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>13100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>23100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>11800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>14100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>11100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>17400</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>9500</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>2600</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>2500</v>
       </c>
-      <c r="V83" s="3">
+      <c r="X83" s="3">
         <v>2500</v>
       </c>
-      <c r="W83" s="3">
+      <c r="Y83" s="3">
         <v>2700</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Z83" s="3">
         <v>4100</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="AA83" s="3">
         <v>3300</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AB83" s="3">
         <v>3000</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AC83" s="3">
         <v>3400</v>
       </c>
-      <c r="AB83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC83" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE83" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6378,8 +6782,14 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6461,8 +6871,14 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6544,8 +6960,14 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6627,8 +7049,14 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6710,91 +7138,103 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-7500</v>
+        <v>-799900</v>
       </c>
       <c r="E89" s="3">
-        <v>168100</v>
+        <v>14700</v>
       </c>
       <c r="F89" s="3">
-        <v>137700</v>
+        <v>-5000</v>
       </c>
       <c r="G89" s="3">
-        <v>86700</v>
+        <v>111500</v>
       </c>
       <c r="H89" s="3">
-        <v>-158900</v>
+        <v>91400</v>
       </c>
       <c r="I89" s="3">
+        <v>57500</v>
+      </c>
+      <c r="J89" s="3">
+        <v>-105400</v>
+      </c>
+      <c r="K89" s="3">
         <v>-1000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-269100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-176200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-75600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>138400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>511700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>107500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-30900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-546700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>621800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>493200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>240700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>129100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>554900</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>38600</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>50500</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>-394400</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AB89" s="3">
         <v>104700</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AC89" s="3">
         <v>7500</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AD89" s="3">
         <v>-92100</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AE89" s="3">
         <v>237600</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6824,91 +7264,99 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-6702200</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-5216900</v>
+      </c>
+      <c r="F91" s="3">
         <v>-7145000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-10466600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-5183800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-1531100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-3640300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-4657400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-3125900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-8100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-7800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-7300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-12100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-7900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-10000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-11900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-17000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-9600</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-8300</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-8600</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-6700</v>
       </c>
-      <c r="W91" s="3">
+      <c r="Y91" s="3">
         <v>-3300</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Z91" s="3">
         <v>-2900</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="AA91" s="3">
         <v>-2000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AB91" s="3">
         <v>-1100</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AC91" s="3">
         <v>-10200</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AD91" s="3">
         <v>-3500</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AE91" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6990,8 +7438,14 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7073,91 +7527,103 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-30800</v>
+        <v>-19200</v>
       </c>
       <c r="E94" s="3">
-        <v>-45100</v>
+        <v>-14900</v>
       </c>
       <c r="F94" s="3">
-        <v>-28900</v>
+        <v>-20400</v>
       </c>
       <c r="G94" s="3">
-        <v>-6600</v>
+        <v>-29900</v>
       </c>
       <c r="H94" s="3">
-        <v>-6800</v>
+        <v>-19200</v>
       </c>
       <c r="I94" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="K94" s="3">
         <v>-9600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-13500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-8100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-7800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-7300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-12100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-7900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-10000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-11900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-17000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-9600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-8300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-8600</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-6700</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-3300</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>-8700</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="AA94" s="3">
         <v>-8200</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AB94" s="3">
         <v>-4900</v>
-      </c>
-      <c r="AA94" s="3">
-        <v>-7800</v>
-      </c>
-      <c r="AB94" s="3">
-        <v>-7200</v>
       </c>
       <c r="AC94" s="3">
         <v>-7800</v>
       </c>
-    </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD94" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="AE94" s="3">
+        <v>-7800</v>
+      </c>
+    </row>
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7187,25 +7653,27 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-26800</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-24100</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-31400</v>
+        <v>-17800</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-16000</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-20800</v>
       </c>
       <c r="I96" s="3">
         <v>0</v>
@@ -7235,14 +7703,14 @@
         <v>0</v>
       </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
         <v>-67800</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
       <c r="U96" s="3">
         <v>0</v>
       </c>
@@ -7268,10 +7736,16 @@
         <v>0</v>
       </c>
       <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE96" s="3">
         <v>-16800</v>
       </c>
     </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7353,8 +7827,14 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7436,8 +7916,14 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7519,253 +8005,277 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-41600</v>
+        <v>-20100</v>
       </c>
       <c r="E100" s="3">
-        <v>-28100</v>
+        <v>3400</v>
       </c>
       <c r="F100" s="3">
-        <v>-37900</v>
+        <v>-27600</v>
       </c>
       <c r="G100" s="3">
-        <v>6100</v>
+        <v>-18700</v>
       </c>
       <c r="H100" s="3">
-        <v>-11500</v>
+        <v>-25200</v>
       </c>
       <c r="I100" s="3">
+        <v>4000</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="K100" s="3">
         <v>-3400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-22200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-1400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-13100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-7600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-32400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-19200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-19000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-5100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-89600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-7600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-39800</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>-69400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>-6700</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>-800</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>-19600</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>47000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AB100" s="3">
         <v>337200</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AC100" s="3">
         <v>-46300</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AD100" s="3">
         <v>95100</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AE100" s="3">
         <v>-18900</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>223500</v>
+        <v>224200</v>
       </c>
       <c r="E101" s="3">
-        <v>188400</v>
+        <v>118600</v>
       </c>
       <c r="F101" s="3">
-        <v>132500</v>
+        <v>148300</v>
       </c>
       <c r="G101" s="3">
-        <v>46200</v>
+        <v>125000</v>
       </c>
       <c r="H101" s="3">
-        <v>69500</v>
+        <v>87900</v>
       </c>
       <c r="I101" s="3">
+        <v>30600</v>
+      </c>
+      <c r="J101" s="3">
+        <v>46100</v>
+      </c>
+      <c r="K101" s="3">
         <v>52400</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>105600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>101600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>93200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>88100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>145000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>69300</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>100200</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>349300</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>89700</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>102200</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>-42100</v>
       </c>
-      <c r="U101" s="3">
+      <c r="W101" s="3">
         <v>159800</v>
       </c>
-      <c r="V101" s="3">
+      <c r="X101" s="3">
         <v>99400</v>
       </c>
-      <c r="W101" s="3">
+      <c r="Y101" s="3">
         <v>23600</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Z101" s="3">
         <v>18300</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="AA101" s="3">
         <v>33900</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AB101" s="3">
         <v>40700</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AC101" s="3">
         <v>10300</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AD101" s="3">
         <v>27000</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AE101" s="3">
         <v>27700</v>
       </c>
     </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>143600</v>
+        <v>-614900</v>
       </c>
       <c r="E102" s="3">
-        <v>283200</v>
+        <v>121800</v>
       </c>
       <c r="F102" s="3">
-        <v>203300</v>
+        <v>95300</v>
       </c>
       <c r="G102" s="3">
-        <v>132300</v>
+        <v>187900</v>
       </c>
       <c r="H102" s="3">
-        <v>-146800</v>
+        <v>134900</v>
       </c>
       <c r="I102" s="3">
+        <v>87800</v>
+      </c>
+      <c r="J102" s="3">
+        <v>-97400</v>
+      </c>
+      <c r="K102" s="3">
         <v>8000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-240300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-120100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-12400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>202800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>589800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>138200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-57100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-328800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>576100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>553400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>149500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>210900</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>647800</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>50200</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>51200</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>-288400</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AB102" s="3">
         <v>352000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AC102" s="3">
         <v>-36300</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AD102" s="3">
         <v>22800</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AE102" s="3">
         <v>238500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BMA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BMA_QTR_FIN.xlsx
@@ -794,25 +794,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>878400</v>
+        <v>869200</v>
       </c>
       <c r="E8" s="3">
-        <v>809300</v>
+        <v>800800</v>
       </c>
       <c r="F8" s="3">
-        <v>742600</v>
+        <v>734800</v>
       </c>
       <c r="G8" s="3">
-        <v>392300</v>
+        <v>388200</v>
       </c>
       <c r="H8" s="3">
-        <v>616800</v>
+        <v>610300</v>
       </c>
       <c r="I8" s="3">
-        <v>231000</v>
+        <v>228500</v>
       </c>
       <c r="J8" s="3">
-        <v>455400</v>
+        <v>450600</v>
       </c>
       <c r="K8" s="3">
         <v>393600</v>
@@ -1361,25 +1361,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-17700</v>
+        <v>-17500</v>
       </c>
       <c r="E15" s="3">
-        <v>-17300</v>
+        <v>-17100</v>
       </c>
       <c r="F15" s="3">
-        <v>-16000</v>
+        <v>-15900</v>
       </c>
       <c r="G15" s="3">
-        <v>-9400</v>
+        <v>-9300</v>
       </c>
       <c r="H15" s="3">
-        <v>-18200</v>
+        <v>-18000</v>
       </c>
       <c r="I15" s="3">
-        <v>-7400</v>
+        <v>-7300</v>
       </c>
       <c r="J15" s="3">
-        <v>-14600</v>
+        <v>-14500</v>
       </c>
       <c r="K15" s="3">
         <v>-13100</v>
@@ -1480,25 +1480,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>585400</v>
+        <v>579300</v>
       </c>
       <c r="E17" s="3">
-        <v>475900</v>
+        <v>470900</v>
       </c>
       <c r="F17" s="3">
-        <v>418900</v>
+        <v>414500</v>
       </c>
       <c r="G17" s="3">
-        <v>215700</v>
+        <v>213400</v>
       </c>
       <c r="H17" s="3">
-        <v>264700</v>
+        <v>261900</v>
       </c>
       <c r="I17" s="3">
-        <v>93100</v>
+        <v>92100</v>
       </c>
       <c r="J17" s="3">
-        <v>189400</v>
+        <v>187400</v>
       </c>
       <c r="K17" s="3">
         <v>161000</v>
@@ -1569,25 +1569,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>292900</v>
+        <v>289900</v>
       </c>
       <c r="E18" s="3">
-        <v>333400</v>
+        <v>329900</v>
       </c>
       <c r="F18" s="3">
-        <v>323700</v>
+        <v>320300</v>
       </c>
       <c r="G18" s="3">
-        <v>176600</v>
+        <v>174700</v>
       </c>
       <c r="H18" s="3">
-        <v>352100</v>
+        <v>348400</v>
       </c>
       <c r="I18" s="3">
-        <v>137900</v>
+        <v>136500</v>
       </c>
       <c r="J18" s="3">
-        <v>266000</v>
+        <v>263200</v>
       </c>
       <c r="K18" s="3">
         <v>232600</v>
@@ -1691,25 +1691,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-111400</v>
+        <v>-110300</v>
       </c>
       <c r="E20" s="3">
-        <v>-279100</v>
+        <v>-276200</v>
       </c>
       <c r="F20" s="3">
-        <v>-245300</v>
+        <v>-242700</v>
       </c>
       <c r="G20" s="3">
-        <v>-128900</v>
+        <v>-127600</v>
       </c>
       <c r="H20" s="3">
-        <v>-299400</v>
+        <v>-296300</v>
       </c>
       <c r="I20" s="3">
-        <v>-112500</v>
+        <v>-111300</v>
       </c>
       <c r="J20" s="3">
-        <v>-207900</v>
+        <v>-205800</v>
       </c>
       <c r="K20" s="3">
         <v>-172300</v>
@@ -1780,25 +1780,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>202500</v>
+        <v>200400</v>
       </c>
       <c r="E21" s="3">
-        <v>68300</v>
+        <v>67600</v>
       </c>
       <c r="F21" s="3">
-        <v>94400</v>
+        <v>93400</v>
       </c>
       <c r="G21" s="3">
-        <v>60300</v>
+        <v>59700</v>
       </c>
       <c r="H21" s="3">
-        <v>67600</v>
+        <v>66900</v>
       </c>
       <c r="I21" s="3">
-        <v>31700</v>
+        <v>31400</v>
       </c>
       <c r="J21" s="3">
-        <v>72700</v>
+        <v>71900</v>
       </c>
       <c r="K21" s="3">
         <v>77800</v>
@@ -1958,25 +1958,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>181500</v>
+        <v>179600</v>
       </c>
       <c r="E23" s="3">
-        <v>54300</v>
+        <v>53800</v>
       </c>
       <c r="F23" s="3">
-        <v>78400</v>
+        <v>77500</v>
       </c>
       <c r="G23" s="3">
-        <v>47700</v>
+        <v>47200</v>
       </c>
       <c r="H23" s="3">
-        <v>52700</v>
+        <v>52200</v>
       </c>
       <c r="I23" s="3">
-        <v>25400</v>
+        <v>25200</v>
       </c>
       <c r="J23" s="3">
-        <v>58000</v>
+        <v>57400</v>
       </c>
       <c r="K23" s="3">
         <v>60300</v>
@@ -2047,25 +2047,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>55200</v>
+        <v>54600</v>
       </c>
       <c r="E24" s="3">
-        <v>19700</v>
+        <v>19500</v>
       </c>
       <c r="F24" s="3">
-        <v>19700</v>
+        <v>19500</v>
       </c>
       <c r="G24" s="3">
-        <v>22300</v>
+        <v>22000</v>
       </c>
       <c r="H24" s="3">
-        <v>13700</v>
+        <v>13500</v>
       </c>
       <c r="I24" s="3">
-        <v>5300</v>
+        <v>5200</v>
       </c>
       <c r="J24" s="3">
-        <v>-14300</v>
+        <v>-14100</v>
       </c>
       <c r="K24" s="3">
         <v>2200</v>
@@ -2225,25 +2225,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>126300</v>
+        <v>125000</v>
       </c>
       <c r="E26" s="3">
-        <v>34600</v>
+        <v>34200</v>
       </c>
       <c r="F26" s="3">
-        <v>58700</v>
+        <v>58000</v>
       </c>
       <c r="G26" s="3">
-        <v>25400</v>
+        <v>25100</v>
       </c>
       <c r="H26" s="3">
-        <v>39000</v>
+        <v>38600</v>
       </c>
       <c r="I26" s="3">
-        <v>20200</v>
+        <v>19900</v>
       </c>
       <c r="J26" s="3">
-        <v>72300</v>
+        <v>71600</v>
       </c>
       <c r="K26" s="3">
         <v>58000</v>
@@ -2314,25 +2314,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>126200</v>
+        <v>124900</v>
       </c>
       <c r="E27" s="3">
-        <v>34600</v>
+        <v>34200</v>
       </c>
       <c r="F27" s="3">
-        <v>58600</v>
+        <v>58000</v>
       </c>
       <c r="G27" s="3">
-        <v>25400</v>
+        <v>25100</v>
       </c>
       <c r="H27" s="3">
-        <v>39100</v>
+        <v>38700</v>
       </c>
       <c r="I27" s="3">
-        <v>20200</v>
+        <v>20000</v>
       </c>
       <c r="J27" s="3">
-        <v>72300</v>
+        <v>71600</v>
       </c>
       <c r="K27" s="3">
         <v>58000</v>
@@ -2759,25 +2759,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>111400</v>
+        <v>110300</v>
       </c>
       <c r="E32" s="3">
-        <v>279100</v>
+        <v>276200</v>
       </c>
       <c r="F32" s="3">
-        <v>245300</v>
+        <v>242700</v>
       </c>
       <c r="G32" s="3">
-        <v>128900</v>
+        <v>127600</v>
       </c>
       <c r="H32" s="3">
-        <v>299400</v>
+        <v>296300</v>
       </c>
       <c r="I32" s="3">
-        <v>112500</v>
+        <v>111300</v>
       </c>
       <c r="J32" s="3">
-        <v>207900</v>
+        <v>205800</v>
       </c>
       <c r="K32" s="3">
         <v>172300</v>
@@ -2848,25 +2848,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>126200</v>
+        <v>124900</v>
       </c>
       <c r="E33" s="3">
-        <v>34600</v>
+        <v>34200</v>
       </c>
       <c r="F33" s="3">
-        <v>58600</v>
+        <v>58000</v>
       </c>
       <c r="G33" s="3">
-        <v>25400</v>
+        <v>25100</v>
       </c>
       <c r="H33" s="3">
-        <v>39100</v>
+        <v>38700</v>
       </c>
       <c r="I33" s="3">
-        <v>20200</v>
+        <v>20000</v>
       </c>
       <c r="J33" s="3">
-        <v>72300</v>
+        <v>71600</v>
       </c>
       <c r="K33" s="3">
         <v>58000</v>
@@ -3026,25 +3026,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>126200</v>
+        <v>124900</v>
       </c>
       <c r="E35" s="3">
-        <v>34600</v>
+        <v>34200</v>
       </c>
       <c r="F35" s="3">
-        <v>58600</v>
+        <v>58000</v>
       </c>
       <c r="G35" s="3">
-        <v>25400</v>
+        <v>25100</v>
       </c>
       <c r="H35" s="3">
-        <v>39100</v>
+        <v>38700</v>
       </c>
       <c r="I35" s="3">
-        <v>20200</v>
+        <v>20000</v>
       </c>
       <c r="J35" s="3">
-        <v>72300</v>
+        <v>71600</v>
       </c>
       <c r="K35" s="3">
         <v>58000</v>
@@ -3275,25 +3275,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>661600</v>
+        <v>654700</v>
       </c>
       <c r="E41" s="3">
-        <v>619100</v>
+        <v>612600</v>
       </c>
       <c r="F41" s="3">
-        <v>489500</v>
+        <v>484400</v>
       </c>
       <c r="G41" s="3">
-        <v>382100</v>
+        <v>378100</v>
       </c>
       <c r="H41" s="3">
-        <v>363000</v>
+        <v>359200</v>
       </c>
       <c r="I41" s="3">
-        <v>367900</v>
+        <v>364100</v>
       </c>
       <c r="J41" s="3">
-        <v>742500</v>
+        <v>734700</v>
       </c>
       <c r="K41" s="3">
         <v>511100</v>
@@ -3364,25 +3364,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>2401600</v>
+        <v>2376400</v>
       </c>
       <c r="E42" s="3">
-        <v>1198600</v>
+        <v>1186000</v>
       </c>
       <c r="F42" s="3">
-        <v>1023100</v>
+        <v>1012300</v>
       </c>
       <c r="G42" s="3">
-        <v>896700</v>
+        <v>887300</v>
       </c>
       <c r="H42" s="3">
-        <v>537200</v>
+        <v>531600</v>
       </c>
       <c r="I42" s="3">
-        <v>272200</v>
+        <v>269400</v>
       </c>
       <c r="J42" s="3">
-        <v>592000</v>
+        <v>585800</v>
       </c>
       <c r="K42" s="3">
         <v>410800</v>
@@ -3809,16 +3809,16 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>7300</v>
+        <v>7200</v>
       </c>
       <c r="E47" s="3">
         <v>7300</v>
       </c>
       <c r="F47" s="3">
-        <v>5700</v>
+        <v>5600</v>
       </c>
       <c r="G47" s="3">
-        <v>4700</v>
+        <v>4600</v>
       </c>
       <c r="H47" s="3">
         <v>3600</v>
@@ -3827,7 +3827,7 @@
         <v>3200</v>
       </c>
       <c r="J47" s="3">
-        <v>14900</v>
+        <v>14700</v>
       </c>
       <c r="K47" s="3">
         <v>10700</v>
@@ -3898,25 +3898,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>440000</v>
+        <v>435400</v>
       </c>
       <c r="E48" s="3">
-        <v>355900</v>
+        <v>352100</v>
       </c>
       <c r="F48" s="3">
-        <v>291300</v>
+        <v>288300</v>
       </c>
       <c r="G48" s="3">
-        <v>247500</v>
+        <v>244900</v>
       </c>
       <c r="H48" s="3">
-        <v>204100</v>
+        <v>202000</v>
       </c>
       <c r="I48" s="3">
-        <v>174200</v>
+        <v>172400</v>
       </c>
       <c r="J48" s="3">
-        <v>294600</v>
+        <v>291500</v>
       </c>
       <c r="K48" s="3">
         <v>207500</v>
@@ -3987,25 +3987,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>77200</v>
+        <v>76400</v>
       </c>
       <c r="E49" s="3">
-        <v>62400</v>
+        <v>61700</v>
       </c>
       <c r="F49" s="3">
-        <v>49900</v>
+        <v>49400</v>
       </c>
       <c r="G49" s="3">
-        <v>42900</v>
+        <v>42500</v>
       </c>
       <c r="H49" s="3">
-        <v>34600</v>
+        <v>34200</v>
       </c>
       <c r="I49" s="3">
-        <v>27800</v>
+        <v>27500</v>
       </c>
       <c r="J49" s="3">
-        <v>46800</v>
+        <v>46300</v>
       </c>
       <c r="K49" s="3">
         <v>32500</v>
@@ -4254,25 +4254,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>37700</v>
+        <v>37300</v>
       </c>
       <c r="E52" s="3">
-        <v>30400</v>
+        <v>30100</v>
       </c>
       <c r="F52" s="3">
-        <v>25500</v>
+        <v>25300</v>
       </c>
       <c r="G52" s="3">
-        <v>15300</v>
+        <v>15100</v>
       </c>
       <c r="H52" s="3">
-        <v>12800</v>
+        <v>12700</v>
       </c>
       <c r="I52" s="3">
-        <v>10800</v>
+        <v>10700</v>
       </c>
       <c r="J52" s="3">
-        <v>18300</v>
+        <v>18100</v>
       </c>
       <c r="K52" s="3">
         <v>13000</v>
@@ -4432,25 +4432,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>9095900</v>
+        <v>9000500</v>
       </c>
       <c r="E54" s="3">
-        <v>6950200</v>
+        <v>6877300</v>
       </c>
       <c r="F54" s="3">
-        <v>5978700</v>
+        <v>5916000</v>
       </c>
       <c r="G54" s="3">
-        <v>5048200</v>
+        <v>4995300</v>
       </c>
       <c r="H54" s="3">
-        <v>3935700</v>
+        <v>3894400</v>
       </c>
       <c r="I54" s="3">
-        <v>3262200</v>
+        <v>3228000</v>
       </c>
       <c r="J54" s="3">
-        <v>5558300</v>
+        <v>5500000</v>
       </c>
       <c r="K54" s="3">
         <v>3875200</v>
@@ -4587,25 +4587,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>673000</v>
+        <v>665900</v>
       </c>
       <c r="E57" s="3">
-        <v>437600</v>
+        <v>433000</v>
       </c>
       <c r="F57" s="3">
-        <v>386400</v>
+        <v>382300</v>
       </c>
       <c r="G57" s="3">
-        <v>243000</v>
+        <v>240500</v>
       </c>
       <c r="H57" s="3">
-        <v>204900</v>
+        <v>202700</v>
       </c>
       <c r="I57" s="3">
-        <v>170900</v>
+        <v>169100</v>
       </c>
       <c r="J57" s="3">
-        <v>375500</v>
+        <v>371500</v>
       </c>
       <c r="K57" s="3">
         <v>200900</v>
@@ -4765,16 +4765,16 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>64900</v>
+        <v>64200</v>
       </c>
       <c r="E59" s="3">
-        <v>32600</v>
+        <v>32200</v>
       </c>
       <c r="F59" s="3">
-        <v>31000</v>
+        <v>30700</v>
       </c>
       <c r="G59" s="3">
-        <v>19300</v>
+        <v>19100</v>
       </c>
       <c r="H59" s="3">
         <v>1800</v>
@@ -4783,7 +4783,7 @@
         <v>1600</v>
       </c>
       <c r="J59" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="K59" s="3">
         <v>10500</v>
@@ -4943,25 +4943,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>318900</v>
+        <v>315600</v>
       </c>
       <c r="E61" s="3">
-        <v>269400</v>
+        <v>266500</v>
       </c>
       <c r="F61" s="3">
-        <v>221100</v>
+        <v>218700</v>
       </c>
       <c r="G61" s="3">
-        <v>188000</v>
+        <v>186000</v>
       </c>
       <c r="H61" s="3">
-        <v>158200</v>
+        <v>156500</v>
       </c>
       <c r="I61" s="3">
-        <v>146200</v>
+        <v>144700</v>
       </c>
       <c r="J61" s="3">
-        <v>252900</v>
+        <v>250300</v>
       </c>
       <c r="K61" s="3">
         <v>190400</v>
@@ -5032,25 +5032,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>66900</v>
+        <v>66200</v>
       </c>
       <c r="E62" s="3">
-        <v>56400</v>
+        <v>55800</v>
       </c>
       <c r="F62" s="3">
-        <v>45700</v>
+        <v>45300</v>
       </c>
       <c r="G62" s="3">
-        <v>46700</v>
+        <v>46200</v>
       </c>
       <c r="H62" s="3">
-        <v>34100</v>
+        <v>33700</v>
       </c>
       <c r="I62" s="3">
-        <v>27300</v>
+        <v>27100</v>
       </c>
       <c r="J62" s="3">
-        <v>40900</v>
+        <v>40400</v>
       </c>
       <c r="K62" s="3">
         <v>39600</v>
@@ -5388,25 +5388,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>6971400</v>
+        <v>6898300</v>
       </c>
       <c r="E66" s="3">
-        <v>5140600</v>
+        <v>5086700</v>
       </c>
       <c r="F66" s="3">
-        <v>4513200</v>
+        <v>4465900</v>
       </c>
       <c r="G66" s="3">
-        <v>3833200</v>
+        <v>3793000</v>
       </c>
       <c r="H66" s="3">
-        <v>2965200</v>
+        <v>2934100</v>
       </c>
       <c r="I66" s="3">
-        <v>2454800</v>
+        <v>2429000</v>
       </c>
       <c r="J66" s="3">
-        <v>4229200</v>
+        <v>4184800</v>
       </c>
       <c r="K66" s="3">
         <v>2983700</v>
@@ -5866,25 +5866,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1321400</v>
+        <v>1307500</v>
       </c>
       <c r="E72" s="3">
-        <v>1160700</v>
+        <v>1148500</v>
       </c>
       <c r="F72" s="3">
-        <v>932500</v>
+        <v>922700</v>
       </c>
       <c r="G72" s="3">
-        <v>760600</v>
+        <v>752600</v>
       </c>
       <c r="H72" s="3">
-        <v>597900</v>
+        <v>591600</v>
       </c>
       <c r="I72" s="3">
-        <v>489900</v>
+        <v>484700</v>
       </c>
       <c r="J72" s="3">
-        <v>796100</v>
+        <v>787700</v>
       </c>
       <c r="K72" s="3">
         <v>517400</v>
@@ -6222,25 +6222,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2124500</v>
+        <v>2102200</v>
       </c>
       <c r="E76" s="3">
-        <v>1809500</v>
+        <v>1790500</v>
       </c>
       <c r="F76" s="3">
-        <v>1465500</v>
+        <v>1450100</v>
       </c>
       <c r="G76" s="3">
-        <v>1215000</v>
+        <v>1202300</v>
       </c>
       <c r="H76" s="3">
-        <v>970500</v>
+        <v>960300</v>
       </c>
       <c r="I76" s="3">
-        <v>807500</v>
+        <v>799000</v>
       </c>
       <c r="J76" s="3">
-        <v>1329100</v>
+        <v>1315100</v>
       </c>
       <c r="K76" s="3">
         <v>891500</v>
@@ -6494,25 +6494,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>126200</v>
+        <v>124900</v>
       </c>
       <c r="E81" s="3">
-        <v>34600</v>
+        <v>34200</v>
       </c>
       <c r="F81" s="3">
-        <v>58600</v>
+        <v>58000</v>
       </c>
       <c r="G81" s="3">
-        <v>25400</v>
+        <v>25100</v>
       </c>
       <c r="H81" s="3">
-        <v>39100</v>
+        <v>38700</v>
       </c>
       <c r="I81" s="3">
-        <v>20200</v>
+        <v>20000</v>
       </c>
       <c r="J81" s="3">
-        <v>72300</v>
+        <v>71600</v>
       </c>
       <c r="K81" s="3">
         <v>58000</v>
@@ -6616,25 +6616,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>21000</v>
+        <v>20800</v>
       </c>
       <c r="E83" s="3">
-        <v>14000</v>
+        <v>13800</v>
       </c>
       <c r="F83" s="3">
-        <v>16000</v>
+        <v>15900</v>
       </c>
       <c r="G83" s="3">
-        <v>12700</v>
+        <v>12500</v>
       </c>
       <c r="H83" s="3">
-        <v>14900</v>
+        <v>14800</v>
       </c>
       <c r="I83" s="3">
-        <v>6300</v>
+        <v>6200</v>
       </c>
       <c r="J83" s="3">
-        <v>14600</v>
+        <v>14500</v>
       </c>
       <c r="K83" s="3">
         <v>17500</v>
@@ -7150,25 +7150,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-799900</v>
+        <v>-791500</v>
       </c>
       <c r="E89" s="3">
-        <v>14700</v>
+        <v>14600</v>
       </c>
       <c r="F89" s="3">
         <v>-5000</v>
       </c>
       <c r="G89" s="3">
-        <v>111500</v>
+        <v>110400</v>
       </c>
       <c r="H89" s="3">
-        <v>91400</v>
+        <v>90400</v>
       </c>
       <c r="I89" s="3">
-        <v>57500</v>
+        <v>56900</v>
       </c>
       <c r="J89" s="3">
-        <v>-105400</v>
+        <v>-104300</v>
       </c>
       <c r="K89" s="3">
         <v>-1000</v>
@@ -7539,22 +7539,22 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-19200</v>
+        <v>-19000</v>
       </c>
       <c r="E94" s="3">
-        <v>-14900</v>
+        <v>-14800</v>
       </c>
       <c r="F94" s="3">
-        <v>-20400</v>
+        <v>-20200</v>
       </c>
       <c r="G94" s="3">
-        <v>-29900</v>
+        <v>-29600</v>
       </c>
       <c r="H94" s="3">
-        <v>-19200</v>
+        <v>-19000</v>
       </c>
       <c r="I94" s="3">
-        <v>-4400</v>
+        <v>-4300</v>
       </c>
       <c r="J94" s="3">
         <v>-4500</v>
@@ -7667,13 +7667,13 @@
         <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-17800</v>
+        <v>-17600</v>
       </c>
       <c r="G96" s="3">
-        <v>-16000</v>
+        <v>-15800</v>
       </c>
       <c r="H96" s="3">
-        <v>-20800</v>
+        <v>-20600</v>
       </c>
       <c r="I96" s="3">
         <v>0</v>
@@ -8017,25 +8017,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-20100</v>
+        <v>-19900</v>
       </c>
       <c r="E100" s="3">
         <v>3400</v>
       </c>
       <c r="F100" s="3">
-        <v>-27600</v>
+        <v>-27300</v>
       </c>
       <c r="G100" s="3">
-        <v>-18700</v>
+        <v>-18500</v>
       </c>
       <c r="H100" s="3">
-        <v>-25200</v>
+        <v>-24900</v>
       </c>
       <c r="I100" s="3">
         <v>4000</v>
       </c>
       <c r="J100" s="3">
-        <v>-7600</v>
+        <v>-7500</v>
       </c>
       <c r="K100" s="3">
         <v>-3400</v>
@@ -8106,25 +8106,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>224200</v>
+        <v>221900</v>
       </c>
       <c r="E101" s="3">
-        <v>118600</v>
+        <v>117300</v>
       </c>
       <c r="F101" s="3">
-        <v>148300</v>
+        <v>146800</v>
       </c>
       <c r="G101" s="3">
-        <v>125000</v>
+        <v>123700</v>
       </c>
       <c r="H101" s="3">
-        <v>87900</v>
+        <v>87000</v>
       </c>
       <c r="I101" s="3">
-        <v>30600</v>
+        <v>30300</v>
       </c>
       <c r="J101" s="3">
-        <v>46100</v>
+        <v>45600</v>
       </c>
       <c r="K101" s="3">
         <v>52400</v>
@@ -8195,25 +8195,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-614900</v>
+        <v>-608500</v>
       </c>
       <c r="E102" s="3">
-        <v>121800</v>
+        <v>120600</v>
       </c>
       <c r="F102" s="3">
-        <v>95300</v>
+        <v>94300</v>
       </c>
       <c r="G102" s="3">
-        <v>187900</v>
+        <v>186000</v>
       </c>
       <c r="H102" s="3">
-        <v>134900</v>
+        <v>133500</v>
       </c>
       <c r="I102" s="3">
-        <v>87800</v>
+        <v>86900</v>
       </c>
       <c r="J102" s="3">
-        <v>-97400</v>
+        <v>-96400</v>
       </c>
       <c r="K102" s="3">
         <v>8000</v>
